--- a/tests/data/waarismijnstemlokaal.nl_invulformulier.xlsx
+++ b/tests/data/waarismijnstemlokaal.nl_invulformulier.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="1139">
   <si>
     <t xml:space="preserve">Toelichting</t>
   </si>
@@ -35,11 +35,11 @@
     <t xml:space="preserve">Attributen</t>
   </si>
   <si>
-    <t xml:space="preserve">Op het tabblad 'Attributen' kunt u alle stembureaus in uw gemeente toevoegen.
-Elk stembureau voegt u toe in een eigen 'Invulveld'-kolom waar u minimaal alle verplichte attributen (aangegeven met 'Y') invult.
+    <t xml:space="preserve">Op het tabblad 'Attributen' kunt u alle stembureaus/afgiftepunten in uw gemeente toevoegen.
+Elk stembureau/afgiftepunt voegt u toe in een eigen 'Invulveld'-kolom waar u minimaal alle verplichte attributen (aangegeven met 'Y') invult (NB: in sommige gevallen kan hiervan worden afgeweken zoals beschreven in de opmerkingen bij een attribuut).
 De kolommen 'Opmerkingen, 'Format' en 'Voorbeeld' helpen u daarbij. De 'Opmerkingen'-kolom geeft algemene informatie over het attribuut en geeft soms meer informatie over hoe u het veld moet invullen zoals gespecificeerd in de 'Format'-kolom. In de 'Voorbeeld'-kolom wordt een voorbeeld gegeven van hoe u het attribuut moet invullen.
 Sommige gemeenten werken met mobiele stembureaus die gedurende de dag op verschillende locaties staan. Voor mobiele stembureaus moet elke locatie apart worden ingevoerd in een eigen 'Invulveld'-kolom (vul dus hele kolom in en niet enkel de attributen die veranderen, zoals de locatie en openingstijden).
-Er zijn 1000 'Invulveld'-kolommen, aangezien de gemeente met de meeste stembureaus (Amsterdam) er bijna 800 heeft en er voor mobiele stembureaus dus meerdere 'Invulveld'-kolommen nodig zijn. Mocht dit toch niet genoeg zijn dan kunt ik gewoon extra kolommen aanmaken en ze doornummeren.</t>
+Er zijn 1000 'Invulveld'-kolommen, aangezien de gemeente met de meeste stembureaus (Amsterdam) er bijna 800 heeft en er voor mobiele stembureaus dus meerdere 'Invulveld'-kolommen nodig zijn. Mocht dit toch niet genoeg zijn dan kunt u gewoon extra kolommen aanmaken en ze doornummeren.</t>
   </si>
   <si>
     <t xml:space="preserve">Metadata</t>
@@ -3060,19 +3060,38 @@
     <t xml:space="preserve">Invulveld 1000</t>
   </si>
   <si>
-    <t xml:space="preserve">Nummer stembureau</t>
+    <t xml:space="preserve">Stembureau of Afgiftepunt</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Een stembureau is gevestigd in een stemlokaal en elk stembureau heeft een eigen nummer. Sommige stemlokalen hebben meerdere stembureaus. Elk stembureau moet apart ingevoerd ook al is de locatie (het stemlokaal) hetzelfde aangezien elk stembureau een ander nummer heeft.</t>
+    <t xml:space="preserve">Voor de Tweede Kamerverkiezingen van 2021 zijn er vanwege de maatregelen rondom het coronavirus naast stembureaus ook afgiftepunten beschikbaar. Iedereen ouder dan 70 ontvangt een stempluspas die op de post gedaan kan worden maar ook in de dagen voor en op de verkiezingsdag ingeleverd kan worden bij een afgiftepunt. Via deze standaard wordt zowel informatie over stembureaus als afgiftepunten verzameld.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keuze uit: ‘Stembureau’, ‘Afgiftepunt’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afgiftepunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stembureau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nummer stembureau of afgiftepunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een stembureau is gevestigd in een stemlokaal en elk stembureau heeft een eigen nummer. Sommige stemlokalen hebben meerdere stembureaus. Elk stembureau moet apart ingevoerd ook al is de locatie (het stemlokaal) hetzelfde aangezien elk stembureau een ander nummer heeft.
+Dit attribuut is niet verplicht voor afgiftepunten.</t>
   </si>
   <si>
     <t xml:space="preserve">cijfers</t>
   </si>
   <si>
-    <t xml:space="preserve">Naam stembureau</t>
+    <t xml:space="preserve">Naam stembureau of afgiftepunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dit attribuut is niet verplicht voor afgiftepunten.</t>
   </si>
   <si>
     <t xml:space="preserve">tekst</t>
@@ -3087,7 +3106,7 @@
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">Website van de locatie van het stembureau, indien aanwezig; Een URL moet met 'http://' of 'https://' beginnen.</t>
+    <t xml:space="preserve">Website van de locatie van het stembureau/afgiftepunt, indien aanwezig; Een URL moet met 'http://' of 'https://' beginnen.</t>
   </si>
   <si>
     <t xml:space="preserve">URL</t>
@@ -3099,8 +3118,9 @@
     <t xml:space="preserve">BAG referentie nummer</t>
   </si>
   <si>
-    <t xml:space="preserve">BAG Nummeraanduiding ID, vindbaar door het adres van het stembureau op https://bagviewer.kadaster.nl/ in te voeren en rechts onder het kopje 'Nummeraanduiding' te kijken.
-Vermeld voor mobiele stembureaus het dichtstbijzijnde BAG Nummeraanduiding ID en gebruik eventueel het 'Extra adresaanduiding'-veld om de locatie van stembureau te beschrijven. NB: de precieze locatie geeft u aan met de 'Latitude' en 'Longitude'-velden of met de ‘X’ en ‘Y’-velden.</t>
+    <t xml:space="preserve">BAG Nummeraanduiding ID, vindbaar door het adres van het stembureau/afgiftepunt op https://bagviewer.kadaster.nl/ in te voeren en rechts onder het kopje 'Nummeraanduiding' te kijken.
+Vermeld voor mobiele stembureaus of lokaties zonder BAG Nummeraanduiding ID het dichtstbijzijnde BAG Nummeraanduiding ID en gebruik eventueel het 'Extra adresaanduiding'-veld om de locatie van stembureau te beschrijven. NB: de precieze locatie geeft u aan met de 'Latitude' en 'Longitude'-velden.
+Caribisch Nederland (BES-eilanden) staat niet in de BAG. Deze gemeenten moeten “0000000000000000” (zestien keer het getal "0") invullen en het adres verplicht invullen in het ‘Extra adresaanduiding’-attribuut.</t>
   </si>
   <si>
     <t xml:space="preserve">0518200000747446</t>
@@ -3109,15 +3129,16 @@
     <t xml:space="preserve">Extra adresaanduiding</t>
   </si>
   <si>
-    <t xml:space="preserve">Eventuele extra informatie over de locatie van het stembureau. Bv. 'Ingang aan achterkant gebouw' of 'Mobiel stembureau op het midden van het plein'.</t>
+    <t xml:space="preserve">Eventuele extra informatie over de locatie van het stembureau/afgiftepunt. Bv. 'Ingang aan achterkant gebouw' of 'Mobiel stembureau op het midden van het plein'.
+Caribisch Nederland (BES-eilanden) vult verplicht hier het hele adres in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Via de deur links</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
   </si>
   <si>
-    <t xml:space="preserve">Minimaal Longitude én Latitude of X én Y moeten ingevuld zijn. (Als alle vier de velden zijn ingevuld dan worden de waarden van Longitude en Latitude gebruikt om X en Y te berekenen als er een verschil is tussen de coördinaten).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rijksdriehoekscoördinaat x (minimaal in meters, decimalen ook toegestaan).</t>
   </si>
   <si>
@@ -3134,7 +3155,7 @@
   </si>
   <si>
     <t xml:space="preserve">Lengtegraad (DD.dddddd notatie), bv. 4.3166395; minimaal 4 decimalen.
-Als u de longitude van het stembureau niet weet dan kunt u dit vinden via https://www.openstreetmap.org/. Zoom in op het stembureau, klik op de juiste locatie met de rechtermuisknop en selecteer "Show address"/"Toon adres". De latitude en longitude (in die volgorde) staan nu linksboven in de zoekbalk.</t>
+Als u de longitude van het stembureau/afgiftepunt niet weet dan kunt u dit vinden via https://www.openstreetmap.org/. Zoom in op het stembureau/afgiftepunt, klik op de juiste locatie met de rechtermuisknop en selecteer "Show address"/"Toon adres". De latitude en longitude (in die volgorde) staan nu linksboven in de zoekbalk.</t>
   </si>
   <si>
     <t xml:space="preserve">graden in DD.dddddd notatie; minimaal 4 decimalen</t>
@@ -3144,27 +3165,70 @@
   </si>
   <si>
     <t xml:space="preserve">Breedtegraad (DD.dddddd notatie), bv. 52.0775912; minimaal 4 decimalen.
-Als u de latitude van het stembureau niet weet dan kunt u dit vinden via https://www.openstreetmap.org/. Zoom in op het stembureau, klik op de juiste locatie met de rechtermuisknop en selecteer "Show address"/"Toon adres". De latitude en longitude (in die volgorde) staan nu linksboven in de zoekbalk.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Openingstijden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sommige gemeenten werken met mobiele stembureaus die gedurende de dag op verschillende locaties staan. Voor mobiele stembureaus moet elke locatie apart worden ingevoerd in een eigen 'Invulveld'-kolom (vul dus hele kolom in en niet enkel de attributen die veranderen, zoals de locatie en openingstijden).</t>
+Als u de latitude van het stembureau/afgiftepunt niet weet dan kunt u dit vinden via https://www.openstreetmap.org/. Zoom in op het stembureau/afgiftepunt, klik op de juiste locatie met de rechtermuisknop en selecteer "Show address"/"Toon adres". De latitude en longitude (in die volgorde) staan nu linksboven in de zoekbalk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openingstijden 10-03-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sommige gemeenten werken met mobiele stembureaus die gedurende de dag op verschillende locaties staan. Voor mobiele stembureaus moet elke locatie apart worden ingevoerd in een eigen 'Invulveld'-kolom (vul dus de hele kolom in en niet enkel de attributen die veranderen, zoals de locatie en openingstijden).
+Tijdens de Tweede Kamerverkiezingen van 2021 wordt er op meerdere dagen gestemd via zowel stembureaus (3 dagen) als afgiftepunten (8 dagen). Om dit te faciliteren kan er voor elke dag een rij met openingstijden worden toegevoegd.</t>
   </si>
   <si>
     <t xml:space="preserve">YYYY-MM-DDTHH:MM:SS tot YYYY-MM-DDTHH:MM:SS</t>
   </si>
   <si>
-    <t xml:space="preserve">2019-03-20T07:30:00 tot 2019-03-20T21:00:00</t>
+    <t xml:space="preserve">2021-03-10T07:30:00 tot 2021-03-10T21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openingstijden 11-03-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-11T07:30:00 tot 2021-03-11T21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openingstijden 12-03-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-12T07:30:00 tot 2021-03-12T21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openingstijden 13-03-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-13T07:30:00 tot 2021-03-13T21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openingstijden 14-03-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-14T07:30:00 tot 2021-03-14T21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openingstijden 15-03-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-15T07:30:00 tot 2021-03-15T21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openingstijden 16-03-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-16T07:30:00 tot 2021-03-16T21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openingstijden 17-03-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-17T07:30:00 tot 2021-03-17T21:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">Mindervaliden toegankelijk</t>
   </si>
   <si>
-    <t xml:space="preserve">Is het stembureau toegankelijk voor mindervaliden?
-Voor meer informatie, zie: https://vng.nl/onderwerpenindex/bestuur/verkiezingen-referenda/nieuws/toegankelijke-verkiezingen-waar-moeten-gemeenten-op-letten
-Mocht uw gemeente de toegankelijkheid van de stembureaus op basis van de ‘Checklist toegankelijkheidscriteria stemlokalen’ toetsen, dan kunt u de antwoorden onderaan dit blad invullen.</t>
+    <t xml:space="preserve">Is het stembureau/afgiftepunt toegankelijk voor mindervaliden?
+Voor meer informatie, zie:
+https://www.rijksoverheid.nl/documenten/publicaties/2018/10/25/toolkit-verkiezingen</t>
   </si>
   <si>
     <t xml:space="preserve">Y of N</t>
@@ -3173,17 +3237,44 @@
     <t xml:space="preserve">Akoestiek</t>
   </si>
   <si>
-    <t xml:space="preserve">Is de akoestiek van het stembureau geschikt voor slechthorenden?
+    <t xml:space="preserve">Is de akoestiek van het stembureau/afgiftepunt geschikt voor slechthorenden?
 Voor meer informatie, zie: https://bk.nijsnet.com/04040_Slechthorenden.aspx</t>
   </si>
   <si>
+    <t xml:space="preserve">Auditieve hulpmiddelen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welke auditieve hulpmiddelen zijn aanwezig? Dit is een vrij tekstveld.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doventolk, ringleiding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visuele hulpmiddelen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welke visuele hulpmiddelen zijn aanwezig? Dit is een vrij tekstveld.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leesloep</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mindervalide toilet aanwezig</t>
   </si>
   <si>
+    <t xml:space="preserve">Is er een mindervalide toilet aanwezig? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tellocatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is deze locatie ook een locatie waar de stemmen worden geteld?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contactgegevens</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;afdeling/functie&gt;: De afdeling of specifieke functie binnen de gemeente die zich bezig houdt met de stembureaus; ivm verduurzaming bij voorkeur dus niet de naam/contactgegevens van een persoon</t>
+    <t xml:space="preserve">&lt;afdeling/functie&gt;: De afdeling of specifieke functie binnen de gemeente die zich bezig houdt met de stembureaus/afgiftepunten; ivm verduurzaming bij voorkeur dus niet de naam/contactgegevens van een persoon</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;afdeling/functie&gt;, &lt;e-mailadres en/of telefoonnummer en/of postadres&gt;</t>
@@ -3195,501 +3286,10 @@
     <t xml:space="preserve">Beschikbaarheid</t>
   </si>
   <si>
-    <t xml:space="preserve">URL van de gemeentewebsite met data of informatie over de stembureaus (of verkiezingen); Een URL moet met 'http://' of 'https://' beginnen.</t>
+    <t xml:space="preserve">URL van de gemeentewebsite met data of informatie over de stembureaus/afgiftepunten (of verkiezingen); Een URL moet met 'http://' of 'https://' beginnen.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.stembureausindenhaag.nl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verkiezingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In het geval van waterschapsverkiezingen en verkiezingen van stadsdeelcommissies/gebiedscommissies/wijkraden kan er in sommige gemeenten niet in elk stembureau voor alle verkiezingen gestemd worden. Door Amsterdam lopen er bijvoorbeeld drie waterschappen en er kan enkel voor een waterschap gestemd worden bij stembureaus die in het gebied van het waterschap liggen. Alle gemeenten vragen we daarom in het geval van deze verkiezingen per stembureau specifiek aan te geven voor welke waterschappen/stadsdeelcommissies/gebiedscommissies/wijkraden er gestemd kunnen worden. Ook als er überhaupt maar één keuze is (bv. als er in de hele gemeente maar voor één waterschap gekozen kan worden) en ook als er in de gemeente bij elk stembureau voor alle verkiezingen gestemd kan worden.
-In het geval dat er in dit stembureau voor meerdere waterschapen/stadsdeelcommissies/gebiedscommissies/wijkraden gestemd kan worden dan scheidt u deze met een puntkomma, bv.:
-waterschapsverkiezingen voor Delfland; waterschapsverkiezingen voor Rijnland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keuze uit:
-– 'waterschapsverkiezingen voor &lt;naam van waterschap zonder "Waterschap" of "Hoogheemraadschap" voor de naam&gt;'
-– 'verkiezingen voor &lt;gebiedscommissie/wijkraad&gt; &lt;naam van gebiedscommissies/wijkraden&gt;'
-– 'verkiezingen voor stadsdeelcommissie &lt;naam van stadsdeelcommissie&gt;'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waterschapsverkiezingen voor Delfland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEREIKBAARHEID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voor meer informatie over toegankelijkheid van verkiezingen, zie: https://vng.nl/onderwerpenindex/bestuur/verkiezingen-referenda/nieuws/toegankelijke-verkiezingen-waar-moeten-gemeenten-op-letten
-En zie de ‘Checklist toegankelijkheidscriteria stemlokalen’ voor meer uitleg over de onderstaande vragen:
-https://vng.nl/files/vng/bijlage_1_checklist_toegankelijkheidscriteria_stemlokalen.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niet invullen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1 Aanduiding op openbare weg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.a Aanduiding aanwezig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.a, Ja: Verder naar vraag 1.1.b / Nee: Verder naar vraag 1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.b Aanduiding duidelijk zichtbaar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.c Aanduiding goed leesbaar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 Parkeergelegenheid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.a GPA aanwezig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.a, Ja: Verder naar vraag 1.2.c / Nee: Verder naar vraag 1.2.b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.b Aantal vrij parkeerplaatsen binnen 50m van de entree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aantal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.c Hoogteverschil tussen parkeren en trottoir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.c, Ja: Verder naar vraag 1.2.d / Nee: Verder naar vraag 1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.d Hoogteverschil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.e Type overbrugging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helling/Trap/Lift/Geen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.f Overbrugging conform ITstandaard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3 Route tussen openbare weg en entree gebouw stembureau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.a Vlak, verhard en vrij van obstakels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.a, Ja: Verder naar vraag 1.4 / Nee: Verder naar vraag 1.3.b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.b Hoogteverschil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.c Type overbrugging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lift</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.d Overbrugging conform ITstandaard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.e Obstakelvrije breedte van de route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.f Obstakelvrije hoogte van de route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4 Route tussen entree gebouw stembureau en stemruimte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.a Is er een route tussen gebouwentree en stemruimte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.a, Ja: Verder naar vraag 1.4.b / Nee: Verder naar vraag 2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.b Route duidelijk aangegeven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.c Vlak en vrij van obstakels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.c, Ja: Verder naar vraag 2.1 / Nee: Verder naar vraag 1.4.d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.d Hoogteverschil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.e Type overbrugging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.f Overbrugging conform ITstandaard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.g Obstakelvrije breedte van de route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.h Obstakelvrije hoogte van de route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.i Deuren in route bedien- en bruikbaar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4.i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BETREEDBAARHEID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 Entree (buitendeur) van gebouw 
-Stemlokaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.a Deurtype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.a, Handbediend: Verder naar vraag 2.1.b / Automatisch: Verder naar vraag 2.1.d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handbediend of Automatisch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handbediend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.b Opstelruimte aan beide zijden van de deur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.c Bedieningskracht buitendeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;40N of &gt;40N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;40N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.d Drempelhoogte (t.o.v. straat/vloer niveau)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;2cm of &gt;2cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;2cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.e Vrije doorgangsbreedte buitendeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1.e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;85cm of &gt;85cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;85cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 Tussendeuren in de route in het gebouw naar stemruimte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.a Tussendeuren aanwezig in eventuele route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.a, Ja: Verder naar vraag 2.2.b / Nee: Verder naar vraag 2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.b Deurtype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.b, Handbediend: Verder naar vraag 2.2.c / Automatisch: Verder naar vraag 2.2.e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.c Opstelruimte aan beide zijden van de deur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.d Bedieningskracht deuren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.e Drempelhoogte (t.o.v. vloer niveau)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.f Vrije doorgangsbreedte deur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 Deur stemruimte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.a Deur aanwezig naar/van stemruimte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.a, Ja: Verder naar vraag 2.3.b / Nee: Verder naar vraag 2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.b Deurtype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.b, Handbediend: Verder naar vraag 2.3.c / Automatisch: Verder naar vraag 2.3.e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.c Opstelruimte aan beide zijden van de deur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.d Bedieningskracht deur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.e Drempelhoogte (t.o.v. vloer niveau)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.f Vrije doorgangsbreedte deur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3.f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4 Tijdelijke voorzieningen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.a Zijn er tijdelijke voorzieningen aangebracht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.a, Ja: Verder naar vraag 2.4.b / Nee: Verder naar vraag 3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.b VLOERBEDEKKING: Randen over de volle lengte deugdelijk afgeplakt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.c HELLINGBAAN: Weerbestendig (alleen van toepassing bij buitentoepassing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.d HELLINGBAAN: Deugdelijk verankerd aan ondergrond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.e LEUNING BIJ HELLINGBAAN/TRAP: Leuning aanwezig en conform criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.f DORPELOVERBRUGGING: Weerbestendig (alleen van toepassing bij buitentoepassing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.g DORPELOVERBRUGGING: Deugdelijk verankerd aan ondergrond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRUIKBAARHEID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 Verkeersruimte stemlokaal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.a Obstakelvrije doorgangen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.b Vrije draaicirkel / manoeuvreerruimte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.c Idem voor stemtafel en stemhokje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.d Opstelruimte voor/naast stembus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 Stoelen in stemruimte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.a Stoelen in stemruimte aanwezig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.a, Ja: Verder naar vraag 3.2.b / Nee: Verder naar vraag 3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.b 1 op 5 Stoelen uitgevoerd met armleuningen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2.b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 Stemhokje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.a Hoogte van het laagste schrijfblad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoogte cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.b Schrijfblad onderrijdbaar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 Stembus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4.a Hoogte inworpgleuf stembiljet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4.a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoogte in cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4.b Afstand inwerpgleuf t.o.v. de opstelruimte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4.b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afstand in cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5 Leesloep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5.a Leesloep (zichtbaar) aanwezig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5.a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6 Kandidatenlijst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6.a Kandidatenlijst in stemlokaal aanwezig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6.a, Ja: Verder naar vraag 3.6.b / Nee: Checklijst gereed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6.b Opstelruimte voor de kandidatenlijst aanwezig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6.b</t>
   </si>
   <si>
     <t xml:space="preserve">Invulveld</t>
@@ -3711,7 +3311,7 @@
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;CBS gemeentecode&gt;: code bestaande uit 6 karakters, zie https://opendata.cbs.nl/statline/#/CBS/nl/dataset/83859NED/table?dl=5CA6
+    <t xml:space="preserve">&lt;CBS gemeentecode&gt;: code bestaande uit 6 karakters, zie https://opendata.cbs.nl/#/CBS/nl/dataset/84929NED/table?dl=B165
 &lt;YYYYMMDD&gt;: datum van de verkiezing
 &lt;oplopend getal&gt;: getal tussen 000 en 999</t>
   </si>
@@ -3722,11 +3322,11 @@
     <t xml:space="preserve">Omschrijving</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;verkiezing&gt;: keuze uit 'de Tweede Kamerverkiezingen', 'de gemeenteraadsverkiezingen', 'de Provinciale Statenverkiezingen', 'referendum &lt;naam van referendum&gt;', 'de eilandsraadsverkiezingen', 'de kiescollegeverkiezingen', 'de Europees Parlementsverkiezingen', 'de waterschapsverkiezingen', 'verkiezingen gebiedscommissies en wijkraden' en 'verkiezingen stadsdeelcommissies'
-&lt;datum&gt;: in format zoals '21 maart 2018'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overzicht van de locaties van stembureaus. De gegevens hebben betrekking op &lt;verkiezing&gt; op &lt;datum&gt;.</t>
+    <t xml:space="preserve">&lt;verkiezing&gt;: keuze uit 'de Tweede Kamerverkiezingen', 'de gemeenteraadsverkiezingen', 'de Provinciale Statenverkiezingen', 'referendum &lt;naam van referendum&gt;', 'de kiescollegeverkiezingen', 'de eilandsraadsverkiezingen', 'de Europees Parlementsverkiezingen', 'de waterschapsverkiezingen', 'verkiezingen gebiedscommissies en wijkraden' en 'verkiezingen stadsdeelcommissies'
+&lt;datum&gt;: in format zoals '17 maart 2021'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overzicht van de locaties van stembureaus en afgiftepunten. De gegevens hebben betrekking op &lt;verkiezing&gt; op &lt;datum&gt;.</t>
   </si>
   <si>
     <t xml:space="preserve">Eigenaar</t>
@@ -3762,7 +3362,7 @@
     <t xml:space="preserve">&lt;aard van de verkiezing&gt;: keuze uit 'Tweede Kamerverkiezingen', 'gemeenteraadsverkiezingen', 'Provinciale Statenverkiezingen', 'referendum', 'eilandsraadsverkiezingen', 'kiescollegeverkiezingen', 'Europees Parlementsverkiezingen', 'waterschapsverkiezingen', 'verkiezingen gebiedscommissies en wijkraden' en 'verkiezingen stadsdeelcommissies'</t>
   </si>
   <si>
-    <t xml:space="preserve">Verkiezingen, stembureaus, overheid, democratie, stemmen, kiesdistrict, &lt;aard van de verkiezing&gt;</t>
+    <t xml:space="preserve">verkiezingen, stembureaus, afgiftepunten, overheid, democratie, stemmen, kiesdistrict, &lt;aard van de verkiezing&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Thema</t>
@@ -3791,6 +3391,15 @@
     <t xml:space="preserve">&lt;gebied&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Datum publicatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum en tijdstip van de publicatie de dataset, weergegeven als ISO 8601 https://nl.wikipedia.org/wiki/ISO_8601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YYYY-MM-DDTHH:MM:SS+-HH:MM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Relatie / gebruik andere standaarden</t>
   </si>
   <si>
@@ -3809,13 +3418,19 @@
     <t xml:space="preserve">Update frequentie</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;datum verkiezing&gt;: in format zoals '21 maart 2018'</t>
+    <t xml:space="preserve">&lt;datum verkiezing&gt;: in format zoals '17 maart 2021'</t>
   </si>
   <si>
     <t xml:space="preserve">Incidenteel tot en met &lt;datum verkiezing&gt; (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezing)</t>
   </si>
   <si>
-    <t xml:space="preserve">Incidenteel tot en met 16 maart 2019 (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezingen)</t>
+    <t xml:space="preserve">Incidenteel tot en met 17 maart 2021 (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezingen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wijzigings datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum en tijdstip van de laatste wijziging van de dataset, weergegeven als ISO 8601 https://nl.wikipedia.org/wiki/ISO_8601</t>
   </si>
   <si>
     <t xml:space="preserve">Licentie</t>
@@ -3831,7 +3446,7 @@
 Invoer is "vast"</t>
   </si>
   <si>
-    <t xml:space="preserve">Stembureaus ODS v1.1</t>
+    <t xml:space="preserve">Stembureaus ODS 1.2</t>
   </si>
   <si>
     <t xml:space="preserve">Status</t>
@@ -3847,7 +3462,13 @@
     <t xml:space="preserve">&lt;status&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;wordt automatisch ingevuld&gt;</t>
+    <t xml:space="preserve">Beschikbare formaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSV (minimaal), GEOJSON (eventueel KML, Shape), als service REST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSV</t>
   </si>
 </sst>
 </file>
@@ -3859,7 +3480,7 @@
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3883,10 +3504,99 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <i val="true"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -3946,6 +3656,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3959,15 +3676,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3976,14 +3686,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF9C0006"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -3994,18 +3740,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -4013,8 +3759,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4038,37 +3799,91 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="11" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -4077,220 +3892,238 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="12" borderId="0" xfId="42" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="12" borderId="0" xfId="42" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="44" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="45" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="46" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="46" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="46" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="48" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="12" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="42" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="46" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="48" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="48" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="46" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="46" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="29" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="30" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="29" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="30" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="35">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading 3" xfId="21"/>
-    <cellStyle name="Heading1" xfId="22"/>
-    <cellStyle name="Result" xfId="23"/>
-    <cellStyle name="Result2" xfId="24"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="25"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="26"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="27"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="28"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="29"/>
+    <cellStyle name="Accent 1 18" xfId="21"/>
+    <cellStyle name="Accent 17" xfId="22"/>
+    <cellStyle name="Accent 2 19" xfId="23"/>
+    <cellStyle name="Accent 3 20" xfId="24"/>
+    <cellStyle name="Bad 14" xfId="25"/>
+    <cellStyle name="Error 16" xfId="26"/>
+    <cellStyle name="Footnote 9" xfId="27"/>
+    <cellStyle name="Good 12" xfId="28"/>
+    <cellStyle name="Heading 1 5" xfId="29"/>
+    <cellStyle name="Heading 2 6" xfId="30"/>
+    <cellStyle name="Heading 3" xfId="31"/>
+    <cellStyle name="Heading 4" xfId="32"/>
+    <cellStyle name="Heading1" xfId="33"/>
+    <cellStyle name="Hyperlink 10" xfId="34"/>
+    <cellStyle name="Neutral 13" xfId="35"/>
+    <cellStyle name="Note 8" xfId="36"/>
+    <cellStyle name="Result" xfId="37"/>
+    <cellStyle name="Result2" xfId="38"/>
+    <cellStyle name="Status 11" xfId="39"/>
+    <cellStyle name="Text 7" xfId="40"/>
+    <cellStyle name="Warning 15" xfId="41"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="42"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="43"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Neutral" xfId="44"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="45"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="46"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="47"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Neutral" xfId="48"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Neutral" xfId="30"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF9C0006"/>
-      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFC6EFCE"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0563C1"/>
@@ -4305,12 +4138,12 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFEB9C"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -4321,7 +4154,7 @@
       <rgbColor rgb="FFA5A5A5"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF9C5700"/>
       <rgbColor rgb="FF993366"/>
@@ -4337,18 +4170,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="82.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="10.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="2" width="10.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="78.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="10.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="2" width="10.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4361,27 +4194,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-    </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
@@ -4395,6 +4216,9 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4412,5287 +4236,3900 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:ALQ95"/>
+  <dimension ref="A1:ALQ28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="41.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="31.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="60.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="64.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="46.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="5" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="5" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1004" min="11" style="5" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1005" min="1005" style="5" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1006" style="5" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="36.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="53.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="64.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="46.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="4" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="4" width="11.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AK1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AM1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AO1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AP1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AR1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AS1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AT1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AW1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AX1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AY1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BA1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BE1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BF1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BG1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="9" t="s">
+      <c r="BH1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="9" t="s">
+      <c r="BI1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BK1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BL1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BM1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BN1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="9" t="s">
+      <c r="BO1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BP1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="BR1" s="9" t="s">
+      <c r="BR1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BS1" s="9" t="s">
+      <c r="BS1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="9" t="s">
+      <c r="BT1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="9" t="s">
+      <c r="BU1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="9" t="s">
+      <c r="BV1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="9" t="s">
+      <c r="BW1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="BX1" s="9" t="s">
+      <c r="BX1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="BY1" s="9" t="s">
+      <c r="BY1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="BZ1" s="9" t="s">
+      <c r="BZ1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="CA1" s="9" t="s">
+      <c r="CA1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="CB1" s="9" t="s">
+      <c r="CB1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="CC1" s="9" t="s">
+      <c r="CC1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="CD1" s="9" t="s">
+      <c r="CD1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="CE1" s="9" t="s">
+      <c r="CE1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="CF1" s="9" t="s">
+      <c r="CF1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="CG1" s="9" t="s">
+      <c r="CG1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="CH1" s="9" t="s">
+      <c r="CH1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="CI1" s="9" t="s">
+      <c r="CI1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="CJ1" s="9" t="s">
+      <c r="CJ1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="CK1" s="9" t="s">
+      <c r="CK1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="CL1" s="9" t="s">
+      <c r="CL1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="CM1" s="9" t="s">
+      <c r="CM1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="CN1" s="9" t="s">
+      <c r="CN1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="CO1" s="9" t="s">
+      <c r="CO1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="CP1" s="9" t="s">
+      <c r="CP1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="CQ1" s="9" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="CR1" s="9" t="s">
+      <c r="CR1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="CS1" s="9" t="s">
+      <c r="CS1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="CT1" s="9" t="s">
+      <c r="CT1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="CU1" s="9" t="s">
+      <c r="CU1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="CV1" s="9" t="s">
+      <c r="CV1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="CW1" s="9" t="s">
+      <c r="CW1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="CX1" s="9" t="s">
+      <c r="CX1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="CY1" s="9" t="s">
+      <c r="CY1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="CZ1" s="9" t="s">
+      <c r="CZ1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="DA1" s="9" t="s">
+      <c r="DA1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="DB1" s="9" t="s">
+      <c r="DB1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="DC1" s="9" t="s">
+      <c r="DC1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="DD1" s="9" t="s">
+      <c r="DD1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="DE1" s="9" t="s">
+      <c r="DE1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="DF1" s="9" t="s">
+      <c r="DF1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="DG1" s="9" t="s">
+      <c r="DG1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="DH1" s="9" t="s">
+      <c r="DH1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="DI1" s="9" t="s">
+      <c r="DI1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="DJ1" s="9" t="s">
+      <c r="DJ1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="DK1" s="9" t="s">
+      <c r="DK1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="DL1" s="9" t="s">
+      <c r="DL1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="DM1" s="9" t="s">
+      <c r="DM1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="DN1" s="9" t="s">
+      <c r="DN1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="DO1" s="9" t="s">
+      <c r="DO1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="DP1" s="9" t="s">
+      <c r="DP1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="DQ1" s="9" t="s">
+      <c r="DQ1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="DR1" s="9" t="s">
+      <c r="DR1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="DS1" s="9" t="s">
+      <c r="DS1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="DT1" s="9" t="s">
+      <c r="DT1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="DU1" s="9" t="s">
+      <c r="DU1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="DV1" s="9" t="s">
+      <c r="DV1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="DW1" s="9" t="s">
+      <c r="DW1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="DX1" s="9" t="s">
+      <c r="DX1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="DY1" s="9" t="s">
+      <c r="DY1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="DZ1" s="9" t="s">
+      <c r="DZ1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="EA1" s="9" t="s">
+      <c r="EA1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="EB1" s="9" t="s">
+      <c r="EB1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="EC1" s="9" t="s">
+      <c r="EC1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="ED1" s="9" t="s">
+      <c r="ED1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="EE1" s="9" t="s">
+      <c r="EE1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="EF1" s="9" t="s">
+      <c r="EF1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="EG1" s="9" t="s">
+      <c r="EG1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="EH1" s="9" t="s">
+      <c r="EH1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="EI1" s="9" t="s">
+      <c r="EI1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="EJ1" s="9" t="s">
+      <c r="EJ1" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="EK1" s="9" t="s">
+      <c r="EK1" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="EL1" s="9" t="s">
+      <c r="EL1" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="EM1" s="9" t="s">
+      <c r="EM1" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="EN1" s="9" t="s">
+      <c r="EN1" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="EO1" s="9" t="s">
+      <c r="EO1" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="EP1" s="9" t="s">
+      <c r="EP1" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="EQ1" s="9" t="s">
+      <c r="EQ1" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="ER1" s="9" t="s">
+      <c r="ER1" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="ES1" s="9" t="s">
+      <c r="ES1" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="ET1" s="9" t="s">
+      <c r="ET1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="EU1" s="9" t="s">
+      <c r="EU1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="EV1" s="9" t="s">
+      <c r="EV1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="EW1" s="9" t="s">
+      <c r="EW1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="EX1" s="9" t="s">
+      <c r="EX1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="EY1" s="9" t="s">
+      <c r="EY1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="EZ1" s="9" t="s">
+      <c r="EZ1" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="FA1" s="9" t="s">
+      <c r="FA1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="FB1" s="9" t="s">
+      <c r="FB1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="FC1" s="9" t="s">
+      <c r="FC1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="FD1" s="9" t="s">
+      <c r="FD1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="FE1" s="9" t="s">
+      <c r="FE1" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="FF1" s="9" t="s">
+      <c r="FF1" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="FG1" s="9" t="s">
+      <c r="FG1" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="FH1" s="9" t="s">
+      <c r="FH1" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="FI1" s="9" t="s">
+      <c r="FI1" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="FJ1" s="9" t="s">
+      <c r="FJ1" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="FK1" s="9" t="s">
+      <c r="FK1" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="FL1" s="9" t="s">
+      <c r="FL1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="FM1" s="9" t="s">
+      <c r="FM1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="FN1" s="9" t="s">
+      <c r="FN1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="FO1" s="9" t="s">
+      <c r="FO1" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="FP1" s="9" t="s">
+      <c r="FP1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="FQ1" s="9" t="s">
+      <c r="FQ1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="FR1" s="9" t="s">
+      <c r="FR1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="FS1" s="9" t="s">
+      <c r="FS1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="FT1" s="9" t="s">
+      <c r="FT1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="FU1" s="9" t="s">
+      <c r="FU1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="FV1" s="9" t="s">
+      <c r="FV1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="FW1" s="9" t="s">
+      <c r="FW1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="FX1" s="9" t="s">
+      <c r="FX1" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="FY1" s="9" t="s">
+      <c r="FY1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="FZ1" s="9" t="s">
+      <c r="FZ1" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="GA1" s="9" t="s">
+      <c r="GA1" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="GB1" s="9" t="s">
+      <c r="GB1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="GC1" s="9" t="s">
+      <c r="GC1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="GD1" s="9" t="s">
+      <c r="GD1" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="GE1" s="9" t="s">
+      <c r="GE1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="GF1" s="9" t="s">
+      <c r="GF1" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="GG1" s="9" t="s">
+      <c r="GG1" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="GH1" s="9" t="s">
+      <c r="GH1" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="GI1" s="9" t="s">
+      <c r="GI1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="GJ1" s="9" t="s">
+      <c r="GJ1" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="GK1" s="9" t="s">
+      <c r="GK1" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="GL1" s="9" t="s">
+      <c r="GL1" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="GM1" s="9" t="s">
+      <c r="GM1" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="GN1" s="9" t="s">
+      <c r="GN1" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="GO1" s="9" t="s">
+      <c r="GO1" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="GP1" s="9" t="s">
+      <c r="GP1" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="GQ1" s="9" t="s">
+      <c r="GQ1" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="GR1" s="9" t="s">
+      <c r="GR1" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="GS1" s="9" t="s">
+      <c r="GS1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="GT1" s="9" t="s">
+      <c r="GT1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="GU1" s="9" t="s">
+      <c r="GU1" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="GV1" s="9" t="s">
+      <c r="GV1" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="GW1" s="9" t="s">
+      <c r="GW1" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="GX1" s="9" t="s">
+      <c r="GX1" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="GY1" s="9" t="s">
+      <c r="GY1" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="GZ1" s="9" t="s">
+      <c r="GZ1" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="HA1" s="9" t="s">
+      <c r="HA1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="HB1" s="9" t="s">
+      <c r="HB1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="HC1" s="9" t="s">
+      <c r="HC1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="HD1" s="9" t="s">
+      <c r="HD1" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="HE1" s="9" t="s">
+      <c r="HE1" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="HF1" s="9" t="s">
+      <c r="HF1" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="HG1" s="9" t="s">
+      <c r="HG1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="HH1" s="9" t="s">
+      <c r="HH1" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="HI1" s="9" t="s">
+      <c r="HI1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="HJ1" s="9" t="s">
+      <c r="HJ1" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="HK1" s="9" t="s">
+      <c r="HK1" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="HL1" s="9" t="s">
+      <c r="HL1" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="HM1" s="9" t="s">
+      <c r="HM1" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="HN1" s="9" t="s">
+      <c r="HN1" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="HO1" s="9" t="s">
+      <c r="HO1" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="HP1" s="9" t="s">
+      <c r="HP1" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="HQ1" s="9" t="s">
+      <c r="HQ1" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="HR1" s="9" t="s">
+      <c r="HR1" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="HS1" s="9" t="s">
+      <c r="HS1" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="HT1" s="9" t="s">
+      <c r="HT1" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="HU1" s="9" t="s">
+      <c r="HU1" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="HV1" s="9" t="s">
+      <c r="HV1" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="HW1" s="9" t="s">
+      <c r="HW1" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="HX1" s="9" t="s">
+      <c r="HX1" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="HY1" s="9" t="s">
+      <c r="HY1" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="HZ1" s="9" t="s">
+      <c r="HZ1" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="IA1" s="9" t="s">
+      <c r="IA1" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="IB1" s="9" t="s">
+      <c r="IB1" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="IC1" s="9" t="s">
+      <c r="IC1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="ID1" s="9" t="s">
+      <c r="ID1" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="IE1" s="9" t="s">
+      <c r="IE1" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="IF1" s="9" t="s">
+      <c r="IF1" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="IG1" s="9" t="s">
+      <c r="IG1" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="IH1" s="9" t="s">
+      <c r="IH1" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="II1" s="9" t="s">
+      <c r="II1" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="IJ1" s="9" t="s">
+      <c r="IJ1" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="IK1" s="9" t="s">
+      <c r="IK1" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="IL1" s="9" t="s">
+      <c r="IL1" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="IM1" s="9" t="s">
+      <c r="IM1" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="IN1" s="9" t="s">
+      <c r="IN1" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="IO1" s="9" t="s">
+      <c r="IO1" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="IP1" s="9" t="s">
+      <c r="IP1" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="IQ1" s="9" t="s">
+      <c r="IQ1" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="IR1" s="9" t="s">
+      <c r="IR1" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="IS1" s="9" t="s">
+      <c r="IS1" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="IT1" s="9" t="s">
+      <c r="IT1" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="IU1" s="9" t="s">
+      <c r="IU1" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="IV1" s="9" t="s">
+      <c r="IV1" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="IW1" s="9" t="s">
+      <c r="IW1" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="IX1" s="9" t="s">
+      <c r="IX1" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="IY1" s="9" t="s">
+      <c r="IY1" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="IZ1" s="9" t="s">
+      <c r="IZ1" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="JA1" s="9" t="s">
+      <c r="JA1" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="JB1" s="9" t="s">
+      <c r="JB1" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="JC1" s="9" t="s">
+      <c r="JC1" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="JD1" s="9" t="s">
+      <c r="JD1" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="JE1" s="9" t="s">
+      <c r="JE1" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="JF1" s="9" t="s">
+      <c r="JF1" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="JG1" s="9" t="s">
+      <c r="JG1" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="JH1" s="9" t="s">
+      <c r="JH1" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="JI1" s="9" t="s">
+      <c r="JI1" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="JJ1" s="9" t="s">
+      <c r="JJ1" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="JK1" s="9" t="s">
+      <c r="JK1" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="JL1" s="9" t="s">
+      <c r="JL1" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="JM1" s="9" t="s">
+      <c r="JM1" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="JN1" s="9" t="s">
+      <c r="JN1" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="JO1" s="9" t="s">
+      <c r="JO1" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="JP1" s="9" t="s">
+      <c r="JP1" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="JQ1" s="9" t="s">
+      <c r="JQ1" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="JR1" s="9" t="s">
+      <c r="JR1" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="JS1" s="9" t="s">
+      <c r="JS1" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="JT1" s="9" t="s">
+      <c r="JT1" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="JU1" s="9" t="s">
+      <c r="JU1" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="JV1" s="9" t="s">
+      <c r="JV1" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="JW1" s="9" t="s">
+      <c r="JW1" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="JX1" s="9" t="s">
+      <c r="JX1" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="JY1" s="9" t="s">
+      <c r="JY1" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="JZ1" s="9" t="s">
+      <c r="JZ1" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="KA1" s="9" t="s">
+      <c r="KA1" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="KB1" s="9" t="s">
+      <c r="KB1" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="KC1" s="9" t="s">
+      <c r="KC1" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="KD1" s="9" t="s">
+      <c r="KD1" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="KE1" s="9" t="s">
+      <c r="KE1" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="KF1" s="9" t="s">
+      <c r="KF1" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="KG1" s="9" t="s">
+      <c r="KG1" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="KH1" s="9" t="s">
+      <c r="KH1" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="KI1" s="9" t="s">
+      <c r="KI1" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="KJ1" s="9" t="s">
+      <c r="KJ1" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="KK1" s="9" t="s">
+      <c r="KK1" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="KL1" s="9" t="s">
+      <c r="KL1" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="KM1" s="9" t="s">
+      <c r="KM1" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="KN1" s="9" t="s">
+      <c r="KN1" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="KO1" s="9" t="s">
+      <c r="KO1" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="KP1" s="9" t="s">
+      <c r="KP1" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="KQ1" s="9" t="s">
+      <c r="KQ1" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="KR1" s="9" t="s">
+      <c r="KR1" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="KS1" s="9" t="s">
+      <c r="KS1" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="KT1" s="9" t="s">
+      <c r="KT1" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="KU1" s="9" t="s">
+      <c r="KU1" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="KV1" s="9" t="s">
+      <c r="KV1" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="KW1" s="9" t="s">
+      <c r="KW1" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="KX1" s="9" t="s">
+      <c r="KX1" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="KY1" s="9" t="s">
+      <c r="KY1" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="KZ1" s="9" t="s">
+      <c r="KZ1" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="LA1" s="9" t="s">
+      <c r="LA1" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="LB1" s="9" t="s">
+      <c r="LB1" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="LC1" s="9" t="s">
+      <c r="LC1" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="LD1" s="9" t="s">
+      <c r="LD1" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="LE1" s="9" t="s">
+      <c r="LE1" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="LF1" s="9" t="s">
+      <c r="LF1" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="LG1" s="9" t="s">
+      <c r="LG1" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="LH1" s="9" t="s">
+      <c r="LH1" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="LI1" s="9" t="s">
+      <c r="LI1" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="LJ1" s="9" t="s">
+      <c r="LJ1" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="LK1" s="9" t="s">
+      <c r="LK1" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="LL1" s="9" t="s">
+      <c r="LL1" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="LM1" s="9" t="s">
+      <c r="LM1" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="LN1" s="9" t="s">
+      <c r="LN1" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="LO1" s="9" t="s">
+      <c r="LO1" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="LP1" s="9" t="s">
+      <c r="LP1" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="LQ1" s="9" t="s">
+      <c r="LQ1" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="LR1" s="9" t="s">
+      <c r="LR1" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="LS1" s="9" t="s">
+      <c r="LS1" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="LT1" s="9" t="s">
+      <c r="LT1" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="LU1" s="9" t="s">
+      <c r="LU1" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="LV1" s="9" t="s">
+      <c r="LV1" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="LW1" s="9" t="s">
+      <c r="LW1" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="LX1" s="9" t="s">
+      <c r="LX1" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="LY1" s="9" t="s">
+      <c r="LY1" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="LZ1" s="9" t="s">
+      <c r="LZ1" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="MA1" s="9" t="s">
+      <c r="MA1" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="MB1" s="9" t="s">
+      <c r="MB1" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="MC1" s="9" t="s">
+      <c r="MC1" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="MD1" s="9" t="s">
+      <c r="MD1" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="ME1" s="9" t="s">
+      <c r="ME1" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="MF1" s="9" t="s">
+      <c r="MF1" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="MG1" s="9" t="s">
+      <c r="MG1" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="MH1" s="9" t="s">
+      <c r="MH1" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="MI1" s="9" t="s">
+      <c r="MI1" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="MJ1" s="9" t="s">
+      <c r="MJ1" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="MK1" s="9" t="s">
+      <c r="MK1" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="ML1" s="9" t="s">
+      <c r="ML1" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="MM1" s="9" t="s">
+      <c r="MM1" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="MN1" s="9" t="s">
+      <c r="MN1" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="MO1" s="9" t="s">
+      <c r="MO1" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="MP1" s="9" t="s">
+      <c r="MP1" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="MQ1" s="9" t="s">
+      <c r="MQ1" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="MR1" s="9" t="s">
+      <c r="MR1" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="MS1" s="9" t="s">
+      <c r="MS1" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="MT1" s="9" t="s">
+      <c r="MT1" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="MU1" s="9" t="s">
+      <c r="MU1" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="MV1" s="9" t="s">
+      <c r="MV1" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="MW1" s="9" t="s">
+      <c r="MW1" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="MX1" s="9" t="s">
+      <c r="MX1" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="MY1" s="9" t="s">
+      <c r="MY1" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="MZ1" s="9" t="s">
+      <c r="MZ1" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="NA1" s="9" t="s">
+      <c r="NA1" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="NB1" s="9" t="s">
+      <c r="NB1" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="NC1" s="9" t="s">
+      <c r="NC1" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="ND1" s="9" t="s">
+      <c r="ND1" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="NE1" s="9" t="s">
+      <c r="NE1" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="NF1" s="9" t="s">
+      <c r="NF1" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="NG1" s="9" t="s">
+      <c r="NG1" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="NH1" s="9" t="s">
+      <c r="NH1" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="NI1" s="9" t="s">
+      <c r="NI1" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="NJ1" s="9" t="s">
+      <c r="NJ1" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="NK1" s="9" t="s">
+      <c r="NK1" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="NL1" s="9" t="s">
+      <c r="NL1" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="NM1" s="9" t="s">
+      <c r="NM1" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="NN1" s="9" t="s">
+      <c r="NN1" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="NO1" s="9" t="s">
+      <c r="NO1" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="NP1" s="9" t="s">
+      <c r="NP1" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="NQ1" s="9" t="s">
+      <c r="NQ1" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="NR1" s="9" t="s">
+      <c r="NR1" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="NS1" s="9" t="s">
+      <c r="NS1" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="NT1" s="9" t="s">
+      <c r="NT1" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="NU1" s="9" t="s">
+      <c r="NU1" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="NV1" s="9" t="s">
+      <c r="NV1" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="NW1" s="9" t="s">
+      <c r="NW1" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="NX1" s="9" t="s">
+      <c r="NX1" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="NY1" s="9" t="s">
+      <c r="NY1" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="NZ1" s="9" t="s">
+      <c r="NZ1" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="OA1" s="9" t="s">
+      <c r="OA1" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="OB1" s="9" t="s">
+      <c r="OB1" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="OC1" s="9" t="s">
+      <c r="OC1" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="OD1" s="9" t="s">
+      <c r="OD1" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="OE1" s="9" t="s">
+      <c r="OE1" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="OF1" s="9" t="s">
+      <c r="OF1" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="OG1" s="9" t="s">
+      <c r="OG1" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="OH1" s="9" t="s">
+      <c r="OH1" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="OI1" s="9" t="s">
+      <c r="OI1" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="OJ1" s="9" t="s">
+      <c r="OJ1" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="OK1" s="9" t="s">
+      <c r="OK1" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="OL1" s="9" t="s">
+      <c r="OL1" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="OM1" s="9" t="s">
+      <c r="OM1" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="ON1" s="9" t="s">
+      <c r="ON1" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="OO1" s="9" t="s">
+      <c r="OO1" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="OP1" s="9" t="s">
+      <c r="OP1" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="OQ1" s="9" t="s">
+      <c r="OQ1" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="OR1" s="9" t="s">
+      <c r="OR1" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="OS1" s="9" t="s">
+      <c r="OS1" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="OT1" s="9" t="s">
+      <c r="OT1" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="OU1" s="9" t="s">
+      <c r="OU1" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="OV1" s="9" t="s">
+      <c r="OV1" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="OW1" s="9" t="s">
+      <c r="OW1" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="OX1" s="9" t="s">
+      <c r="OX1" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="OY1" s="9" t="s">
+      <c r="OY1" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="OZ1" s="9" t="s">
+      <c r="OZ1" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="PA1" s="9" t="s">
+      <c r="PA1" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="PB1" s="9" t="s">
+      <c r="PB1" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="PC1" s="9" t="s">
+      <c r="PC1" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="PD1" s="9" t="s">
+      <c r="PD1" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="PE1" s="9" t="s">
+      <c r="PE1" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="PF1" s="9" t="s">
+      <c r="PF1" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="PG1" s="9" t="s">
+      <c r="PG1" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="PH1" s="9" t="s">
+      <c r="PH1" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="PI1" s="9" t="s">
+      <c r="PI1" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="PJ1" s="9" t="s">
+      <c r="PJ1" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="PK1" s="9" t="s">
+      <c r="PK1" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="PL1" s="9" t="s">
+      <c r="PL1" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="PM1" s="9" t="s">
+      <c r="PM1" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="PN1" s="9" t="s">
+      <c r="PN1" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="PO1" s="9" t="s">
+      <c r="PO1" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="PP1" s="9" t="s">
+      <c r="PP1" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="PQ1" s="9" t="s">
+      <c r="PQ1" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="PR1" s="9" t="s">
+      <c r="PR1" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="PS1" s="9" t="s">
+      <c r="PS1" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="PT1" s="9" t="s">
+      <c r="PT1" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="PU1" s="9" t="s">
+      <c r="PU1" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="PV1" s="9" t="s">
+      <c r="PV1" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="PW1" s="9" t="s">
+      <c r="PW1" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="PX1" s="9" t="s">
+      <c r="PX1" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="PY1" s="9" t="s">
+      <c r="PY1" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="PZ1" s="9" t="s">
+      <c r="PZ1" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="QA1" s="9" t="s">
+      <c r="QA1" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="QB1" s="9" t="s">
+      <c r="QB1" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="QC1" s="9" t="s">
+      <c r="QC1" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="QD1" s="9" t="s">
+      <c r="QD1" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="QE1" s="9" t="s">
+      <c r="QE1" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="QF1" s="9" t="s">
+      <c r="QF1" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="QG1" s="9" t="s">
+      <c r="QG1" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="QH1" s="9" t="s">
+      <c r="QH1" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="QI1" s="9" t="s">
+      <c r="QI1" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="QJ1" s="9" t="s">
+      <c r="QJ1" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="QK1" s="9" t="s">
+      <c r="QK1" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="QL1" s="9" t="s">
+      <c r="QL1" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="QM1" s="9" t="s">
+      <c r="QM1" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="QN1" s="9" t="s">
+      <c r="QN1" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="QO1" s="9" t="s">
+      <c r="QO1" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="QP1" s="9" t="s">
+      <c r="QP1" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="QQ1" s="9" t="s">
+      <c r="QQ1" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="QR1" s="9" t="s">
+      <c r="QR1" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="QS1" s="9" t="s">
+      <c r="QS1" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="QT1" s="9" t="s">
+      <c r="QT1" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="QU1" s="9" t="s">
+      <c r="QU1" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="QV1" s="9" t="s">
+      <c r="QV1" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="QW1" s="9" t="s">
+      <c r="QW1" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="QX1" s="9" t="s">
+      <c r="QX1" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="QY1" s="9" t="s">
+      <c r="QY1" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="QZ1" s="9" t="s">
+      <c r="QZ1" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="RA1" s="9" t="s">
+      <c r="RA1" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="RB1" s="9" t="s">
+      <c r="RB1" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="RC1" s="9" t="s">
+      <c r="RC1" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="RD1" s="9" t="s">
+      <c r="RD1" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="RE1" s="9" t="s">
+      <c r="RE1" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="RF1" s="9" t="s">
+      <c r="RF1" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="RG1" s="9" t="s">
+      <c r="RG1" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="RH1" s="9" t="s">
+      <c r="RH1" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="RI1" s="9" t="s">
+      <c r="RI1" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="RJ1" s="9" t="s">
+      <c r="RJ1" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="RK1" s="9" t="s">
+      <c r="RK1" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="RL1" s="9" t="s">
+      <c r="RL1" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="RM1" s="9" t="s">
+      <c r="RM1" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="RN1" s="9" t="s">
+      <c r="RN1" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="RO1" s="9" t="s">
+      <c r="RO1" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="RP1" s="9" t="s">
+      <c r="RP1" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="RQ1" s="9" t="s">
+      <c r="RQ1" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="RR1" s="9" t="s">
+      <c r="RR1" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="RS1" s="9" t="s">
+      <c r="RS1" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="RT1" s="9" t="s">
+      <c r="RT1" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="RU1" s="9" t="s">
+      <c r="RU1" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="RV1" s="9" t="s">
+      <c r="RV1" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="RW1" s="9" t="s">
+      <c r="RW1" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="RX1" s="9" t="s">
+      <c r="RX1" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="RY1" s="9" t="s">
+      <c r="RY1" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="RZ1" s="9" t="s">
+      <c r="RZ1" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="SA1" s="9" t="s">
+      <c r="SA1" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="SB1" s="9" t="s">
+      <c r="SB1" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="SC1" s="9" t="s">
+      <c r="SC1" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="SD1" s="9" t="s">
+      <c r="SD1" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="SE1" s="9" t="s">
+      <c r="SE1" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="SF1" s="9" t="s">
+      <c r="SF1" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="SG1" s="9" t="s">
+      <c r="SG1" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="SH1" s="9" t="s">
+      <c r="SH1" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="SI1" s="9" t="s">
+      <c r="SI1" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="SJ1" s="9" t="s">
+      <c r="SJ1" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="SK1" s="9" t="s">
+      <c r="SK1" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="SL1" s="9" t="s">
+      <c r="SL1" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="SM1" s="9" t="s">
+      <c r="SM1" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="SN1" s="9" t="s">
+      <c r="SN1" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="SO1" s="9" t="s">
+      <c r="SO1" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="SP1" s="9" t="s">
+      <c r="SP1" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="SQ1" s="9" t="s">
+      <c r="SQ1" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="SR1" s="9" t="s">
+      <c r="SR1" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="SS1" s="9" t="s">
+      <c r="SS1" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="ST1" s="9" t="s">
+      <c r="ST1" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="SU1" s="9" t="s">
+      <c r="SU1" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="SV1" s="9" t="s">
+      <c r="SV1" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="SW1" s="9" t="s">
+      <c r="SW1" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="SX1" s="9" t="s">
+      <c r="SX1" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="SY1" s="9" t="s">
+      <c r="SY1" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="SZ1" s="9" t="s">
+      <c r="SZ1" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="TA1" s="9" t="s">
+      <c r="TA1" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="TB1" s="9" t="s">
+      <c r="TB1" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="TC1" s="9" t="s">
+      <c r="TC1" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="TD1" s="9" t="s">
+      <c r="TD1" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="TE1" s="9" t="s">
+      <c r="TE1" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="TF1" s="9" t="s">
+      <c r="TF1" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="TG1" s="9" t="s">
+      <c r="TG1" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="TH1" s="9" t="s">
+      <c r="TH1" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="TI1" s="9" t="s">
+      <c r="TI1" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="TJ1" s="9" t="s">
+      <c r="TJ1" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="TK1" s="9" t="s">
+      <c r="TK1" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="TL1" s="9" t="s">
+      <c r="TL1" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="TM1" s="9" t="s">
+      <c r="TM1" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="TN1" s="9" t="s">
+      <c r="TN1" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="TO1" s="9" t="s">
+      <c r="TO1" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="TP1" s="9" t="s">
+      <c r="TP1" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="TQ1" s="9" t="s">
+      <c r="TQ1" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="TR1" s="9" t="s">
+      <c r="TR1" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="TS1" s="9" t="s">
+      <c r="TS1" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="TT1" s="9" t="s">
+      <c r="TT1" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="TU1" s="9" t="s">
+      <c r="TU1" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="TV1" s="9" t="s">
+      <c r="TV1" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="TW1" s="9" t="s">
+      <c r="TW1" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="TX1" s="9" t="s">
+      <c r="TX1" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="TY1" s="9" t="s">
+      <c r="TY1" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="TZ1" s="9" t="s">
+      <c r="TZ1" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="UA1" s="9" t="s">
+      <c r="UA1" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="UB1" s="9" t="s">
+      <c r="UB1" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="UC1" s="9" t="s">
+      <c r="UC1" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="UD1" s="9" t="s">
+      <c r="UD1" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="UE1" s="9" t="s">
+      <c r="UE1" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="UF1" s="9" t="s">
+      <c r="UF1" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="UG1" s="9" t="s">
+      <c r="UG1" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="UH1" s="9" t="s">
+      <c r="UH1" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="UI1" s="9" t="s">
+      <c r="UI1" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="UJ1" s="9" t="s">
+      <c r="UJ1" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="UK1" s="9" t="s">
+      <c r="UK1" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="UL1" s="9" t="s">
+      <c r="UL1" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="UM1" s="9" t="s">
+      <c r="UM1" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="UN1" s="9" t="s">
+      <c r="UN1" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="UO1" s="9" t="s">
+      <c r="UO1" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="UP1" s="9" t="s">
+      <c r="UP1" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="UQ1" s="9" t="s">
+      <c r="UQ1" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="UR1" s="9" t="s">
+      <c r="UR1" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="US1" s="9" t="s">
+      <c r="US1" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="UT1" s="9" t="s">
+      <c r="UT1" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="UU1" s="9" t="s">
+      <c r="UU1" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="UV1" s="9" t="s">
+      <c r="UV1" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="UW1" s="9" t="s">
+      <c r="UW1" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="UX1" s="9" t="s">
+      <c r="UX1" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="UY1" s="9" t="s">
+      <c r="UY1" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="UZ1" s="9" t="s">
+      <c r="UZ1" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="VA1" s="9" t="s">
+      <c r="VA1" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="VB1" s="9" t="s">
+      <c r="VB1" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="VC1" s="9" t="s">
+      <c r="VC1" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="VD1" s="9" t="s">
+      <c r="VD1" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="VE1" s="9" t="s">
+      <c r="VE1" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="VF1" s="9" t="s">
+      <c r="VF1" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="VG1" s="9" t="s">
+      <c r="VG1" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="VH1" s="9" t="s">
+      <c r="VH1" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="VI1" s="9" t="s">
+      <c r="VI1" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="VJ1" s="9" t="s">
+      <c r="VJ1" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="VK1" s="9" t="s">
+      <c r="VK1" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="VL1" s="9" t="s">
+      <c r="VL1" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="VM1" s="9" t="s">
+      <c r="VM1" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="VN1" s="9" t="s">
+      <c r="VN1" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="VO1" s="9" t="s">
+      <c r="VO1" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="VP1" s="9" t="s">
+      <c r="VP1" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="VQ1" s="9" t="s">
+      <c r="VQ1" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="VR1" s="9" t="s">
+      <c r="VR1" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="VS1" s="9" t="s">
+      <c r="VS1" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="VT1" s="9" t="s">
+      <c r="VT1" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="VU1" s="9" t="s">
+      <c r="VU1" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="VV1" s="9" t="s">
+      <c r="VV1" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="VW1" s="9" t="s">
+      <c r="VW1" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="VX1" s="9" t="s">
+      <c r="VX1" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="VY1" s="9" t="s">
+      <c r="VY1" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="VZ1" s="9" t="s">
+      <c r="VZ1" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="WA1" s="9" t="s">
+      <c r="WA1" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="WB1" s="9" t="s">
+      <c r="WB1" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="WC1" s="9" t="s">
+      <c r="WC1" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="WD1" s="9" t="s">
+      <c r="WD1" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="WE1" s="9" t="s">
+      <c r="WE1" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="WF1" s="9" t="s">
+      <c r="WF1" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="WG1" s="9" t="s">
+      <c r="WG1" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="WH1" s="9" t="s">
+      <c r="WH1" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="WI1" s="9" t="s">
+      <c r="WI1" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="WJ1" s="9" t="s">
+      <c r="WJ1" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="WK1" s="9" t="s">
+      <c r="WK1" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="WL1" s="9" t="s">
+      <c r="WL1" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="WM1" s="9" t="s">
+      <c r="WM1" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="WN1" s="9" t="s">
+      <c r="WN1" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="WO1" s="9" t="s">
+      <c r="WO1" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="WP1" s="9" t="s">
+      <c r="WP1" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="WQ1" s="9" t="s">
+      <c r="WQ1" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="WR1" s="9" t="s">
+      <c r="WR1" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="WS1" s="9" t="s">
+      <c r="WS1" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="WT1" s="9" t="s">
+      <c r="WT1" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="WU1" s="9" t="s">
+      <c r="WU1" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="WV1" s="9" t="s">
+      <c r="WV1" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="WW1" s="9" t="s">
+      <c r="WW1" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="WX1" s="9" t="s">
+      <c r="WX1" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="WY1" s="9" t="s">
+      <c r="WY1" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="WZ1" s="9" t="s">
+      <c r="WZ1" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="XA1" s="9" t="s">
+      <c r="XA1" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="XB1" s="9" t="s">
+      <c r="XB1" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="XC1" s="9" t="s">
+      <c r="XC1" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="XD1" s="9" t="s">
+      <c r="XD1" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="XE1" s="9" t="s">
+      <c r="XE1" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="XF1" s="9" t="s">
+      <c r="XF1" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="XG1" s="9" t="s">
+      <c r="XG1" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="XH1" s="9" t="s">
+      <c r="XH1" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="XI1" s="9" t="s">
+      <c r="XI1" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="XJ1" s="9" t="s">
+      <c r="XJ1" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="XK1" s="9" t="s">
+      <c r="XK1" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="XL1" s="9" t="s">
+      <c r="XL1" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="XM1" s="9" t="s">
+      <c r="XM1" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="XN1" s="9" t="s">
+      <c r="XN1" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="XO1" s="9" t="s">
+      <c r="XO1" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="XP1" s="9" t="s">
+      <c r="XP1" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="XQ1" s="9" t="s">
+      <c r="XQ1" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="XR1" s="9" t="s">
+      <c r="XR1" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="XS1" s="9" t="s">
+      <c r="XS1" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="XT1" s="9" t="s">
+      <c r="XT1" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="XU1" s="9" t="s">
+      <c r="XU1" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="XV1" s="9" t="s">
+      <c r="XV1" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="XW1" s="9" t="s">
+      <c r="XW1" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="XX1" s="9" t="s">
+      <c r="XX1" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="XY1" s="9" t="s">
+      <c r="XY1" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="XZ1" s="9" t="s">
+      <c r="XZ1" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="YA1" s="9" t="s">
+      <c r="YA1" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="YB1" s="9" t="s">
+      <c r="YB1" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="YC1" s="9" t="s">
+      <c r="YC1" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="YD1" s="9" t="s">
+      <c r="YD1" s="8" t="s">
         <v>658</v>
       </c>
-      <c r="YE1" s="9" t="s">
+      <c r="YE1" s="8" t="s">
         <v>659</v>
       </c>
-      <c r="YF1" s="9" t="s">
+      <c r="YF1" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="YG1" s="9" t="s">
+      <c r="YG1" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="YH1" s="9" t="s">
+      <c r="YH1" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="YI1" s="9" t="s">
+      <c r="YI1" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="YJ1" s="9" t="s">
+      <c r="YJ1" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="YK1" s="9" t="s">
+      <c r="YK1" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="YL1" s="9" t="s">
+      <c r="YL1" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="YM1" s="9" t="s">
+      <c r="YM1" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="YN1" s="9" t="s">
+      <c r="YN1" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="YO1" s="9" t="s">
+      <c r="YO1" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="YP1" s="9" t="s">
+      <c r="YP1" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="YQ1" s="9" t="s">
+      <c r="YQ1" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="YR1" s="9" t="s">
+      <c r="YR1" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="YS1" s="9" t="s">
+      <c r="YS1" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="YT1" s="9" t="s">
+      <c r="YT1" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="YU1" s="9" t="s">
+      <c r="YU1" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="YV1" s="9" t="s">
+      <c r="YV1" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="YW1" s="9" t="s">
+      <c r="YW1" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="YX1" s="9" t="s">
+      <c r="YX1" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="YY1" s="9" t="s">
+      <c r="YY1" s="8" t="s">
         <v>679</v>
       </c>
-      <c r="YZ1" s="9" t="s">
+      <c r="YZ1" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="ZA1" s="9" t="s">
+      <c r="ZA1" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="ZB1" s="9" t="s">
+      <c r="ZB1" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="ZC1" s="9" t="s">
+      <c r="ZC1" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="ZD1" s="9" t="s">
+      <c r="ZD1" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="ZE1" s="9" t="s">
+      <c r="ZE1" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="ZF1" s="9" t="s">
+      <c r="ZF1" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="ZG1" s="9" t="s">
+      <c r="ZG1" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="ZH1" s="9" t="s">
+      <c r="ZH1" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="ZI1" s="9" t="s">
+      <c r="ZI1" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="ZJ1" s="9" t="s">
+      <c r="ZJ1" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="ZK1" s="9" t="s">
+      <c r="ZK1" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="ZL1" s="9" t="s">
+      <c r="ZL1" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="ZM1" s="9" t="s">
+      <c r="ZM1" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="ZN1" s="9" t="s">
+      <c r="ZN1" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="ZO1" s="9" t="s">
+      <c r="ZO1" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="ZP1" s="9" t="s">
+      <c r="ZP1" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="ZQ1" s="9" t="s">
+      <c r="ZQ1" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="ZR1" s="9" t="s">
+      <c r="ZR1" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="ZS1" s="9" t="s">
+      <c r="ZS1" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="ZT1" s="9" t="s">
+      <c r="ZT1" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="ZU1" s="9" t="s">
+      <c r="ZU1" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="ZV1" s="9" t="s">
+      <c r="ZV1" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="ZW1" s="9" t="s">
+      <c r="ZW1" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="ZX1" s="9" t="s">
+      <c r="ZX1" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="ZY1" s="9" t="s">
+      <c r="ZY1" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="ZZ1" s="9" t="s">
+      <c r="ZZ1" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="AAA1" s="9" t="s">
+      <c r="AAA1" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="AAB1" s="9" t="s">
+      <c r="AAB1" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="AAC1" s="9" t="s">
+      <c r="AAC1" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="AAD1" s="9" t="s">
+      <c r="AAD1" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="AAE1" s="9" t="s">
+      <c r="AAE1" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="AAF1" s="9" t="s">
+      <c r="AAF1" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="AAG1" s="9" t="s">
+      <c r="AAG1" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="AAH1" s="9" t="s">
+      <c r="AAH1" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="AAI1" s="9" t="s">
+      <c r="AAI1" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="AAJ1" s="9" t="s">
+      <c r="AAJ1" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="AAK1" s="9" t="s">
+      <c r="AAK1" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="AAL1" s="9" t="s">
+      <c r="AAL1" s="8" t="s">
         <v>718</v>
       </c>
-      <c r="AAM1" s="9" t="s">
+      <c r="AAM1" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="AAN1" s="9" t="s">
+      <c r="AAN1" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="AAO1" s="9" t="s">
+      <c r="AAO1" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="AAP1" s="9" t="s">
+      <c r="AAP1" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="AAQ1" s="9" t="s">
+      <c r="AAQ1" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="AAR1" s="9" t="s">
+      <c r="AAR1" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="AAS1" s="9" t="s">
+      <c r="AAS1" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="AAT1" s="9" t="s">
+      <c r="AAT1" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="AAU1" s="9" t="s">
+      <c r="AAU1" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="AAV1" s="9" t="s">
+      <c r="AAV1" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="AAW1" s="9" t="s">
+      <c r="AAW1" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="AAX1" s="9" t="s">
+      <c r="AAX1" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="AAY1" s="9" t="s">
+      <c r="AAY1" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="AAZ1" s="9" t="s">
+      <c r="AAZ1" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="ABA1" s="9" t="s">
+      <c r="ABA1" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="ABB1" s="9" t="s">
+      <c r="ABB1" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="ABC1" s="9" t="s">
+      <c r="ABC1" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="ABD1" s="9" t="s">
+      <c r="ABD1" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="ABE1" s="9" t="s">
+      <c r="ABE1" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="ABF1" s="9" t="s">
+      <c r="ABF1" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="ABG1" s="9" t="s">
+      <c r="ABG1" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="ABH1" s="9" t="s">
+      <c r="ABH1" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="ABI1" s="9" t="s">
+      <c r="ABI1" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="ABJ1" s="9" t="s">
+      <c r="ABJ1" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="ABK1" s="9" t="s">
+      <c r="ABK1" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="ABL1" s="9" t="s">
+      <c r="ABL1" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="ABM1" s="9" t="s">
+      <c r="ABM1" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="ABN1" s="9" t="s">
+      <c r="ABN1" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="ABO1" s="9" t="s">
+      <c r="ABO1" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="ABP1" s="9" t="s">
+      <c r="ABP1" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="ABQ1" s="9" t="s">
+      <c r="ABQ1" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="ABR1" s="9" t="s">
+      <c r="ABR1" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="ABS1" s="9" t="s">
+      <c r="ABS1" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="ABT1" s="9" t="s">
+      <c r="ABT1" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="ABU1" s="9" t="s">
+      <c r="ABU1" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="ABV1" s="9" t="s">
+      <c r="ABV1" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="ABW1" s="9" t="s">
+      <c r="ABW1" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="ABX1" s="9" t="s">
+      <c r="ABX1" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="ABY1" s="9" t="s">
+      <c r="ABY1" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="ABZ1" s="9" t="s">
+      <c r="ABZ1" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="ACA1" s="9" t="s">
+      <c r="ACA1" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="ACB1" s="9" t="s">
+      <c r="ACB1" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="ACC1" s="9" t="s">
+      <c r="ACC1" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="ACD1" s="9" t="s">
+      <c r="ACD1" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="ACE1" s="9" t="s">
+      <c r="ACE1" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="ACF1" s="9" t="s">
+      <c r="ACF1" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="ACG1" s="9" t="s">
+      <c r="ACG1" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="ACH1" s="9" t="s">
+      <c r="ACH1" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="ACI1" s="9" t="s">
+      <c r="ACI1" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="ACJ1" s="9" t="s">
+      <c r="ACJ1" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="ACK1" s="9" t="s">
+      <c r="ACK1" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="ACL1" s="9" t="s">
+      <c r="ACL1" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="ACM1" s="9" t="s">
+      <c r="ACM1" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="ACN1" s="9" t="s">
+      <c r="ACN1" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="ACO1" s="9" t="s">
+      <c r="ACO1" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="ACP1" s="9" t="s">
+      <c r="ACP1" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="ACQ1" s="9" t="s">
+      <c r="ACQ1" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="ACR1" s="9" t="s">
+      <c r="ACR1" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="ACS1" s="9" t="s">
+      <c r="ACS1" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="ACT1" s="9" t="s">
+      <c r="ACT1" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="ACU1" s="9" t="s">
+      <c r="ACU1" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="ACV1" s="9" t="s">
+      <c r="ACV1" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="ACW1" s="9" t="s">
+      <c r="ACW1" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="ACX1" s="9" t="s">
+      <c r="ACX1" s="8" t="s">
         <v>782</v>
       </c>
-      <c r="ACY1" s="9" t="s">
+      <c r="ACY1" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="ACZ1" s="9" t="s">
+      <c r="ACZ1" s="8" t="s">
         <v>784</v>
       </c>
-      <c r="ADA1" s="9" t="s">
+      <c r="ADA1" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="ADB1" s="9" t="s">
+      <c r="ADB1" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="ADC1" s="9" t="s">
+      <c r="ADC1" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="ADD1" s="9" t="s">
+      <c r="ADD1" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="ADE1" s="9" t="s">
+      <c r="ADE1" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="ADF1" s="9" t="s">
+      <c r="ADF1" s="8" t="s">
         <v>790</v>
       </c>
-      <c r="ADG1" s="9" t="s">
+      <c r="ADG1" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="ADH1" s="9" t="s">
+      <c r="ADH1" s="8" t="s">
         <v>792</v>
       </c>
-      <c r="ADI1" s="9" t="s">
+      <c r="ADI1" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="ADJ1" s="9" t="s">
+      <c r="ADJ1" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="ADK1" s="9" t="s">
+      <c r="ADK1" s="8" t="s">
         <v>795</v>
       </c>
-      <c r="ADL1" s="9" t="s">
+      <c r="ADL1" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="ADM1" s="9" t="s">
+      <c r="ADM1" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="ADN1" s="9" t="s">
+      <c r="ADN1" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="ADO1" s="9" t="s">
+      <c r="ADO1" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="ADP1" s="9" t="s">
+      <c r="ADP1" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="ADQ1" s="9" t="s">
+      <c r="ADQ1" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="ADR1" s="9" t="s">
+      <c r="ADR1" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="ADS1" s="9" t="s">
+      <c r="ADS1" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="ADT1" s="9" t="s">
+      <c r="ADT1" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="ADU1" s="9" t="s">
+      <c r="ADU1" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="ADV1" s="9" t="s">
+      <c r="ADV1" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="ADW1" s="9" t="s">
+      <c r="ADW1" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="ADX1" s="9" t="s">
+      <c r="ADX1" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="ADY1" s="9" t="s">
+      <c r="ADY1" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="ADZ1" s="9" t="s">
+      <c r="ADZ1" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="AEA1" s="9" t="s">
+      <c r="AEA1" s="8" t="s">
         <v>811</v>
       </c>
-      <c r="AEB1" s="9" t="s">
+      <c r="AEB1" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="AEC1" s="9" t="s">
+      <c r="AEC1" s="8" t="s">
         <v>813</v>
       </c>
-      <c r="AED1" s="9" t="s">
+      <c r="AED1" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="AEE1" s="9" t="s">
+      <c r="AEE1" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="AEF1" s="9" t="s">
+      <c r="AEF1" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="AEG1" s="9" t="s">
+      <c r="AEG1" s="8" t="s">
         <v>817</v>
       </c>
-      <c r="AEH1" s="9" t="s">
+      <c r="AEH1" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="AEI1" s="9" t="s">
+      <c r="AEI1" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="AEJ1" s="9" t="s">
+      <c r="AEJ1" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="AEK1" s="9" t="s">
+      <c r="AEK1" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="AEL1" s="9" t="s">
+      <c r="AEL1" s="8" t="s">
         <v>822</v>
       </c>
-      <c r="AEM1" s="9" t="s">
+      <c r="AEM1" s="8" t="s">
         <v>823</v>
       </c>
-      <c r="AEN1" s="9" t="s">
+      <c r="AEN1" s="8" t="s">
         <v>824</v>
       </c>
-      <c r="AEO1" s="9" t="s">
+      <c r="AEO1" s="8" t="s">
         <v>825</v>
       </c>
-      <c r="AEP1" s="9" t="s">
+      <c r="AEP1" s="8" t="s">
         <v>826</v>
       </c>
-      <c r="AEQ1" s="9" t="s">
+      <c r="AEQ1" s="8" t="s">
         <v>827</v>
       </c>
-      <c r="AER1" s="9" t="s">
+      <c r="AER1" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="AES1" s="9" t="s">
+      <c r="AES1" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="AET1" s="9" t="s">
+      <c r="AET1" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="AEU1" s="9" t="s">
+      <c r="AEU1" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="AEV1" s="9" t="s">
+      <c r="AEV1" s="8" t="s">
         <v>832</v>
       </c>
-      <c r="AEW1" s="9" t="s">
+      <c r="AEW1" s="8" t="s">
         <v>833</v>
       </c>
-      <c r="AEX1" s="9" t="s">
+      <c r="AEX1" s="8" t="s">
         <v>834</v>
       </c>
-      <c r="AEY1" s="9" t="s">
+      <c r="AEY1" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="AEZ1" s="9" t="s">
+      <c r="AEZ1" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="AFA1" s="9" t="s">
+      <c r="AFA1" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="AFB1" s="9" t="s">
+      <c r="AFB1" s="8" t="s">
         <v>838</v>
       </c>
-      <c r="AFC1" s="9" t="s">
+      <c r="AFC1" s="8" t="s">
         <v>839</v>
       </c>
-      <c r="AFD1" s="9" t="s">
+      <c r="AFD1" s="8" t="s">
         <v>840</v>
       </c>
-      <c r="AFE1" s="9" t="s">
+      <c r="AFE1" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="AFF1" s="9" t="s">
+      <c r="AFF1" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="AFG1" s="9" t="s">
+      <c r="AFG1" s="8" t="s">
         <v>843</v>
       </c>
-      <c r="AFH1" s="9" t="s">
+      <c r="AFH1" s="8" t="s">
         <v>844</v>
       </c>
-      <c r="AFI1" s="9" t="s">
+      <c r="AFI1" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="AFJ1" s="9" t="s">
+      <c r="AFJ1" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="AFK1" s="9" t="s">
+      <c r="AFK1" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AFL1" s="9" t="s">
+      <c r="AFL1" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="AFM1" s="9" t="s">
+      <c r="AFM1" s="8" t="s">
         <v>849</v>
       </c>
-      <c r="AFN1" s="9" t="s">
+      <c r="AFN1" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="AFO1" s="9" t="s">
+      <c r="AFO1" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="AFP1" s="9" t="s">
+      <c r="AFP1" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="AFQ1" s="9" t="s">
+      <c r="AFQ1" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="AFR1" s="9" t="s">
+      <c r="AFR1" s="8" t="s">
         <v>854</v>
       </c>
-      <c r="AFS1" s="9" t="s">
+      <c r="AFS1" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="AFT1" s="9" t="s">
+      <c r="AFT1" s="8" t="s">
         <v>856</v>
       </c>
-      <c r="AFU1" s="9" t="s">
+      <c r="AFU1" s="8" t="s">
         <v>857</v>
       </c>
-      <c r="AFV1" s="9" t="s">
+      <c r="AFV1" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="AFW1" s="9" t="s">
+      <c r="AFW1" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="AFX1" s="9" t="s">
+      <c r="AFX1" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="AFY1" s="9" t="s">
+      <c r="AFY1" s="8" t="s">
         <v>861</v>
       </c>
-      <c r="AFZ1" s="9" t="s">
+      <c r="AFZ1" s="8" t="s">
         <v>862</v>
       </c>
-      <c r="AGA1" s="9" t="s">
+      <c r="AGA1" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="AGB1" s="9" t="s">
+      <c r="AGB1" s="8" t="s">
         <v>864</v>
       </c>
-      <c r="AGC1" s="9" t="s">
+      <c r="AGC1" s="8" t="s">
         <v>865</v>
       </c>
-      <c r="AGD1" s="9" t="s">
+      <c r="AGD1" s="8" t="s">
         <v>866</v>
       </c>
-      <c r="AGE1" s="9" t="s">
+      <c r="AGE1" s="8" t="s">
         <v>867</v>
       </c>
-      <c r="AGF1" s="9" t="s">
+      <c r="AGF1" s="8" t="s">
         <v>868</v>
       </c>
-      <c r="AGG1" s="9" t="s">
+      <c r="AGG1" s="8" t="s">
         <v>869</v>
       </c>
-      <c r="AGH1" s="9" t="s">
+      <c r="AGH1" s="8" t="s">
         <v>870</v>
       </c>
-      <c r="AGI1" s="9" t="s">
+      <c r="AGI1" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="AGJ1" s="9" t="s">
+      <c r="AGJ1" s="8" t="s">
         <v>872</v>
       </c>
-      <c r="AGK1" s="9" t="s">
+      <c r="AGK1" s="8" t="s">
         <v>873</v>
       </c>
-      <c r="AGL1" s="9" t="s">
+      <c r="AGL1" s="8" t="s">
         <v>874</v>
       </c>
-      <c r="AGM1" s="9" t="s">
+      <c r="AGM1" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="AGN1" s="9" t="s">
+      <c r="AGN1" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="AGO1" s="9" t="s">
+      <c r="AGO1" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="AGP1" s="9" t="s">
+      <c r="AGP1" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="AGQ1" s="9" t="s">
+      <c r="AGQ1" s="8" t="s">
         <v>879</v>
       </c>
-      <c r="AGR1" s="9" t="s">
+      <c r="AGR1" s="8" t="s">
         <v>880</v>
       </c>
-      <c r="AGS1" s="9" t="s">
+      <c r="AGS1" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="AGT1" s="9" t="s">
+      <c r="AGT1" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="AGU1" s="9" t="s">
+      <c r="AGU1" s="8" t="s">
         <v>883</v>
       </c>
-      <c r="AGV1" s="9" t="s">
+      <c r="AGV1" s="8" t="s">
         <v>884</v>
       </c>
-      <c r="AGW1" s="9" t="s">
+      <c r="AGW1" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="AGX1" s="9" t="s">
+      <c r="AGX1" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="AGY1" s="9" t="s">
+      <c r="AGY1" s="8" t="s">
         <v>887</v>
       </c>
-      <c r="AGZ1" s="9" t="s">
+      <c r="AGZ1" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="AHA1" s="9" t="s">
+      <c r="AHA1" s="8" t="s">
         <v>889</v>
       </c>
-      <c r="AHB1" s="9" t="s">
+      <c r="AHB1" s="8" t="s">
         <v>890</v>
       </c>
-      <c r="AHC1" s="9" t="s">
+      <c r="AHC1" s="8" t="s">
         <v>891</v>
       </c>
-      <c r="AHD1" s="9" t="s">
+      <c r="AHD1" s="8" t="s">
         <v>892</v>
       </c>
-      <c r="AHE1" s="9" t="s">
+      <c r="AHE1" s="8" t="s">
         <v>893</v>
       </c>
-      <c r="AHF1" s="9" t="s">
+      <c r="AHF1" s="8" t="s">
         <v>894</v>
       </c>
-      <c r="AHG1" s="9" t="s">
+      <c r="AHG1" s="8" t="s">
         <v>895</v>
       </c>
-      <c r="AHH1" s="9" t="s">
+      <c r="AHH1" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="AHI1" s="9" t="s">
+      <c r="AHI1" s="8" t="s">
         <v>897</v>
       </c>
-      <c r="AHJ1" s="9" t="s">
+      <c r="AHJ1" s="8" t="s">
         <v>898</v>
       </c>
-      <c r="AHK1" s="9" t="s">
+      <c r="AHK1" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="AHL1" s="9" t="s">
+      <c r="AHL1" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="AHM1" s="9" t="s">
+      <c r="AHM1" s="8" t="s">
         <v>901</v>
       </c>
-      <c r="AHN1" s="9" t="s">
+      <c r="AHN1" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="AHO1" s="9" t="s">
+      <c r="AHO1" s="8" t="s">
         <v>903</v>
       </c>
-      <c r="AHP1" s="9" t="s">
+      <c r="AHP1" s="8" t="s">
         <v>904</v>
       </c>
-      <c r="AHQ1" s="9" t="s">
+      <c r="AHQ1" s="8" t="s">
         <v>905</v>
       </c>
-      <c r="AHR1" s="9" t="s">
+      <c r="AHR1" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="AHS1" s="9" t="s">
+      <c r="AHS1" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="AHT1" s="9" t="s">
+      <c r="AHT1" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="AHU1" s="9" t="s">
+      <c r="AHU1" s="8" t="s">
         <v>909</v>
       </c>
-      <c r="AHV1" s="9" t="s">
+      <c r="AHV1" s="8" t="s">
         <v>910</v>
       </c>
-      <c r="AHW1" s="9" t="s">
+      <c r="AHW1" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="AHX1" s="9" t="s">
+      <c r="AHX1" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="AHY1" s="9" t="s">
+      <c r="AHY1" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="AHZ1" s="9" t="s">
+      <c r="AHZ1" s="8" t="s">
         <v>914</v>
       </c>
-      <c r="AIA1" s="9" t="s">
+      <c r="AIA1" s="8" t="s">
         <v>915</v>
       </c>
-      <c r="AIB1" s="9" t="s">
+      <c r="AIB1" s="8" t="s">
         <v>916</v>
       </c>
-      <c r="AIC1" s="9" t="s">
+      <c r="AIC1" s="8" t="s">
         <v>917</v>
       </c>
-      <c r="AID1" s="9" t="s">
+      <c r="AID1" s="8" t="s">
         <v>918</v>
       </c>
-      <c r="AIE1" s="9" t="s">
+      <c r="AIE1" s="8" t="s">
         <v>919</v>
       </c>
-      <c r="AIF1" s="9" t="s">
+      <c r="AIF1" s="8" t="s">
         <v>920</v>
       </c>
-      <c r="AIG1" s="9" t="s">
+      <c r="AIG1" s="8" t="s">
         <v>921</v>
       </c>
-      <c r="AIH1" s="9" t="s">
+      <c r="AIH1" s="8" t="s">
         <v>922</v>
       </c>
-      <c r="AII1" s="9" t="s">
+      <c r="AII1" s="8" t="s">
         <v>923</v>
       </c>
-      <c r="AIJ1" s="9" t="s">
+      <c r="AIJ1" s="8" t="s">
         <v>924</v>
       </c>
-      <c r="AIK1" s="9" t="s">
+      <c r="AIK1" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="AIL1" s="9" t="s">
+      <c r="AIL1" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="AIM1" s="9" t="s">
+      <c r="AIM1" s="8" t="s">
         <v>927</v>
       </c>
-      <c r="AIN1" s="9" t="s">
+      <c r="AIN1" s="8" t="s">
         <v>928</v>
       </c>
-      <c r="AIO1" s="9" t="s">
+      <c r="AIO1" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="AIP1" s="9" t="s">
+      <c r="AIP1" s="8" t="s">
         <v>930</v>
       </c>
-      <c r="AIQ1" s="9" t="s">
+      <c r="AIQ1" s="8" t="s">
         <v>931</v>
       </c>
-      <c r="AIR1" s="9" t="s">
+      <c r="AIR1" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="AIS1" s="9" t="s">
+      <c r="AIS1" s="8" t="s">
         <v>933</v>
       </c>
-      <c r="AIT1" s="9" t="s">
+      <c r="AIT1" s="8" t="s">
         <v>934</v>
       </c>
-      <c r="AIU1" s="9" t="s">
+      <c r="AIU1" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="AIV1" s="9" t="s">
+      <c r="AIV1" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="AIW1" s="9" t="s">
+      <c r="AIW1" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="AIX1" s="9" t="s">
+      <c r="AIX1" s="8" t="s">
         <v>938</v>
       </c>
-      <c r="AIY1" s="9" t="s">
+      <c r="AIY1" s="8" t="s">
         <v>939</v>
       </c>
-      <c r="AIZ1" s="9" t="s">
+      <c r="AIZ1" s="8" t="s">
         <v>940</v>
       </c>
-      <c r="AJA1" s="9" t="s">
+      <c r="AJA1" s="8" t="s">
         <v>941</v>
       </c>
-      <c r="AJB1" s="9" t="s">
+      <c r="AJB1" s="8" t="s">
         <v>942</v>
       </c>
-      <c r="AJC1" s="9" t="s">
+      <c r="AJC1" s="8" t="s">
         <v>943</v>
       </c>
-      <c r="AJD1" s="9" t="s">
+      <c r="AJD1" s="8" t="s">
         <v>944</v>
       </c>
-      <c r="AJE1" s="9" t="s">
+      <c r="AJE1" s="8" t="s">
         <v>945</v>
       </c>
-      <c r="AJF1" s="9" t="s">
+      <c r="AJF1" s="8" t="s">
         <v>946</v>
       </c>
-      <c r="AJG1" s="9" t="s">
+      <c r="AJG1" s="8" t="s">
         <v>947</v>
       </c>
-      <c r="AJH1" s="9" t="s">
+      <c r="AJH1" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="AJI1" s="9" t="s">
+      <c r="AJI1" s="8" t="s">
         <v>949</v>
       </c>
-      <c r="AJJ1" s="9" t="s">
+      <c r="AJJ1" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="AJK1" s="9" t="s">
+      <c r="AJK1" s="8" t="s">
         <v>951</v>
       </c>
-      <c r="AJL1" s="9" t="s">
+      <c r="AJL1" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="AJM1" s="9" t="s">
+      <c r="AJM1" s="8" t="s">
         <v>953</v>
       </c>
-      <c r="AJN1" s="9" t="s">
+      <c r="AJN1" s="8" t="s">
         <v>954</v>
       </c>
-      <c r="AJO1" s="9" t="s">
+      <c r="AJO1" s="8" t="s">
         <v>955</v>
       </c>
-      <c r="AJP1" s="9" t="s">
+      <c r="AJP1" s="8" t="s">
         <v>956</v>
       </c>
-      <c r="AJQ1" s="9" t="s">
+      <c r="AJQ1" s="8" t="s">
         <v>957</v>
       </c>
-      <c r="AJR1" s="9" t="s">
+      <c r="AJR1" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="AJS1" s="9" t="s">
+      <c r="AJS1" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="AJT1" s="9" t="s">
+      <c r="AJT1" s="8" t="s">
         <v>960</v>
       </c>
-      <c r="AJU1" s="9" t="s">
+      <c r="AJU1" s="8" t="s">
         <v>961</v>
       </c>
-      <c r="AJV1" s="9" t="s">
+      <c r="AJV1" s="8" t="s">
         <v>962</v>
       </c>
-      <c r="AJW1" s="9" t="s">
+      <c r="AJW1" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="AJX1" s="9" t="s">
+      <c r="AJX1" s="8" t="s">
         <v>964</v>
       </c>
-      <c r="AJY1" s="9" t="s">
+      <c r="AJY1" s="8" t="s">
         <v>965</v>
       </c>
-      <c r="AJZ1" s="9" t="s">
+      <c r="AJZ1" s="8" t="s">
         <v>966</v>
       </c>
-      <c r="AKA1" s="9" t="s">
+      <c r="AKA1" s="8" t="s">
         <v>967</v>
       </c>
-      <c r="AKB1" s="9" t="s">
+      <c r="AKB1" s="8" t="s">
         <v>968</v>
       </c>
-      <c r="AKC1" s="9" t="s">
+      <c r="AKC1" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="AKD1" s="9" t="s">
+      <c r="AKD1" s="8" t="s">
         <v>970</v>
       </c>
-      <c r="AKE1" s="9" t="s">
+      <c r="AKE1" s="8" t="s">
         <v>971</v>
       </c>
-      <c r="AKF1" s="9" t="s">
+      <c r="AKF1" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="AKG1" s="9" t="s">
+      <c r="AKG1" s="8" t="s">
         <v>973</v>
       </c>
-      <c r="AKH1" s="9" t="s">
+      <c r="AKH1" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="AKI1" s="9" t="s">
+      <c r="AKI1" s="8" t="s">
         <v>975</v>
       </c>
-      <c r="AKJ1" s="9" t="s">
+      <c r="AKJ1" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="AKK1" s="9" t="s">
+      <c r="AKK1" s="8" t="s">
         <v>977</v>
       </c>
-      <c r="AKL1" s="9" t="s">
+      <c r="AKL1" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="AKM1" s="9" t="s">
+      <c r="AKM1" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="AKN1" s="9" t="s">
+      <c r="AKN1" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="AKO1" s="9" t="s">
+      <c r="AKO1" s="8" t="s">
         <v>981</v>
       </c>
-      <c r="AKP1" s="9" t="s">
+      <c r="AKP1" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="AKQ1" s="9" t="s">
+      <c r="AKQ1" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="AKR1" s="9" t="s">
+      <c r="AKR1" s="8" t="s">
         <v>984</v>
       </c>
-      <c r="AKS1" s="9" t="s">
+      <c r="AKS1" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="AKT1" s="9" t="s">
+      <c r="AKT1" s="8" t="s">
         <v>986</v>
       </c>
-      <c r="AKU1" s="9" t="s">
+      <c r="AKU1" s="8" t="s">
         <v>987</v>
       </c>
-      <c r="AKV1" s="9" t="s">
+      <c r="AKV1" s="8" t="s">
         <v>988</v>
       </c>
-      <c r="AKW1" s="9" t="s">
+      <c r="AKW1" s="8" t="s">
         <v>989</v>
       </c>
-      <c r="AKX1" s="9" t="s">
+      <c r="AKX1" s="8" t="s">
         <v>990</v>
       </c>
-      <c r="AKY1" s="9" t="s">
+      <c r="AKY1" s="8" t="s">
         <v>991</v>
       </c>
-      <c r="AKZ1" s="9" t="s">
+      <c r="AKZ1" s="8" t="s">
         <v>992</v>
       </c>
-      <c r="ALA1" s="9" t="s">
+      <c r="ALA1" s="8" t="s">
         <v>993</v>
       </c>
-      <c r="ALB1" s="9" t="s">
+      <c r="ALB1" s="8" t="s">
         <v>994</v>
       </c>
-      <c r="ALC1" s="9" t="s">
+      <c r="ALC1" s="8" t="s">
         <v>995</v>
       </c>
-      <c r="ALD1" s="9" t="s">
+      <c r="ALD1" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="ALE1" s="9" t="s">
+      <c r="ALE1" s="8" t="s">
         <v>997</v>
       </c>
-      <c r="ALF1" s="9" t="s">
+      <c r="ALF1" s="8" t="s">
         <v>998</v>
       </c>
-      <c r="ALG1" s="9" t="s">
+      <c r="ALG1" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="ALH1" s="9" t="s">
+      <c r="ALH1" s="8" t="s">
         <v>1000</v>
       </c>
-      <c r="ALI1" s="9" t="s">
+      <c r="ALI1" s="8" t="s">
         <v>1001</v>
       </c>
-      <c r="ALJ1" s="9" t="s">
+      <c r="ALJ1" s="8" t="s">
         <v>1002</v>
       </c>
-      <c r="ALK1" s="9" t="s">
+      <c r="ALK1" s="8" t="s">
         <v>1003</v>
       </c>
-      <c r="ALL1" s="9" t="s">
+      <c r="ALL1" s="8" t="s">
         <v>1004</v>
       </c>
-      <c r="ALM1" s="9" t="s">
+      <c r="ALM1" s="8" t="s">
         <v>1005</v>
       </c>
-      <c r="ALN1" s="9" t="s">
+      <c r="ALN1" s="8" t="s">
         <v>1006</v>
       </c>
-      <c r="ALO1" s="9" t="s">
+      <c r="ALO1" s="8" t="s">
         <v>1007</v>
       </c>
-      <c r="ALP1" s="9" t="s">
+      <c r="ALP1" s="8" t="s">
         <v>1008</v>
       </c>
-      <c r="ALQ1" s="9" t="s">
+      <c r="ALQ1" s="8" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>1010</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>1012</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>1013</v>
       </c>
-      <c r="E2" s="13" t="n">
-        <v>517</v>
-      </c>
-      <c r="F2" s="13" t="n">
-        <v>517</v>
-      </c>
-      <c r="G2" s="13" t="n">
-        <v>517</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="E2" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>1016</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+      <c r="C3" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>517</v>
+      </c>
+      <c r="F3" s="15" t="n">
+        <v>516</v>
+      </c>
+      <c r="G3" s="15" t="n">
+        <v>517</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C4" s="12" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
         <v>1019</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>1020</v>
       </c>
+      <c r="D4" s="10" t="s">
+        <v>1021</v>
+      </c>
       <c r="E4" s="15" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+        <v>1022</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>1013</v>
+      <c r="B5" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>1026</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+        <v>1027</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B6" s="11" t="s">
+    <row r="6" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>1018</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="E6" s="18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E7" s="15" t="n">
-        <v>81611</v>
-      </c>
-      <c r="F7" s="15" t="n">
-        <v>81611</v>
-      </c>
-      <c r="G7" s="15" t="n">
-        <v>81611</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>1031</v>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1035</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>454909</v>
-      </c>
-      <c r="F8" s="15" t="n">
-        <v>454909</v>
-      </c>
-      <c r="G8" s="15" t="n">
-        <v>454909</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+        <v>1036</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>81611</v>
+      </c>
+      <c r="F8" s="17" t="n">
+        <v>81611</v>
+      </c>
+      <c r="G8" s="17" t="n">
+        <v>81611</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>4.3166395</v>
-      </c>
-      <c r="F9" s="15" t="n">
-        <v>4.3166395</v>
-      </c>
-      <c r="G9" s="15" t="n">
-        <v>4.3166395</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>454909</v>
+      </c>
+      <c r="F9" s="17" t="n">
+        <v>454909</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <v>454909</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>52.0775912</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>52.0775912</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>52.0775912</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+    <row r="10" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>4.3166395</v>
+      </c>
+      <c r="F10" s="17" t="n">
+        <v>4.3166395</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>4.3166395</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B11" s="11" t="s">
+    <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>1041</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="E11" s="17" t="n">
+        <v>52.0775912</v>
+      </c>
+      <c r="F11" s="17" t="n">
+        <v>52.0775912</v>
+      </c>
+      <c r="G11" s="17" t="n">
+        <v>52.0775912</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B12" s="11" t="s">
+    <row r="12" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>1011</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+        <v>1045</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F12" s="0"/>
+      <c r="G12" s="20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C13" s="16" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
         <v>1046</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="E13" s="20" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F13" s="0"/>
+      <c r="G13" s="20" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>1018</v>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>1011</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>1011</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="D14" s="16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F14" s="0"/>
+      <c r="G14" s="20" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B15" s="21" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F15" s="0"/>
+      <c r="G15" s="20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B16" s="21" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F16" s="0"/>
+      <c r="G16" s="20" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C17" s="16" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
         <v>1056</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="B17" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>1057</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="F17" s="20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>1059</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+      <c r="F18" s="20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
         <v>1062</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C19" s="26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
+      <c r="B20" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C20" s="6" t="s">
+    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>1064</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E20" s="25" t="s">
+      <c r="E21" s="17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>1011</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>1011</v>
-      </c>
+      <c r="G21" s="17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>1011</v>
-      </c>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G22" s="0"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C23" s="26" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G23" s="0"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>1018</v>
-      </c>
+      <c r="A24" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E25" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="F25" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="G25" s="25" t="n">
-        <v>6</v>
-      </c>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>1076</v>
+    <row r="26" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="23" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>1078</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>1044</v>
+        <v>1079</v>
       </c>
       <c r="E26" s="25" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="23" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>1011</v>
       </c>
-      <c r="F26" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>1011</v>
-      </c>
+      <c r="C27" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E27" s="25" t="n">
-        <v>20</v>
-      </c>
-      <c r="F27" s="25" t="n">
-        <v>20</v>
-      </c>
-      <c r="G27" s="25" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C30" s="26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E32" s="25" t="n">
-        <v>30</v>
-      </c>
-      <c r="F32" s="25" t="n">
-        <v>30</v>
-      </c>
-      <c r="G32" s="25" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E35" s="25" t="n">
-        <v>120</v>
-      </c>
-      <c r="F35" s="25" t="n">
-        <v>120</v>
-      </c>
-      <c r="G35" s="25" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E36" s="25" t="n">
-        <v>200</v>
-      </c>
-      <c r="F36" s="25" t="n">
-        <v>200</v>
-      </c>
-      <c r="G36" s="25" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="27" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C37" s="26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E41" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="F41" s="25" t="n">
-        <v>10</v>
-      </c>
-      <c r="G41" s="25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E44" s="25" t="n">
-        <v>110</v>
-      </c>
-      <c r="F44" s="25" t="n">
-        <v>110</v>
-      </c>
-      <c r="G44" s="25" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E45" s="25" t="n">
-        <v>220</v>
-      </c>
-      <c r="F45" s="25" t="n">
-        <v>220</v>
-      </c>
-      <c r="G45" s="25" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-    </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="27" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C48" s="26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-    </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>1124</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="27" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C54" s="26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>1124</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G59" s="25" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="24" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C61" s="26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F63" s="25" t="s">
-        <v>1124</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F65" s="25" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G66" s="25" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F67" s="25" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G67" s="25" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="24" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C68" s="26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F69" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G69" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G70" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G71" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="12" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G72" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G73" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G74" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F75" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G75" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="24" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="24" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C77" s="26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G78" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F79" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G79" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G80" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E81" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F81" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G81" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="24" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C82" s="26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E83" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G83" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G84" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="24" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C85" s="26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E86" s="25" t="n">
-        <v>60</v>
-      </c>
-      <c r="F86" s="25" t="n">
-        <v>60</v>
-      </c>
-      <c r="G86" s="25" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F87" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G87" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="24" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C88" s="26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E89" s="25" t="n">
-        <v>70</v>
-      </c>
-      <c r="F89" s="25" t="n">
-        <v>70</v>
-      </c>
-      <c r="G89" s="25" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E90" s="25" t="n">
-        <v>160</v>
-      </c>
-      <c r="F90" s="25" t="n">
-        <v>160</v>
-      </c>
-      <c r="G90" s="25" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="24" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C91" s="26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F92" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G92" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="24" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C93" s="26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F94" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G94" s="25" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F95" s="25" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G95" s="25" t="s">
-        <v>1011</v>
-      </c>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9710,7 +8147,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -9720,523 +8157,598 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="75.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="21" width="80.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="21" width="69.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="21" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="19.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="17.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="70.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="79.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="69.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="75.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="24" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="14"/>
+      <c r="E1" s="8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="13"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B2" s="32" t="s">
+    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="30" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>1011</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="C2" s="32" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="14"/>
+      <c r="I2" s="13"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
-    <row r="3" s="5" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H3" s="6"/>
+    <row r="3" s="4" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="33" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>1011</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>1220</v>
+        <v>1093</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1088</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>1011</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>1229</v>
+      <c r="C5" s="35" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>1097</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="33" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>1011</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="C6" s="35" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="A7" s="33" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="A8" s="33" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>1018</v>
+    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="33" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>1024</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>1220</v>
+        <v>1105</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>1088</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="14"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="33" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>1011</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
+      <c r="C10" s="35" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="33" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>1011</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="14"/>
+      <c r="C11" s="35" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>1220</v>
+    <row r="12" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="33" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>1088</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
+      <c r="A13" s="33" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F14" s="14"/>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="33" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F14" s="13"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B15" s="30" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="33" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="33" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>1011</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="14"/>
+      <c r="C16" s="28" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="37" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="14"/>
+      <c r="A17" s="33" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
     </row>
-    <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="33" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="13"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="33" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="36" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="33" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="23" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>1138</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/tests/data/waarismijnstemlokaal.nl_invulformulier.xlsx
+++ b/tests/data/waarismijnstemlokaal.nl_invulformulier.xlsx
@@ -22,24 +22,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1135">
   <si>
     <t xml:space="preserve">Toelichting</t>
   </si>
   <si>
     <t xml:space="preserve">Op dit tabblad wordt het gebruik van deze spreadsheet toegelicht. Hieronder staat de beschrijving van de andere twee tabbladen 'Attributen' en 'Metadata'.
 Dit invulformulier is bedoeld om geüpload te worden naar https://waarismijnstemlokaal.nl/. In plaats van dit invulformulier kan ook de invultool op https://waarismijnstemlokaal.nl/ gebruikt worden. Ook kan op die website een versie van dit invulformulier gedownload worden waarin de stembureaus van de vorige verkiezing alvast (deels) ingevuld staan.
-Dit invulformulier is gebaseerd op de Stembureaus Open Data Standaard versie 1.1.</t>
+Dit invulformulier is gebaseerd op de Stembureaus Open Data Standaard versie 1.3.</t>
   </si>
   <si>
     <t xml:space="preserve">Attributen</t>
   </si>
   <si>
-    <t xml:space="preserve">Op het tabblad 'Attributen' kunt u alle stembureaus/afgiftepunten in uw gemeente toevoegen.
-Elk stembureau/afgiftepunt voegt u toe in een eigen 'Invulveld'-kolom waar u minimaal alle verplichte attributen (aangegeven met 'Y') invult (NB: in sommige gevallen kan hiervan worden afgeweken zoals beschreven in de opmerkingen bij een attribuut).
+    <t xml:space="preserve">Op het tabblad 'Attributen' kunt u alle stembureaus in uw gemeente toevoegen.
+Elk stembureau voegt u toe in een eigen 'Invulveld'-kolom waar u minimaal alle verplichte attributen (aangegeven met 'ja') invult (NB: in sommige gevallen kan hiervan worden afgeweken zoals beschreven in de opmerkingen bij een attribuut).
 De kolommen 'Opmerkingen, 'Format' en 'Voorbeeld' helpen u daarbij. De 'Opmerkingen'-kolom geeft algemene informatie over het attribuut en geeft soms meer informatie over hoe u het veld moet invullen zoals gespecificeerd in de 'Format'-kolom. In de 'Voorbeeld'-kolom wordt een voorbeeld gegeven van hoe u het attribuut moet invullen.
 Sommige gemeenten werken met mobiele stembureaus die gedurende de dag op verschillende locaties staan. Voor mobiele stembureaus moet elke locatie apart worden ingevoerd in een eigen 'Invulveld'-kolom (vul dus hele kolom in en niet enkel de attributen die veranderen, zoals de locatie en openingstijden).
-Er zijn 1000 'Invulveld'-kolommen, aangezien de gemeente met de meeste stembureaus (Amsterdam) er bijna 800 heeft en er voor mobiele stembureaus dus meerdere 'Invulveld'-kolommen nodig zijn. Mocht dit toch niet genoeg zijn dan kunt u gewoon extra kolommen aanmaken en ze doornummeren.</t>
+Er zijn 1000 'Invulveld'-kolommen, aangezien de gemeente met de meeste stembureaus (Amsterdam) er bijna 500 heeft en er voor mobiele stembureaus dus meerdere 'Invulveld'-kolommen nodig zijn. Mocht dit toch niet genoeg zijn dan kunt u gewoon extra kolommen aanmaken en ze doornummeren.</t>
   </si>
   <si>
     <t xml:space="preserve">Metadata</t>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">Dit tabblad bevat de metadata van deze dataset. Alle velden zijn al ingevuld en puur ter informatie. Ze hoeven dus niet door u aangepast te worden. Voor de metadata wordt gebruik gemaakt van de DCAT standaard: https://data.overheid.nl/dcat. Velden die elke verkiezing hetzelfde blijven hebben ter verduidelijking een grijze achtergrond gekregen.</t>
   </si>
   <si>
-    <t xml:space="preserve">Verplicht (Y/N)</t>
+    <t xml:space="preserve">Verplicht (ja/nee)</t>
   </si>
   <si>
     <t xml:space="preserve">Opmerkingen</t>
@@ -3060,184 +3060,154 @@
     <t xml:space="preserve">Invulveld 1000</t>
   </si>
   <si>
-    <t xml:space="preserve">Stembureau of Afgiftepunt</t>
+    <t xml:space="preserve">Nummer stembureau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een stembureau is gevestigd in een stemlokaal en elk stembureau heeft een eigen nummer. Sommige stemlokalen hebben meerdere stembureaus. Elk stembureau moet apart ingevoerd worden ook al is de locatie (het stemlokaal) hetzelfde aangezien elk stembureau een ander nummer heeft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cijfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naam stembureau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tekst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stadhuis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website locatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website van de locatie van het stembureau, indien aanwezig; Een URL moet met 'http://' of 'https://' beginnen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.denhaag.nl/nl/bestuur-en-organisatie/contact-met-de-gemeente/stadhuis-den-haag.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAG Nummeraanduiding ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAG Nummeraanduiding ID, vindbaar door het adres van het stembureau op https://bagviewer.kadaster.nl/ in te voeren en rechts onder het kopje 'Nummeraanduiding' te kijken.
+Vermeld voor mobiele stembureaus of locaties zonder BAG Nummeraanduiding ID het dichtstbijzijnde BAG Nummeraanduiding ID en gebruik eventueel het 'Extra adresaanduiding'-veld om de locatie van stembureau te beschrijven. NB: de precieze locatie geeft u aan met de 'Latitude' en 'Longitude'-velden of met de ‘X’ en ‘Y’-velden.
+Caribisch Nederland (BES-eilanden) staat niet in de BAG. Deze gemeenten moeten '0000000000000000' (zestien keer het getal '0') invullen en het adres verplicht invullen in het 'Extra adresaanduiding'-attribuut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0518200000747446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra adresaanduiding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja, als er '0000000000000000' is ingevuld bij 'BAG Nummeraanduiding ID'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventuele extra informatie over de locatie van het stembureau. Bv. 'Ingang aan achterkant gebouw' of 'Mobiel stembureau op het midden van het plein'.
+Sommige stembureaus zijn niet open voor algemeen publiek vanwege coronamaatregelen. Bijvoorbeeld een stembureau in een verzorgingshuis. Geef dat in dit veld aan door exact de tekst 'Niet open voor algemeen publiek' in te voeren.
+Caribisch Nederland (BES-eilanden) vult verplicht hier het hele adres in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingang aan achterkant gebouw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Via de deur links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja, alleen als er geen 'BAG Nummeraanduiding ID' beschikbaar is of er een 'BAG Nummeraanduiding ID' gekozen is dat niet precies het adres/de locatie van het stembureau betreft.
+Dan moet er Latitude én Longitude of X én Y ingevuld zijn. (Als alle vier de velden zijn ingevuld dan worden de waarden van Longitude en Latitude gebruikt om X en Y te berekenen als er een verschil is tussen de coördinaten).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rijksdriehoekscoördinaat x (minimaal in meters, decimalen ook toegestaan).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getal tussen 0 en 300000</t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Voor de Tweede Kamerverkiezingen van 2021 zijn er vanwege de maatregelen rondom het coronavirus naast stembureaus ook afgiftepunten beschikbaar. Iedereen ouder dan 70 ontvangt een stempluspas die op de post gedaan kan worden maar ook in de dagen voor en op de verkiezingsdag ingeleverd kan worden bij een afgiftepunt. Via deze standaard wordt zowel informatie over stembureaus als afgiftepunten verzameld.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keuze uit: ‘Stembureau’, ‘Afgiftepunt’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afgiftepunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stembureau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nummer stembureau of afgiftepunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Een stembureau is gevestigd in een stemlokaal en elk stembureau heeft een eigen nummer. Sommige stemlokalen hebben meerdere stembureaus. Elk stembureau moet apart ingevoerd ook al is de locatie (het stemlokaal) hetzelfde aangezien elk stembureau een ander nummer heeft.
-Dit attribuut is niet verplicht voor afgiftepunten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cijfers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naam stembureau of afgiftepunt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dit attribuut is niet verplicht voor afgiftepunten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tekst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stadhuis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website locatie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Website van de locatie van het stembureau/afgiftepunt, indien aanwezig; Een URL moet met 'http://' of 'https://' beginnen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.denhaag.nl/nl/bestuur-en-organisatie/contact-met-de-gemeente/stadhuis-den-haag.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAG referentie nummer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAG Nummeraanduiding ID, vindbaar door het adres van het stembureau/afgiftepunt op https://bagviewer.kadaster.nl/ in te voeren en rechts onder het kopje 'Nummeraanduiding' te kijken.
-Vermeld voor mobiele stembureaus of lokaties zonder BAG Nummeraanduiding ID het dichtstbijzijnde BAG Nummeraanduiding ID en gebruik eventueel het 'Extra adresaanduiding'-veld om de locatie van stembureau te beschrijven. NB: de precieze locatie geeft u aan met de 'Latitude' en 'Longitude'-velden.
-Caribisch Nederland (BES-eilanden) staat niet in de BAG. Deze gemeenten moeten “0000000000000000” (zestien keer het getal "0") invullen en het adres verplicht invullen in het ‘Extra adresaanduiding’-attribuut.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0518200000747446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extra adresaanduiding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eventuele extra informatie over de locatie van het stembureau/afgiftepunt. Bv. 'Ingang aan achterkant gebouw' of 'Mobiel stembureau op het midden van het plein'.
-Caribisch Nederland (BES-eilanden) vult verplicht hier het hele adres in.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Via de deur links</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rijksdriehoekscoördinaat x (minimaal in meters, decimalen ook toegestaan).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getal tussen 0 en 300000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rijksdriehoekscoördinaat y (minimaal in meters, decimalen ook toegestaan).</t>
   </si>
   <si>
     <t xml:space="preserve">getal tussen 300000 en 620000</t>
   </si>
   <si>
+    <t xml:space="preserve">Latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breedtegraad (DD.dddddd notatie), bv. 52.0775912; minimaal 4 decimalen.
+Als u de latitude van het stembureau niet weet dan kunt u dit vinden via https://www.openstreetmap.org/. Zoom in op het stembureau, klik op de juiste locatie met de rechtermuisknop en selecteer 'Show address'/'Toon adres'. De latitude en longitude (in die volgorde) staan nu linksboven in de zoekbalk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graden in DD.dddddd notatie; minimaal 4 decimalen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Longitude</t>
   </si>
   <si>
     <t xml:space="preserve">Lengtegraad (DD.dddddd notatie), bv. 4.3166395; minimaal 4 decimalen.
-Als u de longitude van het stembureau/afgiftepunt niet weet dan kunt u dit vinden via https://www.openstreetmap.org/. Zoom in op het stembureau/afgiftepunt, klik op de juiste locatie met de rechtermuisknop en selecteer "Show address"/"Toon adres". De latitude en longitude (in die volgorde) staan nu linksboven in de zoekbalk.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">graden in DD.dddddd notatie; minimaal 4 decimalen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breedtegraad (DD.dddddd notatie), bv. 52.0775912; minimaal 4 decimalen.
-Als u de latitude van het stembureau/afgiftepunt niet weet dan kunt u dit vinden via https://www.openstreetmap.org/. Zoom in op het stembureau/afgiftepunt, klik op de juiste locatie met de rechtermuisknop en selecteer "Show address"/"Toon adres". De latitude en longitude (in die volgorde) staan nu linksboven in de zoekbalk.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Openingstijden 10-03-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sommige gemeenten werken met mobiele stembureaus die gedurende de dag op verschillende locaties staan. Voor mobiele stembureaus moet elke locatie apart worden ingevoerd in een eigen 'Invulveld'-kolom (vul dus de hele kolom in en niet enkel de attributen die veranderen, zoals de locatie en openingstijden).
-Tijdens de Tweede Kamerverkiezingen van 2021 wordt er op meerdere dagen gestemd via zowel stembureaus (3 dagen) als afgiftepunten (8 dagen). Om dit te faciliteren kan er voor elke dag een rij met openingstijden worden toegevoegd.</t>
+Als u de longitude van het stembureau niet weet dan kunt u dit vinden via https://www.openstreetmap.org/. Zoom in op het stembureau, klik op de juiste locatie met de rechtermuisknop en selecteer 'Show address'/'Toon adres'. De latitude en longitude (in die volgorde) staan nu linksboven in de zoekbalk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openingstijden 14-03-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja, er minimaal één openingstijden-attribuut ingevuld worden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zie opmerking bij het ‘Openingstijden 16-03-2022’-attribuut</t>
   </si>
   <si>
     <t xml:space="preserve">YYYY-MM-DDTHH:MM:SS tot YYYY-MM-DDTHH:MM:SS</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-03-10T07:30:00 tot 2021-03-10T21:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Openingstijden 11-03-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-11T07:30:00 tot 2021-03-11T21:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Openingstijden 12-03-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-12T07:30:00 tot 2021-03-12T21:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Openingstijden 13-03-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-13T07:30:00 tot 2021-03-13T21:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Openingstijden 14-03-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-14T07:30:00 tot 2021-03-14T21:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Openingstijden 15-03-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-15T07:30:00 tot 2021-03-15T21:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Openingstijden 16-03-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-16T07:30:00 tot 2021-03-16T21:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Openingstijden 17-03-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-17T07:30:00 tot 2021-03-17T21:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mindervaliden toegankelijk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is het stembureau/afgiftepunt toegankelijk voor mindervaliden?
+    <t xml:space="preserve">2022-03-14T07:30:00 tot 2022-03-14T21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openingstijden 15-03-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-15T07:30:00 tot 2022-03-15T21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Openingstijden 16-03-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sommige gemeenten werken met mobiele stembureaus die gedurende de dag op verschillende locaties staan. Voor mobiele stembureaus moet elke locatie apart worden ingevoerd in een eigen 'Invulveld'-kolom (vul dus de hele kolom in en niet enkel de attributen die veranderen, zoals de locatie en openingstijden).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-16T07:30:00 tot 2022-03-16T21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toegankelijk voor mensen met een lichamelijke beperking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is het stembureau toegankelijk voor mensen met een lichamelijke beperking?
 Voor meer informatie, zie:
-https://www.rijksoverheid.nl/documenten/publicaties/2018/10/25/toolkit-verkiezingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y of N</t>
+https://www.rijksoverheid.nl/documenten/publicaties/2021/10/14/toegankelijkheid-verkiezingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja of nee</t>
   </si>
   <si>
     <t xml:space="preserve">Akoestiek</t>
   </si>
   <si>
-    <t xml:space="preserve">Is de akoestiek van het stembureau/afgiftepunt geschikt voor slechthorenden?
+    <t xml:space="preserve">Is de akoestiek van het stembureau geschikt voor slechthorenden?
 Voor meer informatie, zie: https://bk.nijsnet.com/04040_Slechthorenden.aspx</t>
   </si>
   <si>
@@ -3247,7 +3217,7 @@
     <t xml:space="preserve">Welke auditieve hulpmiddelen zijn aanwezig? Dit is een vrij tekstveld.</t>
   </si>
   <si>
-    <t xml:space="preserve">Doventolk, ringleiding</t>
+    <t xml:space="preserve">gebarentolk</t>
   </si>
   <si>
     <t xml:space="preserve">Visuele hulpmiddelen</t>
@@ -3256,13 +3226,13 @@
     <t xml:space="preserve">Welke visuele hulpmiddelen zijn aanwezig? Dit is een vrij tekstveld.</t>
   </si>
   <si>
-    <t xml:space="preserve">Leesloep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mindervalide toilet aanwezig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is er een mindervalide toilet aanwezig? </t>
+    <t xml:space="preserve">leesloep, stemmal, vrijwilliger/host aanwezig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gehandicaptentoilet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is er een gehandicaptentoilet aanwezig? </t>
   </si>
   <si>
     <t xml:space="preserve">Tellocatie</t>
@@ -3271,10 +3241,10 @@
     <t xml:space="preserve">Is deze locatie ook een locatie waar de stemmen worden geteld?</t>
   </si>
   <si>
-    <t xml:space="preserve">Contactgegevens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;afdeling/functie&gt;: De afdeling of specifieke functie binnen de gemeente die zich bezig houdt met de stembureaus/afgiftepunten; ivm verduurzaming bij voorkeur dus niet de naam/contactgegevens van een persoon</t>
+    <t xml:space="preserve">Contactgegevens gemeente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;afdeling/functie&gt;: De afdeling of specifieke functie binnen de gemeente die zich bezig houdt met de stembureaus; i.v.m. verduurzaming bij voorkeur dus niet de naam/contactgegevens van een persoon.</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;afdeling/functie&gt;, &lt;e-mailadres en/of telefoonnummer en/of postadres&gt;</t>
@@ -3283,16 +3253,13 @@
     <t xml:space="preserve">Unit Verkiezingen, verkiezingen@denhaag.nl 070-3534488 Gemeente Den Haag Publiekszaken/Unit Verkiezingen Postbus 84008 2508 AA Den Haag</t>
   </si>
   <si>
-    <t xml:space="preserve">Beschikbaarheid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL van de gemeentewebsite met data of informatie over de stembureaus/afgiftepunten (of verkiezingen); Een URL moet met 'http://' of 'https://' beginnen.</t>
+    <t xml:space="preserve">Verkiezingswebsite gemeente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL van de gemeentewebsite met data of informatie over de stembureaus (of verkiezingen); Een URL moet met 'http://' of 'https://' beginnen.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.stembureausindenhaag.nl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invulveld</t>
   </si>
   <si>
     <t xml:space="preserve">Titel</t>
@@ -3305,13 +3272,13 @@
     <t xml:space="preserve">Stembureaus &lt;verkiezing&gt; &lt;jaar&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;wordt automatisch ingevuld afhankelijk van de verkiezing&gt;</t>
+    <t xml:space="preserve">Stembureaus gemeenteraadsverkiezingen 2022</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;CBS gemeentecode&gt;: code bestaande uit 6 karakters, zie https://opendata.cbs.nl/#/CBS/nl/dataset/84929NED/table?dl=B165
+    <t xml:space="preserve">&lt;CBS gemeentecode&gt;: code bestaande uit 6 karakters, zie https://opendata.cbs.nl/statline/#/CBS/nl/dataset/85067NED/table?dl=B165 of gebruik GM9001 voor Bonaire, GM9002 voor Sint Eustatius of GM9003 voor Saba.
 &lt;YYYYMMDD&gt;: datum van de verkiezing
 &lt;oplopend getal&gt;: getal tussen 000 en 999</t>
   </si>
@@ -3319,14 +3286,20 @@
     <t xml:space="preserve">NLODS&lt;CBS gemeentecode&gt;stembureaus&lt;YYYYMMDD&gt;&lt;oplopend getal van 000 t/m 999&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">NLODSGM0518stembureaus20220316009</t>
+  </si>
+  <si>
     <t xml:space="preserve">Omschrijving</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;verkiezing&gt;: keuze uit 'de Tweede Kamerverkiezingen', 'de gemeenteraadsverkiezingen', 'de Provinciale Statenverkiezingen', 'referendum &lt;naam van referendum&gt;', 'de kiescollegeverkiezingen', 'de eilandsraadsverkiezingen', 'de Europees Parlementsverkiezingen', 'de waterschapsverkiezingen', 'verkiezingen gebiedscommissies en wijkraden' en 'verkiezingen stadsdeelcommissies'
-&lt;datum&gt;: in format zoals '17 maart 2021'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overzicht van de locaties van stembureaus en afgiftepunten. De gegevens hebben betrekking op &lt;verkiezing&gt; op &lt;datum&gt;.</t>
+&lt;datum&gt;: in format zoals '16 maart 2022'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overzicht van de locaties van stembureaus. De gegevens hebben betrekking op &lt;verkiezing&gt; op &lt;datum&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overzicht van de locaties van stembureaus. De gegevens hebben betrekking op de gemeenteraadsverkiezingen op 16 maart 2022.</t>
   </si>
   <si>
     <t xml:space="preserve">Eigenaar</t>
@@ -3362,7 +3335,10 @@
     <t xml:space="preserve">&lt;aard van de verkiezing&gt;: keuze uit 'Tweede Kamerverkiezingen', 'gemeenteraadsverkiezingen', 'Provinciale Statenverkiezingen', 'referendum', 'eilandsraadsverkiezingen', 'kiescollegeverkiezingen', 'Europees Parlementsverkiezingen', 'waterschapsverkiezingen', 'verkiezingen gebiedscommissies en wijkraden' en 'verkiezingen stadsdeelcommissies'</t>
   </si>
   <si>
-    <t xml:space="preserve">verkiezingen, stembureaus, afgiftepunten, overheid, democratie, stemmen, kiesdistrict, &lt;aard van de verkiezing&gt;</t>
+    <t xml:space="preserve">verkiezingen, stembureaus, overheid, democratie, stemmen, kiesdistrict, &lt;aard van de verkiezing&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verkiezingen, stembureaus, overheid, democratie, stemmen, kiesdistrict, gemeenteraadsverkiezingen</t>
   </si>
   <si>
     <t xml:space="preserve">Thema</t>
@@ -3391,6 +3367,9 @@
     <t xml:space="preserve">&lt;gebied&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Europees Nederland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Datum publicatie</t>
   </si>
   <si>
@@ -3400,6 +3379,9 @@
     <t xml:space="preserve">YYYY-MM-DDTHH:MM:SS+-HH:MM</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-01-16T13:05:23+01:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Relatie / gebruik andere standaarden</t>
   </si>
   <si>
@@ -3415,16 +3397,19 @@
     <t xml:space="preserve">YYYY-MM-DD</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-03-16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Update frequentie</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;datum verkiezing&gt;: in format zoals '17 maart 2021'</t>
+    <t xml:space="preserve">&lt;datum verkiezing&gt;: in format zoals '16 maart 2022'</t>
   </si>
   <si>
     <t xml:space="preserve">Incidenteel tot en met &lt;datum verkiezing&gt; (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezing)</t>
   </si>
   <si>
-    <t xml:space="preserve">Incidenteel tot en met 17 maart 2021 (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezingen)</t>
+    <t xml:space="preserve">Incidenteel tot en met 16 maart 2022 (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezingen)</t>
   </si>
   <si>
     <t xml:space="preserve">Wijzigings datum</t>
@@ -3446,7 +3431,7 @@
 Invoer is "vast"</t>
   </si>
   <si>
-    <t xml:space="preserve">Stembureaus ODS 1.2</t>
+    <t xml:space="preserve">Stembureaus ODS 1.3</t>
   </si>
   <si>
     <t xml:space="preserve">Status</t>
@@ -3460,6 +3445,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;status&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In ontwikkeling</t>
   </si>
   <si>
     <t xml:space="preserve">Beschikbare formaten</t>
@@ -3632,14 +3620,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -3656,15 +3636,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3734,14 +3722,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -3775,7 +3763,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3805,51 +3793,93 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
@@ -3862,32 +3892,38 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="11" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3912,94 +3948,102 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="12" borderId="0" xfId="42" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="12" borderId="0" xfId="42" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="60" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="44" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="61" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="12" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="12" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="12" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="45" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="46" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="46" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="46" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="48" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="12" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4008,27 +4052,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="42" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4036,28 +4088,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="46" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="48" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="47" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="48" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="46" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="46" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -4065,7 +4117,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -4073,34 +4125,50 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Accent 1 18" xfId="21"/>
-    <cellStyle name="Accent 17" xfId="22"/>
-    <cellStyle name="Accent 2 19" xfId="23"/>
-    <cellStyle name="Accent 3 20" xfId="24"/>
-    <cellStyle name="Bad 14" xfId="25"/>
-    <cellStyle name="Error 16" xfId="26"/>
-    <cellStyle name="Footnote 9" xfId="27"/>
-    <cellStyle name="Good 12" xfId="28"/>
-    <cellStyle name="Heading 1 5" xfId="29"/>
-    <cellStyle name="Heading 2 6" xfId="30"/>
-    <cellStyle name="Heading 3" xfId="31"/>
-    <cellStyle name="Heading 4" xfId="32"/>
-    <cellStyle name="Heading1" xfId="33"/>
-    <cellStyle name="Hyperlink 10" xfId="34"/>
-    <cellStyle name="Neutral 13" xfId="35"/>
-    <cellStyle name="Note 8" xfId="36"/>
-    <cellStyle name="Result" xfId="37"/>
-    <cellStyle name="Result2" xfId="38"/>
-    <cellStyle name="Status 11" xfId="39"/>
-    <cellStyle name="Text 7" xfId="40"/>
-    <cellStyle name="Warning 15" xfId="41"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="42"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="43"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Neutral" xfId="44"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="45"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="46"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="47"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Neutral" xfId="48"/>
+    <cellStyle name="Accent 1 19" xfId="22"/>
+    <cellStyle name="Accent 17" xfId="23"/>
+    <cellStyle name="Accent 18" xfId="24"/>
+    <cellStyle name="Accent 2 19" xfId="25"/>
+    <cellStyle name="Accent 2 20" xfId="26"/>
+    <cellStyle name="Accent 3 20" xfId="27"/>
+    <cellStyle name="Accent 3 21" xfId="28"/>
+    <cellStyle name="Bad 14" xfId="29"/>
+    <cellStyle name="Bad 15" xfId="30"/>
+    <cellStyle name="Error 16" xfId="31"/>
+    <cellStyle name="Error 17" xfId="32"/>
+    <cellStyle name="Footnote 10" xfId="33"/>
+    <cellStyle name="Footnote 9" xfId="34"/>
+    <cellStyle name="Good 12" xfId="35"/>
+    <cellStyle name="Good 13" xfId="36"/>
+    <cellStyle name="Heading 1 5" xfId="37"/>
+    <cellStyle name="Heading 1 6" xfId="38"/>
+    <cellStyle name="Heading 2 6" xfId="39"/>
+    <cellStyle name="Heading 2 7" xfId="40"/>
+    <cellStyle name="Heading 3" xfId="41"/>
+    <cellStyle name="Heading 4" xfId="42"/>
+    <cellStyle name="Heading 5" xfId="43"/>
+    <cellStyle name="Heading1" xfId="44"/>
+    <cellStyle name="Hyperlink 10" xfId="45"/>
+    <cellStyle name="Hyperlink 11" xfId="46"/>
+    <cellStyle name="Neutral 13" xfId="47"/>
+    <cellStyle name="Neutral 14" xfId="48"/>
+    <cellStyle name="Note 8" xfId="49"/>
+    <cellStyle name="Note 9" xfId="50"/>
+    <cellStyle name="Result" xfId="51"/>
+    <cellStyle name="Result2" xfId="52"/>
+    <cellStyle name="Status 11" xfId="53"/>
+    <cellStyle name="Status 12" xfId="54"/>
+    <cellStyle name="Text 7" xfId="55"/>
+    <cellStyle name="Text 8" xfId="56"/>
+    <cellStyle name="Warning 15" xfId="57"/>
+    <cellStyle name="Warning 16" xfId="58"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="59"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="60"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Good" xfId="61"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Bad" xfId="62"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Neutral" xfId="63"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="64"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -4173,7 +4241,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4236,3048 +4304,3047 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:ALQ28"/>
+  <dimension ref="A1:AMJ26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="36.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="25.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="53.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="64.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="46.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="4" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="4" width="11.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="4" width="51.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="51.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1005" min="9" style="4" width="51.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1006" style="4" width="11.18"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AM1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AN1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AO1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AR1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AT1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AU1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AV1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AW1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AX1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AY1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BA1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BB1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BC1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BD1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BE1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BF1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BG1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BH1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BI1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BK1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BL1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BM1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BN1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BO1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BP1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="BR1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="BS1" s="8" t="s">
+      <c r="BS1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="BT1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="BU1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="BV1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="BW1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="BX1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="BY1" s="8" t="s">
+      <c r="BY1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="BZ1" s="8" t="s">
+      <c r="BZ1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CA1" s="8" t="s">
+      <c r="CA1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CB1" s="8" t="s">
+      <c r="CB1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CC1" s="8" t="s">
+      <c r="CC1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CD1" s="8" t="s">
+      <c r="CD1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CE1" s="8" t="s">
+      <c r="CE1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CF1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="CG1" s="8" t="s">
+      <c r="CG1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="CH1" s="8" t="s">
+      <c r="CH1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="CI1" s="8" t="s">
+      <c r="CI1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="CJ1" s="8" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="CK1" s="8" t="s">
+      <c r="CK1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="CL1" s="8" t="s">
+      <c r="CL1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="CM1" s="8" t="s">
+      <c r="CM1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CN1" s="8" t="s">
+      <c r="CN1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="CO1" s="8" t="s">
+      <c r="CO1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="CP1" s="8" t="s">
+      <c r="CP1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="CQ1" s="8" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="CR1" s="8" t="s">
+      <c r="CR1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="CS1" s="8" t="s">
+      <c r="CS1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="CT1" s="8" t="s">
+      <c r="CT1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="CU1" s="8" t="s">
+      <c r="CU1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="CV1" s="8" t="s">
+      <c r="CV1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="CW1" s="8" t="s">
+      <c r="CW1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="CX1" s="8" t="s">
+      <c r="CX1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="CY1" s="8" t="s">
+      <c r="CY1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="CZ1" s="8" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="DA1" s="8" t="s">
+      <c r="DA1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="DB1" s="8" t="s">
+      <c r="DB1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="DC1" s="8" t="s">
+      <c r="DC1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="DD1" s="8" t="s">
+      <c r="DD1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="DE1" s="8" t="s">
+      <c r="DE1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="DF1" s="8" t="s">
+      <c r="DF1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="DG1" s="8" t="s">
+      <c r="DG1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="DH1" s="8" t="s">
+      <c r="DH1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="DI1" s="8" t="s">
+      <c r="DI1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="DJ1" s="8" t="s">
+      <c r="DJ1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="DK1" s="8" t="s">
+      <c r="DK1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="DL1" s="8" t="s">
+      <c r="DL1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="DM1" s="8" t="s">
+      <c r="DM1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="DN1" s="8" t="s">
+      <c r="DN1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="DO1" s="8" t="s">
+      <c r="DO1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="DP1" s="8" t="s">
+      <c r="DP1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="DQ1" s="8" t="s">
+      <c r="DQ1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="DR1" s="8" t="s">
+      <c r="DR1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="DS1" s="8" t="s">
+      <c r="DS1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="DT1" s="8" t="s">
+      <c r="DT1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="DU1" s="8" t="s">
+      <c r="DU1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="DV1" s="8" t="s">
+      <c r="DV1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="DW1" s="8" t="s">
+      <c r="DW1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="DX1" s="8" t="s">
+      <c r="DX1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="DY1" s="8" t="s">
+      <c r="DY1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="DZ1" s="8" t="s">
+      <c r="DZ1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="EA1" s="8" t="s">
+      <c r="EA1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="EB1" s="8" t="s">
+      <c r="EB1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="EC1" s="8" t="s">
+      <c r="EC1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="ED1" s="8" t="s">
+      <c r="ED1" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="EE1" s="8" t="s">
+      <c r="EE1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="EF1" s="8" t="s">
+      <c r="EF1" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="EG1" s="8" t="s">
+      <c r="EG1" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="EH1" s="8" t="s">
+      <c r="EH1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="EI1" s="8" t="s">
+      <c r="EI1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="EJ1" s="8" t="s">
+      <c r="EJ1" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="EK1" s="8" t="s">
+      <c r="EK1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="EL1" s="8" t="s">
+      <c r="EL1" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="EM1" s="8" t="s">
+      <c r="EM1" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="EN1" s="8" t="s">
+      <c r="EN1" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="EO1" s="8" t="s">
+      <c r="EO1" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="EP1" s="8" t="s">
+      <c r="EP1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="EQ1" s="8" t="s">
+      <c r="EQ1" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="ER1" s="8" t="s">
+      <c r="ER1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="ES1" s="8" t="s">
+      <c r="ES1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="ET1" s="8" t="s">
+      <c r="ET1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="EU1" s="8" t="s">
+      <c r="EU1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="EV1" s="8" t="s">
+      <c r="EV1" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="EW1" s="8" t="s">
+      <c r="EW1" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="EX1" s="8" t="s">
+      <c r="EX1" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="EY1" s="8" t="s">
+      <c r="EY1" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="EZ1" s="8" t="s">
+      <c r="EZ1" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="FA1" s="8" t="s">
+      <c r="FA1" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="FB1" s="8" t="s">
+      <c r="FB1" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="FC1" s="8" t="s">
+      <c r="FC1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="FD1" s="8" t="s">
+      <c r="FD1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="FE1" s="8" t="s">
+      <c r="FE1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="FF1" s="8" t="s">
+      <c r="FF1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="FG1" s="8" t="s">
+      <c r="FG1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="FH1" s="8" t="s">
+      <c r="FH1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="FI1" s="8" t="s">
+      <c r="FI1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="FJ1" s="8" t="s">
+      <c r="FJ1" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="FK1" s="8" t="s">
+      <c r="FK1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="FL1" s="8" t="s">
+      <c r="FL1" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="FM1" s="8" t="s">
+      <c r="FM1" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="FN1" s="8" t="s">
+      <c r="FN1" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="FO1" s="8" t="s">
+      <c r="FO1" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="FP1" s="8" t="s">
+      <c r="FP1" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="FQ1" s="8" t="s">
+      <c r="FQ1" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="FR1" s="8" t="s">
+      <c r="FR1" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="FS1" s="8" t="s">
+      <c r="FS1" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="FT1" s="8" t="s">
+      <c r="FT1" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="FU1" s="8" t="s">
+      <c r="FU1" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="FV1" s="8" t="s">
+      <c r="FV1" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="FW1" s="8" t="s">
+      <c r="FW1" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="FX1" s="8" t="s">
+      <c r="FX1" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="FY1" s="8" t="s">
+      <c r="FY1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="FZ1" s="8" t="s">
+      <c r="FZ1" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="GA1" s="8" t="s">
+      <c r="GA1" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="GB1" s="8" t="s">
+      <c r="GB1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="GC1" s="8" t="s">
+      <c r="GC1" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="GD1" s="8" t="s">
+      <c r="GD1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="GE1" s="8" t="s">
+      <c r="GE1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="GF1" s="8" t="s">
+      <c r="GF1" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="GG1" s="8" t="s">
+      <c r="GG1" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="GH1" s="8" t="s">
+      <c r="GH1" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="GI1" s="8" t="s">
+      <c r="GI1" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="GJ1" s="8" t="s">
+      <c r="GJ1" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="GK1" s="8" t="s">
+      <c r="GK1" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="GL1" s="8" t="s">
+      <c r="GL1" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="GM1" s="8" t="s">
+      <c r="GM1" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="GN1" s="8" t="s">
+      <c r="GN1" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="GO1" s="8" t="s">
+      <c r="GO1" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="GP1" s="8" t="s">
+      <c r="GP1" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="GQ1" s="8" t="s">
+      <c r="GQ1" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="GR1" s="8" t="s">
+      <c r="GR1" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="GS1" s="8" t="s">
+      <c r="GS1" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="GT1" s="8" t="s">
+      <c r="GT1" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="GU1" s="8" t="s">
+      <c r="GU1" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="GV1" s="8" t="s">
+      <c r="GV1" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="GW1" s="8" t="s">
+      <c r="GW1" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="GX1" s="8" t="s">
+      <c r="GX1" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="GY1" s="8" t="s">
+      <c r="GY1" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="GZ1" s="8" t="s">
+      <c r="GZ1" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="HA1" s="8" t="s">
+      <c r="HA1" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="HB1" s="8" t="s">
+      <c r="HB1" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="HC1" s="8" t="s">
+      <c r="HC1" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="HD1" s="8" t="s">
+      <c r="HD1" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="HE1" s="8" t="s">
+      <c r="HE1" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="HF1" s="8" t="s">
+      <c r="HF1" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="HG1" s="8" t="s">
+      <c r="HG1" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="HH1" s="8" t="s">
+      <c r="HH1" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="HI1" s="8" t="s">
+      <c r="HI1" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="HJ1" s="8" t="s">
+      <c r="HJ1" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="HK1" s="8" t="s">
+      <c r="HK1" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="HL1" s="8" t="s">
+      <c r="HL1" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="HM1" s="8" t="s">
+      <c r="HM1" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="HN1" s="8" t="s">
+      <c r="HN1" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="HO1" s="8" t="s">
+      <c r="HO1" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="HP1" s="8" t="s">
+      <c r="HP1" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="HQ1" s="8" t="s">
+      <c r="HQ1" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="HR1" s="8" t="s">
+      <c r="HR1" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="HS1" s="8" t="s">
+      <c r="HS1" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="HT1" s="8" t="s">
+      <c r="HT1" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="HU1" s="8" t="s">
+      <c r="HU1" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="HV1" s="8" t="s">
+      <c r="HV1" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="HW1" s="8" t="s">
+      <c r="HW1" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="HX1" s="8" t="s">
+      <c r="HX1" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="HY1" s="8" t="s">
+      <c r="HY1" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="HZ1" s="8" t="s">
+      <c r="HZ1" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="IA1" s="8" t="s">
+      <c r="IA1" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="IB1" s="8" t="s">
+      <c r="IB1" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="IC1" s="8" t="s">
+      <c r="IC1" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="ID1" s="8" t="s">
+      <c r="ID1" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="IE1" s="8" t="s">
+      <c r="IE1" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="IF1" s="8" t="s">
+      <c r="IF1" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="IG1" s="8" t="s">
+      <c r="IG1" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="IH1" s="8" t="s">
+      <c r="IH1" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="II1" s="8" t="s">
+      <c r="II1" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="IJ1" s="8" t="s">
+      <c r="IJ1" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="IK1" s="8" t="s">
+      <c r="IK1" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="IL1" s="8" t="s">
+      <c r="IL1" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="IM1" s="8" t="s">
+      <c r="IM1" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="IN1" s="8" t="s">
+      <c r="IN1" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="IO1" s="8" t="s">
+      <c r="IO1" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="IP1" s="8" t="s">
+      <c r="IP1" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="IQ1" s="8" t="s">
+      <c r="IQ1" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="IR1" s="8" t="s">
+      <c r="IR1" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="IS1" s="8" t="s">
+      <c r="IS1" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="IT1" s="8" t="s">
+      <c r="IT1" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="IU1" s="8" t="s">
+      <c r="IU1" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="IV1" s="8" t="s">
+      <c r="IV1" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="IW1" s="8" t="s">
+      <c r="IW1" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="IX1" s="8" t="s">
+      <c r="IX1" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="IY1" s="8" t="s">
+      <c r="IY1" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="IZ1" s="8" t="s">
+      <c r="IZ1" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="JA1" s="8" t="s">
+      <c r="JA1" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="JB1" s="8" t="s">
+      <c r="JB1" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="JC1" s="8" t="s">
+      <c r="JC1" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="JD1" s="8" t="s">
+      <c r="JD1" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="JE1" s="8" t="s">
+      <c r="JE1" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="JF1" s="8" t="s">
+      <c r="JF1" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="JG1" s="8" t="s">
+      <c r="JG1" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="JH1" s="8" t="s">
+      <c r="JH1" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="JI1" s="8" t="s">
+      <c r="JI1" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="JJ1" s="8" t="s">
+      <c r="JJ1" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="JK1" s="8" t="s">
+      <c r="JK1" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="JL1" s="8" t="s">
+      <c r="JL1" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="JM1" s="8" t="s">
+      <c r="JM1" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="JN1" s="8" t="s">
+      <c r="JN1" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="JO1" s="8" t="s">
+      <c r="JO1" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="JP1" s="8" t="s">
+      <c r="JP1" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="JQ1" s="8" t="s">
+      <c r="JQ1" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="JR1" s="8" t="s">
+      <c r="JR1" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="JS1" s="8" t="s">
+      <c r="JS1" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="JT1" s="8" t="s">
+      <c r="JT1" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="JU1" s="8" t="s">
+      <c r="JU1" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="JV1" s="8" t="s">
+      <c r="JV1" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="JW1" s="8" t="s">
+      <c r="JW1" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="JX1" s="8" t="s">
+      <c r="JX1" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="JY1" s="8" t="s">
+      <c r="JY1" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="JZ1" s="8" t="s">
+      <c r="JZ1" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="KA1" s="8" t="s">
+      <c r="KA1" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="KB1" s="8" t="s">
+      <c r="KB1" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="KC1" s="8" t="s">
+      <c r="KC1" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="KD1" s="8" t="s">
+      <c r="KD1" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="KE1" s="8" t="s">
+      <c r="KE1" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="KF1" s="8" t="s">
+      <c r="KF1" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="KG1" s="8" t="s">
+      <c r="KG1" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="KH1" s="8" t="s">
+      <c r="KH1" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="KI1" s="8" t="s">
+      <c r="KI1" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="KJ1" s="8" t="s">
+      <c r="KJ1" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="KK1" s="8" t="s">
+      <c r="KK1" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="KL1" s="8" t="s">
+      <c r="KL1" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="KM1" s="8" t="s">
+      <c r="KM1" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="KN1" s="8" t="s">
+      <c r="KN1" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="KO1" s="8" t="s">
+      <c r="KO1" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="KP1" s="8" t="s">
+      <c r="KP1" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="KQ1" s="8" t="s">
+      <c r="KQ1" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="KR1" s="8" t="s">
+      <c r="KR1" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="KS1" s="8" t="s">
+      <c r="KS1" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="KT1" s="8" t="s">
+      <c r="KT1" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="KU1" s="8" t="s">
+      <c r="KU1" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="KV1" s="8" t="s">
+      <c r="KV1" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="KW1" s="8" t="s">
+      <c r="KW1" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="KX1" s="8" t="s">
+      <c r="KX1" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="KY1" s="8" t="s">
+      <c r="KY1" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="KZ1" s="8" t="s">
+      <c r="KZ1" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="LA1" s="8" t="s">
+      <c r="LA1" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="LB1" s="8" t="s">
+      <c r="LB1" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="LC1" s="8" t="s">
+      <c r="LC1" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="LD1" s="8" t="s">
+      <c r="LD1" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="LE1" s="8" t="s">
+      <c r="LE1" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="LF1" s="8" t="s">
+      <c r="LF1" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="LG1" s="8" t="s">
+      <c r="LG1" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="LH1" s="8" t="s">
+      <c r="LH1" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="LI1" s="8" t="s">
+      <c r="LI1" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="LJ1" s="8" t="s">
+      <c r="LJ1" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="LK1" s="8" t="s">
+      <c r="LK1" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="LL1" s="8" t="s">
+      <c r="LL1" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="LM1" s="8" t="s">
+      <c r="LM1" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="LN1" s="8" t="s">
+      <c r="LN1" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="LO1" s="8" t="s">
+      <c r="LO1" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="LP1" s="8" t="s">
+      <c r="LP1" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="LQ1" s="8" t="s">
+      <c r="LQ1" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="LR1" s="8" t="s">
+      <c r="LR1" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="LS1" s="8" t="s">
+      <c r="LS1" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="LT1" s="8" t="s">
+      <c r="LT1" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="LU1" s="8" t="s">
+      <c r="LU1" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="LV1" s="8" t="s">
+      <c r="LV1" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="LW1" s="8" t="s">
+      <c r="LW1" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="LX1" s="8" t="s">
+      <c r="LX1" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="LY1" s="8" t="s">
+      <c r="LY1" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="LZ1" s="8" t="s">
+      <c r="LZ1" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="MA1" s="8" t="s">
+      <c r="MA1" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="MB1" s="8" t="s">
+      <c r="MB1" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="MC1" s="8" t="s">
+      <c r="MC1" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="MD1" s="8" t="s">
+      <c r="MD1" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="ME1" s="8" t="s">
+      <c r="ME1" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="MF1" s="8" t="s">
+      <c r="MF1" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="MG1" s="8" t="s">
+      <c r="MG1" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="MH1" s="8" t="s">
+      <c r="MH1" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="MI1" s="8" t="s">
+      <c r="MI1" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="MJ1" s="8" t="s">
+      <c r="MJ1" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="MK1" s="8" t="s">
+      <c r="MK1" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="ML1" s="8" t="s">
+      <c r="ML1" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="MM1" s="8" t="s">
+      <c r="MM1" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="MN1" s="8" t="s">
+      <c r="MN1" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="MO1" s="8" t="s">
+      <c r="MO1" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="MP1" s="8" t="s">
+      <c r="MP1" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="MQ1" s="8" t="s">
+      <c r="MQ1" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="MR1" s="8" t="s">
+      <c r="MR1" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="MS1" s="8" t="s">
+      <c r="MS1" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="MT1" s="8" t="s">
+      <c r="MT1" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="MU1" s="8" t="s">
+      <c r="MU1" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="MV1" s="8" t="s">
+      <c r="MV1" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="MW1" s="8" t="s">
+      <c r="MW1" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="MX1" s="8" t="s">
+      <c r="MX1" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="MY1" s="8" t="s">
+      <c r="MY1" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="MZ1" s="8" t="s">
+      <c r="MZ1" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="NA1" s="8" t="s">
+      <c r="NA1" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="NB1" s="8" t="s">
+      <c r="NB1" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="NC1" s="8" t="s">
+      <c r="NC1" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="ND1" s="8" t="s">
+      <c r="ND1" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="NE1" s="8" t="s">
+      <c r="NE1" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="NF1" s="8" t="s">
+      <c r="NF1" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="NG1" s="8" t="s">
+      <c r="NG1" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="NH1" s="8" t="s">
+      <c r="NH1" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="NI1" s="8" t="s">
+      <c r="NI1" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="NJ1" s="8" t="s">
+      <c r="NJ1" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="NK1" s="8" t="s">
+      <c r="NK1" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="NL1" s="8" t="s">
+      <c r="NL1" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="NM1" s="8" t="s">
+      <c r="NM1" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="NN1" s="8" t="s">
+      <c r="NN1" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="NO1" s="8" t="s">
+      <c r="NO1" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="NP1" s="8" t="s">
+      <c r="NP1" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="NQ1" s="8" t="s">
+      <c r="NQ1" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="NR1" s="8" t="s">
+      <c r="NR1" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="NS1" s="8" t="s">
+      <c r="NS1" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="NT1" s="8" t="s">
+      <c r="NT1" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="NU1" s="8" t="s">
+      <c r="NU1" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="NV1" s="8" t="s">
+      <c r="NV1" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="NW1" s="8" t="s">
+      <c r="NW1" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="NX1" s="8" t="s">
+      <c r="NX1" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="NY1" s="8" t="s">
+      <c r="NY1" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="NZ1" s="8" t="s">
+      <c r="NZ1" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="OA1" s="8" t="s">
+      <c r="OA1" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="OB1" s="8" t="s">
+      <c r="OB1" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="OC1" s="8" t="s">
+      <c r="OC1" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="OD1" s="8" t="s">
+      <c r="OD1" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="OE1" s="8" t="s">
+      <c r="OE1" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="OF1" s="8" t="s">
+      <c r="OF1" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="OG1" s="8" t="s">
+      <c r="OG1" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="OH1" s="8" t="s">
+      <c r="OH1" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="OI1" s="8" t="s">
+      <c r="OI1" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="OJ1" s="8" t="s">
+      <c r="OJ1" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="OK1" s="8" t="s">
+      <c r="OK1" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="OL1" s="8" t="s">
+      <c r="OL1" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="OM1" s="8" t="s">
+      <c r="OM1" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="ON1" s="8" t="s">
+      <c r="ON1" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="OO1" s="8" t="s">
+      <c r="OO1" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="OP1" s="8" t="s">
+      <c r="OP1" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="OQ1" s="8" t="s">
+      <c r="OQ1" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="OR1" s="8" t="s">
+      <c r="OR1" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="OS1" s="8" t="s">
+      <c r="OS1" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="OT1" s="8" t="s">
+      <c r="OT1" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="OU1" s="8" t="s">
+      <c r="OU1" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="OV1" s="8" t="s">
+      <c r="OV1" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="OW1" s="8" t="s">
+      <c r="OW1" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="OX1" s="8" t="s">
+      <c r="OX1" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="OY1" s="8" t="s">
+      <c r="OY1" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="OZ1" s="8" t="s">
+      <c r="OZ1" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="PA1" s="8" t="s">
+      <c r="PA1" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="PB1" s="8" t="s">
+      <c r="PB1" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="PC1" s="8" t="s">
+      <c r="PC1" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="PD1" s="8" t="s">
+      <c r="PD1" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="PE1" s="8" t="s">
+      <c r="PE1" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="PF1" s="8" t="s">
+      <c r="PF1" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="PG1" s="8" t="s">
+      <c r="PG1" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="PH1" s="8" t="s">
+      <c r="PH1" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="PI1" s="8" t="s">
+      <c r="PI1" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="PJ1" s="8" t="s">
+      <c r="PJ1" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="PK1" s="8" t="s">
+      <c r="PK1" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="PL1" s="8" t="s">
+      <c r="PL1" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="PM1" s="8" t="s">
+      <c r="PM1" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="PN1" s="8" t="s">
+      <c r="PN1" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="PO1" s="8" t="s">
+      <c r="PO1" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="PP1" s="8" t="s">
+      <c r="PP1" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="PQ1" s="8" t="s">
+      <c r="PQ1" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="PR1" s="8" t="s">
+      <c r="PR1" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="PS1" s="8" t="s">
+      <c r="PS1" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="PT1" s="8" t="s">
+      <c r="PT1" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="PU1" s="8" t="s">
+      <c r="PU1" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="PV1" s="8" t="s">
+      <c r="PV1" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="PW1" s="8" t="s">
+      <c r="PW1" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="PX1" s="8" t="s">
+      <c r="PX1" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="PY1" s="8" t="s">
+      <c r="PY1" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="PZ1" s="8" t="s">
+      <c r="PZ1" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="QA1" s="8" t="s">
+      <c r="QA1" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="QB1" s="8" t="s">
+      <c r="QB1" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="QC1" s="8" t="s">
+      <c r="QC1" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="QD1" s="8" t="s">
+      <c r="QD1" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="QE1" s="8" t="s">
+      <c r="QE1" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="QF1" s="8" t="s">
+      <c r="QF1" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="QG1" s="8" t="s">
+      <c r="QG1" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="QH1" s="8" t="s">
+      <c r="QH1" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="QI1" s="8" t="s">
+      <c r="QI1" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="QJ1" s="8" t="s">
+      <c r="QJ1" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="QK1" s="8" t="s">
+      <c r="QK1" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="QL1" s="8" t="s">
+      <c r="QL1" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="QM1" s="8" t="s">
+      <c r="QM1" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="QN1" s="8" t="s">
+      <c r="QN1" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="QO1" s="8" t="s">
+      <c r="QO1" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="QP1" s="8" t="s">
+      <c r="QP1" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="QQ1" s="8" t="s">
+      <c r="QQ1" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="QR1" s="8" t="s">
+      <c r="QR1" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="QS1" s="8" t="s">
+      <c r="QS1" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="QT1" s="8" t="s">
+      <c r="QT1" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="QU1" s="8" t="s">
+      <c r="QU1" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="QV1" s="8" t="s">
+      <c r="QV1" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="QW1" s="8" t="s">
+      <c r="QW1" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="QX1" s="8" t="s">
+      <c r="QX1" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="QY1" s="8" t="s">
+      <c r="QY1" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="QZ1" s="8" t="s">
+      <c r="QZ1" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="RA1" s="8" t="s">
+      <c r="RA1" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="RB1" s="8" t="s">
+      <c r="RB1" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="RC1" s="8" t="s">
+      <c r="RC1" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="RD1" s="8" t="s">
+      <c r="RD1" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="RE1" s="8" t="s">
+      <c r="RE1" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="RF1" s="8" t="s">
+      <c r="RF1" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="RG1" s="8" t="s">
+      <c r="RG1" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="RH1" s="8" t="s">
+      <c r="RH1" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="RI1" s="8" t="s">
+      <c r="RI1" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="RJ1" s="8" t="s">
+      <c r="RJ1" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="RK1" s="8" t="s">
+      <c r="RK1" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="RL1" s="8" t="s">
+      <c r="RL1" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="RM1" s="8" t="s">
+      <c r="RM1" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="RN1" s="8" t="s">
+      <c r="RN1" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="RO1" s="8" t="s">
+      <c r="RO1" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="RP1" s="8" t="s">
+      <c r="RP1" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="RQ1" s="8" t="s">
+      <c r="RQ1" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="RR1" s="8" t="s">
+      <c r="RR1" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="RS1" s="8" t="s">
+      <c r="RS1" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="RT1" s="8" t="s">
+      <c r="RT1" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="RU1" s="8" t="s">
+      <c r="RU1" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="RV1" s="8" t="s">
+      <c r="RV1" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="RW1" s="8" t="s">
+      <c r="RW1" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="RX1" s="8" t="s">
+      <c r="RX1" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="RY1" s="8" t="s">
+      <c r="RY1" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="RZ1" s="8" t="s">
+      <c r="RZ1" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="SA1" s="8" t="s">
+      <c r="SA1" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="SB1" s="8" t="s">
+      <c r="SB1" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="SC1" s="8" t="s">
+      <c r="SC1" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="SD1" s="8" t="s">
+      <c r="SD1" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="SE1" s="8" t="s">
+      <c r="SE1" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="SF1" s="8" t="s">
+      <c r="SF1" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="SG1" s="8" t="s">
+      <c r="SG1" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="SH1" s="8" t="s">
+      <c r="SH1" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="SI1" s="8" t="s">
+      <c r="SI1" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="SJ1" s="8" t="s">
+      <c r="SJ1" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="SK1" s="8" t="s">
+      <c r="SK1" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="SL1" s="8" t="s">
+      <c r="SL1" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="SM1" s="8" t="s">
+      <c r="SM1" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="SN1" s="8" t="s">
+      <c r="SN1" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="SO1" s="8" t="s">
+      <c r="SO1" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="SP1" s="8" t="s">
+      <c r="SP1" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="SQ1" s="8" t="s">
+      <c r="SQ1" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="SR1" s="8" t="s">
+      <c r="SR1" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="SS1" s="8" t="s">
+      <c r="SS1" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="ST1" s="8" t="s">
+      <c r="ST1" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="SU1" s="8" t="s">
+      <c r="SU1" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="SV1" s="8" t="s">
+      <c r="SV1" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="SW1" s="8" t="s">
+      <c r="SW1" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="SX1" s="8" t="s">
+      <c r="SX1" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="SY1" s="8" t="s">
+      <c r="SY1" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="SZ1" s="8" t="s">
+      <c r="SZ1" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="TA1" s="8" t="s">
+      <c r="TA1" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="TB1" s="8" t="s">
+      <c r="TB1" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="TC1" s="8" t="s">
+      <c r="TC1" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="TD1" s="8" t="s">
+      <c r="TD1" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="TE1" s="8" t="s">
+      <c r="TE1" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="TF1" s="8" t="s">
+      <c r="TF1" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="TG1" s="8" t="s">
+      <c r="TG1" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="TH1" s="8" t="s">
+      <c r="TH1" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="TI1" s="8" t="s">
+      <c r="TI1" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="TJ1" s="8" t="s">
+      <c r="TJ1" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="TK1" s="8" t="s">
+      <c r="TK1" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="TL1" s="8" t="s">
+      <c r="TL1" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="TM1" s="8" t="s">
+      <c r="TM1" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="TN1" s="8" t="s">
+      <c r="TN1" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="TO1" s="8" t="s">
+      <c r="TO1" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="TP1" s="8" t="s">
+      <c r="TP1" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="TQ1" s="8" t="s">
+      <c r="TQ1" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="TR1" s="8" t="s">
+      <c r="TR1" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="TS1" s="8" t="s">
+      <c r="TS1" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="TT1" s="8" t="s">
+      <c r="TT1" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="TU1" s="8" t="s">
+      <c r="TU1" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="TV1" s="8" t="s">
+      <c r="TV1" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="TW1" s="8" t="s">
+      <c r="TW1" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="TX1" s="8" t="s">
+      <c r="TX1" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="TY1" s="8" t="s">
+      <c r="TY1" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="TZ1" s="8" t="s">
+      <c r="TZ1" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="UA1" s="8" t="s">
+      <c r="UA1" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="UB1" s="8" t="s">
+      <c r="UB1" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="UC1" s="8" t="s">
+      <c r="UC1" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="UD1" s="8" t="s">
+      <c r="UD1" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="UE1" s="8" t="s">
+      <c r="UE1" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="UF1" s="8" t="s">
+      <c r="UF1" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="UG1" s="8" t="s">
+      <c r="UG1" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="UH1" s="8" t="s">
+      <c r="UH1" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="UI1" s="8" t="s">
+      <c r="UI1" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="UJ1" s="8" t="s">
+      <c r="UJ1" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="UK1" s="8" t="s">
+      <c r="UK1" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="UL1" s="8" t="s">
+      <c r="UL1" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="UM1" s="8" t="s">
+      <c r="UM1" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="UN1" s="8" t="s">
+      <c r="UN1" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="UO1" s="8" t="s">
+      <c r="UO1" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="UP1" s="8" t="s">
+      <c r="UP1" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="UQ1" s="8" t="s">
+      <c r="UQ1" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="UR1" s="8" t="s">
+      <c r="UR1" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="US1" s="8" t="s">
+      <c r="US1" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="UT1" s="8" t="s">
+      <c r="UT1" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="UU1" s="8" t="s">
+      <c r="UU1" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="UV1" s="8" t="s">
+      <c r="UV1" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="UW1" s="8" t="s">
+      <c r="UW1" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="UX1" s="8" t="s">
+      <c r="UX1" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="UY1" s="8" t="s">
+      <c r="UY1" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="UZ1" s="8" t="s">
+      <c r="UZ1" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="VA1" s="8" t="s">
+      <c r="VA1" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="VB1" s="8" t="s">
+      <c r="VB1" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="VC1" s="8" t="s">
+      <c r="VC1" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="VD1" s="8" t="s">
+      <c r="VD1" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="VE1" s="8" t="s">
+      <c r="VE1" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="VF1" s="8" t="s">
+      <c r="VF1" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="VG1" s="8" t="s">
+      <c r="VG1" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="VH1" s="8" t="s">
+      <c r="VH1" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="VI1" s="8" t="s">
+      <c r="VI1" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="VJ1" s="8" t="s">
+      <c r="VJ1" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="VK1" s="8" t="s">
+      <c r="VK1" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="VL1" s="8" t="s">
+      <c r="VL1" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="VM1" s="8" t="s">
+      <c r="VM1" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="VN1" s="8" t="s">
+      <c r="VN1" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="VO1" s="8" t="s">
+      <c r="VO1" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="VP1" s="8" t="s">
+      <c r="VP1" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="VQ1" s="8" t="s">
+      <c r="VQ1" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="VR1" s="8" t="s">
+      <c r="VR1" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="VS1" s="8" t="s">
+      <c r="VS1" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="VT1" s="8" t="s">
+      <c r="VT1" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="VU1" s="8" t="s">
+      <c r="VU1" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="VV1" s="8" t="s">
+      <c r="VV1" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="VW1" s="8" t="s">
+      <c r="VW1" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="VX1" s="8" t="s">
+      <c r="VX1" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="VY1" s="8" t="s">
+      <c r="VY1" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="VZ1" s="8" t="s">
+      <c r="VZ1" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="WA1" s="8" t="s">
+      <c r="WA1" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="WB1" s="8" t="s">
+      <c r="WB1" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="WC1" s="8" t="s">
+      <c r="WC1" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="WD1" s="8" t="s">
+      <c r="WD1" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="WE1" s="8" t="s">
+      <c r="WE1" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="WF1" s="8" t="s">
+      <c r="WF1" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="WG1" s="8" t="s">
+      <c r="WG1" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="WH1" s="8" t="s">
+      <c r="WH1" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="WI1" s="8" t="s">
+      <c r="WI1" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="WJ1" s="8" t="s">
+      <c r="WJ1" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="WK1" s="8" t="s">
+      <c r="WK1" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="WL1" s="8" t="s">
+      <c r="WL1" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="WM1" s="8" t="s">
+      <c r="WM1" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="WN1" s="8" t="s">
+      <c r="WN1" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="WO1" s="8" t="s">
+      <c r="WO1" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="WP1" s="8" t="s">
+      <c r="WP1" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="WQ1" s="8" t="s">
+      <c r="WQ1" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="WR1" s="8" t="s">
+      <c r="WR1" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="WS1" s="8" t="s">
+      <c r="WS1" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="WT1" s="8" t="s">
+      <c r="WT1" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="WU1" s="8" t="s">
+      <c r="WU1" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="WV1" s="8" t="s">
+      <c r="WV1" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="WW1" s="8" t="s">
+      <c r="WW1" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="WX1" s="8" t="s">
+      <c r="WX1" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="WY1" s="8" t="s">
+      <c r="WY1" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="WZ1" s="8" t="s">
+      <c r="WZ1" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="XA1" s="8" t="s">
+      <c r="XA1" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="XB1" s="8" t="s">
+      <c r="XB1" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="XC1" s="8" t="s">
+      <c r="XC1" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="XD1" s="8" t="s">
+      <c r="XD1" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="XE1" s="8" t="s">
+      <c r="XE1" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="XF1" s="8" t="s">
+      <c r="XF1" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="XG1" s="8" t="s">
+      <c r="XG1" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="XH1" s="8" t="s">
+      <c r="XH1" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="XI1" s="8" t="s">
+      <c r="XI1" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="XJ1" s="8" t="s">
+      <c r="XJ1" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="XK1" s="8" t="s">
+      <c r="XK1" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="XL1" s="8" t="s">
+      <c r="XL1" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="XM1" s="8" t="s">
+      <c r="XM1" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="XN1" s="8" t="s">
+      <c r="XN1" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="XO1" s="8" t="s">
+      <c r="XO1" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="XP1" s="8" t="s">
+      <c r="XP1" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="XQ1" s="8" t="s">
+      <c r="XQ1" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="XR1" s="8" t="s">
+      <c r="XR1" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="XS1" s="8" t="s">
+      <c r="XS1" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="XT1" s="8" t="s">
+      <c r="XT1" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="XU1" s="8" t="s">
+      <c r="XU1" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="XV1" s="8" t="s">
+      <c r="XV1" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="XW1" s="8" t="s">
+      <c r="XW1" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="XX1" s="8" t="s">
+      <c r="XX1" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="XY1" s="8" t="s">
+      <c r="XY1" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="XZ1" s="8" t="s">
+      <c r="XZ1" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="YA1" s="8" t="s">
+      <c r="YA1" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="YB1" s="8" t="s">
+      <c r="YB1" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="YC1" s="8" t="s">
+      <c r="YC1" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="YD1" s="8" t="s">
+      <c r="YD1" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="YE1" s="8" t="s">
+      <c r="YE1" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="YF1" s="8" t="s">
+      <c r="YF1" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="YG1" s="8" t="s">
+      <c r="YG1" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="YH1" s="8" t="s">
+      <c r="YH1" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="YI1" s="8" t="s">
+      <c r="YI1" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="YJ1" s="8" t="s">
+      <c r="YJ1" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="YK1" s="8" t="s">
+      <c r="YK1" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="YL1" s="8" t="s">
+      <c r="YL1" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="YM1" s="8" t="s">
+      <c r="YM1" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="YN1" s="8" t="s">
+      <c r="YN1" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="YO1" s="8" t="s">
+      <c r="YO1" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="YP1" s="8" t="s">
+      <c r="YP1" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="YQ1" s="8" t="s">
+      <c r="YQ1" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="YR1" s="8" t="s">
+      <c r="YR1" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="YS1" s="8" t="s">
+      <c r="YS1" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="YT1" s="8" t="s">
+      <c r="YT1" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="YU1" s="8" t="s">
+      <c r="YU1" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="YV1" s="8" t="s">
+      <c r="YV1" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="YW1" s="8" t="s">
+      <c r="YW1" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="YX1" s="8" t="s">
+      <c r="YX1" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="YY1" s="8" t="s">
+      <c r="YY1" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="YZ1" s="8" t="s">
+      <c r="YZ1" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="ZA1" s="8" t="s">
+      <c r="ZA1" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="ZB1" s="8" t="s">
+      <c r="ZB1" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="ZC1" s="8" t="s">
+      <c r="ZC1" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="ZD1" s="8" t="s">
+      <c r="ZD1" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="ZE1" s="8" t="s">
+      <c r="ZE1" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="ZF1" s="8" t="s">
+      <c r="ZF1" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="ZG1" s="8" t="s">
+      <c r="ZG1" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="ZH1" s="8" t="s">
+      <c r="ZH1" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="ZI1" s="8" t="s">
+      <c r="ZI1" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="ZJ1" s="8" t="s">
+      <c r="ZJ1" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="ZK1" s="8" t="s">
+      <c r="ZK1" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="ZL1" s="8" t="s">
+      <c r="ZL1" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="ZM1" s="8" t="s">
+      <c r="ZM1" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="ZN1" s="8" t="s">
+      <c r="ZN1" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="ZO1" s="8" t="s">
+      <c r="ZO1" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="ZP1" s="8" t="s">
+      <c r="ZP1" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="ZQ1" s="8" t="s">
+      <c r="ZQ1" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="ZR1" s="8" t="s">
+      <c r="ZR1" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="ZS1" s="8" t="s">
+      <c r="ZS1" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="ZT1" s="8" t="s">
+      <c r="ZT1" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="ZU1" s="8" t="s">
+      <c r="ZU1" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="ZV1" s="8" t="s">
+      <c r="ZV1" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="ZW1" s="8" t="s">
+      <c r="ZW1" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="ZX1" s="8" t="s">
+      <c r="ZX1" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="ZY1" s="8" t="s">
+      <c r="ZY1" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="ZZ1" s="8" t="s">
+      <c r="ZZ1" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="AAA1" s="8" t="s">
+      <c r="AAA1" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="AAB1" s="8" t="s">
+      <c r="AAB1" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="AAC1" s="8" t="s">
+      <c r="AAC1" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="AAD1" s="8" t="s">
+      <c r="AAD1" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="AAE1" s="8" t="s">
+      <c r="AAE1" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="AAF1" s="8" t="s">
+      <c r="AAF1" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="AAG1" s="8" t="s">
+      <c r="AAG1" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="AAH1" s="8" t="s">
+      <c r="AAH1" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="AAI1" s="8" t="s">
+      <c r="AAI1" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="AAJ1" s="8" t="s">
+      <c r="AAJ1" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="AAK1" s="8" t="s">
+      <c r="AAK1" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="AAL1" s="8" t="s">
+      <c r="AAL1" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="AAM1" s="8" t="s">
+      <c r="AAM1" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="AAN1" s="8" t="s">
+      <c r="AAN1" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="AAO1" s="8" t="s">
+      <c r="AAO1" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="AAP1" s="8" t="s">
+      <c r="AAP1" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="AAQ1" s="8" t="s">
+      <c r="AAQ1" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="AAR1" s="8" t="s">
+      <c r="AAR1" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="AAS1" s="8" t="s">
+      <c r="AAS1" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="AAT1" s="8" t="s">
+      <c r="AAT1" s="7" t="s">
         <v>726</v>
       </c>
-      <c r="AAU1" s="8" t="s">
+      <c r="AAU1" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="AAV1" s="8" t="s">
+      <c r="AAV1" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="AAW1" s="8" t="s">
+      <c r="AAW1" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="AAX1" s="8" t="s">
+      <c r="AAX1" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="AAY1" s="8" t="s">
+      <c r="AAY1" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="AAZ1" s="8" t="s">
+      <c r="AAZ1" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="ABA1" s="8" t="s">
+      <c r="ABA1" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="ABB1" s="8" t="s">
+      <c r="ABB1" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="ABC1" s="8" t="s">
+      <c r="ABC1" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="ABD1" s="8" t="s">
+      <c r="ABD1" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="ABE1" s="8" t="s">
+      <c r="ABE1" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="ABF1" s="8" t="s">
+      <c r="ABF1" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="ABG1" s="8" t="s">
+      <c r="ABG1" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="ABH1" s="8" t="s">
+      <c r="ABH1" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="ABI1" s="8" t="s">
+      <c r="ABI1" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="ABJ1" s="8" t="s">
+      <c r="ABJ1" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="ABK1" s="8" t="s">
+      <c r="ABK1" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="ABL1" s="8" t="s">
+      <c r="ABL1" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="ABM1" s="8" t="s">
+      <c r="ABM1" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="ABN1" s="8" t="s">
+      <c r="ABN1" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="ABO1" s="8" t="s">
+      <c r="ABO1" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="ABP1" s="8" t="s">
+      <c r="ABP1" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="ABQ1" s="8" t="s">
+      <c r="ABQ1" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="ABR1" s="8" t="s">
+      <c r="ABR1" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="ABS1" s="8" t="s">
+      <c r="ABS1" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="ABT1" s="8" t="s">
+      <c r="ABT1" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="ABU1" s="8" t="s">
+      <c r="ABU1" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="ABV1" s="8" t="s">
+      <c r="ABV1" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="ABW1" s="8" t="s">
+      <c r="ABW1" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="ABX1" s="8" t="s">
+      <c r="ABX1" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="ABY1" s="8" t="s">
+      <c r="ABY1" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="ABZ1" s="8" t="s">
+      <c r="ABZ1" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="ACA1" s="8" t="s">
+      <c r="ACA1" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="ACB1" s="8" t="s">
+      <c r="ACB1" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="ACC1" s="8" t="s">
+      <c r="ACC1" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="ACD1" s="8" t="s">
+      <c r="ACD1" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="ACE1" s="8" t="s">
+      <c r="ACE1" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="ACF1" s="8" t="s">
+      <c r="ACF1" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="ACG1" s="8" t="s">
+      <c r="ACG1" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="ACH1" s="8" t="s">
+      <c r="ACH1" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="ACI1" s="8" t="s">
+      <c r="ACI1" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="ACJ1" s="8" t="s">
+      <c r="ACJ1" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="ACK1" s="8" t="s">
+      <c r="ACK1" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="ACL1" s="8" t="s">
+      <c r="ACL1" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="ACM1" s="8" t="s">
+      <c r="ACM1" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="ACN1" s="8" t="s">
+      <c r="ACN1" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="ACO1" s="8" t="s">
+      <c r="ACO1" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="ACP1" s="8" t="s">
+      <c r="ACP1" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="ACQ1" s="8" t="s">
+      <c r="ACQ1" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="ACR1" s="8" t="s">
+      <c r="ACR1" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="ACS1" s="8" t="s">
+      <c r="ACS1" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="ACT1" s="8" t="s">
+      <c r="ACT1" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="ACU1" s="8" t="s">
+      <c r="ACU1" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="ACV1" s="8" t="s">
+      <c r="ACV1" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="ACW1" s="8" t="s">
+      <c r="ACW1" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="ACX1" s="8" t="s">
+      <c r="ACX1" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="ACY1" s="8" t="s">
+      <c r="ACY1" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="ACZ1" s="8" t="s">
+      <c r="ACZ1" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="ADA1" s="8" t="s">
+      <c r="ADA1" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="ADB1" s="8" t="s">
+      <c r="ADB1" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="ADC1" s="8" t="s">
+      <c r="ADC1" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="ADD1" s="8" t="s">
+      <c r="ADD1" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="ADE1" s="8" t="s">
+      <c r="ADE1" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="ADF1" s="8" t="s">
+      <c r="ADF1" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="ADG1" s="8" t="s">
+      <c r="ADG1" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="ADH1" s="8" t="s">
+      <c r="ADH1" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="ADI1" s="8" t="s">
+      <c r="ADI1" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="ADJ1" s="8" t="s">
+      <c r="ADJ1" s="7" t="s">
         <v>794</v>
       </c>
-      <c r="ADK1" s="8" t="s">
+      <c r="ADK1" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="ADL1" s="8" t="s">
+      <c r="ADL1" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="ADM1" s="8" t="s">
+      <c r="ADM1" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="ADN1" s="8" t="s">
+      <c r="ADN1" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="ADO1" s="8" t="s">
+      <c r="ADO1" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="ADP1" s="8" t="s">
+      <c r="ADP1" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="ADQ1" s="8" t="s">
+      <c r="ADQ1" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="ADR1" s="8" t="s">
+      <c r="ADR1" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="ADS1" s="8" t="s">
+      <c r="ADS1" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="ADT1" s="8" t="s">
+      <c r="ADT1" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="ADU1" s="8" t="s">
+      <c r="ADU1" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="ADV1" s="8" t="s">
+      <c r="ADV1" s="7" t="s">
         <v>806</v>
       </c>
-      <c r="ADW1" s="8" t="s">
+      <c r="ADW1" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="ADX1" s="8" t="s">
+      <c r="ADX1" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="ADY1" s="8" t="s">
+      <c r="ADY1" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="ADZ1" s="8" t="s">
+      <c r="ADZ1" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="AEA1" s="8" t="s">
+      <c r="AEA1" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="AEB1" s="8" t="s">
+      <c r="AEB1" s="7" t="s">
         <v>812</v>
       </c>
-      <c r="AEC1" s="8" t="s">
+      <c r="AEC1" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="AED1" s="8" t="s">
+      <c r="AED1" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="AEE1" s="8" t="s">
+      <c r="AEE1" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="AEF1" s="8" t="s">
+      <c r="AEF1" s="7" t="s">
         <v>816</v>
       </c>
-      <c r="AEG1" s="8" t="s">
+      <c r="AEG1" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="AEH1" s="8" t="s">
+      <c r="AEH1" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="AEI1" s="8" t="s">
+      <c r="AEI1" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="AEJ1" s="8" t="s">
+      <c r="AEJ1" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="AEK1" s="8" t="s">
+      <c r="AEK1" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="AEL1" s="8" t="s">
+      <c r="AEL1" s="7" t="s">
         <v>822</v>
       </c>
-      <c r="AEM1" s="8" t="s">
+      <c r="AEM1" s="7" t="s">
         <v>823</v>
       </c>
-      <c r="AEN1" s="8" t="s">
+      <c r="AEN1" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="AEO1" s="8" t="s">
+      <c r="AEO1" s="7" t="s">
         <v>825</v>
       </c>
-      <c r="AEP1" s="8" t="s">
+      <c r="AEP1" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="AEQ1" s="8" t="s">
+      <c r="AEQ1" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="AER1" s="8" t="s">
+      <c r="AER1" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="AES1" s="8" t="s">
+      <c r="AES1" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="AET1" s="8" t="s">
+      <c r="AET1" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="AEU1" s="8" t="s">
+      <c r="AEU1" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="AEV1" s="8" t="s">
+      <c r="AEV1" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="AEW1" s="8" t="s">
+      <c r="AEW1" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="AEX1" s="8" t="s">
+      <c r="AEX1" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="AEY1" s="8" t="s">
+      <c r="AEY1" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="AEZ1" s="8" t="s">
+      <c r="AEZ1" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="AFA1" s="8" t="s">
+      <c r="AFA1" s="7" t="s">
         <v>837</v>
       </c>
-      <c r="AFB1" s="8" t="s">
+      <c r="AFB1" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="AFC1" s="8" t="s">
+      <c r="AFC1" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="AFD1" s="8" t="s">
+      <c r="AFD1" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="AFE1" s="8" t="s">
+      <c r="AFE1" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="AFF1" s="8" t="s">
+      <c r="AFF1" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="AFG1" s="8" t="s">
+      <c r="AFG1" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="AFH1" s="8" t="s">
+      <c r="AFH1" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="AFI1" s="8" t="s">
+      <c r="AFI1" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="AFJ1" s="8" t="s">
+      <c r="AFJ1" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="AFK1" s="8" t="s">
+      <c r="AFK1" s="7" t="s">
         <v>847</v>
       </c>
-      <c r="AFL1" s="8" t="s">
+      <c r="AFL1" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="AFM1" s="8" t="s">
+      <c r="AFM1" s="7" t="s">
         <v>849</v>
       </c>
-      <c r="AFN1" s="8" t="s">
+      <c r="AFN1" s="7" t="s">
         <v>850</v>
       </c>
-      <c r="AFO1" s="8" t="s">
+      <c r="AFO1" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="AFP1" s="8" t="s">
+      <c r="AFP1" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="AFQ1" s="8" t="s">
+      <c r="AFQ1" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="AFR1" s="8" t="s">
+      <c r="AFR1" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="AFS1" s="8" t="s">
+      <c r="AFS1" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="AFT1" s="8" t="s">
+      <c r="AFT1" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="AFU1" s="8" t="s">
+      <c r="AFU1" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="AFV1" s="8" t="s">
+      <c r="AFV1" s="7" t="s">
         <v>858</v>
       </c>
-      <c r="AFW1" s="8" t="s">
+      <c r="AFW1" s="7" t="s">
         <v>859</v>
       </c>
-      <c r="AFX1" s="8" t="s">
+      <c r="AFX1" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="AFY1" s="8" t="s">
+      <c r="AFY1" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="AFZ1" s="8" t="s">
+      <c r="AFZ1" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="AGA1" s="8" t="s">
+      <c r="AGA1" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="AGB1" s="8" t="s">
+      <c r="AGB1" s="7" t="s">
         <v>864</v>
       </c>
-      <c r="AGC1" s="8" t="s">
+      <c r="AGC1" s="7" t="s">
         <v>865</v>
       </c>
-      <c r="AGD1" s="8" t="s">
+      <c r="AGD1" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="AGE1" s="8" t="s">
+      <c r="AGE1" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="AGF1" s="8" t="s">
+      <c r="AGF1" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="AGG1" s="8" t="s">
+      <c r="AGG1" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="AGH1" s="8" t="s">
+      <c r="AGH1" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="AGI1" s="8" t="s">
+      <c r="AGI1" s="7" t="s">
         <v>871</v>
       </c>
-      <c r="AGJ1" s="8" t="s">
+      <c r="AGJ1" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="AGK1" s="8" t="s">
+      <c r="AGK1" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="AGL1" s="8" t="s">
+      <c r="AGL1" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="AGM1" s="8" t="s">
+      <c r="AGM1" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="AGN1" s="8" t="s">
+      <c r="AGN1" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="AGO1" s="8" t="s">
+      <c r="AGO1" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="AGP1" s="8" t="s">
+      <c r="AGP1" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AGQ1" s="8" t="s">
+      <c r="AGQ1" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AGR1" s="8" t="s">
+      <c r="AGR1" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AGS1" s="8" t="s">
+      <c r="AGS1" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="AGT1" s="8" t="s">
+      <c r="AGT1" s="7" t="s">
         <v>882</v>
       </c>
-      <c r="AGU1" s="8" t="s">
+      <c r="AGU1" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="AGV1" s="8" t="s">
+      <c r="AGV1" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="AGW1" s="8" t="s">
+      <c r="AGW1" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="AGX1" s="8" t="s">
+      <c r="AGX1" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="AGY1" s="8" t="s">
+      <c r="AGY1" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="AGZ1" s="8" t="s">
+      <c r="AGZ1" s="7" t="s">
         <v>888</v>
       </c>
-      <c r="AHA1" s="8" t="s">
+      <c r="AHA1" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="AHB1" s="8" t="s">
+      <c r="AHB1" s="7" t="s">
         <v>890</v>
       </c>
-      <c r="AHC1" s="8" t="s">
+      <c r="AHC1" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="AHD1" s="8" t="s">
+      <c r="AHD1" s="7" t="s">
         <v>892</v>
       </c>
-      <c r="AHE1" s="8" t="s">
+      <c r="AHE1" s="7" t="s">
         <v>893</v>
       </c>
-      <c r="AHF1" s="8" t="s">
+      <c r="AHF1" s="7" t="s">
         <v>894</v>
       </c>
-      <c r="AHG1" s="8" t="s">
+      <c r="AHG1" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="AHH1" s="8" t="s">
+      <c r="AHH1" s="7" t="s">
         <v>896</v>
       </c>
-      <c r="AHI1" s="8" t="s">
+      <c r="AHI1" s="7" t="s">
         <v>897</v>
       </c>
-      <c r="AHJ1" s="8" t="s">
+      <c r="AHJ1" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="AHK1" s="8" t="s">
+      <c r="AHK1" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="AHL1" s="8" t="s">
+      <c r="AHL1" s="7" t="s">
         <v>900</v>
       </c>
-      <c r="AHM1" s="8" t="s">
+      <c r="AHM1" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="AHN1" s="8" t="s">
+      <c r="AHN1" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="AHO1" s="8" t="s">
+      <c r="AHO1" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="AHP1" s="8" t="s">
+      <c r="AHP1" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="AHQ1" s="8" t="s">
+      <c r="AHQ1" s="7" t="s">
         <v>905</v>
       </c>
-      <c r="AHR1" s="8" t="s">
+      <c r="AHR1" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="AHS1" s="8" t="s">
+      <c r="AHS1" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="AHT1" s="8" t="s">
+      <c r="AHT1" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="AHU1" s="8" t="s">
+      <c r="AHU1" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="AHV1" s="8" t="s">
+      <c r="AHV1" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="AHW1" s="8" t="s">
+      <c r="AHW1" s="7" t="s">
         <v>911</v>
       </c>
-      <c r="AHX1" s="8" t="s">
+      <c r="AHX1" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="AHY1" s="8" t="s">
+      <c r="AHY1" s="7" t="s">
         <v>913</v>
       </c>
-      <c r="AHZ1" s="8" t="s">
+      <c r="AHZ1" s="7" t="s">
         <v>914</v>
       </c>
-      <c r="AIA1" s="8" t="s">
+      <c r="AIA1" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="AIB1" s="8" t="s">
+      <c r="AIB1" s="7" t="s">
         <v>916</v>
       </c>
-      <c r="AIC1" s="8" t="s">
+      <c r="AIC1" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="AID1" s="8" t="s">
+      <c r="AID1" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="AIE1" s="8" t="s">
+      <c r="AIE1" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="AIF1" s="8" t="s">
+      <c r="AIF1" s="7" t="s">
         <v>920</v>
       </c>
-      <c r="AIG1" s="8" t="s">
+      <c r="AIG1" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="AIH1" s="8" t="s">
+      <c r="AIH1" s="7" t="s">
         <v>922</v>
       </c>
-      <c r="AII1" s="8" t="s">
+      <c r="AII1" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="AIJ1" s="8" t="s">
+      <c r="AIJ1" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="AIK1" s="8" t="s">
+      <c r="AIK1" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="AIL1" s="8" t="s">
+      <c r="AIL1" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="AIM1" s="8" t="s">
+      <c r="AIM1" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="AIN1" s="8" t="s">
+      <c r="AIN1" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="AIO1" s="8" t="s">
+      <c r="AIO1" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="AIP1" s="8" t="s">
+      <c r="AIP1" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="AIQ1" s="8" t="s">
+      <c r="AIQ1" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="AIR1" s="8" t="s">
+      <c r="AIR1" s="7" t="s">
         <v>932</v>
       </c>
-      <c r="AIS1" s="8" t="s">
+      <c r="AIS1" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="AIT1" s="8" t="s">
+      <c r="AIT1" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="AIU1" s="8" t="s">
+      <c r="AIU1" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="AIV1" s="8" t="s">
+      <c r="AIV1" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="AIW1" s="8" t="s">
+      <c r="AIW1" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="AIX1" s="8" t="s">
+      <c r="AIX1" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="AIY1" s="8" t="s">
+      <c r="AIY1" s="7" t="s">
         <v>939</v>
       </c>
-      <c r="AIZ1" s="8" t="s">
+      <c r="AIZ1" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="AJA1" s="8" t="s">
+      <c r="AJA1" s="7" t="s">
         <v>941</v>
       </c>
-      <c r="AJB1" s="8" t="s">
+      <c r="AJB1" s="7" t="s">
         <v>942</v>
       </c>
-      <c r="AJC1" s="8" t="s">
+      <c r="AJC1" s="7" t="s">
         <v>943</v>
       </c>
-      <c r="AJD1" s="8" t="s">
+      <c r="AJD1" s="7" t="s">
         <v>944</v>
       </c>
-      <c r="AJE1" s="8" t="s">
+      <c r="AJE1" s="7" t="s">
         <v>945</v>
       </c>
-      <c r="AJF1" s="8" t="s">
+      <c r="AJF1" s="7" t="s">
         <v>946</v>
       </c>
-      <c r="AJG1" s="8" t="s">
+      <c r="AJG1" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="AJH1" s="8" t="s">
+      <c r="AJH1" s="7" t="s">
         <v>948</v>
       </c>
-      <c r="AJI1" s="8" t="s">
+      <c r="AJI1" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="AJJ1" s="8" t="s">
+      <c r="AJJ1" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="AJK1" s="8" t="s">
+      <c r="AJK1" s="7" t="s">
         <v>951</v>
       </c>
-      <c r="AJL1" s="8" t="s">
+      <c r="AJL1" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="AJM1" s="8" t="s">
+      <c r="AJM1" s="7" t="s">
         <v>953</v>
       </c>
-      <c r="AJN1" s="8" t="s">
+      <c r="AJN1" s="7" t="s">
         <v>954</v>
       </c>
-      <c r="AJO1" s="8" t="s">
+      <c r="AJO1" s="7" t="s">
         <v>955</v>
       </c>
-      <c r="AJP1" s="8" t="s">
+      <c r="AJP1" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="AJQ1" s="8" t="s">
+      <c r="AJQ1" s="7" t="s">
         <v>957</v>
       </c>
-      <c r="AJR1" s="8" t="s">
+      <c r="AJR1" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="AJS1" s="8" t="s">
+      <c r="AJS1" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="AJT1" s="8" t="s">
+      <c r="AJT1" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="AJU1" s="8" t="s">
+      <c r="AJU1" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="AJV1" s="8" t="s">
+      <c r="AJV1" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="AJW1" s="8" t="s">
+      <c r="AJW1" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="AJX1" s="8" t="s">
+      <c r="AJX1" s="7" t="s">
         <v>964</v>
       </c>
-      <c r="AJY1" s="8" t="s">
+      <c r="AJY1" s="7" t="s">
         <v>965</v>
       </c>
-      <c r="AJZ1" s="8" t="s">
+      <c r="AJZ1" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="AKA1" s="8" t="s">
+      <c r="AKA1" s="7" t="s">
         <v>967</v>
       </c>
-      <c r="AKB1" s="8" t="s">
+      <c r="AKB1" s="7" t="s">
         <v>968</v>
       </c>
-      <c r="AKC1" s="8" t="s">
+      <c r="AKC1" s="7" t="s">
         <v>969</v>
       </c>
-      <c r="AKD1" s="8" t="s">
+      <c r="AKD1" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="AKE1" s="8" t="s">
+      <c r="AKE1" s="7" t="s">
         <v>971</v>
       </c>
-      <c r="AKF1" s="8" t="s">
+      <c r="AKF1" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="AKG1" s="8" t="s">
+      <c r="AKG1" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="AKH1" s="8" t="s">
+      <c r="AKH1" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="AKI1" s="8" t="s">
+      <c r="AKI1" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="AKJ1" s="8" t="s">
+      <c r="AKJ1" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="AKK1" s="8" t="s">
+      <c r="AKK1" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="AKL1" s="8" t="s">
+      <c r="AKL1" s="7" t="s">
         <v>978</v>
       </c>
-      <c r="AKM1" s="8" t="s">
+      <c r="AKM1" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="AKN1" s="8" t="s">
+      <c r="AKN1" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="AKO1" s="8" t="s">
+      <c r="AKO1" s="7" t="s">
         <v>981</v>
       </c>
-      <c r="AKP1" s="8" t="s">
+      <c r="AKP1" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="AKQ1" s="8" t="s">
+      <c r="AKQ1" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="AKR1" s="8" t="s">
+      <c r="AKR1" s="7" t="s">
         <v>984</v>
       </c>
-      <c r="AKS1" s="8" t="s">
+      <c r="AKS1" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="AKT1" s="8" t="s">
+      <c r="AKT1" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="AKU1" s="8" t="s">
+      <c r="AKU1" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="AKV1" s="8" t="s">
+      <c r="AKV1" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="AKW1" s="8" t="s">
+      <c r="AKW1" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="AKX1" s="8" t="s">
+      <c r="AKX1" s="7" t="s">
         <v>990</v>
       </c>
-      <c r="AKY1" s="8" t="s">
+      <c r="AKY1" s="7" t="s">
         <v>991</v>
       </c>
-      <c r="AKZ1" s="8" t="s">
+      <c r="AKZ1" s="7" t="s">
         <v>992</v>
       </c>
-      <c r="ALA1" s="8" t="s">
+      <c r="ALA1" s="7" t="s">
         <v>993</v>
       </c>
-      <c r="ALB1" s="8" t="s">
+      <c r="ALB1" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="ALC1" s="8" t="s">
+      <c r="ALC1" s="7" t="s">
         <v>995</v>
       </c>
-      <c r="ALD1" s="8" t="s">
+      <c r="ALD1" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="ALE1" s="8" t="s">
+      <c r="ALE1" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="ALF1" s="8" t="s">
+      <c r="ALF1" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="ALG1" s="8" t="s">
+      <c r="ALG1" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="ALH1" s="8" t="s">
+      <c r="ALH1" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="ALI1" s="8" t="s">
+      <c r="ALI1" s="7" t="s">
         <v>1001</v>
       </c>
-      <c r="ALJ1" s="8" t="s">
+      <c r="ALJ1" s="7" t="s">
         <v>1002</v>
       </c>
-      <c r="ALK1" s="8" t="s">
+      <c r="ALK1" s="7" t="s">
         <v>1003</v>
       </c>
-      <c r="ALL1" s="8" t="s">
+      <c r="ALL1" s="7" t="s">
         <v>1004</v>
       </c>
-      <c r="ALM1" s="8" t="s">
+      <c r="ALM1" s="7" t="s">
         <v>1005</v>
       </c>
-      <c r="ALN1" s="8" t="s">
+      <c r="ALN1" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="ALO1" s="8" t="s">
+      <c r="ALO1" s="7" t="s">
         <v>1007</v>
       </c>
-      <c r="ALP1" s="8" t="s">
+      <c r="ALP1" s="7" t="s">
         <v>1008</v>
       </c>
-      <c r="ALQ1" s="8" t="s">
+      <c r="ALQ1" s="7" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="14" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
         <v>1010</v>
       </c>
@@ -7290,14 +7357,14 @@
       <c r="D2" s="10" t="s">
         <v>1013</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>1014</v>
+      <c r="E2" s="12" t="n">
+        <v>517</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>516</v>
+      </c>
+      <c r="G2" s="12" t="n">
+        <v>517</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -7308,30 +7375,47 @@
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="ALR2" s="4"/>
+      <c r="ALS2" s="4"/>
+      <c r="ALT2" s="4"/>
+      <c r="ALU2" s="4"/>
+      <c r="ALV2" s="4"/>
+      <c r="ALW2" s="4"/>
+      <c r="ALX2" s="4"/>
+      <c r="ALY2" s="4"/>
+      <c r="ALZ2" s="4"/>
+      <c r="AMA2" s="4"/>
+      <c r="AMB2" s="4"/>
+      <c r="AMC2" s="4"/>
+      <c r="AMD2" s="4"/>
+      <c r="AME2" s="4"/>
+      <c r="AMF2" s="4"/>
+      <c r="AMG2" s="4"/>
+      <c r="AMH2" s="4"/>
+      <c r="AMI2" s="4"/>
+      <c r="AMJ2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>1016</v>
+    <row r="3" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>1014</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>1017</v>
-      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E3" s="15" t="n">
-        <v>517</v>
-      </c>
-      <c r="F3" s="15" t="n">
-        <v>516</v>
-      </c>
-      <c r="G3" s="15" t="n">
-        <v>517</v>
+        <v>1015</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>1016</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -7342,30 +7426,49 @@
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="ALR3" s="4"/>
+      <c r="ALS3" s="4"/>
+      <c r="ALT3" s="4"/>
+      <c r="ALU3" s="4"/>
+      <c r="ALV3" s="4"/>
+      <c r="ALW3" s="4"/>
+      <c r="ALX3" s="4"/>
+      <c r="ALY3" s="4"/>
+      <c r="ALZ3" s="4"/>
+      <c r="AMA3" s="4"/>
+      <c r="AMB3" s="4"/>
+      <c r="AMC3" s="4"/>
+      <c r="AMD3" s="4"/>
+      <c r="AME3" s="4"/>
+      <c r="AMF3" s="4"/>
+      <c r="AMG3" s="4"/>
+      <c r="AMH3" s="4"/>
+      <c r="AMI3" s="4"/>
+      <c r="AMJ3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+    <row r="4" s="14" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>1019</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="10" t="s">
         <v>1020</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="15" t="s">
         <v>1021</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>1022</v>
-      </c>
       <c r="F4" s="15" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -7376,32 +7479,51 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="ALR4" s="4"/>
+      <c r="ALS4" s="4"/>
+      <c r="ALT4" s="4"/>
+      <c r="ALU4" s="4"/>
+      <c r="ALV4" s="4"/>
+      <c r="ALW4" s="4"/>
+      <c r="ALX4" s="4"/>
+      <c r="ALY4" s="4"/>
+      <c r="ALZ4" s="4"/>
+      <c r="AMA4" s="4"/>
+      <c r="AMB4" s="4"/>
+      <c r="AMC4" s="4"/>
+      <c r="AMD4" s="4"/>
+      <c r="AME4" s="4"/>
+      <c r="AMF4" s="4"/>
+      <c r="AMG4" s="4"/>
+      <c r="AMH4" s="4"/>
+      <c r="AMI4" s="4"/>
+      <c r="AMJ4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+    <row r="5" s="14" customFormat="true" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="D5" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>1024</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H5" s="13"/>
+      <c r="F5" s="16" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H5" s="17"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -7410,32 +7532,49 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="ALR5" s="4"/>
+      <c r="ALS5" s="4"/>
+      <c r="ALT5" s="4"/>
+      <c r="ALU5" s="4"/>
+      <c r="ALV5" s="4"/>
+      <c r="ALW5" s="4"/>
+      <c r="ALX5" s="4"/>
+      <c r="ALY5" s="4"/>
+      <c r="ALZ5" s="4"/>
+      <c r="AMA5" s="4"/>
+      <c r="AMB5" s="4"/>
+      <c r="AMC5" s="4"/>
+      <c r="AMD5" s="4"/>
+      <c r="AME5" s="4"/>
+      <c r="AMF5" s="4"/>
+      <c r="AMG5" s="4"/>
+      <c r="AMH5" s="4"/>
+      <c r="AMI5" s="4"/>
+      <c r="AMJ5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+    <row r="6" s="14" customFormat="true" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>1028</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="F6" s="15" t="s">
         <v>1029</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -7444,25 +7583,50 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="ALR6" s="4"/>
+      <c r="ALS6" s="4"/>
+      <c r="ALT6" s="4"/>
+      <c r="ALU6" s="4"/>
+      <c r="ALV6" s="4"/>
+      <c r="ALW6" s="4"/>
+      <c r="ALX6" s="4"/>
+      <c r="ALY6" s="4"/>
+      <c r="ALZ6" s="4"/>
+      <c r="AMA6" s="4"/>
+      <c r="AMB6" s="4"/>
+      <c r="AMC6" s="4"/>
+      <c r="AMD6" s="4"/>
+      <c r="AME6" s="4"/>
+      <c r="AMF6" s="4"/>
+      <c r="AMG6" s="4"/>
+      <c r="AMH6" s="4"/>
+      <c r="AMI6" s="4"/>
+      <c r="AMJ6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+    <row r="7" s="14" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>1031</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17" t="s">
+      <c r="D7" s="10" t="s">
         <v>1033</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="E7" s="15" t="n">
+        <v>81611</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>81611</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>81611</v>
+      </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -7472,30 +7636,49 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="ALR7" s="4"/>
+      <c r="ALS7" s="4"/>
+      <c r="ALT7" s="4"/>
+      <c r="ALU7" s="4"/>
+      <c r="ALV7" s="4"/>
+      <c r="ALW7" s="4"/>
+      <c r="ALX7" s="4"/>
+      <c r="ALY7" s="4"/>
+      <c r="ALZ7" s="4"/>
+      <c r="AMA7" s="4"/>
+      <c r="AMB7" s="4"/>
+      <c r="AMC7" s="4"/>
+      <c r="AMD7" s="4"/>
+      <c r="AME7" s="4"/>
+      <c r="AMF7" s="4"/>
+      <c r="AMG7" s="4"/>
+      <c r="AMH7" s="4"/>
+      <c r="AMI7" s="4"/>
+      <c r="AMJ7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+    <row r="8" s="14" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>1034</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>1036</v>
       </c>
-      <c r="E8" s="17" t="n">
-        <v>81611</v>
-      </c>
-      <c r="F8" s="17" t="n">
-        <v>81611</v>
-      </c>
-      <c r="G8" s="17" t="n">
-        <v>81611</v>
+      <c r="E8" s="15" t="n">
+        <v>454909</v>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>454909</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>454909</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -7506,66 +7689,104 @@
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="ALR8" s="4"/>
+      <c r="ALS8" s="4"/>
+      <c r="ALT8" s="4"/>
+      <c r="ALU8" s="4"/>
+      <c r="ALV8" s="4"/>
+      <c r="ALW8" s="4"/>
+      <c r="ALX8" s="4"/>
+      <c r="ALY8" s="4"/>
+      <c r="ALZ8" s="4"/>
+      <c r="AMA8" s="4"/>
+      <c r="AMB8" s="4"/>
+      <c r="AMC8" s="4"/>
+      <c r="AMD8" s="4"/>
+      <c r="AME8" s="4"/>
+      <c r="AMF8" s="4"/>
+      <c r="AMG8" s="4"/>
+      <c r="AMH8" s="4"/>
+      <c r="AMI8" s="4"/>
+      <c r="AMJ8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
-        <v>1011</v>
+    <row r="9" s="14" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>1037</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D9" s="16" t="s">
         <v>1038</v>
       </c>
-      <c r="E9" s="17" t="n">
-        <v>454909</v>
-      </c>
-      <c r="F9" s="17" t="n">
-        <v>454909</v>
-      </c>
-      <c r="G9" s="17" t="n">
-        <v>454909</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="D9" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>52.0775912</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>52.0775912</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>52.0775912</v>
+      </c>
+      <c r="H9" s="0"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="ALR9" s="4"/>
+      <c r="ALS9" s="4"/>
+      <c r="ALT9" s="4"/>
+      <c r="ALU9" s="4"/>
+      <c r="ALV9" s="4"/>
+      <c r="ALW9" s="4"/>
+      <c r="ALX9" s="4"/>
+      <c r="ALY9" s="4"/>
+      <c r="ALZ9" s="4"/>
+      <c r="AMA9" s="4"/>
+      <c r="AMB9" s="4"/>
+      <c r="AMC9" s="4"/>
+      <c r="AMD9" s="4"/>
+      <c r="AME9" s="4"/>
+      <c r="AMF9" s="4"/>
+      <c r="AMG9" s="4"/>
+      <c r="AMH9" s="4"/>
+      <c r="AMI9" s="4"/>
+      <c r="AMJ9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+    <row r="10" s="14" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>1039</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E10" s="17" t="n">
+      <c r="E10" s="15" t="n">
         <v>4.3166395</v>
       </c>
-      <c r="F10" s="17" t="n">
+      <c r="F10" s="15" t="n">
         <v>4.3166395</v>
       </c>
-      <c r="G10" s="17" t="n">
+      <c r="G10" s="15" t="n">
         <v>4.3166395</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="0"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -7574,30 +7795,49 @@
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="ALR10" s="4"/>
+      <c r="ALS10" s="4"/>
+      <c r="ALT10" s="4"/>
+      <c r="ALU10" s="4"/>
+      <c r="ALV10" s="4"/>
+      <c r="ALW10" s="4"/>
+      <c r="ALX10" s="4"/>
+      <c r="ALY10" s="4"/>
+      <c r="ALZ10" s="4"/>
+      <c r="AMA10" s="4"/>
+      <c r="AMB10" s="4"/>
+      <c r="AMC10" s="4"/>
+      <c r="AMD10" s="4"/>
+      <c r="AME10" s="4"/>
+      <c r="AMF10" s="4"/>
+      <c r="AMG10" s="4"/>
+      <c r="AMH10" s="4"/>
+      <c r="AMI10" s="4"/>
+      <c r="AMJ10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+    <row r="11" s="14" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>1042</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C11" s="11" t="s">
         <v>1043</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E11" s="17" t="n">
-        <v>52.0775912</v>
-      </c>
-      <c r="F11" s="17" t="n">
-        <v>52.0775912</v>
-      </c>
-      <c r="G11" s="17" t="n">
-        <v>52.0775912</v>
+      <c r="C11" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>1046</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -7608,28 +7848,49 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="ALR11" s="4"/>
+      <c r="ALS11" s="4"/>
+      <c r="ALT11" s="4"/>
+      <c r="ALU11" s="4"/>
+      <c r="ALV11" s="4"/>
+      <c r="ALW11" s="4"/>
+      <c r="ALX11" s="4"/>
+      <c r="ALY11" s="4"/>
+      <c r="ALZ11" s="4"/>
+      <c r="AMA11" s="4"/>
+      <c r="AMB11" s="4"/>
+      <c r="AMC11" s="4"/>
+      <c r="AMD11" s="4"/>
+      <c r="AME11" s="4"/>
+      <c r="AMF11" s="4"/>
+      <c r="AMG11" s="4"/>
+      <c r="AMH11" s="4"/>
+      <c r="AMI11" s="4"/>
+      <c r="AMJ11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="s">
+    <row r="12" s="14" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>1044</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F12" s="0"/>
+      <c r="E12" s="16" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>1048</v>
+      </c>
       <c r="G12" s="20" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -7640,26 +7901,49 @@
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="ALR12" s="4"/>
+      <c r="ALS12" s="4"/>
+      <c r="ALT12" s="4"/>
+      <c r="ALU12" s="4"/>
+      <c r="ALV12" s="4"/>
+      <c r="ALW12" s="4"/>
+      <c r="ALX12" s="4"/>
+      <c r="ALY12" s="4"/>
+      <c r="ALZ12" s="4"/>
+      <c r="AMA12" s="4"/>
+      <c r="AMB12" s="4"/>
+      <c r="AMC12" s="4"/>
+      <c r="AMD12" s="4"/>
+      <c r="AME12" s="4"/>
+      <c r="AMF12" s="4"/>
+      <c r="AMG12" s="4"/>
+      <c r="AMH12" s="4"/>
+      <c r="AMI12" s="4"/>
+      <c r="AMJ12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>1048</v>
+    <row r="13" s="14" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>1049</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F13" s="0"/>
+        <v>1043</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>1051</v>
+      </c>
       <c r="G13" s="20" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -7670,26 +7954,49 @@
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="ALR13" s="4"/>
+      <c r="ALS13" s="4"/>
+      <c r="ALT13" s="4"/>
+      <c r="ALU13" s="4"/>
+      <c r="ALV13" s="4"/>
+      <c r="ALW13" s="4"/>
+      <c r="ALX13" s="4"/>
+      <c r="ALY13" s="4"/>
+      <c r="ALZ13" s="4"/>
+      <c r="AMA13" s="4"/>
+      <c r="AMB13" s="4"/>
+      <c r="AMC13" s="4"/>
+      <c r="AMD13" s="4"/>
+      <c r="AME13" s="4"/>
+      <c r="AMF13" s="4"/>
+      <c r="AMG13" s="4"/>
+      <c r="AMH13" s="4"/>
+      <c r="AMI13" s="4"/>
+      <c r="AMJ13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
-        <v>1050</v>
+    <row r="14" s="14" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>1052</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>1011</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F14" s="0"/>
+      <c r="C14" s="11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>1011</v>
+      </c>
       <c r="G14" s="20" t="s">
-        <v>1051</v>
+        <v>1018</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -7700,28 +8007,51 @@
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="ALR14" s="4"/>
+      <c r="ALS14" s="4"/>
+      <c r="ALT14" s="4"/>
+      <c r="ALU14" s="4"/>
+      <c r="ALV14" s="4"/>
+      <c r="ALW14" s="4"/>
+      <c r="ALX14" s="4"/>
+      <c r="ALY14" s="4"/>
+      <c r="ALZ14" s="4"/>
+      <c r="AMA14" s="4"/>
+      <c r="AMB14" s="4"/>
+      <c r="AMC14" s="4"/>
+      <c r="AMD14" s="4"/>
+      <c r="AME14" s="4"/>
+      <c r="AMF14" s="4"/>
+      <c r="AMG14" s="4"/>
+      <c r="AMH14" s="4"/>
+      <c r="AMI14" s="4"/>
+      <c r="AMJ14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
-        <v>1052</v>
+    <row r="15" s="14" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>1055</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>1011</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F15" s="0"/>
-      <c r="G15" s="20" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H15" s="13"/>
+      <c r="G15" s="15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H15" s="17"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
@@ -7730,28 +8060,49 @@
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="ALR15" s="4"/>
+      <c r="ALS15" s="4"/>
+      <c r="ALT15" s="4"/>
+      <c r="ALU15" s="4"/>
+      <c r="ALV15" s="4"/>
+      <c r="ALW15" s="4"/>
+      <c r="ALX15" s="4"/>
+      <c r="ALY15" s="4"/>
+      <c r="ALZ15" s="4"/>
+      <c r="AMA15" s="4"/>
+      <c r="AMB15" s="4"/>
+      <c r="AMC15" s="4"/>
+      <c r="AMD15" s="4"/>
+      <c r="AME15" s="4"/>
+      <c r="AMF15" s="4"/>
+      <c r="AMG15" s="4"/>
+      <c r="AMH15" s="4"/>
+      <c r="AMI15" s="4"/>
+      <c r="AMJ15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
-        <v>1054</v>
+    <row r="16" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>1057</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F16" s="0"/>
-      <c r="G16" s="20" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H16" s="13"/>
+        <v>1018</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G16" s="0"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
@@ -7760,30 +8111,49 @@
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="ALR16" s="4"/>
+      <c r="ALS16" s="4"/>
+      <c r="ALT16" s="4"/>
+      <c r="ALU16" s="4"/>
+      <c r="ALV16" s="4"/>
+      <c r="ALW16" s="4"/>
+      <c r="ALX16" s="4"/>
+      <c r="ALY16" s="4"/>
+      <c r="ALZ16" s="4"/>
+      <c r="AMA16" s="4"/>
+      <c r="AMB16" s="4"/>
+      <c r="AMC16" s="4"/>
+      <c r="AMD16" s="4"/>
+      <c r="AME16" s="4"/>
+      <c r="AMF16" s="4"/>
+      <c r="AMG16" s="4"/>
+      <c r="AMH16" s="4"/>
+      <c r="AMI16" s="4"/>
+      <c r="AMJ16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>1056</v>
+    <row r="17" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>1060</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>1057</v>
-      </c>
-      <c r="H17" s="13"/>
+        <v>1018</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G17" s="0"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -7792,30 +8162,51 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="ALR17" s="4"/>
+      <c r="ALS17" s="4"/>
+      <c r="ALT17" s="4"/>
+      <c r="ALU17" s="4"/>
+      <c r="ALV17" s="4"/>
+      <c r="ALW17" s="4"/>
+      <c r="ALX17" s="4"/>
+      <c r="ALY17" s="4"/>
+      <c r="ALZ17" s="4"/>
+      <c r="AMA17" s="4"/>
+      <c r="AMB17" s="4"/>
+      <c r="AMC17" s="4"/>
+      <c r="AMD17" s="4"/>
+      <c r="AME17" s="4"/>
+      <c r="AMF17" s="4"/>
+      <c r="AMG17" s="4"/>
+      <c r="AMH17" s="4"/>
+      <c r="AMI17" s="4"/>
+      <c r="AMJ17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="s">
-        <v>1058</v>
+    <row r="18" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>1063</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>1011</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>1059</v>
-      </c>
-      <c r="H18" s="13"/>
+      <c r="F18" s="15" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H18" s="17"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
@@ -7824,28 +8215,49 @@
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="ALR18" s="4"/>
+      <c r="ALS18" s="4"/>
+      <c r="ALT18" s="4"/>
+      <c r="ALU18" s="4"/>
+      <c r="ALV18" s="4"/>
+      <c r="ALW18" s="4"/>
+      <c r="ALX18" s="4"/>
+      <c r="ALY18" s="4"/>
+      <c r="ALZ18" s="4"/>
+      <c r="AMA18" s="4"/>
+      <c r="AMB18" s="4"/>
+      <c r="AMC18" s="4"/>
+      <c r="AMD18" s="4"/>
+      <c r="AME18" s="4"/>
+      <c r="AMF18" s="4"/>
+      <c r="AMG18" s="4"/>
+      <c r="AMH18" s="4"/>
+      <c r="AMI18" s="4"/>
+      <c r="AMJ18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="s">
-        <v>1060</v>
+    <row r="19" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>1065</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>1011</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>1061</v>
+      <c r="F19" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>1018</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -7856,30 +8268,49 @@
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="ALR19" s="4"/>
+      <c r="ALS19" s="4"/>
+      <c r="ALT19" s="4"/>
+      <c r="ALU19" s="4"/>
+      <c r="ALV19" s="4"/>
+      <c r="ALW19" s="4"/>
+      <c r="ALX19" s="4"/>
+      <c r="ALY19" s="4"/>
+      <c r="ALZ19" s="4"/>
+      <c r="AMA19" s="4"/>
+      <c r="AMB19" s="4"/>
+      <c r="AMC19" s="4"/>
+      <c r="AMD19" s="4"/>
+      <c r="AME19" s="4"/>
+      <c r="AMF19" s="4"/>
+      <c r="AMG19" s="4"/>
+      <c r="AMH19" s="4"/>
+      <c r="AMI19" s="4"/>
+      <c r="AMJ19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B20" s="10" t="s">
+    <row r="20" s="14" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="22" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>1011</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>1024</v>
+        <v>1068</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>1070</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -7890,32 +8321,51 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="ALR20" s="4"/>
+      <c r="ALS20" s="4"/>
+      <c r="ALT20" s="4"/>
+      <c r="ALU20" s="4"/>
+      <c r="ALV20" s="4"/>
+      <c r="ALW20" s="4"/>
+      <c r="ALX20" s="4"/>
+      <c r="ALY20" s="4"/>
+      <c r="ALZ20" s="4"/>
+      <c r="AMA20" s="4"/>
+      <c r="AMB20" s="4"/>
+      <c r="AMC20" s="4"/>
+      <c r="AMD20" s="4"/>
+      <c r="AME20" s="4"/>
+      <c r="AMF20" s="4"/>
+      <c r="AMG20" s="4"/>
+      <c r="AMH20" s="4"/>
+      <c r="AMI20" s="4"/>
+      <c r="AMJ20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F21" s="17" t="s">
+    <row r="21" s="14" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="22" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>1011</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H21" s="19"/>
+      <c r="C21" s="11" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H21" s="17"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
@@ -7924,212 +8374,47 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="ALR21" s="4"/>
+      <c r="ALS21" s="4"/>
+      <c r="ALT21" s="4"/>
+      <c r="ALU21" s="4"/>
+      <c r="ALV21" s="4"/>
+      <c r="ALW21" s="4"/>
+      <c r="ALX21" s="4"/>
+      <c r="ALY21" s="4"/>
+      <c r="ALZ21" s="4"/>
+      <c r="AMA21" s="4"/>
+      <c r="AMB21" s="4"/>
+      <c r="AMC21" s="4"/>
+      <c r="AMD21" s="4"/>
+      <c r="AME21" s="4"/>
+      <c r="AMF21" s="4"/>
+      <c r="AMG21" s="4"/>
+      <c r="AMH21" s="4"/>
+      <c r="AMI21" s="4"/>
+      <c r="AMJ21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>1069</v>
-      </c>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="0"/>
       <c r="G22" s="0"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>1072</v>
-      </c>
+      <c r="F23" s="0"/>
       <c r="G23" s="0"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="0"/>
-      <c r="G28" s="0"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8157,597 +8442,597 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="24" width="19.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="17.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="70.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="79.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="69.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="75.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="24" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="19.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="17.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="70.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="79.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="25" width="69.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="75.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="25" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="13"/>
+      <c r="E1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="32" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>1011</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="C2" s="34" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="13"/>
+      <c r="I2" s="29"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>1024</v>
+    <row r="3" s="4" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>1018</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>1088</v>
+        <v>1080</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>1081</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="36" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>1011</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>1088</v>
+        <v>1083</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>1085</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="36" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>1011</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>1097</v>
+      <c r="C5" s="39" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>1088</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="36" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>1011</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="C6" s="39" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="A7" s="36" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="33" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="A8" s="36" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
     </row>
     <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>1024</v>
+      <c r="A9" s="36" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>1018</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>1088</v>
+        <v>1096</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>1098</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="36" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>1011</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
+      <c r="C10" s="39" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="36" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>1011</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="39" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="33" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>1088</v>
+      <c r="A12" s="36" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>1106</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="36" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>1011</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="C13" s="30" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F14" s="13"/>
+      <c r="A14" s="36" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F14" s="29"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F15" s="13"/>
+      <c r="A15" s="36" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F15" s="29"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="13"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="33" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="36" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B16" s="31" t="s">
         <v>1011</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="13"/>
+      <c r="C16" s="30" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="A17" s="36" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>1011</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="13"/>
+      <c r="C17" s="30" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="36" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>1011</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="13"/>
+      <c r="C18" s="39" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="29"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="36" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F19" s="13"/>
+      <c r="A19" s="36" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="40" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F19" s="29"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="13"/>
+      <c r="I19" s="29"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
     </row>
     <row r="20" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="A20" s="36" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="35" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>1011</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>1138</v>
+      <c r="C21" s="47" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>1134</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/waarismijnstemlokaal.nl_invulformulier.xlsx
+++ b/tests/data/waarismijnstemlokaal.nl_invulformulier.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,14 +22,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="1152">
   <si>
     <t xml:space="preserve">Toelichting</t>
   </si>
   <si>
     <t xml:space="preserve">Op dit tabblad wordt het gebruik van deze spreadsheet toegelicht. Hieronder staat de beschrijving van de andere twee tabbladen 'Attributen' en 'Metadata'.
 Dit invulformulier is bedoeld om geüpload te worden naar https://waarismijnstemlokaal.nl/. In plaats van dit invulformulier kan ook de invultool op https://waarismijnstemlokaal.nl/ gebruikt worden. Ook kan op die website een versie van dit invulformulier gedownload worden waarin de stembureaus van de vorige verkiezing alvast (deels) ingevuld staan.
-Dit invulformulier is gebaseerd op de Stembureaus Open Data Standaard versie 1.3.</t>
+Dit invulformulier is gebaseerd op de Stembureaus Open Data Standaard versie 1.4.</t>
   </si>
   <si>
     <t xml:space="preserve">Attributen</t>
@@ -3066,7 +3066,8 @@
     <t xml:space="preserve">ja</t>
   </si>
   <si>
-    <t xml:space="preserve">Een stembureau is gevestigd in een stemlokaal en elk stembureau heeft een eigen nummer. Sommige stemlokalen hebben meerdere stembureaus. Elk stembureau moet apart ingevoerd worden ook al is de locatie (het stemlokaal) hetzelfde aangezien elk stembureau een ander nummer heeft.</t>
+    <t xml:space="preserve">Een stembureau is gevestigd in een stemlokaal en elk stembureau heeft een eigen nummer. Sommige stemlokalen hebben meerdere stembureaus. Elk stembureau moet apart ingevoerd worden ook al is de locatie (het stemlokaal) hetzelfde aangezien elk stembureau een ander nummer heeft.
+Als een stembureau meerdere dagen open is dan hoort deze voor elke dag een ander stembureaunummer te hebben. Elke stembureau(nummer) moet dus apart ingevoerd worden.</t>
   </si>
   <si>
     <t xml:space="preserve">cijfers</t>
@@ -3081,6 +3082,21 @@
     <t xml:space="preserve">Stadhuis</t>
   </si>
   <si>
+    <t xml:space="preserve">Type stembureau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kies ‘regulier’ als dit een normaal stembureau betreft. Kies ‘bijzonder’ als het stembureau afwijkende openingstijden heeft. Kies ‘mobiel’ als het stembureau meerdere locaties heeft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keuze uit 'regulier', ‘bijzonder’ en ‘mobiel’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bijzonder</t>
+  </si>
+  <si>
     <t xml:space="preserve">Website locatie</t>
   </si>
   <si>
@@ -3100,7 +3116,8 @@
   </si>
   <si>
     <t xml:space="preserve">BAG Nummeraanduiding ID, vindbaar door het adres van het stembureau op https://bagviewer.kadaster.nl/ in te voeren en rechts onder het kopje 'Nummeraanduiding' te kijken.
-Vermeld voor mobiele stembureaus of locaties zonder BAG Nummeraanduiding ID het dichtstbijzijnde BAG Nummeraanduiding ID en gebruik eventueel het 'Extra adresaanduiding'-veld om de locatie van stembureau te beschrijven. NB: de precieze locatie geeft u aan met de 'Latitude' en 'Longitude'-velden of met de ‘X’ en ‘Y’-velden.
+Wordt de ID niet goed opgeslagen? Zorg dan dat de cel opgemaakt is als ‘tekst’ of plaats voor de ID één aanhalingsteken (').
+Vermeld voor mobiele stembureaus die vlakbij een gebouw staan of locaties zonder BAG Nummeraanduiding ID het BAG Nummeraanduiding ID van het dichtstbijzijnde gebouw en gebruik eventueel het 'Extra adresaanduiding'-veld om de locatie van stembureau te beschrijven. Mocht een (mobiel) stembureau niet in de buurt van een gebouw staan, voer dan '0000000000000000' (zestien keer het getal '0') in; 'Extra adresaanduiding'-attribuut is dan verplicht. NB: de precieze locatie geeft u aan met de 'Latitude' en 'Longitude'-velden.
 Caribisch Nederland (BES-eilanden) staat niet in de BAG. Deze gemeenten moeten '0000000000000000' (zestien keer het getal '0') invullen en het adres verplicht invullen in het 'Extra adresaanduiding'-attribuut.</t>
   </si>
   <si>
@@ -3114,8 +3131,10 @@
   </si>
   <si>
     <t xml:space="preserve">Eventuele extra informatie over de locatie van het stembureau. Bv. 'Ingang aan achterkant gebouw' of 'Mobiel stembureau op het midden van het plein'.
-Sommige stembureaus zijn niet open voor algemeen publiek vanwege coronamaatregelen. Bijvoorbeeld een stembureau in een verzorgingshuis. Geef dat in dit veld aan door exact de tekst 'Niet open voor algemeen publiek' in te voeren.
 Caribisch Nederland (BES-eilanden) vult verplicht hier het hele adres in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tekst; als er geen extra informatie is, laat dit veld dan leeg (‘nee’ e.d. worden automatisch verwijderd)</t>
   </si>
   <si>
     <t xml:space="preserve">Ingang aan achterkant gebouw</t>
@@ -3163,34 +3182,28 @@
 Als u de longitude van het stembureau niet weet dan kunt u dit vinden via https://www.openstreetmap.org/. Zoom in op het stembureau, klik op de juiste locatie met de rechtermuisknop en selecteer 'Show address'/'Toon adres'. De latitude en longitude (in die volgorde) staan nu linksboven in de zoekbalk.</t>
   </si>
   <si>
-    <t xml:space="preserve">Openingstijden 14-03-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ja, er minimaal één openingstijden-attribuut ingevuld worden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zie opmerking bij het ‘Openingstijden 16-03-2022’-attribuut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YYYY-MM-DDTHH:MM:SS tot YYYY-MM-DDTHH:MM:SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-14T07:30:00 tot 2022-03-14T21:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Openingstijden 15-03-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-15T07:30:00 tot 2022-03-15T21:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Openingstijden 16-03-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sommige gemeenten werken met mobiele stembureaus die gedurende de dag op verschillende locaties staan. Voor mobiele stembureaus moet elke locatie apart worden ingevoerd in een eigen 'Invulveld'-kolom (vul dus de hele kolom in en niet enkel de attributen die veranderen, zoals de locatie en openingstijden).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-16T07:30:00 tot 2022-03-16T21:00:00</t>
+    <t xml:space="preserve">Openingstijd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In sommige gevallen heeft een stembureau meerdere openingstijden, bijvoorbeeld een mobiel stemburea of een stembureau dat ‘s middags even dicht is. In zulke gevallen moeten voor alle openingstijden alle attributen apart ingevuld worden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YYYY-MM-DDTHH:MM:SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-15T07:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-15T02:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sluitingstijd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-15T21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-15T22:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">Toegankelijk voor mensen met een lichamelijke beperking</t>
@@ -3198,10 +3211,22 @@
   <si>
     <t xml:space="preserve">Is het stembureau toegankelijk voor mensen met een lichamelijke beperking?
 Voor meer informatie, zie:
-https://www.rijksoverheid.nl/documenten/publicaties/2021/10/14/toegankelijkheid-verkiezingen</t>
+https://www.rijksoverheid.nl/onderwerpen/verkiezingen/verkiezingentoolkit/toegankelijkheid-verkiezingen</t>
   </si>
   <si>
     <t xml:space="preserve">ja of nee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toegankelijke ov-halte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is er een toegankelijke ov-halte in de buurt? Beschrijf hoe ver deze van het stembureau ligt en hoe deze toegankelijk is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tekst; als er geen toegankelijke ov-halte is, laat dit veld dan leeg (‘nee’ e.d. worden automatisch verwijderd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binnen 100 meter, rolstoeltoegankelijk, geleidelijnen</t>
   </si>
   <si>
     <t xml:space="preserve">Akoestiek</t>
@@ -3214,19 +3239,25 @@
     <t xml:space="preserve">Auditieve hulpmiddelen</t>
   </si>
   <si>
-    <t xml:space="preserve">Welke auditieve hulpmiddelen zijn aanwezig? Dit is een vrij tekstveld.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gebarentolk</t>
+    <t xml:space="preserve">Welke auditieve hulpmiddelen voor slechthorende en doven zijn aanwezig? Dit is een vrij tekstveld.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tekst; als er geen hulpmiddelen zijn, laat dit veld dan leeg (‘nee’ e.d. worden automatisch verwijderd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gebarentolk, schrijftolk</t>
   </si>
   <si>
     <t xml:space="preserve">Visuele hulpmiddelen</t>
   </si>
   <si>
-    <t xml:space="preserve">Welke visuele hulpmiddelen zijn aanwezig? Dit is een vrij tekstveld.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leesloep, stemmal, vrijwilliger/host aanwezig</t>
+    <t xml:space="preserve">Welke visuele hulpmiddelen voor blinden en slechtzienden zijn aanwezig? Dit is een vrij tekstveld.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tekst; als er geen hulpmiddelen zijn, laat dit veld dan leeg (‘nee’ e.d. worden automatisch verwijderd); NB: een leesloep is verplicht op elk stembureau en moet hier dus niet vermeld worden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stemmal, soundbox, vrijwilliger/host aanwezig, geleidelijnen</t>
   </si>
   <si>
     <t xml:space="preserve">Gehandicaptentoilet</t>
@@ -3235,6 +3266,15 @@
     <t xml:space="preserve">Is er een gehandicaptentoilet aanwezig? </t>
   </si>
   <si>
+    <t xml:space="preserve">Extra toegankelijkheidsinformatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventuele extra informatie over de toegankelijkheid van dit stembureau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prikkelarm stembureau, stembureau is volledig toegankelijk voor mensen met een lichamelijke beperking er is echter geen gehandicaptenparkeerplaats</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tellocatie</t>
   </si>
   <si>
@@ -3262,23 +3302,38 @@
     <t xml:space="preserve">https://www.stembureausindenhaag.nl/</t>
   </si>
   <si>
+    <t xml:space="preserve">Verkiezingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In het geval van waterschapsverkiezingen kan er in sommige gemeenten niet in elk stembureau voor elk waterschap gestemd worden. Door Amsterdam lopen er bijvoorbeeld drie waterschappen en er kan enkel voor een waterschap gestemd worden bij stembureaus die in het gebied van het waterschap liggen. Alle gemeenten vragen we daarom in het geval van deze verkiezingen per stembureau specifiek aan te geven voor welke waterschappen er gestemd kunnen worden. Ook als er überhaupt maar één keuze is (bv. als er in de hele gemeente maar voor één waterschap gekozen kan worden) en ook als er in de gemeente bij elk stembureau voor alle verkiezingen gestemd kan worden.
+In het geval dat er in dit stembureau voor meerdere waterschapen gestemd kan worden dan scheidt u deze met een puntkomma, bv.:
+Waterschapsverkiezingen voor Delfland; waterschapsverkiezingen voor Rijnland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keuze uit:
+– 'waterschapsverkiezingen voor &lt;naam van waterschap zonder "Waterschap" of "Hoogheemraadschap" voor de naam&gt;'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waterschapsverkiezingen voor Delfland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Titel</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;verkiezing&gt;: keuze uit 'Tweede Kamerverkiezingen', 'gemeenteraadsverkiezingen', 'Provinciale Statenverkiezingen', 'referendum &lt;naam van referendum&gt;', 'eilandsraadsverkiezingen', 'kiescollegeverkiezingen', 'Europees Parlementsverkiezingen', 'waterschapsverkiezingen', 'verkiezingen gebiedscommissies en wijkraden' en 'verkiezingen stadsdeelcommissies'
+    <t xml:space="preserve">&lt;verkiezing&gt;: keuze uit 'Tweede Kamerverkiezingen', 'gemeenteraadsverkiezingen', 'Provinciale Statenverkiezingen', 'referendum &lt;naam van referendum&gt;', 'eilandsraadsverkiezingen', 'kiescollegeverkiezingen', 'Europese Parlementsverkiezingen', 'waterschapsverkiezingen', 'verkiezingen gebiedscommissies en wijkraden' en 'verkiezingen stadsdeelcommissies'
 &lt;jaar&gt;: het jaar waarin de verkiezing wordt gehouden; dit moet weggelaten worden bij referenda aangezien de titel per referendum anders is</t>
   </si>
   <si>
     <t xml:space="preserve">Stembureaus &lt;verkiezing&gt; &lt;jaar&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Stembureaus gemeenteraadsverkiezingen 2022</t>
+    <t xml:space="preserve">Stembureaus Provinciale Statenverkiezingen 2023</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;CBS gemeentecode&gt;: code bestaande uit 6 karakters, zie https://opendata.cbs.nl/statline/#/CBS/nl/dataset/85067NED/table?dl=B165 of gebruik GM9001 voor Bonaire, GM9002 voor Sint Eustatius of GM9003 voor Saba.
+    <t xml:space="preserve">&lt;CBS gemeentecode&gt;: code bestaande uit 6 karakters, zie https://opendata.cbs.nl/#/CBS/nl/dataset/85385NED/table?dl=B165 of gebruik GM9001 voor Bonaire, GM9002 voor Sint Eustatius of GM9003 voor Saba.
 &lt;YYYYMMDD&gt;: datum van de verkiezing
 &lt;oplopend getal&gt;: getal tussen 000 en 999</t>
   </si>
@@ -3286,20 +3341,20 @@
     <t xml:space="preserve">NLODS&lt;CBS gemeentecode&gt;stembureaus&lt;YYYYMMDD&gt;&lt;oplopend getal van 000 t/m 999&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">NLODSGM0518stembureaus20220316009</t>
+    <t xml:space="preserve">NLODSGM0518stembureaus20230315010</t>
   </si>
   <si>
     <t xml:space="preserve">Omschrijving</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;verkiezing&gt;: keuze uit 'de Tweede Kamerverkiezingen', 'de gemeenteraadsverkiezingen', 'de Provinciale Statenverkiezingen', 'referendum &lt;naam van referendum&gt;', 'de kiescollegeverkiezingen', 'de eilandsraadsverkiezingen', 'de Europees Parlementsverkiezingen', 'de waterschapsverkiezingen', 'verkiezingen gebiedscommissies en wijkraden' en 'verkiezingen stadsdeelcommissies'
-&lt;datum&gt;: in format zoals '16 maart 2022'</t>
+    <t xml:space="preserve">&lt;verkiezing&gt;: keuze uit 'de Tweede Kamerverkiezingen', 'de gemeenteraadsverkiezingen', 'de Provinciale Statenverkiezingen', 'referendum &lt;naam van referendum&gt;', 'de kiescollegeverkiezingen', 'de eilandsraadsverkiezingen', 'de Europese Parlementsverkiezingen', 'de waterschapsverkiezingen', 'verkiezingen gebiedscommissies en wijkraden' en 'verkiezingen stadsdeelcommissies'
+&lt;datum&gt;: in format zoals '15 maart 2023'</t>
   </si>
   <si>
     <t xml:space="preserve">Overzicht van de locaties van stembureaus. De gegevens hebben betrekking op &lt;verkiezing&gt; op &lt;datum&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Overzicht van de locaties van stembureaus. De gegevens hebben betrekking op de gemeenteraadsverkiezingen op 16 maart 2022.</t>
+    <t xml:space="preserve">Overzicht van de locaties van stembureaus. De gegevens hebben betrekking op de Provinciale Statenverkiezingen op 15 maart 2023.</t>
   </si>
   <si>
     <t xml:space="preserve">Eigenaar</t>
@@ -3332,7 +3387,7 @@
     <t xml:space="preserve">Tags</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;aard van de verkiezing&gt;: keuze uit 'Tweede Kamerverkiezingen', 'gemeenteraadsverkiezingen', 'Provinciale Statenverkiezingen', 'referendum', 'eilandsraadsverkiezingen', 'kiescollegeverkiezingen', 'Europees Parlementsverkiezingen', 'waterschapsverkiezingen', 'verkiezingen gebiedscommissies en wijkraden' en 'verkiezingen stadsdeelcommissies'</t>
+    <t xml:space="preserve">&lt;aard van de verkiezing&gt;: keuze uit 'Tweede Kamerverkiezingen', 'gemeenteraadsverkiezingen', 'Provinciale Statenverkiezingen', 'referendum', 'eilandsraadsverkiezingen', 'kiescollegeverkiezingen', 'Europese Parlementsverkiezingen', 'waterschapsverkiezingen', 'verkiezingen gebiedscommissies en wijkraden' en 'verkiezingen stadsdeelcommissies'</t>
   </si>
   <si>
     <t xml:space="preserve">verkiezingen, stembureaus, overheid, democratie, stemmen, kiesdistrict, &lt;aard van de verkiezing&gt;</t>
@@ -3357,7 +3412,7 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;gebied&gt;: afhankelijk van de verkiezing, keuze uit
-– 'Nederland' voor Tweede Kamerverkiezingen, Europees Parlementsverkiezingen en referendum
+– 'Nederland' voor Tweede Kamerverkiezingen, Europese Parlementsverkiezingen en referendum
 – 'Europees Nederland' voor gemeenteraadsverkiezingen, Provinciale Statenverkiezingen, waterschapsverkiezingen en referendum
 – 'Caribisch Nederland' voor eilandsraadsverkiezingen, kiescollegeverkiezingen en referendum
 – &lt;de namen van de gemeenten&gt; in het geval van gemeenteraadsverkiezingen bij een herindeling
@@ -3379,7 +3434,7 @@
     <t xml:space="preserve">YYYY-MM-DDTHH:MM:SS+-HH:MM</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-01-16T13:05:23+01:00</t>
+    <t xml:space="preserve">2023-01-16T13:05:23+01:00</t>
   </si>
   <si>
     <t xml:space="preserve">Relatie / gebruik andere standaarden</t>
@@ -3397,19 +3452,19 @@
     <t xml:space="preserve">YYYY-MM-DD</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-03-16</t>
+    <t xml:space="preserve">2023-03-15</t>
   </si>
   <si>
     <t xml:space="preserve">Update frequentie</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;datum verkiezing&gt;: in format zoals '16 maart 2022'</t>
+    <t xml:space="preserve">&lt;datum verkiezing&gt;: in format zoals '15 maart 2023'</t>
   </si>
   <si>
     <t xml:space="preserve">Incidenteel tot en met &lt;datum verkiezing&gt; (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezing)</t>
   </si>
   <si>
-    <t xml:space="preserve">Incidenteel tot en met 16 maart 2022 (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezingen)</t>
+    <t xml:space="preserve">Incidenteel tot en met 15 maart 2023 (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezingen)</t>
   </si>
   <si>
     <t xml:space="preserve">Wijzigings datum</t>
@@ -3468,7 +3523,7 @@
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3537,6 +3592,15 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3545,15 +3609,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3601,21 +3656,21 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3630,7 +3685,7 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3649,6 +3704,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
@@ -3661,6 +3723,27 @@
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3787,7 +3870,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3839,10 +3922,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -3851,6 +3931,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3859,9 +3945,6 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
@@ -3923,7 +4006,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3940,6 +4023,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4000,8 +4087,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -4024,95 +4119,123 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="12" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="12" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="12" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="12" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="12" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="12" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4140,21 +4263,21 @@
     <cellStyle name="Footnote 9" xfId="34"/>
     <cellStyle name="Good 12" xfId="35"/>
     <cellStyle name="Good 13" xfId="36"/>
-    <cellStyle name="Heading 1 5" xfId="37"/>
-    <cellStyle name="Heading 1 6" xfId="38"/>
-    <cellStyle name="Heading 2 6" xfId="39"/>
-    <cellStyle name="Heading 2 7" xfId="40"/>
-    <cellStyle name="Heading 3" xfId="41"/>
-    <cellStyle name="Heading 4" xfId="42"/>
-    <cellStyle name="Heading 5" xfId="43"/>
-    <cellStyle name="Heading1" xfId="44"/>
+    <cellStyle name="Heading 1 1" xfId="37"/>
+    <cellStyle name="Heading 1 5" xfId="38"/>
+    <cellStyle name="Heading 1 6" xfId="39"/>
+    <cellStyle name="Heading 2 6" xfId="40"/>
+    <cellStyle name="Heading 2 7" xfId="41"/>
+    <cellStyle name="Heading 3" xfId="42"/>
+    <cellStyle name="Heading 4" xfId="43"/>
+    <cellStyle name="Heading 5" xfId="44"/>
     <cellStyle name="Hyperlink 10" xfId="45"/>
     <cellStyle name="Hyperlink 11" xfId="46"/>
     <cellStyle name="Neutral 13" xfId="47"/>
     <cellStyle name="Neutral 14" xfId="48"/>
     <cellStyle name="Note 8" xfId="49"/>
     <cellStyle name="Note 9" xfId="50"/>
-    <cellStyle name="Result" xfId="51"/>
+    <cellStyle name="Result 1" xfId="51"/>
     <cellStyle name="Result2" xfId="52"/>
     <cellStyle name="Status 11" xfId="53"/>
     <cellStyle name="Status 12" xfId="54"/>
@@ -4234,22 +4357,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="78.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="10.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="10.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="2" width="10.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="2" width="10.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4257,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4267,7 +4390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4285,13 +4408,13 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0"/>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4300,35 +4423,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AMJ26"/>
+  <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="51.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="53.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="64.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="46.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="4" width="51.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="51.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1005" min="9" style="4" width="51.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1006" style="4" width="11.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="53.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="64.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="46.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="5" width="51.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="51.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1005" min="9" style="5" width="51.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1006" style="5" width="11.17"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4343,4083 +4466,4197 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AK1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AM1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AN1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AO1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AP1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AR1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AS1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AT1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AU1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AV1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AW1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="AX1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AY1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BA1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BB1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BC1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BD1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="BE1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BF1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BG1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BH1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BI1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BK1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="BL1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BM1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BN1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="BO1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="BP1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BR1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="BS1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="7" t="s">
+      <c r="BT1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="7" t="s">
+      <c r="BU1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BV1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="BW1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="BX1" s="7" t="s">
+      <c r="BX1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="BY1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="BZ1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="CA1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="CB1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CC1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CD1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CE1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CF1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="CG1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="CH1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CI1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="CJ1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="CK1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="CL1" s="7" t="s">
+      <c r="CL1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CM1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CN1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="CO1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="CP1" s="7" t="s">
+      <c r="CP1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="CR1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CS1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CT1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="CU1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="CV1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="CW1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="CX1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="CY1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="CZ1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="DA1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="DB1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="DC1" s="7" t="s">
+      <c r="DC1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="DD1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="DE1" s="7" t="s">
+      <c r="DE1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="DF1" s="7" t="s">
+      <c r="DF1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="DG1" s="7" t="s">
+      <c r="DG1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="DH1" s="7" t="s">
+      <c r="DH1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="DI1" s="7" t="s">
+      <c r="DI1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="DJ1" s="7" t="s">
+      <c r="DJ1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="DK1" s="7" t="s">
+      <c r="DK1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="DL1" s="7" t="s">
+      <c r="DL1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="DM1" s="7" t="s">
+      <c r="DM1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="DN1" s="7" t="s">
+      <c r="DN1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="DO1" s="7" t="s">
+      <c r="DO1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="DP1" s="7" t="s">
+      <c r="DP1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="DQ1" s="7" t="s">
+      <c r="DQ1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="DR1" s="7" t="s">
+      <c r="DR1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="DS1" s="7" t="s">
+      <c r="DS1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="DT1" s="7" t="s">
+      <c r="DT1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="DU1" s="7" t="s">
+      <c r="DU1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="DV1" s="7" t="s">
+      <c r="DV1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="DW1" s="7" t="s">
+      <c r="DW1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="DX1" s="7" t="s">
+      <c r="DX1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="DY1" s="7" t="s">
+      <c r="DY1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="DZ1" s="7" t="s">
+      <c r="DZ1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="EA1" s="7" t="s">
+      <c r="EA1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="EB1" s="7" t="s">
+      <c r="EB1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="EC1" s="7" t="s">
+      <c r="EC1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="ED1" s="7" t="s">
+      <c r="ED1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="EE1" s="7" t="s">
+      <c r="EE1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="EF1" s="7" t="s">
+      <c r="EF1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="EG1" s="7" t="s">
+      <c r="EG1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="EH1" s="7" t="s">
+      <c r="EH1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="EI1" s="7" t="s">
+      <c r="EI1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="EJ1" s="7" t="s">
+      <c r="EJ1" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="EK1" s="7" t="s">
+      <c r="EK1" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="EL1" s="7" t="s">
+      <c r="EL1" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="EM1" s="7" t="s">
+      <c r="EM1" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="EN1" s="7" t="s">
+      <c r="EN1" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="EO1" s="7" t="s">
+      <c r="EO1" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="EP1" s="7" t="s">
+      <c r="EP1" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="EQ1" s="7" t="s">
+      <c r="EQ1" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="ER1" s="7" t="s">
+      <c r="ER1" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="ES1" s="7" t="s">
+      <c r="ES1" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="ET1" s="7" t="s">
+      <c r="ET1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="EU1" s="7" t="s">
+      <c r="EU1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="EV1" s="7" t="s">
+      <c r="EV1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="EW1" s="7" t="s">
+      <c r="EW1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="EX1" s="7" t="s">
+      <c r="EX1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="EY1" s="7" t="s">
+      <c r="EY1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="EZ1" s="7" t="s">
+      <c r="EZ1" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="FA1" s="7" t="s">
+      <c r="FA1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="FB1" s="7" t="s">
+      <c r="FB1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="FC1" s="7" t="s">
+      <c r="FC1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="FD1" s="7" t="s">
+      <c r="FD1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="FE1" s="7" t="s">
+      <c r="FE1" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="FF1" s="7" t="s">
+      <c r="FF1" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="FG1" s="7" t="s">
+      <c r="FG1" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="FH1" s="7" t="s">
+      <c r="FH1" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="FI1" s="7" t="s">
+      <c r="FI1" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="FJ1" s="7" t="s">
+      <c r="FJ1" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="FK1" s="7" t="s">
+      <c r="FK1" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="FL1" s="7" t="s">
+      <c r="FL1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="FM1" s="7" t="s">
+      <c r="FM1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="FN1" s="7" t="s">
+      <c r="FN1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="FO1" s="7" t="s">
+      <c r="FO1" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="FP1" s="7" t="s">
+      <c r="FP1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="FQ1" s="7" t="s">
+      <c r="FQ1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="FR1" s="7" t="s">
+      <c r="FR1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="FS1" s="7" t="s">
+      <c r="FS1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="FT1" s="7" t="s">
+      <c r="FT1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="FU1" s="7" t="s">
+      <c r="FU1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="FV1" s="7" t="s">
+      <c r="FV1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="FW1" s="7" t="s">
+      <c r="FW1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="FX1" s="7" t="s">
+      <c r="FX1" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="FY1" s="7" t="s">
+      <c r="FY1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="FZ1" s="7" t="s">
+      <c r="FZ1" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="GA1" s="7" t="s">
+      <c r="GA1" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="GB1" s="7" t="s">
+      <c r="GB1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="GC1" s="7" t="s">
+      <c r="GC1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="GD1" s="7" t="s">
+      <c r="GD1" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="GE1" s="7" t="s">
+      <c r="GE1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="GF1" s="7" t="s">
+      <c r="GF1" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="GG1" s="7" t="s">
+      <c r="GG1" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="GH1" s="7" t="s">
+      <c r="GH1" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="GI1" s="7" t="s">
+      <c r="GI1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="GJ1" s="7" t="s">
+      <c r="GJ1" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="GK1" s="7" t="s">
+      <c r="GK1" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="GL1" s="7" t="s">
+      <c r="GL1" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="GM1" s="7" t="s">
+      <c r="GM1" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="GN1" s="7" t="s">
+      <c r="GN1" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="GO1" s="7" t="s">
+      <c r="GO1" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="GP1" s="7" t="s">
+      <c r="GP1" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="GQ1" s="7" t="s">
+      <c r="GQ1" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="GR1" s="7" t="s">
+      <c r="GR1" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="GS1" s="7" t="s">
+      <c r="GS1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="GT1" s="7" t="s">
+      <c r="GT1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="GU1" s="7" t="s">
+      <c r="GU1" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="GV1" s="7" t="s">
+      <c r="GV1" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="GW1" s="7" t="s">
+      <c r="GW1" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="GX1" s="7" t="s">
+      <c r="GX1" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="GY1" s="7" t="s">
+      <c r="GY1" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="GZ1" s="7" t="s">
+      <c r="GZ1" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="HA1" s="7" t="s">
+      <c r="HA1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="HB1" s="7" t="s">
+      <c r="HB1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="HC1" s="7" t="s">
+      <c r="HC1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="HD1" s="7" t="s">
+      <c r="HD1" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="HE1" s="7" t="s">
+      <c r="HE1" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="HF1" s="7" t="s">
+      <c r="HF1" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="HG1" s="7" t="s">
+      <c r="HG1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="HH1" s="7" t="s">
+      <c r="HH1" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="HI1" s="7" t="s">
+      <c r="HI1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="HJ1" s="7" t="s">
+      <c r="HJ1" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="HK1" s="7" t="s">
+      <c r="HK1" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="HL1" s="7" t="s">
+      <c r="HL1" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="HM1" s="7" t="s">
+      <c r="HM1" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="HN1" s="7" t="s">
+      <c r="HN1" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="HO1" s="7" t="s">
+      <c r="HO1" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="HP1" s="7" t="s">
+      <c r="HP1" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="HQ1" s="7" t="s">
+      <c r="HQ1" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="HR1" s="7" t="s">
+      <c r="HR1" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="HS1" s="7" t="s">
+      <c r="HS1" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="HT1" s="7" t="s">
+      <c r="HT1" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="HU1" s="7" t="s">
+      <c r="HU1" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="HV1" s="7" t="s">
+      <c r="HV1" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="HW1" s="7" t="s">
+      <c r="HW1" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="HX1" s="7" t="s">
+      <c r="HX1" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="HY1" s="7" t="s">
+      <c r="HY1" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="HZ1" s="7" t="s">
+      <c r="HZ1" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="IA1" s="7" t="s">
+      <c r="IA1" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="IB1" s="7" t="s">
+      <c r="IB1" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="IC1" s="7" t="s">
+      <c r="IC1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="ID1" s="7" t="s">
+      <c r="ID1" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="IE1" s="7" t="s">
+      <c r="IE1" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="IF1" s="7" t="s">
+      <c r="IF1" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="IG1" s="7" t="s">
+      <c r="IG1" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="IH1" s="7" t="s">
+      <c r="IH1" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="II1" s="7" t="s">
+      <c r="II1" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="IJ1" s="7" t="s">
+      <c r="IJ1" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="IK1" s="7" t="s">
+      <c r="IK1" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="IL1" s="7" t="s">
+      <c r="IL1" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="IM1" s="7" t="s">
+      <c r="IM1" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="IN1" s="7" t="s">
+      <c r="IN1" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="IO1" s="7" t="s">
+      <c r="IO1" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="IP1" s="7" t="s">
+      <c r="IP1" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="IQ1" s="7" t="s">
+      <c r="IQ1" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="IR1" s="7" t="s">
+      <c r="IR1" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="IS1" s="7" t="s">
+      <c r="IS1" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="IT1" s="7" t="s">
+      <c r="IT1" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="IU1" s="7" t="s">
+      <c r="IU1" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="IV1" s="7" t="s">
+      <c r="IV1" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="IW1" s="7" t="s">
+      <c r="IW1" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="IX1" s="7" t="s">
+      <c r="IX1" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="IY1" s="7" t="s">
+      <c r="IY1" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="IZ1" s="7" t="s">
+      <c r="IZ1" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="JA1" s="7" t="s">
+      <c r="JA1" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="JB1" s="7" t="s">
+      <c r="JB1" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="JC1" s="7" t="s">
+      <c r="JC1" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="JD1" s="7" t="s">
+      <c r="JD1" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="JE1" s="7" t="s">
+      <c r="JE1" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="JF1" s="7" t="s">
+      <c r="JF1" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="JG1" s="7" t="s">
+      <c r="JG1" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="JH1" s="7" t="s">
+      <c r="JH1" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="JI1" s="7" t="s">
+      <c r="JI1" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="JJ1" s="7" t="s">
+      <c r="JJ1" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="JK1" s="7" t="s">
+      <c r="JK1" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="JL1" s="7" t="s">
+      <c r="JL1" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="JM1" s="7" t="s">
+      <c r="JM1" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="JN1" s="7" t="s">
+      <c r="JN1" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="JO1" s="7" t="s">
+      <c r="JO1" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="JP1" s="7" t="s">
+      <c r="JP1" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="JQ1" s="7" t="s">
+      <c r="JQ1" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="JR1" s="7" t="s">
+      <c r="JR1" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="JS1" s="7" t="s">
+      <c r="JS1" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="JT1" s="7" t="s">
+      <c r="JT1" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="JU1" s="7" t="s">
+      <c r="JU1" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="JV1" s="7" t="s">
+      <c r="JV1" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="JW1" s="7" t="s">
+      <c r="JW1" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="JX1" s="7" t="s">
+      <c r="JX1" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="JY1" s="7" t="s">
+      <c r="JY1" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="JZ1" s="7" t="s">
+      <c r="JZ1" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="KA1" s="7" t="s">
+      <c r="KA1" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="KB1" s="7" t="s">
+      <c r="KB1" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="KC1" s="7" t="s">
+      <c r="KC1" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="KD1" s="7" t="s">
+      <c r="KD1" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="KE1" s="7" t="s">
+      <c r="KE1" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="KF1" s="7" t="s">
+      <c r="KF1" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="KG1" s="7" t="s">
+      <c r="KG1" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="KH1" s="7" t="s">
+      <c r="KH1" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="KI1" s="7" t="s">
+      <c r="KI1" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="KJ1" s="7" t="s">
+      <c r="KJ1" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="KK1" s="7" t="s">
+      <c r="KK1" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="KL1" s="7" t="s">
+      <c r="KL1" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="KM1" s="7" t="s">
+      <c r="KM1" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="KN1" s="7" t="s">
+      <c r="KN1" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="KO1" s="7" t="s">
+      <c r="KO1" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="KP1" s="7" t="s">
+      <c r="KP1" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="KQ1" s="7" t="s">
+      <c r="KQ1" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="KR1" s="7" t="s">
+      <c r="KR1" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="KS1" s="7" t="s">
+      <c r="KS1" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="KT1" s="7" t="s">
+      <c r="KT1" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="KU1" s="7" t="s">
+      <c r="KU1" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="KV1" s="7" t="s">
+      <c r="KV1" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="KW1" s="7" t="s">
+      <c r="KW1" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="KX1" s="7" t="s">
+      <c r="KX1" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="KY1" s="7" t="s">
+      <c r="KY1" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="KZ1" s="7" t="s">
+      <c r="KZ1" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="LA1" s="7" t="s">
+      <c r="LA1" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="LB1" s="7" t="s">
+      <c r="LB1" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="LC1" s="7" t="s">
+      <c r="LC1" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="LD1" s="7" t="s">
+      <c r="LD1" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="LE1" s="7" t="s">
+      <c r="LE1" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="LF1" s="7" t="s">
+      <c r="LF1" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="LG1" s="7" t="s">
+      <c r="LG1" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="LH1" s="7" t="s">
+      <c r="LH1" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="LI1" s="7" t="s">
+      <c r="LI1" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="LJ1" s="7" t="s">
+      <c r="LJ1" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="LK1" s="7" t="s">
+      <c r="LK1" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="LL1" s="7" t="s">
+      <c r="LL1" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="LM1" s="7" t="s">
+      <c r="LM1" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="LN1" s="7" t="s">
+      <c r="LN1" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="LO1" s="7" t="s">
+      <c r="LO1" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="LP1" s="7" t="s">
+      <c r="LP1" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="LQ1" s="7" t="s">
+      <c r="LQ1" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="LR1" s="7" t="s">
+      <c r="LR1" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="LS1" s="7" t="s">
+      <c r="LS1" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="LT1" s="7" t="s">
+      <c r="LT1" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="LU1" s="7" t="s">
+      <c r="LU1" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="LV1" s="7" t="s">
+      <c r="LV1" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="LW1" s="7" t="s">
+      <c r="LW1" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="LX1" s="7" t="s">
+      <c r="LX1" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="LY1" s="7" t="s">
+      <c r="LY1" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="LZ1" s="7" t="s">
+      <c r="LZ1" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="MA1" s="7" t="s">
+      <c r="MA1" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="MB1" s="7" t="s">
+      <c r="MB1" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="MC1" s="7" t="s">
+      <c r="MC1" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="MD1" s="7" t="s">
+      <c r="MD1" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="ME1" s="7" t="s">
+      <c r="ME1" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="MF1" s="7" t="s">
+      <c r="MF1" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="MG1" s="7" t="s">
+      <c r="MG1" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="MH1" s="7" t="s">
+      <c r="MH1" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="MI1" s="7" t="s">
+      <c r="MI1" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="MJ1" s="7" t="s">
+      <c r="MJ1" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="MK1" s="7" t="s">
+      <c r="MK1" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="ML1" s="7" t="s">
+      <c r="ML1" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="MM1" s="7" t="s">
+      <c r="MM1" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="MN1" s="7" t="s">
+      <c r="MN1" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="MO1" s="7" t="s">
+      <c r="MO1" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="MP1" s="7" t="s">
+      <c r="MP1" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="MQ1" s="7" t="s">
+      <c r="MQ1" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="MR1" s="7" t="s">
+      <c r="MR1" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="MS1" s="7" t="s">
+      <c r="MS1" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="MT1" s="7" t="s">
+      <c r="MT1" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="MU1" s="7" t="s">
+      <c r="MU1" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="MV1" s="7" t="s">
+      <c r="MV1" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="MW1" s="7" t="s">
+      <c r="MW1" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="MX1" s="7" t="s">
+      <c r="MX1" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="MY1" s="7" t="s">
+      <c r="MY1" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="MZ1" s="7" t="s">
+      <c r="MZ1" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="NA1" s="7" t="s">
+      <c r="NA1" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="NB1" s="7" t="s">
+      <c r="NB1" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="NC1" s="7" t="s">
+      <c r="NC1" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="ND1" s="7" t="s">
+      <c r="ND1" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="NE1" s="7" t="s">
+      <c r="NE1" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="NF1" s="7" t="s">
+      <c r="NF1" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="NG1" s="7" t="s">
+      <c r="NG1" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="NH1" s="7" t="s">
+      <c r="NH1" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="NI1" s="7" t="s">
+      <c r="NI1" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="NJ1" s="7" t="s">
+      <c r="NJ1" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="NK1" s="7" t="s">
+      <c r="NK1" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="NL1" s="7" t="s">
+      <c r="NL1" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="NM1" s="7" t="s">
+      <c r="NM1" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="NN1" s="7" t="s">
+      <c r="NN1" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="NO1" s="7" t="s">
+      <c r="NO1" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="NP1" s="7" t="s">
+      <c r="NP1" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="NQ1" s="7" t="s">
+      <c r="NQ1" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="NR1" s="7" t="s">
+      <c r="NR1" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="NS1" s="7" t="s">
+      <c r="NS1" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="NT1" s="7" t="s">
+      <c r="NT1" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="NU1" s="7" t="s">
+      <c r="NU1" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="NV1" s="7" t="s">
+      <c r="NV1" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="NW1" s="7" t="s">
+      <c r="NW1" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="NX1" s="7" t="s">
+      <c r="NX1" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="NY1" s="7" t="s">
+      <c r="NY1" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="NZ1" s="7" t="s">
+      <c r="NZ1" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="OA1" s="7" t="s">
+      <c r="OA1" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="OB1" s="7" t="s">
+      <c r="OB1" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="OC1" s="7" t="s">
+      <c r="OC1" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="OD1" s="7" t="s">
+      <c r="OD1" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="OE1" s="7" t="s">
+      <c r="OE1" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="OF1" s="7" t="s">
+      <c r="OF1" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="OG1" s="7" t="s">
+      <c r="OG1" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="OH1" s="7" t="s">
+      <c r="OH1" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="OI1" s="7" t="s">
+      <c r="OI1" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="OJ1" s="7" t="s">
+      <c r="OJ1" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="OK1" s="7" t="s">
+      <c r="OK1" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="OL1" s="7" t="s">
+      <c r="OL1" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="OM1" s="7" t="s">
+      <c r="OM1" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="ON1" s="7" t="s">
+      <c r="ON1" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="OO1" s="7" t="s">
+      <c r="OO1" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="OP1" s="7" t="s">
+      <c r="OP1" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="OQ1" s="7" t="s">
+      <c r="OQ1" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="OR1" s="7" t="s">
+      <c r="OR1" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="OS1" s="7" t="s">
+      <c r="OS1" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="OT1" s="7" t="s">
+      <c r="OT1" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="OU1" s="7" t="s">
+      <c r="OU1" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="OV1" s="7" t="s">
+      <c r="OV1" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="OW1" s="7" t="s">
+      <c r="OW1" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="OX1" s="7" t="s">
+      <c r="OX1" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="OY1" s="7" t="s">
+      <c r="OY1" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="OZ1" s="7" t="s">
+      <c r="OZ1" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="PA1" s="7" t="s">
+      <c r="PA1" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="PB1" s="7" t="s">
+      <c r="PB1" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="PC1" s="7" t="s">
+      <c r="PC1" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="PD1" s="7" t="s">
+      <c r="PD1" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="PE1" s="7" t="s">
+      <c r="PE1" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="PF1" s="7" t="s">
+      <c r="PF1" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="PG1" s="7" t="s">
+      <c r="PG1" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="PH1" s="7" t="s">
+      <c r="PH1" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="PI1" s="7" t="s">
+      <c r="PI1" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="PJ1" s="7" t="s">
+      <c r="PJ1" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="PK1" s="7" t="s">
+      <c r="PK1" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="PL1" s="7" t="s">
+      <c r="PL1" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="PM1" s="7" t="s">
+      <c r="PM1" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="PN1" s="7" t="s">
+      <c r="PN1" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="PO1" s="7" t="s">
+      <c r="PO1" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="PP1" s="7" t="s">
+      <c r="PP1" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="PQ1" s="7" t="s">
+      <c r="PQ1" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="PR1" s="7" t="s">
+      <c r="PR1" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="PS1" s="7" t="s">
+      <c r="PS1" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="PT1" s="7" t="s">
+      <c r="PT1" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="PU1" s="7" t="s">
+      <c r="PU1" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="PV1" s="7" t="s">
+      <c r="PV1" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="PW1" s="7" t="s">
+      <c r="PW1" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="PX1" s="7" t="s">
+      <c r="PX1" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="PY1" s="7" t="s">
+      <c r="PY1" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="PZ1" s="7" t="s">
+      <c r="PZ1" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="QA1" s="7" t="s">
+      <c r="QA1" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="QB1" s="7" t="s">
+      <c r="QB1" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="QC1" s="7" t="s">
+      <c r="QC1" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="QD1" s="7" t="s">
+      <c r="QD1" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="QE1" s="7" t="s">
+      <c r="QE1" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="QF1" s="7" t="s">
+      <c r="QF1" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="QG1" s="7" t="s">
+      <c r="QG1" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="QH1" s="7" t="s">
+      <c r="QH1" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="QI1" s="7" t="s">
+      <c r="QI1" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="QJ1" s="7" t="s">
+      <c r="QJ1" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="QK1" s="7" t="s">
+      <c r="QK1" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="QL1" s="7" t="s">
+      <c r="QL1" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="QM1" s="7" t="s">
+      <c r="QM1" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="QN1" s="7" t="s">
+      <c r="QN1" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="QO1" s="7" t="s">
+      <c r="QO1" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="QP1" s="7" t="s">
+      <c r="QP1" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="QQ1" s="7" t="s">
+      <c r="QQ1" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="QR1" s="7" t="s">
+      <c r="QR1" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="QS1" s="7" t="s">
+      <c r="QS1" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="QT1" s="7" t="s">
+      <c r="QT1" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="QU1" s="7" t="s">
+      <c r="QU1" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="QV1" s="7" t="s">
+      <c r="QV1" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="QW1" s="7" t="s">
+      <c r="QW1" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="QX1" s="7" t="s">
+      <c r="QX1" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="QY1" s="7" t="s">
+      <c r="QY1" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="QZ1" s="7" t="s">
+      <c r="QZ1" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="RA1" s="7" t="s">
+      <c r="RA1" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="RB1" s="7" t="s">
+      <c r="RB1" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="RC1" s="7" t="s">
+      <c r="RC1" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="RD1" s="7" t="s">
+      <c r="RD1" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="RE1" s="7" t="s">
+      <c r="RE1" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="RF1" s="7" t="s">
+      <c r="RF1" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="RG1" s="7" t="s">
+      <c r="RG1" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="RH1" s="7" t="s">
+      <c r="RH1" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="RI1" s="7" t="s">
+      <c r="RI1" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="RJ1" s="7" t="s">
+      <c r="RJ1" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="RK1" s="7" t="s">
+      <c r="RK1" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="RL1" s="7" t="s">
+      <c r="RL1" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="RM1" s="7" t="s">
+      <c r="RM1" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="RN1" s="7" t="s">
+      <c r="RN1" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="RO1" s="7" t="s">
+      <c r="RO1" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="RP1" s="7" t="s">
+      <c r="RP1" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="RQ1" s="7" t="s">
+      <c r="RQ1" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="RR1" s="7" t="s">
+      <c r="RR1" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="RS1" s="7" t="s">
+      <c r="RS1" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="RT1" s="7" t="s">
+      <c r="RT1" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="RU1" s="7" t="s">
+      <c r="RU1" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="RV1" s="7" t="s">
+      <c r="RV1" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="RW1" s="7" t="s">
+      <c r="RW1" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="RX1" s="7" t="s">
+      <c r="RX1" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="RY1" s="7" t="s">
+      <c r="RY1" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="RZ1" s="7" t="s">
+      <c r="RZ1" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="SA1" s="7" t="s">
+      <c r="SA1" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="SB1" s="7" t="s">
+      <c r="SB1" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="SC1" s="7" t="s">
+      <c r="SC1" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="SD1" s="7" t="s">
+      <c r="SD1" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="SE1" s="7" t="s">
+      <c r="SE1" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="SF1" s="7" t="s">
+      <c r="SF1" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="SG1" s="7" t="s">
+      <c r="SG1" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="SH1" s="7" t="s">
+      <c r="SH1" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="SI1" s="7" t="s">
+      <c r="SI1" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="SJ1" s="7" t="s">
+      <c r="SJ1" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="SK1" s="7" t="s">
+      <c r="SK1" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="SL1" s="7" t="s">
+      <c r="SL1" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="SM1" s="7" t="s">
+      <c r="SM1" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="SN1" s="7" t="s">
+      <c r="SN1" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="SO1" s="7" t="s">
+      <c r="SO1" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="SP1" s="7" t="s">
+      <c r="SP1" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="SQ1" s="7" t="s">
+      <c r="SQ1" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="SR1" s="7" t="s">
+      <c r="SR1" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="SS1" s="7" t="s">
+      <c r="SS1" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="ST1" s="7" t="s">
+      <c r="ST1" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="SU1" s="7" t="s">
+      <c r="SU1" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="SV1" s="7" t="s">
+      <c r="SV1" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="SW1" s="7" t="s">
+      <c r="SW1" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="SX1" s="7" t="s">
+      <c r="SX1" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="SY1" s="7" t="s">
+      <c r="SY1" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="SZ1" s="7" t="s">
+      <c r="SZ1" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="TA1" s="7" t="s">
+      <c r="TA1" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="TB1" s="7" t="s">
+      <c r="TB1" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="TC1" s="7" t="s">
+      <c r="TC1" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="TD1" s="7" t="s">
+      <c r="TD1" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="TE1" s="7" t="s">
+      <c r="TE1" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="TF1" s="7" t="s">
+      <c r="TF1" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="TG1" s="7" t="s">
+      <c r="TG1" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="TH1" s="7" t="s">
+      <c r="TH1" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="TI1" s="7" t="s">
+      <c r="TI1" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="TJ1" s="7" t="s">
+      <c r="TJ1" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="TK1" s="7" t="s">
+      <c r="TK1" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="TL1" s="7" t="s">
+      <c r="TL1" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="TM1" s="7" t="s">
+      <c r="TM1" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="TN1" s="7" t="s">
+      <c r="TN1" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="TO1" s="7" t="s">
+      <c r="TO1" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="TP1" s="7" t="s">
+      <c r="TP1" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="TQ1" s="7" t="s">
+      <c r="TQ1" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="TR1" s="7" t="s">
+      <c r="TR1" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="TS1" s="7" t="s">
+      <c r="TS1" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="TT1" s="7" t="s">
+      <c r="TT1" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="TU1" s="7" t="s">
+      <c r="TU1" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="TV1" s="7" t="s">
+      <c r="TV1" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="TW1" s="7" t="s">
+      <c r="TW1" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="TX1" s="7" t="s">
+      <c r="TX1" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="TY1" s="7" t="s">
+      <c r="TY1" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="TZ1" s="7" t="s">
+      <c r="TZ1" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="UA1" s="7" t="s">
+      <c r="UA1" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="UB1" s="7" t="s">
+      <c r="UB1" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="UC1" s="7" t="s">
+      <c r="UC1" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="UD1" s="7" t="s">
+      <c r="UD1" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="UE1" s="7" t="s">
+      <c r="UE1" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="UF1" s="7" t="s">
+      <c r="UF1" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="UG1" s="7" t="s">
+      <c r="UG1" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="UH1" s="7" t="s">
+      <c r="UH1" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="UI1" s="7" t="s">
+      <c r="UI1" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="UJ1" s="7" t="s">
+      <c r="UJ1" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="UK1" s="7" t="s">
+      <c r="UK1" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="UL1" s="7" t="s">
+      <c r="UL1" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="UM1" s="7" t="s">
+      <c r="UM1" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="UN1" s="7" t="s">
+      <c r="UN1" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="UO1" s="7" t="s">
+      <c r="UO1" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="UP1" s="7" t="s">
+      <c r="UP1" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="UQ1" s="7" t="s">
+      <c r="UQ1" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="UR1" s="7" t="s">
+      <c r="UR1" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="US1" s="7" t="s">
+      <c r="US1" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="UT1" s="7" t="s">
+      <c r="UT1" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="UU1" s="7" t="s">
+      <c r="UU1" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="UV1" s="7" t="s">
+      <c r="UV1" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="UW1" s="7" t="s">
+      <c r="UW1" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="UX1" s="7" t="s">
+      <c r="UX1" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="UY1" s="7" t="s">
+      <c r="UY1" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="UZ1" s="7" t="s">
+      <c r="UZ1" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="VA1" s="7" t="s">
+      <c r="VA1" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="VB1" s="7" t="s">
+      <c r="VB1" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="VC1" s="7" t="s">
+      <c r="VC1" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="VD1" s="7" t="s">
+      <c r="VD1" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="VE1" s="7" t="s">
+      <c r="VE1" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="VF1" s="7" t="s">
+      <c r="VF1" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="VG1" s="7" t="s">
+      <c r="VG1" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="VH1" s="7" t="s">
+      <c r="VH1" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="VI1" s="7" t="s">
+      <c r="VI1" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="VJ1" s="7" t="s">
+      <c r="VJ1" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="VK1" s="7" t="s">
+      <c r="VK1" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="VL1" s="7" t="s">
+      <c r="VL1" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="VM1" s="7" t="s">
+      <c r="VM1" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="VN1" s="7" t="s">
+      <c r="VN1" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="VO1" s="7" t="s">
+      <c r="VO1" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="VP1" s="7" t="s">
+      <c r="VP1" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="VQ1" s="7" t="s">
+      <c r="VQ1" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="VR1" s="7" t="s">
+      <c r="VR1" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="VS1" s="7" t="s">
+      <c r="VS1" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="VT1" s="7" t="s">
+      <c r="VT1" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="VU1" s="7" t="s">
+      <c r="VU1" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="VV1" s="7" t="s">
+      <c r="VV1" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="VW1" s="7" t="s">
+      <c r="VW1" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="VX1" s="7" t="s">
+      <c r="VX1" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="VY1" s="7" t="s">
+      <c r="VY1" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="VZ1" s="7" t="s">
+      <c r="VZ1" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="WA1" s="7" t="s">
+      <c r="WA1" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="WB1" s="7" t="s">
+      <c r="WB1" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="WC1" s="7" t="s">
+      <c r="WC1" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="WD1" s="7" t="s">
+      <c r="WD1" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="WE1" s="7" t="s">
+      <c r="WE1" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="WF1" s="7" t="s">
+      <c r="WF1" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="WG1" s="7" t="s">
+      <c r="WG1" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="WH1" s="7" t="s">
+      <c r="WH1" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="WI1" s="7" t="s">
+      <c r="WI1" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="WJ1" s="7" t="s">
+      <c r="WJ1" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="WK1" s="7" t="s">
+      <c r="WK1" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="WL1" s="7" t="s">
+      <c r="WL1" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="WM1" s="7" t="s">
+      <c r="WM1" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="WN1" s="7" t="s">
+      <c r="WN1" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="WO1" s="7" t="s">
+      <c r="WO1" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="WP1" s="7" t="s">
+      <c r="WP1" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="WQ1" s="7" t="s">
+      <c r="WQ1" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="WR1" s="7" t="s">
+      <c r="WR1" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="WS1" s="7" t="s">
+      <c r="WS1" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="WT1" s="7" t="s">
+      <c r="WT1" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="WU1" s="7" t="s">
+      <c r="WU1" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="WV1" s="7" t="s">
+      <c r="WV1" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="WW1" s="7" t="s">
+      <c r="WW1" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="WX1" s="7" t="s">
+      <c r="WX1" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="WY1" s="7" t="s">
+      <c r="WY1" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="WZ1" s="7" t="s">
+      <c r="WZ1" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="XA1" s="7" t="s">
+      <c r="XA1" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="XB1" s="7" t="s">
+      <c r="XB1" s="8" t="s">
         <v>630</v>
       </c>
-      <c r="XC1" s="7" t="s">
+      <c r="XC1" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="XD1" s="7" t="s">
+      <c r="XD1" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="XE1" s="7" t="s">
+      <c r="XE1" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="XF1" s="7" t="s">
+      <c r="XF1" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="XG1" s="7" t="s">
+      <c r="XG1" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="XH1" s="7" t="s">
+      <c r="XH1" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="XI1" s="7" t="s">
+      <c r="XI1" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="XJ1" s="7" t="s">
+      <c r="XJ1" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="XK1" s="7" t="s">
+      <c r="XK1" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="XL1" s="7" t="s">
+      <c r="XL1" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="XM1" s="7" t="s">
+      <c r="XM1" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="XN1" s="7" t="s">
+      <c r="XN1" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="XO1" s="7" t="s">
+      <c r="XO1" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="XP1" s="7" t="s">
+      <c r="XP1" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="XQ1" s="7" t="s">
+      <c r="XQ1" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="XR1" s="7" t="s">
+      <c r="XR1" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="XS1" s="7" t="s">
+      <c r="XS1" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="XT1" s="7" t="s">
+      <c r="XT1" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="XU1" s="7" t="s">
+      <c r="XU1" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="XV1" s="7" t="s">
+      <c r="XV1" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="XW1" s="7" t="s">
+      <c r="XW1" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="XX1" s="7" t="s">
+      <c r="XX1" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="XY1" s="7" t="s">
+      <c r="XY1" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="XZ1" s="7" t="s">
+      <c r="XZ1" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="YA1" s="7" t="s">
+      <c r="YA1" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="YB1" s="7" t="s">
+      <c r="YB1" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="YC1" s="7" t="s">
+      <c r="YC1" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="YD1" s="7" t="s">
+      <c r="YD1" s="8" t="s">
         <v>658</v>
       </c>
-      <c r="YE1" s="7" t="s">
+      <c r="YE1" s="8" t="s">
         <v>659</v>
       </c>
-      <c r="YF1" s="7" t="s">
+      <c r="YF1" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="YG1" s="7" t="s">
+      <c r="YG1" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="YH1" s="7" t="s">
+      <c r="YH1" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="YI1" s="7" t="s">
+      <c r="YI1" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="YJ1" s="7" t="s">
+      <c r="YJ1" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="YK1" s="7" t="s">
+      <c r="YK1" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="YL1" s="7" t="s">
+      <c r="YL1" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="YM1" s="7" t="s">
+      <c r="YM1" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="YN1" s="7" t="s">
+      <c r="YN1" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="YO1" s="7" t="s">
+      <c r="YO1" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="YP1" s="7" t="s">
+      <c r="YP1" s="8" t="s">
         <v>670</v>
       </c>
-      <c r="YQ1" s="7" t="s">
+      <c r="YQ1" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="YR1" s="7" t="s">
+      <c r="YR1" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="YS1" s="7" t="s">
+      <c r="YS1" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="YT1" s="7" t="s">
+      <c r="YT1" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="YU1" s="7" t="s">
+      <c r="YU1" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="YV1" s="7" t="s">
+      <c r="YV1" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="YW1" s="7" t="s">
+      <c r="YW1" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="YX1" s="7" t="s">
+      <c r="YX1" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="YY1" s="7" t="s">
+      <c r="YY1" s="8" t="s">
         <v>679</v>
       </c>
-      <c r="YZ1" s="7" t="s">
+      <c r="YZ1" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="ZA1" s="7" t="s">
+      <c r="ZA1" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="ZB1" s="7" t="s">
+      <c r="ZB1" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="ZC1" s="7" t="s">
+      <c r="ZC1" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="ZD1" s="7" t="s">
+      <c r="ZD1" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="ZE1" s="7" t="s">
+      <c r="ZE1" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="ZF1" s="7" t="s">
+      <c r="ZF1" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="ZG1" s="7" t="s">
+      <c r="ZG1" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="ZH1" s="7" t="s">
+      <c r="ZH1" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="ZI1" s="7" t="s">
+      <c r="ZI1" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="ZJ1" s="7" t="s">
+      <c r="ZJ1" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="ZK1" s="7" t="s">
+      <c r="ZK1" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="ZL1" s="7" t="s">
+      <c r="ZL1" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="ZM1" s="7" t="s">
+      <c r="ZM1" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="ZN1" s="7" t="s">
+      <c r="ZN1" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="ZO1" s="7" t="s">
+      <c r="ZO1" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="ZP1" s="7" t="s">
+      <c r="ZP1" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="ZQ1" s="7" t="s">
+      <c r="ZQ1" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="ZR1" s="7" t="s">
+      <c r="ZR1" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="ZS1" s="7" t="s">
+      <c r="ZS1" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="ZT1" s="7" t="s">
+      <c r="ZT1" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="ZU1" s="7" t="s">
+      <c r="ZU1" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="ZV1" s="7" t="s">
+      <c r="ZV1" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="ZW1" s="7" t="s">
+      <c r="ZW1" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="ZX1" s="7" t="s">
+      <c r="ZX1" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="ZY1" s="7" t="s">
+      <c r="ZY1" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="ZZ1" s="7" t="s">
+      <c r="ZZ1" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="AAA1" s="7" t="s">
+      <c r="AAA1" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="AAB1" s="7" t="s">
+      <c r="AAB1" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="AAC1" s="7" t="s">
+      <c r="AAC1" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="AAD1" s="7" t="s">
+      <c r="AAD1" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="AAE1" s="7" t="s">
+      <c r="AAE1" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="AAF1" s="7" t="s">
+      <c r="AAF1" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="AAG1" s="7" t="s">
+      <c r="AAG1" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="AAH1" s="7" t="s">
+      <c r="AAH1" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="AAI1" s="7" t="s">
+      <c r="AAI1" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="AAJ1" s="7" t="s">
+      <c r="AAJ1" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="AAK1" s="7" t="s">
+      <c r="AAK1" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="AAL1" s="7" t="s">
+      <c r="AAL1" s="8" t="s">
         <v>718</v>
       </c>
-      <c r="AAM1" s="7" t="s">
+      <c r="AAM1" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="AAN1" s="7" t="s">
+      <c r="AAN1" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="AAO1" s="7" t="s">
+      <c r="AAO1" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="AAP1" s="7" t="s">
+      <c r="AAP1" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="AAQ1" s="7" t="s">
+      <c r="AAQ1" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="AAR1" s="7" t="s">
+      <c r="AAR1" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="AAS1" s="7" t="s">
+      <c r="AAS1" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="AAT1" s="7" t="s">
+      <c r="AAT1" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="AAU1" s="7" t="s">
+      <c r="AAU1" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="AAV1" s="7" t="s">
+      <c r="AAV1" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="AAW1" s="7" t="s">
+      <c r="AAW1" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="AAX1" s="7" t="s">
+      <c r="AAX1" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="AAY1" s="7" t="s">
+      <c r="AAY1" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="AAZ1" s="7" t="s">
+      <c r="AAZ1" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="ABA1" s="7" t="s">
+      <c r="ABA1" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="ABB1" s="7" t="s">
+      <c r="ABB1" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="ABC1" s="7" t="s">
+      <c r="ABC1" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="ABD1" s="7" t="s">
+      <c r="ABD1" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="ABE1" s="7" t="s">
+      <c r="ABE1" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="ABF1" s="7" t="s">
+      <c r="ABF1" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="ABG1" s="7" t="s">
+      <c r="ABG1" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="ABH1" s="7" t="s">
+      <c r="ABH1" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="ABI1" s="7" t="s">
+      <c r="ABI1" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="ABJ1" s="7" t="s">
+      <c r="ABJ1" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="ABK1" s="7" t="s">
+      <c r="ABK1" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="ABL1" s="7" t="s">
+      <c r="ABL1" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="ABM1" s="7" t="s">
+      <c r="ABM1" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="ABN1" s="7" t="s">
+      <c r="ABN1" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="ABO1" s="7" t="s">
+      <c r="ABO1" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="ABP1" s="7" t="s">
+      <c r="ABP1" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="ABQ1" s="7" t="s">
+      <c r="ABQ1" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="ABR1" s="7" t="s">
+      <c r="ABR1" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="ABS1" s="7" t="s">
+      <c r="ABS1" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="ABT1" s="7" t="s">
+      <c r="ABT1" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="ABU1" s="7" t="s">
+      <c r="ABU1" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="ABV1" s="7" t="s">
+      <c r="ABV1" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="ABW1" s="7" t="s">
+      <c r="ABW1" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="ABX1" s="7" t="s">
+      <c r="ABX1" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="ABY1" s="7" t="s">
+      <c r="ABY1" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="ABZ1" s="7" t="s">
+      <c r="ABZ1" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="ACA1" s="7" t="s">
+      <c r="ACA1" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="ACB1" s="7" t="s">
+      <c r="ACB1" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="ACC1" s="7" t="s">
+      <c r="ACC1" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="ACD1" s="7" t="s">
+      <c r="ACD1" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="ACE1" s="7" t="s">
+      <c r="ACE1" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="ACF1" s="7" t="s">
+      <c r="ACF1" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="ACG1" s="7" t="s">
+      <c r="ACG1" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="ACH1" s="7" t="s">
+      <c r="ACH1" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="ACI1" s="7" t="s">
+      <c r="ACI1" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="ACJ1" s="7" t="s">
+      <c r="ACJ1" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="ACK1" s="7" t="s">
+      <c r="ACK1" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="ACL1" s="7" t="s">
+      <c r="ACL1" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="ACM1" s="7" t="s">
+      <c r="ACM1" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="ACN1" s="7" t="s">
+      <c r="ACN1" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="ACO1" s="7" t="s">
+      <c r="ACO1" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="ACP1" s="7" t="s">
+      <c r="ACP1" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="ACQ1" s="7" t="s">
+      <c r="ACQ1" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="ACR1" s="7" t="s">
+      <c r="ACR1" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="ACS1" s="7" t="s">
+      <c r="ACS1" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="ACT1" s="7" t="s">
+      <c r="ACT1" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="ACU1" s="7" t="s">
+      <c r="ACU1" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="ACV1" s="7" t="s">
+      <c r="ACV1" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="ACW1" s="7" t="s">
+      <c r="ACW1" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="ACX1" s="7" t="s">
+      <c r="ACX1" s="8" t="s">
         <v>782</v>
       </c>
-      <c r="ACY1" s="7" t="s">
+      <c r="ACY1" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="ACZ1" s="7" t="s">
+      <c r="ACZ1" s="8" t="s">
         <v>784</v>
       </c>
-      <c r="ADA1" s="7" t="s">
+      <c r="ADA1" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="ADB1" s="7" t="s">
+      <c r="ADB1" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="ADC1" s="7" t="s">
+      <c r="ADC1" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="ADD1" s="7" t="s">
+      <c r="ADD1" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="ADE1" s="7" t="s">
+      <c r="ADE1" s="8" t="s">
         <v>789</v>
       </c>
-      <c r="ADF1" s="7" t="s">
+      <c r="ADF1" s="8" t="s">
         <v>790</v>
       </c>
-      <c r="ADG1" s="7" t="s">
+      <c r="ADG1" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="ADH1" s="7" t="s">
+      <c r="ADH1" s="8" t="s">
         <v>792</v>
       </c>
-      <c r="ADI1" s="7" t="s">
+      <c r="ADI1" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="ADJ1" s="7" t="s">
+      <c r="ADJ1" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="ADK1" s="7" t="s">
+      <c r="ADK1" s="8" t="s">
         <v>795</v>
       </c>
-      <c r="ADL1" s="7" t="s">
+      <c r="ADL1" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="ADM1" s="7" t="s">
+      <c r="ADM1" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="ADN1" s="7" t="s">
+      <c r="ADN1" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="ADO1" s="7" t="s">
+      <c r="ADO1" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="ADP1" s="7" t="s">
+      <c r="ADP1" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="ADQ1" s="7" t="s">
+      <c r="ADQ1" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="ADR1" s="7" t="s">
+      <c r="ADR1" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="ADS1" s="7" t="s">
+      <c r="ADS1" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="ADT1" s="7" t="s">
+      <c r="ADT1" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="ADU1" s="7" t="s">
+      <c r="ADU1" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="ADV1" s="7" t="s">
+      <c r="ADV1" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="ADW1" s="7" t="s">
+      <c r="ADW1" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="ADX1" s="7" t="s">
+      <c r="ADX1" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="ADY1" s="7" t="s">
+      <c r="ADY1" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="ADZ1" s="7" t="s">
+      <c r="ADZ1" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="AEA1" s="7" t="s">
+      <c r="AEA1" s="8" t="s">
         <v>811</v>
       </c>
-      <c r="AEB1" s="7" t="s">
+      <c r="AEB1" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="AEC1" s="7" t="s">
+      <c r="AEC1" s="8" t="s">
         <v>813</v>
       </c>
-      <c r="AED1" s="7" t="s">
+      <c r="AED1" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="AEE1" s="7" t="s">
+      <c r="AEE1" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="AEF1" s="7" t="s">
+      <c r="AEF1" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="AEG1" s="7" t="s">
+      <c r="AEG1" s="8" t="s">
         <v>817</v>
       </c>
-      <c r="AEH1" s="7" t="s">
+      <c r="AEH1" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="AEI1" s="7" t="s">
+      <c r="AEI1" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="AEJ1" s="7" t="s">
+      <c r="AEJ1" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="AEK1" s="7" t="s">
+      <c r="AEK1" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="AEL1" s="7" t="s">
+      <c r="AEL1" s="8" t="s">
         <v>822</v>
       </c>
-      <c r="AEM1" s="7" t="s">
+      <c r="AEM1" s="8" t="s">
         <v>823</v>
       </c>
-      <c r="AEN1" s="7" t="s">
+      <c r="AEN1" s="8" t="s">
         <v>824</v>
       </c>
-      <c r="AEO1" s="7" t="s">
+      <c r="AEO1" s="8" t="s">
         <v>825</v>
       </c>
-      <c r="AEP1" s="7" t="s">
+      <c r="AEP1" s="8" t="s">
         <v>826</v>
       </c>
-      <c r="AEQ1" s="7" t="s">
+      <c r="AEQ1" s="8" t="s">
         <v>827</v>
       </c>
-      <c r="AER1" s="7" t="s">
+      <c r="AER1" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="AES1" s="7" t="s">
+      <c r="AES1" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="AET1" s="7" t="s">
+      <c r="AET1" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="AEU1" s="7" t="s">
+      <c r="AEU1" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="AEV1" s="7" t="s">
+      <c r="AEV1" s="8" t="s">
         <v>832</v>
       </c>
-      <c r="AEW1" s="7" t="s">
+      <c r="AEW1" s="8" t="s">
         <v>833</v>
       </c>
-      <c r="AEX1" s="7" t="s">
+      <c r="AEX1" s="8" t="s">
         <v>834</v>
       </c>
-      <c r="AEY1" s="7" t="s">
+      <c r="AEY1" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="AEZ1" s="7" t="s">
+      <c r="AEZ1" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="AFA1" s="7" t="s">
+      <c r="AFA1" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="AFB1" s="7" t="s">
+      <c r="AFB1" s="8" t="s">
         <v>838</v>
       </c>
-      <c r="AFC1" s="7" t="s">
+      <c r="AFC1" s="8" t="s">
         <v>839</v>
       </c>
-      <c r="AFD1" s="7" t="s">
+      <c r="AFD1" s="8" t="s">
         <v>840</v>
       </c>
-      <c r="AFE1" s="7" t="s">
+      <c r="AFE1" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="AFF1" s="7" t="s">
+      <c r="AFF1" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="AFG1" s="7" t="s">
+      <c r="AFG1" s="8" t="s">
         <v>843</v>
       </c>
-      <c r="AFH1" s="7" t="s">
+      <c r="AFH1" s="8" t="s">
         <v>844</v>
       </c>
-      <c r="AFI1" s="7" t="s">
+      <c r="AFI1" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="AFJ1" s="7" t="s">
+      <c r="AFJ1" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="AFK1" s="7" t="s">
+      <c r="AFK1" s="8" t="s">
         <v>847</v>
       </c>
-      <c r="AFL1" s="7" t="s">
+      <c r="AFL1" s="8" t="s">
         <v>848</v>
       </c>
-      <c r="AFM1" s="7" t="s">
+      <c r="AFM1" s="8" t="s">
         <v>849</v>
       </c>
-      <c r="AFN1" s="7" t="s">
+      <c r="AFN1" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="AFO1" s="7" t="s">
+      <c r="AFO1" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="AFP1" s="7" t="s">
+      <c r="AFP1" s="8" t="s">
         <v>852</v>
       </c>
-      <c r="AFQ1" s="7" t="s">
+      <c r="AFQ1" s="8" t="s">
         <v>853</v>
       </c>
-      <c r="AFR1" s="7" t="s">
+      <c r="AFR1" s="8" t="s">
         <v>854</v>
       </c>
-      <c r="AFS1" s="7" t="s">
+      <c r="AFS1" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="AFT1" s="7" t="s">
+      <c r="AFT1" s="8" t="s">
         <v>856</v>
       </c>
-      <c r="AFU1" s="7" t="s">
+      <c r="AFU1" s="8" t="s">
         <v>857</v>
       </c>
-      <c r="AFV1" s="7" t="s">
+      <c r="AFV1" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="AFW1" s="7" t="s">
+      <c r="AFW1" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="AFX1" s="7" t="s">
+      <c r="AFX1" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="AFY1" s="7" t="s">
+      <c r="AFY1" s="8" t="s">
         <v>861</v>
       </c>
-      <c r="AFZ1" s="7" t="s">
+      <c r="AFZ1" s="8" t="s">
         <v>862</v>
       </c>
-      <c r="AGA1" s="7" t="s">
+      <c r="AGA1" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="AGB1" s="7" t="s">
+      <c r="AGB1" s="8" t="s">
         <v>864</v>
       </c>
-      <c r="AGC1" s="7" t="s">
+      <c r="AGC1" s="8" t="s">
         <v>865</v>
       </c>
-      <c r="AGD1" s="7" t="s">
+      <c r="AGD1" s="8" t="s">
         <v>866</v>
       </c>
-      <c r="AGE1" s="7" t="s">
+      <c r="AGE1" s="8" t="s">
         <v>867</v>
       </c>
-      <c r="AGF1" s="7" t="s">
+      <c r="AGF1" s="8" t="s">
         <v>868</v>
       </c>
-      <c r="AGG1" s="7" t="s">
+      <c r="AGG1" s="8" t="s">
         <v>869</v>
       </c>
-      <c r="AGH1" s="7" t="s">
+      <c r="AGH1" s="8" t="s">
         <v>870</v>
       </c>
-      <c r="AGI1" s="7" t="s">
+      <c r="AGI1" s="8" t="s">
         <v>871</v>
       </c>
-      <c r="AGJ1" s="7" t="s">
+      <c r="AGJ1" s="8" t="s">
         <v>872</v>
       </c>
-      <c r="AGK1" s="7" t="s">
+      <c r="AGK1" s="8" t="s">
         <v>873</v>
       </c>
-      <c r="AGL1" s="7" t="s">
+      <c r="AGL1" s="8" t="s">
         <v>874</v>
       </c>
-      <c r="AGM1" s="7" t="s">
+      <c r="AGM1" s="8" t="s">
         <v>875</v>
       </c>
-      <c r="AGN1" s="7" t="s">
+      <c r="AGN1" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="AGO1" s="7" t="s">
+      <c r="AGO1" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="AGP1" s="7" t="s">
+      <c r="AGP1" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="AGQ1" s="7" t="s">
+      <c r="AGQ1" s="8" t="s">
         <v>879</v>
       </c>
-      <c r="AGR1" s="7" t="s">
+      <c r="AGR1" s="8" t="s">
         <v>880</v>
       </c>
-      <c r="AGS1" s="7" t="s">
+      <c r="AGS1" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="AGT1" s="7" t="s">
+      <c r="AGT1" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="AGU1" s="7" t="s">
+      <c r="AGU1" s="8" t="s">
         <v>883</v>
       </c>
-      <c r="AGV1" s="7" t="s">
+      <c r="AGV1" s="8" t="s">
         <v>884</v>
       </c>
-      <c r="AGW1" s="7" t="s">
+      <c r="AGW1" s="8" t="s">
         <v>885</v>
       </c>
-      <c r="AGX1" s="7" t="s">
+      <c r="AGX1" s="8" t="s">
         <v>886</v>
       </c>
-      <c r="AGY1" s="7" t="s">
+      <c r="AGY1" s="8" t="s">
         <v>887</v>
       </c>
-      <c r="AGZ1" s="7" t="s">
+      <c r="AGZ1" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="AHA1" s="7" t="s">
+      <c r="AHA1" s="8" t="s">
         <v>889</v>
       </c>
-      <c r="AHB1" s="7" t="s">
+      <c r="AHB1" s="8" t="s">
         <v>890</v>
       </c>
-      <c r="AHC1" s="7" t="s">
+      <c r="AHC1" s="8" t="s">
         <v>891</v>
       </c>
-      <c r="AHD1" s="7" t="s">
+      <c r="AHD1" s="8" t="s">
         <v>892</v>
       </c>
-      <c r="AHE1" s="7" t="s">
+      <c r="AHE1" s="8" t="s">
         <v>893</v>
       </c>
-      <c r="AHF1" s="7" t="s">
+      <c r="AHF1" s="8" t="s">
         <v>894</v>
       </c>
-      <c r="AHG1" s="7" t="s">
+      <c r="AHG1" s="8" t="s">
         <v>895</v>
       </c>
-      <c r="AHH1" s="7" t="s">
+      <c r="AHH1" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="AHI1" s="7" t="s">
+      <c r="AHI1" s="8" t="s">
         <v>897</v>
       </c>
-      <c r="AHJ1" s="7" t="s">
+      <c r="AHJ1" s="8" t="s">
         <v>898</v>
       </c>
-      <c r="AHK1" s="7" t="s">
+      <c r="AHK1" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="AHL1" s="7" t="s">
+      <c r="AHL1" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="AHM1" s="7" t="s">
+      <c r="AHM1" s="8" t="s">
         <v>901</v>
       </c>
-      <c r="AHN1" s="7" t="s">
+      <c r="AHN1" s="8" t="s">
         <v>902</v>
       </c>
-      <c r="AHO1" s="7" t="s">
+      <c r="AHO1" s="8" t="s">
         <v>903</v>
       </c>
-      <c r="AHP1" s="7" t="s">
+      <c r="AHP1" s="8" t="s">
         <v>904</v>
       </c>
-      <c r="AHQ1" s="7" t="s">
+      <c r="AHQ1" s="8" t="s">
         <v>905</v>
       </c>
-      <c r="AHR1" s="7" t="s">
+      <c r="AHR1" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="AHS1" s="7" t="s">
+      <c r="AHS1" s="8" t="s">
         <v>907</v>
       </c>
-      <c r="AHT1" s="7" t="s">
+      <c r="AHT1" s="8" t="s">
         <v>908</v>
       </c>
-      <c r="AHU1" s="7" t="s">
+      <c r="AHU1" s="8" t="s">
         <v>909</v>
       </c>
-      <c r="AHV1" s="7" t="s">
+      <c r="AHV1" s="8" t="s">
         <v>910</v>
       </c>
-      <c r="AHW1" s="7" t="s">
+      <c r="AHW1" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="AHX1" s="7" t="s">
+      <c r="AHX1" s="8" t="s">
         <v>912</v>
       </c>
-      <c r="AHY1" s="7" t="s">
+      <c r="AHY1" s="8" t="s">
         <v>913</v>
       </c>
-      <c r="AHZ1" s="7" t="s">
+      <c r="AHZ1" s="8" t="s">
         <v>914</v>
       </c>
-      <c r="AIA1" s="7" t="s">
+      <c r="AIA1" s="8" t="s">
         <v>915</v>
       </c>
-      <c r="AIB1" s="7" t="s">
+      <c r="AIB1" s="8" t="s">
         <v>916</v>
       </c>
-      <c r="AIC1" s="7" t="s">
+      <c r="AIC1" s="8" t="s">
         <v>917</v>
       </c>
-      <c r="AID1" s="7" t="s">
+      <c r="AID1" s="8" t="s">
         <v>918</v>
       </c>
-      <c r="AIE1" s="7" t="s">
+      <c r="AIE1" s="8" t="s">
         <v>919</v>
       </c>
-      <c r="AIF1" s="7" t="s">
+      <c r="AIF1" s="8" t="s">
         <v>920</v>
       </c>
-      <c r="AIG1" s="7" t="s">
+      <c r="AIG1" s="8" t="s">
         <v>921</v>
       </c>
-      <c r="AIH1" s="7" t="s">
+      <c r="AIH1" s="8" t="s">
         <v>922</v>
       </c>
-      <c r="AII1" s="7" t="s">
+      <c r="AII1" s="8" t="s">
         <v>923</v>
       </c>
-      <c r="AIJ1" s="7" t="s">
+      <c r="AIJ1" s="8" t="s">
         <v>924</v>
       </c>
-      <c r="AIK1" s="7" t="s">
+      <c r="AIK1" s="8" t="s">
         <v>925</v>
       </c>
-      <c r="AIL1" s="7" t="s">
+      <c r="AIL1" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="AIM1" s="7" t="s">
+      <c r="AIM1" s="8" t="s">
         <v>927</v>
       </c>
-      <c r="AIN1" s="7" t="s">
+      <c r="AIN1" s="8" t="s">
         <v>928</v>
       </c>
-      <c r="AIO1" s="7" t="s">
+      <c r="AIO1" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="AIP1" s="7" t="s">
+      <c r="AIP1" s="8" t="s">
         <v>930</v>
       </c>
-      <c r="AIQ1" s="7" t="s">
+      <c r="AIQ1" s="8" t="s">
         <v>931</v>
       </c>
-      <c r="AIR1" s="7" t="s">
+      <c r="AIR1" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="AIS1" s="7" t="s">
+      <c r="AIS1" s="8" t="s">
         <v>933</v>
       </c>
-      <c r="AIT1" s="7" t="s">
+      <c r="AIT1" s="8" t="s">
         <v>934</v>
       </c>
-      <c r="AIU1" s="7" t="s">
+      <c r="AIU1" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="AIV1" s="7" t="s">
+      <c r="AIV1" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="AIW1" s="7" t="s">
+      <c r="AIW1" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="AIX1" s="7" t="s">
+      <c r="AIX1" s="8" t="s">
         <v>938</v>
       </c>
-      <c r="AIY1" s="7" t="s">
+      <c r="AIY1" s="8" t="s">
         <v>939</v>
       </c>
-      <c r="AIZ1" s="7" t="s">
+      <c r="AIZ1" s="8" t="s">
         <v>940</v>
       </c>
-      <c r="AJA1" s="7" t="s">
+      <c r="AJA1" s="8" t="s">
         <v>941</v>
       </c>
-      <c r="AJB1" s="7" t="s">
+      <c r="AJB1" s="8" t="s">
         <v>942</v>
       </c>
-      <c r="AJC1" s="7" t="s">
+      <c r="AJC1" s="8" t="s">
         <v>943</v>
       </c>
-      <c r="AJD1" s="7" t="s">
+      <c r="AJD1" s="8" t="s">
         <v>944</v>
       </c>
-      <c r="AJE1" s="7" t="s">
+      <c r="AJE1" s="8" t="s">
         <v>945</v>
       </c>
-      <c r="AJF1" s="7" t="s">
+      <c r="AJF1" s="8" t="s">
         <v>946</v>
       </c>
-      <c r="AJG1" s="7" t="s">
+      <c r="AJG1" s="8" t="s">
         <v>947</v>
       </c>
-      <c r="AJH1" s="7" t="s">
+      <c r="AJH1" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="AJI1" s="7" t="s">
+      <c r="AJI1" s="8" t="s">
         <v>949</v>
       </c>
-      <c r="AJJ1" s="7" t="s">
+      <c r="AJJ1" s="8" t="s">
         <v>950</v>
       </c>
-      <c r="AJK1" s="7" t="s">
+      <c r="AJK1" s="8" t="s">
         <v>951</v>
       </c>
-      <c r="AJL1" s="7" t="s">
+      <c r="AJL1" s="8" t="s">
         <v>952</v>
       </c>
-      <c r="AJM1" s="7" t="s">
+      <c r="AJM1" s="8" t="s">
         <v>953</v>
       </c>
-      <c r="AJN1" s="7" t="s">
+      <c r="AJN1" s="8" t="s">
         <v>954</v>
       </c>
-      <c r="AJO1" s="7" t="s">
+      <c r="AJO1" s="8" t="s">
         <v>955</v>
       </c>
-      <c r="AJP1" s="7" t="s">
+      <c r="AJP1" s="8" t="s">
         <v>956</v>
       </c>
-      <c r="AJQ1" s="7" t="s">
+      <c r="AJQ1" s="8" t="s">
         <v>957</v>
       </c>
-      <c r="AJR1" s="7" t="s">
+      <c r="AJR1" s="8" t="s">
         <v>958</v>
       </c>
-      <c r="AJS1" s="7" t="s">
+      <c r="AJS1" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="AJT1" s="7" t="s">
+      <c r="AJT1" s="8" t="s">
         <v>960</v>
       </c>
-      <c r="AJU1" s="7" t="s">
+      <c r="AJU1" s="8" t="s">
         <v>961</v>
       </c>
-      <c r="AJV1" s="7" t="s">
+      <c r="AJV1" s="8" t="s">
         <v>962</v>
       </c>
-      <c r="AJW1" s="7" t="s">
+      <c r="AJW1" s="8" t="s">
         <v>963</v>
       </c>
-      <c r="AJX1" s="7" t="s">
+      <c r="AJX1" s="8" t="s">
         <v>964</v>
       </c>
-      <c r="AJY1" s="7" t="s">
+      <c r="AJY1" s="8" t="s">
         <v>965</v>
       </c>
-      <c r="AJZ1" s="7" t="s">
+      <c r="AJZ1" s="8" t="s">
         <v>966</v>
       </c>
-      <c r="AKA1" s="7" t="s">
+      <c r="AKA1" s="8" t="s">
         <v>967</v>
       </c>
-      <c r="AKB1" s="7" t="s">
+      <c r="AKB1" s="8" t="s">
         <v>968</v>
       </c>
-      <c r="AKC1" s="7" t="s">
+      <c r="AKC1" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="AKD1" s="7" t="s">
+      <c r="AKD1" s="8" t="s">
         <v>970</v>
       </c>
-      <c r="AKE1" s="7" t="s">
+      <c r="AKE1" s="8" t="s">
         <v>971</v>
       </c>
-      <c r="AKF1" s="7" t="s">
+      <c r="AKF1" s="8" t="s">
         <v>972</v>
       </c>
-      <c r="AKG1" s="7" t="s">
+      <c r="AKG1" s="8" t="s">
         <v>973</v>
       </c>
-      <c r="AKH1" s="7" t="s">
+      <c r="AKH1" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="AKI1" s="7" t="s">
+      <c r="AKI1" s="8" t="s">
         <v>975</v>
       </c>
-      <c r="AKJ1" s="7" t="s">
+      <c r="AKJ1" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="AKK1" s="7" t="s">
+      <c r="AKK1" s="8" t="s">
         <v>977</v>
       </c>
-      <c r="AKL1" s="7" t="s">
+      <c r="AKL1" s="8" t="s">
         <v>978</v>
       </c>
-      <c r="AKM1" s="7" t="s">
+      <c r="AKM1" s="8" t="s">
         <v>979</v>
       </c>
-      <c r="AKN1" s="7" t="s">
+      <c r="AKN1" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="AKO1" s="7" t="s">
+      <c r="AKO1" s="8" t="s">
         <v>981</v>
       </c>
-      <c r="AKP1" s="7" t="s">
+      <c r="AKP1" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="AKQ1" s="7" t="s">
+      <c r="AKQ1" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="AKR1" s="7" t="s">
+      <c r="AKR1" s="8" t="s">
         <v>984</v>
       </c>
-      <c r="AKS1" s="7" t="s">
+      <c r="AKS1" s="8" t="s">
         <v>985</v>
       </c>
-      <c r="AKT1" s="7" t="s">
+      <c r="AKT1" s="8" t="s">
         <v>986</v>
       </c>
-      <c r="AKU1" s="7" t="s">
+      <c r="AKU1" s="8" t="s">
         <v>987</v>
       </c>
-      <c r="AKV1" s="7" t="s">
+      <c r="AKV1" s="8" t="s">
         <v>988</v>
       </c>
-      <c r="AKW1" s="7" t="s">
+      <c r="AKW1" s="8" t="s">
         <v>989</v>
       </c>
-      <c r="AKX1" s="7" t="s">
+      <c r="AKX1" s="8" t="s">
         <v>990</v>
       </c>
-      <c r="AKY1" s="7" t="s">
+      <c r="AKY1" s="8" t="s">
         <v>991</v>
       </c>
-      <c r="AKZ1" s="7" t="s">
+      <c r="AKZ1" s="8" t="s">
         <v>992</v>
       </c>
-      <c r="ALA1" s="7" t="s">
+      <c r="ALA1" s="8" t="s">
         <v>993</v>
       </c>
-      <c r="ALB1" s="7" t="s">
+      <c r="ALB1" s="8" t="s">
         <v>994</v>
       </c>
-      <c r="ALC1" s="7" t="s">
+      <c r="ALC1" s="8" t="s">
         <v>995</v>
       </c>
-      <c r="ALD1" s="7" t="s">
+      <c r="ALD1" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="ALE1" s="7" t="s">
+      <c r="ALE1" s="8" t="s">
         <v>997</v>
       </c>
-      <c r="ALF1" s="7" t="s">
+      <c r="ALF1" s="8" t="s">
         <v>998</v>
       </c>
-      <c r="ALG1" s="7" t="s">
+      <c r="ALG1" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="ALH1" s="7" t="s">
+      <c r="ALH1" s="8" t="s">
         <v>1000</v>
       </c>
-      <c r="ALI1" s="7" t="s">
+      <c r="ALI1" s="8" t="s">
         <v>1001</v>
       </c>
-      <c r="ALJ1" s="7" t="s">
+      <c r="ALJ1" s="8" t="s">
         <v>1002</v>
       </c>
-      <c r="ALK1" s="7" t="s">
+      <c r="ALK1" s="8" t="s">
         <v>1003</v>
       </c>
-      <c r="ALL1" s="7" t="s">
+      <c r="ALL1" s="8" t="s">
         <v>1004</v>
       </c>
-      <c r="ALM1" s="7" t="s">
+      <c r="ALM1" s="8" t="s">
         <v>1005</v>
       </c>
-      <c r="ALN1" s="7" t="s">
+      <c r="ALN1" s="8" t="s">
         <v>1006</v>
       </c>
-      <c r="ALO1" s="7" t="s">
+      <c r="ALO1" s="8" t="s">
         <v>1007</v>
       </c>
-      <c r="ALP1" s="7" t="s">
+      <c r="ALP1" s="8" t="s">
         <v>1008</v>
       </c>
-      <c r="ALQ1" s="7" t="s">
+      <c r="ALQ1" s="8" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="15" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
         <v>1010</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>1011</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>1012</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>1013</v>
       </c>
-      <c r="E2" s="12" t="n">
+      <c r="E2" s="13" t="n">
         <v>517</v>
       </c>
-      <c r="F2" s="12" t="n">
+      <c r="F2" s="13" t="n">
         <v>516</v>
       </c>
-      <c r="G2" s="12" t="n">
+      <c r="G2" s="13" t="n">
         <v>517</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="ALR2" s="4"/>
-      <c r="ALS2" s="4"/>
-      <c r="ALT2" s="4"/>
-      <c r="ALU2" s="4"/>
-      <c r="ALV2" s="4"/>
-      <c r="ALW2" s="4"/>
-      <c r="ALX2" s="4"/>
-      <c r="ALY2" s="4"/>
-      <c r="ALZ2" s="4"/>
-      <c r="AMA2" s="4"/>
-      <c r="AMB2" s="4"/>
-      <c r="AMC2" s="4"/>
-      <c r="AMD2" s="4"/>
-      <c r="AME2" s="4"/>
-      <c r="AMF2" s="4"/>
-      <c r="AMG2" s="4"/>
-      <c r="AMH2" s="4"/>
-      <c r="AMI2" s="4"/>
-      <c r="AMJ2" s="4"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="ALR2" s="5"/>
+      <c r="ALS2" s="5"/>
+      <c r="ALT2" s="5"/>
+      <c r="ALU2" s="5"/>
+      <c r="ALV2" s="5"/>
+      <c r="ALW2" s="5"/>
+      <c r="ALX2" s="5"/>
+      <c r="ALY2" s="5"/>
+      <c r="ALZ2" s="5"/>
+      <c r="AMA2" s="5"/>
+      <c r="AMB2" s="5"/>
+      <c r="AMC2" s="5"/>
+      <c r="AMD2" s="5"/>
+      <c r="AME2" s="5"/>
+      <c r="AMF2" s="5"/>
+      <c r="AMG2" s="5"/>
+      <c r="AMH2" s="5"/>
+      <c r="AMI2" s="5"/>
+      <c r="AMJ2" s="5"/>
     </row>
-    <row r="3" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
         <v>1014</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>1011</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>1015</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>1016</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>1016</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>1016</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="ALR3" s="4"/>
-      <c r="ALS3" s="4"/>
-      <c r="ALT3" s="4"/>
-      <c r="ALU3" s="4"/>
-      <c r="ALV3" s="4"/>
-      <c r="ALW3" s="4"/>
-      <c r="ALX3" s="4"/>
-      <c r="ALY3" s="4"/>
-      <c r="ALZ3" s="4"/>
-      <c r="AMA3" s="4"/>
-      <c r="AMB3" s="4"/>
-      <c r="AMC3" s="4"/>
-      <c r="AMD3" s="4"/>
-      <c r="AME3" s="4"/>
-      <c r="AMF3" s="4"/>
-      <c r="AMG3" s="4"/>
-      <c r="AMH3" s="4"/>
-      <c r="AMI3" s="4"/>
-      <c r="AMJ3" s="4"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="ALR3" s="5"/>
+      <c r="ALS3" s="5"/>
+      <c r="ALT3" s="5"/>
+      <c r="ALU3" s="5"/>
+      <c r="ALV3" s="5"/>
+      <c r="ALW3" s="5"/>
+      <c r="ALX3" s="5"/>
+      <c r="ALY3" s="5"/>
+      <c r="ALZ3" s="5"/>
+      <c r="AMA3" s="5"/>
+      <c r="AMB3" s="5"/>
+      <c r="AMC3" s="5"/>
+      <c r="AMD3" s="5"/>
+      <c r="AME3" s="5"/>
+      <c r="AMF3" s="5"/>
+      <c r="AMG3" s="5"/>
+      <c r="AMH3" s="5"/>
+      <c r="AMI3" s="5"/>
+      <c r="AMJ3" s="5"/>
     </row>
-    <row r="4" s="14" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="15" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
         <v>1017</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>1019</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>1020</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="ALR4" s="4"/>
-      <c r="ALS4" s="4"/>
-      <c r="ALT4" s="4"/>
-      <c r="ALU4" s="4"/>
-      <c r="ALV4" s="4"/>
-      <c r="ALW4" s="4"/>
-      <c r="ALX4" s="4"/>
-      <c r="ALY4" s="4"/>
-      <c r="ALZ4" s="4"/>
-      <c r="AMA4" s="4"/>
-      <c r="AMB4" s="4"/>
-      <c r="AMC4" s="4"/>
-      <c r="AMD4" s="4"/>
-      <c r="AME4" s="4"/>
-      <c r="AMF4" s="4"/>
-      <c r="AMG4" s="4"/>
-      <c r="AMH4" s="4"/>
-      <c r="AMI4" s="4"/>
-      <c r="AMJ4" s="4"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="ALR4" s="5"/>
+      <c r="ALS4" s="5"/>
+      <c r="ALT4" s="5"/>
+      <c r="ALU4" s="5"/>
+      <c r="ALV4" s="5"/>
+      <c r="ALW4" s="5"/>
+      <c r="ALX4" s="5"/>
+      <c r="ALY4" s="5"/>
+      <c r="ALZ4" s="5"/>
+      <c r="AMA4" s="5"/>
+      <c r="AMB4" s="5"/>
+      <c r="AMC4" s="5"/>
+      <c r="AMD4" s="5"/>
+      <c r="AME4" s="5"/>
+      <c r="AMF4" s="5"/>
+      <c r="AMG4" s="5"/>
+      <c r="AMH4" s="5"/>
+      <c r="AMI4" s="5"/>
+      <c r="AMJ4" s="5"/>
     </row>
-    <row r="5" s="14" customFormat="true" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+    <row r="5" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="ALR5" s="5"/>
+      <c r="ALS5" s="5"/>
+      <c r="ALT5" s="5"/>
+      <c r="ALU5" s="5"/>
+      <c r="ALV5" s="5"/>
+      <c r="ALW5" s="5"/>
+      <c r="ALX5" s="5"/>
+      <c r="ALY5" s="5"/>
+      <c r="ALZ5" s="5"/>
+      <c r="AMA5" s="5"/>
+      <c r="AMB5" s="5"/>
+      <c r="AMC5" s="5"/>
+      <c r="AMD5" s="5"/>
+      <c r="AME5" s="5"/>
+      <c r="AMF5" s="5"/>
+      <c r="AMG5" s="5"/>
+      <c r="AMH5" s="5"/>
+      <c r="AMI5" s="5"/>
+      <c r="AMJ5" s="5"/>
+    </row>
+    <row r="6" s="15" customFormat="true" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>1011</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C6" s="12" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>1013</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="ALR5" s="4"/>
-      <c r="ALS5" s="4"/>
-      <c r="ALT5" s="4"/>
-      <c r="ALU5" s="4"/>
-      <c r="ALV5" s="4"/>
-      <c r="ALW5" s="4"/>
-      <c r="ALX5" s="4"/>
-      <c r="ALY5" s="4"/>
-      <c r="ALZ5" s="4"/>
-      <c r="AMA5" s="4"/>
-      <c r="AMB5" s="4"/>
-      <c r="AMC5" s="4"/>
-      <c r="AMD5" s="4"/>
-      <c r="AME5" s="4"/>
-      <c r="AMF5" s="4"/>
-      <c r="AMG5" s="4"/>
-      <c r="AMH5" s="4"/>
-      <c r="AMI5" s="4"/>
-      <c r="AMJ5" s="4"/>
+      <c r="E6" s="17" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="ALR6" s="5"/>
+      <c r="ALS6" s="5"/>
+      <c r="ALT6" s="5"/>
+      <c r="ALU6" s="5"/>
+      <c r="ALV6" s="5"/>
+      <c r="ALW6" s="5"/>
+      <c r="ALX6" s="5"/>
+      <c r="ALY6" s="5"/>
+      <c r="ALZ6" s="5"/>
+      <c r="AMA6" s="5"/>
+      <c r="AMB6" s="5"/>
+      <c r="AMC6" s="5"/>
+      <c r="AMD6" s="5"/>
+      <c r="AME6" s="5"/>
+      <c r="AMF6" s="5"/>
+      <c r="AMG6" s="5"/>
+      <c r="AMH6" s="5"/>
+      <c r="AMI6" s="5"/>
+      <c r="AMJ6" s="5"/>
     </row>
-    <row r="6" s="14" customFormat="true" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="ALR6" s="4"/>
-      <c r="ALS6" s="4"/>
-      <c r="ALT6" s="4"/>
-      <c r="ALU6" s="4"/>
-      <c r="ALV6" s="4"/>
-      <c r="ALW6" s="4"/>
-      <c r="ALX6" s="4"/>
-      <c r="ALY6" s="4"/>
-      <c r="ALZ6" s="4"/>
-      <c r="AMA6" s="4"/>
-      <c r="AMB6" s="4"/>
-      <c r="AMC6" s="4"/>
-      <c r="AMD6" s="4"/>
-      <c r="AME6" s="4"/>
-      <c r="AMF6" s="4"/>
-      <c r="AMG6" s="4"/>
-      <c r="AMH6" s="4"/>
-      <c r="AMI6" s="4"/>
-      <c r="AMJ6" s="4"/>
-    </row>
-    <row r="7" s="14" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="15" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
         <v>1030</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>1031</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>1033</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="19" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="ALR7" s="5"/>
+      <c r="ALS7" s="5"/>
+      <c r="ALT7" s="5"/>
+      <c r="ALU7" s="5"/>
+      <c r="ALV7" s="5"/>
+      <c r="ALW7" s="5"/>
+      <c r="ALX7" s="5"/>
+      <c r="ALY7" s="5"/>
+      <c r="ALZ7" s="5"/>
+      <c r="AMA7" s="5"/>
+      <c r="AMB7" s="5"/>
+      <c r="AMC7" s="5"/>
+      <c r="AMD7" s="5"/>
+      <c r="AME7" s="5"/>
+      <c r="AMF7" s="5"/>
+      <c r="AMG7" s="5"/>
+      <c r="AMH7" s="5"/>
+      <c r="AMI7" s="5"/>
+      <c r="AMJ7" s="5"/>
+    </row>
+    <row r="8" s="15" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E8" s="16" t="n">
         <v>81611</v>
       </c>
-      <c r="F7" s="15" t="n">
+      <c r="F8" s="16" t="n">
         <v>81611</v>
       </c>
-      <c r="G7" s="15" t="n">
+      <c r="G8" s="16" t="n">
         <v>81611</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="ALR7" s="4"/>
-      <c r="ALS7" s="4"/>
-      <c r="ALT7" s="4"/>
-      <c r="ALU7" s="4"/>
-      <c r="ALV7" s="4"/>
-      <c r="ALW7" s="4"/>
-      <c r="ALX7" s="4"/>
-      <c r="ALY7" s="4"/>
-      <c r="ALZ7" s="4"/>
-      <c r="AMA7" s="4"/>
-      <c r="AMB7" s="4"/>
-      <c r="AMC7" s="4"/>
-      <c r="AMD7" s="4"/>
-      <c r="AME7" s="4"/>
-      <c r="AMF7" s="4"/>
-      <c r="AMG7" s="4"/>
-      <c r="AMH7" s="4"/>
-      <c r="AMI7" s="4"/>
-      <c r="AMJ7" s="4"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="ALR8" s="5"/>
+      <c r="ALS8" s="5"/>
+      <c r="ALT8" s="5"/>
+      <c r="ALU8" s="5"/>
+      <c r="ALV8" s="5"/>
+      <c r="ALW8" s="5"/>
+      <c r="ALX8" s="5"/>
+      <c r="ALY8" s="5"/>
+      <c r="ALZ8" s="5"/>
+      <c r="AMA8" s="5"/>
+      <c r="AMB8" s="5"/>
+      <c r="AMC8" s="5"/>
+      <c r="AMD8" s="5"/>
+      <c r="AME8" s="5"/>
+      <c r="AMF8" s="5"/>
+      <c r="AMG8" s="5"/>
+      <c r="AMH8" s="5"/>
+      <c r="AMI8" s="5"/>
+      <c r="AMJ8" s="5"/>
     </row>
-    <row r="8" s="14" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E8" s="15" t="n">
+    <row r="9" s="15" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E9" s="16" t="n">
         <v>454909</v>
       </c>
-      <c r="F8" s="15" t="n">
+      <c r="F9" s="16" t="n">
         <v>454909</v>
       </c>
-      <c r="G8" s="15" t="n">
+      <c r="G9" s="16" t="n">
         <v>454909</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="ALR8" s="4"/>
-      <c r="ALS8" s="4"/>
-      <c r="ALT8" s="4"/>
-      <c r="ALU8" s="4"/>
-      <c r="ALV8" s="4"/>
-      <c r="ALW8" s="4"/>
-      <c r="ALX8" s="4"/>
-      <c r="ALY8" s="4"/>
-      <c r="ALZ8" s="4"/>
-      <c r="AMA8" s="4"/>
-      <c r="AMB8" s="4"/>
-      <c r="AMC8" s="4"/>
-      <c r="AMD8" s="4"/>
-      <c r="AME8" s="4"/>
-      <c r="AMF8" s="4"/>
-      <c r="AMG8" s="4"/>
-      <c r="AMH8" s="4"/>
-      <c r="AMI8" s="4"/>
-      <c r="AMJ8" s="4"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="ALR9" s="5"/>
+      <c r="ALS9" s="5"/>
+      <c r="ALT9" s="5"/>
+      <c r="ALU9" s="5"/>
+      <c r="ALV9" s="5"/>
+      <c r="ALW9" s="5"/>
+      <c r="ALX9" s="5"/>
+      <c r="ALY9" s="5"/>
+      <c r="ALZ9" s="5"/>
+      <c r="AMA9" s="5"/>
+      <c r="AMB9" s="5"/>
+      <c r="AMC9" s="5"/>
+      <c r="AMD9" s="5"/>
+      <c r="AME9" s="5"/>
+      <c r="AMF9" s="5"/>
+      <c r="AMG9" s="5"/>
+      <c r="AMH9" s="5"/>
+      <c r="AMI9" s="5"/>
+      <c r="AMJ9" s="5"/>
     </row>
-    <row r="9" s="14" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+    <row r="10" s="15" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E9" s="15" t="n">
+      <c r="C10" s="12" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E10" s="16" t="n">
         <v>52.0775912</v>
       </c>
-      <c r="F9" s="15" t="n">
+      <c r="F10" s="16" t="n">
         <v>52.0775912</v>
       </c>
-      <c r="G9" s="15" t="n">
+      <c r="G10" s="16" t="n">
         <v>52.0775912</v>
       </c>
-      <c r="H9" s="0"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="ALR9" s="4"/>
-      <c r="ALS9" s="4"/>
-      <c r="ALT9" s="4"/>
-      <c r="ALU9" s="4"/>
-      <c r="ALV9" s="4"/>
-      <c r="ALW9" s="4"/>
-      <c r="ALX9" s="4"/>
-      <c r="ALY9" s="4"/>
-      <c r="ALZ9" s="4"/>
-      <c r="AMA9" s="4"/>
-      <c r="AMB9" s="4"/>
-      <c r="AMC9" s="4"/>
-      <c r="AMD9" s="4"/>
-      <c r="AME9" s="4"/>
-      <c r="AMF9" s="4"/>
-      <c r="AMG9" s="4"/>
-      <c r="AMH9" s="4"/>
-      <c r="AMI9" s="4"/>
-      <c r="AMJ9" s="4"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="ALR10" s="5"/>
+      <c r="ALS10" s="5"/>
+      <c r="ALT10" s="5"/>
+      <c r="ALU10" s="5"/>
+      <c r="ALV10" s="5"/>
+      <c r="ALW10" s="5"/>
+      <c r="ALX10" s="5"/>
+      <c r="ALY10" s="5"/>
+      <c r="ALZ10" s="5"/>
+      <c r="AMA10" s="5"/>
+      <c r="AMB10" s="5"/>
+      <c r="AMC10" s="5"/>
+      <c r="AMD10" s="5"/>
+      <c r="AME10" s="5"/>
+      <c r="AMF10" s="5"/>
+      <c r="AMG10" s="5"/>
+      <c r="AMH10" s="5"/>
+      <c r="AMI10" s="5"/>
+      <c r="AMJ10" s="5"/>
     </row>
-    <row r="10" s="14" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E10" s="15" t="n">
+    <row r="11" s="15" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E11" s="16" t="n">
         <v>4.3166395</v>
       </c>
-      <c r="F10" s="15" t="n">
+      <c r="F11" s="16" t="n">
         <v>4.3166395</v>
       </c>
-      <c r="G10" s="15" t="n">
+      <c r="G11" s="16" t="n">
         <v>4.3166395</v>
       </c>
-      <c r="H10" s="0"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="ALR10" s="4"/>
-      <c r="ALS10" s="4"/>
-      <c r="ALT10" s="4"/>
-      <c r="ALU10" s="4"/>
-      <c r="ALV10" s="4"/>
-      <c r="ALW10" s="4"/>
-      <c r="ALX10" s="4"/>
-      <c r="ALY10" s="4"/>
-      <c r="ALZ10" s="4"/>
-      <c r="AMA10" s="4"/>
-      <c r="AMB10" s="4"/>
-      <c r="AMC10" s="4"/>
-      <c r="AMD10" s="4"/>
-      <c r="AME10" s="4"/>
-      <c r="AMF10" s="4"/>
-      <c r="AMG10" s="4"/>
-      <c r="AMH10" s="4"/>
-      <c r="AMI10" s="4"/>
-      <c r="AMJ10" s="4"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="ALR11" s="5"/>
+      <c r="ALS11" s="5"/>
+      <c r="ALT11" s="5"/>
+      <c r="ALU11" s="5"/>
+      <c r="ALV11" s="5"/>
+      <c r="ALW11" s="5"/>
+      <c r="ALX11" s="5"/>
+      <c r="ALY11" s="5"/>
+      <c r="ALZ11" s="5"/>
+      <c r="AMA11" s="5"/>
+      <c r="AMB11" s="5"/>
+      <c r="AMC11" s="5"/>
+      <c r="AMD11" s="5"/>
+      <c r="AME11" s="5"/>
+      <c r="AMF11" s="5"/>
+      <c r="AMG11" s="5"/>
+      <c r="AMH11" s="5"/>
+      <c r="AMI11" s="5"/>
+      <c r="AMJ11" s="5"/>
     </row>
-    <row r="11" s="14" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>1046</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="ALR11" s="4"/>
-      <c r="ALS11" s="4"/>
-      <c r="ALT11" s="4"/>
-      <c r="ALU11" s="4"/>
-      <c r="ALV11" s="4"/>
-      <c r="ALW11" s="4"/>
-      <c r="ALX11" s="4"/>
-      <c r="ALY11" s="4"/>
-      <c r="ALZ11" s="4"/>
-      <c r="AMA11" s="4"/>
-      <c r="AMB11" s="4"/>
-      <c r="AMC11" s="4"/>
-      <c r="AMD11" s="4"/>
-      <c r="AME11" s="4"/>
-      <c r="AMF11" s="4"/>
-      <c r="AMG11" s="4"/>
-      <c r="AMH11" s="4"/>
-      <c r="AMI11" s="4"/>
-      <c r="AMJ11" s="4"/>
+    <row r="12" s="15" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="ALR12" s="5"/>
+      <c r="ALS12" s="5"/>
+      <c r="ALT12" s="5"/>
+      <c r="ALU12" s="5"/>
+      <c r="ALV12" s="5"/>
+      <c r="ALW12" s="5"/>
+      <c r="ALX12" s="5"/>
+      <c r="ALY12" s="5"/>
+      <c r="ALZ12" s="5"/>
+      <c r="AMA12" s="5"/>
+      <c r="AMB12" s="5"/>
+      <c r="AMC12" s="5"/>
+      <c r="AMD12" s="5"/>
+      <c r="AME12" s="5"/>
+      <c r="AMF12" s="5"/>
+      <c r="AMG12" s="5"/>
+      <c r="AMH12" s="5"/>
+      <c r="AMI12" s="5"/>
+      <c r="AMJ12" s="5"/>
     </row>
-    <row r="12" s="14" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="ALR12" s="4"/>
-      <c r="ALS12" s="4"/>
-      <c r="ALT12" s="4"/>
-      <c r="ALU12" s="4"/>
-      <c r="ALV12" s="4"/>
-      <c r="ALW12" s="4"/>
-      <c r="ALX12" s="4"/>
-      <c r="ALY12" s="4"/>
-      <c r="ALZ12" s="4"/>
-      <c r="AMA12" s="4"/>
-      <c r="AMB12" s="4"/>
-      <c r="AMC12" s="4"/>
-      <c r="AMD12" s="4"/>
-      <c r="AME12" s="4"/>
-      <c r="AMF12" s="4"/>
-      <c r="AMG12" s="4"/>
-      <c r="AMH12" s="4"/>
-      <c r="AMI12" s="4"/>
-      <c r="AMJ12" s="4"/>
+    <row r="13" s="15" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="ALR13" s="5"/>
+      <c r="ALS13" s="5"/>
+      <c r="ALT13" s="5"/>
+      <c r="ALU13" s="5"/>
+      <c r="ALV13" s="5"/>
+      <c r="ALW13" s="5"/>
+      <c r="ALX13" s="5"/>
+      <c r="ALY13" s="5"/>
+      <c r="ALZ13" s="5"/>
+      <c r="AMA13" s="5"/>
+      <c r="AMB13" s="5"/>
+      <c r="AMC13" s="5"/>
+      <c r="AMD13" s="5"/>
+      <c r="AME13" s="5"/>
+      <c r="AMF13" s="5"/>
+      <c r="AMG13" s="5"/>
+      <c r="AMH13" s="5"/>
+      <c r="AMI13" s="5"/>
+      <c r="AMJ13" s="5"/>
     </row>
-    <row r="13" s="14" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="ALR13" s="4"/>
-      <c r="ALS13" s="4"/>
-      <c r="ALT13" s="4"/>
-      <c r="ALU13" s="4"/>
-      <c r="ALV13" s="4"/>
-      <c r="ALW13" s="4"/>
-      <c r="ALX13" s="4"/>
-      <c r="ALY13" s="4"/>
-      <c r="ALZ13" s="4"/>
-      <c r="AMA13" s="4"/>
-      <c r="AMB13" s="4"/>
-      <c r="AMC13" s="4"/>
-      <c r="AMD13" s="4"/>
-      <c r="AME13" s="4"/>
-      <c r="AMF13" s="4"/>
-      <c r="AMG13" s="4"/>
-      <c r="AMH13" s="4"/>
-      <c r="AMI13" s="4"/>
-      <c r="AMJ13" s="4"/>
+    <row r="14" s="15" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="ALR14" s="5"/>
+      <c r="ALS14" s="5"/>
+      <c r="ALT14" s="5"/>
+      <c r="ALU14" s="5"/>
+      <c r="ALV14" s="5"/>
+      <c r="ALW14" s="5"/>
+      <c r="ALX14" s="5"/>
+      <c r="ALY14" s="5"/>
+      <c r="ALZ14" s="5"/>
+      <c r="AMA14" s="5"/>
+      <c r="AMB14" s="5"/>
+      <c r="AMC14" s="5"/>
+      <c r="AMD14" s="5"/>
+      <c r="AME14" s="5"/>
+      <c r="AMF14" s="5"/>
+      <c r="AMG14" s="5"/>
+      <c r="AMH14" s="5"/>
+      <c r="AMI14" s="5"/>
+      <c r="AMJ14" s="5"/>
     </row>
-    <row r="14" s="14" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B14" s="10" t="s">
+    <row r="15" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="ALR15" s="5"/>
+      <c r="ALS15" s="5"/>
+      <c r="ALT15" s="5"/>
+      <c r="ALU15" s="5"/>
+      <c r="ALV15" s="5"/>
+      <c r="ALW15" s="5"/>
+      <c r="ALX15" s="5"/>
+      <c r="ALY15" s="5"/>
+      <c r="ALZ15" s="5"/>
+      <c r="AMA15" s="5"/>
+      <c r="AMB15" s="5"/>
+      <c r="AMC15" s="5"/>
+      <c r="AMD15" s="5"/>
+      <c r="AME15" s="5"/>
+      <c r="AMF15" s="5"/>
+      <c r="AMG15" s="5"/>
+      <c r="AMH15" s="5"/>
+      <c r="AMI15" s="5"/>
+      <c r="AMJ15" s="5"/>
+    </row>
+    <row r="16" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>1011</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="G16" s="16" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="ALR16" s="5"/>
+      <c r="ALS16" s="5"/>
+      <c r="ALT16" s="5"/>
+      <c r="ALU16" s="5"/>
+      <c r="ALV16" s="5"/>
+      <c r="ALW16" s="5"/>
+      <c r="ALX16" s="5"/>
+      <c r="ALY16" s="5"/>
+      <c r="ALZ16" s="5"/>
+      <c r="AMA16" s="5"/>
+      <c r="AMB16" s="5"/>
+      <c r="AMC16" s="5"/>
+      <c r="AMD16" s="5"/>
+      <c r="AME16" s="5"/>
+      <c r="AMF16" s="5"/>
+      <c r="AMG16" s="5"/>
+      <c r="AMH16" s="5"/>
+      <c r="AMI16" s="5"/>
+      <c r="AMJ16" s="5"/>
+    </row>
+    <row r="17" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="ALR17" s="5"/>
+      <c r="ALS17" s="5"/>
+      <c r="ALT17" s="5"/>
+      <c r="ALU17" s="5"/>
+      <c r="ALV17" s="5"/>
+      <c r="ALW17" s="5"/>
+      <c r="ALX17" s="5"/>
+      <c r="ALY17" s="5"/>
+      <c r="ALZ17" s="5"/>
+      <c r="AMA17" s="5"/>
+      <c r="AMB17" s="5"/>
+      <c r="AMC17" s="5"/>
+      <c r="AMD17" s="5"/>
+      <c r="AME17" s="5"/>
+      <c r="AMF17" s="5"/>
+      <c r="AMG17" s="5"/>
+      <c r="AMH17" s="5"/>
+      <c r="AMI17" s="5"/>
+      <c r="AMJ17" s="5"/>
+    </row>
+    <row r="18" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="ALR18" s="5"/>
+      <c r="ALS18" s="5"/>
+      <c r="ALT18" s="5"/>
+      <c r="ALU18" s="5"/>
+      <c r="ALV18" s="5"/>
+      <c r="ALW18" s="5"/>
+      <c r="ALX18" s="5"/>
+      <c r="ALY18" s="5"/>
+      <c r="ALZ18" s="5"/>
+      <c r="AMA18" s="5"/>
+      <c r="AMB18" s="5"/>
+      <c r="AMC18" s="5"/>
+      <c r="AMD18" s="5"/>
+      <c r="AME18" s="5"/>
+      <c r="AMF18" s="5"/>
+      <c r="AMG18" s="5"/>
+      <c r="AMH18" s="5"/>
+      <c r="AMI18" s="5"/>
+      <c r="AMJ18" s="5"/>
+    </row>
+    <row r="19" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>1011</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F19" s="16" t="s">
         <v>1011</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="ALR14" s="4"/>
-      <c r="ALS14" s="4"/>
-      <c r="ALT14" s="4"/>
-      <c r="ALU14" s="4"/>
-      <c r="ALV14" s="4"/>
-      <c r="ALW14" s="4"/>
-      <c r="ALX14" s="4"/>
-      <c r="ALY14" s="4"/>
-      <c r="ALZ14" s="4"/>
-      <c r="AMA14" s="4"/>
-      <c r="AMB14" s="4"/>
-      <c r="AMC14" s="4"/>
-      <c r="AMD14" s="4"/>
-      <c r="AME14" s="4"/>
-      <c r="AMF14" s="4"/>
-      <c r="AMG14" s="4"/>
-      <c r="AMH14" s="4"/>
-      <c r="AMI14" s="4"/>
-      <c r="AMJ14" s="4"/>
+      <c r="G19" s="16" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="ALR19" s="5"/>
+      <c r="ALS19" s="5"/>
+      <c r="ALT19" s="5"/>
+      <c r="ALU19" s="5"/>
+      <c r="ALV19" s="5"/>
+      <c r="ALW19" s="5"/>
+      <c r="ALX19" s="5"/>
+      <c r="ALY19" s="5"/>
+      <c r="ALZ19" s="5"/>
+      <c r="AMA19" s="5"/>
+      <c r="AMB19" s="5"/>
+      <c r="AMC19" s="5"/>
+      <c r="AMD19" s="5"/>
+      <c r="AME19" s="5"/>
+      <c r="AMF19" s="5"/>
+      <c r="AMG19" s="5"/>
+      <c r="AMH19" s="5"/>
+      <c r="AMI19" s="5"/>
+      <c r="AMJ19" s="5"/>
     </row>
-    <row r="15" s="14" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F15" s="15" t="s">
+    <row r="20" s="15" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="ALR20" s="5"/>
+      <c r="ALS20" s="5"/>
+      <c r="ALT20" s="5"/>
+      <c r="ALU20" s="5"/>
+      <c r="ALV20" s="5"/>
+      <c r="ALW20" s="5"/>
+      <c r="ALX20" s="5"/>
+      <c r="ALY20" s="5"/>
+      <c r="ALZ20" s="5"/>
+      <c r="AMA20" s="5"/>
+      <c r="AMB20" s="5"/>
+      <c r="AMC20" s="5"/>
+      <c r="AMD20" s="5"/>
+      <c r="AME20" s="5"/>
+      <c r="AMF20" s="5"/>
+      <c r="AMG20" s="5"/>
+      <c r="AMH20" s="5"/>
+      <c r="AMI20" s="5"/>
+      <c r="AMJ20" s="5"/>
+    </row>
+    <row r="21" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>1011</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="ALR15" s="4"/>
-      <c r="ALS15" s="4"/>
-      <c r="ALT15" s="4"/>
-      <c r="ALU15" s="4"/>
-      <c r="ALV15" s="4"/>
-      <c r="ALW15" s="4"/>
-      <c r="ALX15" s="4"/>
-      <c r="ALY15" s="4"/>
-      <c r="ALZ15" s="4"/>
-      <c r="AMA15" s="4"/>
-      <c r="AMB15" s="4"/>
-      <c r="AMC15" s="4"/>
-      <c r="AMD15" s="4"/>
-      <c r="AME15" s="4"/>
-      <c r="AMF15" s="4"/>
-      <c r="AMG15" s="4"/>
-      <c r="AMH15" s="4"/>
-      <c r="AMI15" s="4"/>
-      <c r="AMJ15" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="ALR21" s="5"/>
+      <c r="ALS21" s="5"/>
+      <c r="ALT21" s="5"/>
+      <c r="ALU21" s="5"/>
+      <c r="ALV21" s="5"/>
+      <c r="ALW21" s="5"/>
+      <c r="ALX21" s="5"/>
+      <c r="ALY21" s="5"/>
+      <c r="ALZ21" s="5"/>
+      <c r="AMA21" s="5"/>
+      <c r="AMB21" s="5"/>
+      <c r="AMC21" s="5"/>
+      <c r="AMD21" s="5"/>
+      <c r="AME21" s="5"/>
+      <c r="AMF21" s="5"/>
+      <c r="AMG21" s="5"/>
+      <c r="AMH21" s="5"/>
+      <c r="AMI21" s="5"/>
+      <c r="AMJ21" s="5"/>
     </row>
-    <row r="16" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G16" s="0"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="ALR16" s="4"/>
-      <c r="ALS16" s="4"/>
-      <c r="ALT16" s="4"/>
-      <c r="ALU16" s="4"/>
-      <c r="ALV16" s="4"/>
-      <c r="ALW16" s="4"/>
-      <c r="ALX16" s="4"/>
-      <c r="ALY16" s="4"/>
-      <c r="ALZ16" s="4"/>
-      <c r="AMA16" s="4"/>
-      <c r="AMB16" s="4"/>
-      <c r="AMC16" s="4"/>
-      <c r="AMD16" s="4"/>
-      <c r="AME16" s="4"/>
-      <c r="AMF16" s="4"/>
-      <c r="AMG16" s="4"/>
-      <c r="AMH16" s="4"/>
-      <c r="AMI16" s="4"/>
-      <c r="AMJ16" s="4"/>
+    <row r="22" s="15" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="25" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="ALR22" s="5"/>
+      <c r="ALS22" s="5"/>
+      <c r="ALT22" s="5"/>
+      <c r="ALU22" s="5"/>
+      <c r="ALV22" s="5"/>
+      <c r="ALW22" s="5"/>
+      <c r="ALX22" s="5"/>
+      <c r="ALY22" s="5"/>
+      <c r="ALZ22" s="5"/>
+      <c r="AMA22" s="5"/>
+      <c r="AMB22" s="5"/>
+      <c r="AMC22" s="5"/>
+      <c r="AMD22" s="5"/>
+      <c r="AME22" s="5"/>
+      <c r="AMF22" s="5"/>
+      <c r="AMG22" s="5"/>
+      <c r="AMH22" s="5"/>
+      <c r="AMI22" s="5"/>
+      <c r="AMJ22" s="5"/>
     </row>
-    <row r="17" s="14" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G17" s="0"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="ALR17" s="4"/>
-      <c r="ALS17" s="4"/>
-      <c r="ALT17" s="4"/>
-      <c r="ALU17" s="4"/>
-      <c r="ALV17" s="4"/>
-      <c r="ALW17" s="4"/>
-      <c r="ALX17" s="4"/>
-      <c r="ALY17" s="4"/>
-      <c r="ALZ17" s="4"/>
-      <c r="AMA17" s="4"/>
-      <c r="AMB17" s="4"/>
-      <c r="AMC17" s="4"/>
-      <c r="AMD17" s="4"/>
-      <c r="AME17" s="4"/>
-      <c r="AMF17" s="4"/>
-      <c r="AMG17" s="4"/>
-      <c r="AMH17" s="4"/>
-      <c r="AMI17" s="4"/>
-      <c r="AMJ17" s="4"/>
+    <row r="23" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="25" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="ALR23" s="5"/>
+      <c r="ALS23" s="5"/>
+      <c r="ALT23" s="5"/>
+      <c r="ALU23" s="5"/>
+      <c r="ALV23" s="5"/>
+      <c r="ALW23" s="5"/>
+      <c r="ALX23" s="5"/>
+      <c r="ALY23" s="5"/>
+      <c r="ALZ23" s="5"/>
+      <c r="AMA23" s="5"/>
+      <c r="AMB23" s="5"/>
+      <c r="AMC23" s="5"/>
+      <c r="AMD23" s="5"/>
+      <c r="AME23" s="5"/>
+      <c r="AMF23" s="5"/>
+      <c r="AMG23" s="5"/>
+      <c r="AMH23" s="5"/>
+      <c r="AMI23" s="5"/>
+      <c r="AMJ23" s="5"/>
     </row>
-    <row r="18" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="ALR18" s="4"/>
-      <c r="ALS18" s="4"/>
-      <c r="ALT18" s="4"/>
-      <c r="ALU18" s="4"/>
-      <c r="ALV18" s="4"/>
-      <c r="ALW18" s="4"/>
-      <c r="ALX18" s="4"/>
-      <c r="ALY18" s="4"/>
-      <c r="ALZ18" s="4"/>
-      <c r="AMA18" s="4"/>
-      <c r="AMB18" s="4"/>
-      <c r="AMC18" s="4"/>
-      <c r="AMD18" s="4"/>
-      <c r="AME18" s="4"/>
-      <c r="AMF18" s="4"/>
-      <c r="AMG18" s="4"/>
-      <c r="AMH18" s="4"/>
-      <c r="AMI18" s="4"/>
-      <c r="AMJ18" s="4"/>
-    </row>
-    <row r="19" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>1018</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="ALR19" s="4"/>
-      <c r="ALS19" s="4"/>
-      <c r="ALT19" s="4"/>
-      <c r="ALU19" s="4"/>
-      <c r="ALV19" s="4"/>
-      <c r="ALW19" s="4"/>
-      <c r="ALX19" s="4"/>
-      <c r="ALY19" s="4"/>
-      <c r="ALZ19" s="4"/>
-      <c r="AMA19" s="4"/>
-      <c r="AMB19" s="4"/>
-      <c r="AMC19" s="4"/>
-      <c r="AMD19" s="4"/>
-      <c r="AME19" s="4"/>
-      <c r="AMF19" s="4"/>
-      <c r="AMG19" s="4"/>
-      <c r="AMH19" s="4"/>
-      <c r="AMI19" s="4"/>
-      <c r="AMJ19" s="4"/>
-    </row>
-    <row r="20" s="14" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="ALR20" s="4"/>
-      <c r="ALS20" s="4"/>
-      <c r="ALT20" s="4"/>
-      <c r="ALU20" s="4"/>
-      <c r="ALV20" s="4"/>
-      <c r="ALW20" s="4"/>
-      <c r="ALX20" s="4"/>
-      <c r="ALY20" s="4"/>
-      <c r="ALZ20" s="4"/>
-      <c r="AMA20" s="4"/>
-      <c r="AMB20" s="4"/>
-      <c r="AMC20" s="4"/>
-      <c r="AMD20" s="4"/>
-      <c r="AME20" s="4"/>
-      <c r="AMF20" s="4"/>
-      <c r="AMG20" s="4"/>
-      <c r="AMH20" s="4"/>
-      <c r="AMI20" s="4"/>
-      <c r="AMJ20" s="4"/>
-    </row>
-    <row r="21" s="14" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="ALR21" s="4"/>
-      <c r="ALS21" s="4"/>
-      <c r="ALT21" s="4"/>
-      <c r="ALU21" s="4"/>
-      <c r="ALV21" s="4"/>
-      <c r="ALW21" s="4"/>
-      <c r="ALX21" s="4"/>
-      <c r="ALY21" s="4"/>
-      <c r="ALZ21" s="4"/>
-      <c r="AMA21" s="4"/>
-      <c r="AMB21" s="4"/>
-      <c r="AMC21" s="4"/>
-      <c r="AMD21" s="4"/>
-      <c r="AME21" s="4"/>
-      <c r="AMF21" s="4"/>
-      <c r="AMG21" s="4"/>
-      <c r="AMH21" s="4"/>
-      <c r="AMI21" s="4"/>
-      <c r="AMJ21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="0"/>
-      <c r="G23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
+    <row r="24" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8428,617 +8665,617 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="25" width="19.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="17.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="25" width="70.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="79.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="25" width="69.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="25" width="75.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="25" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="19.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="17.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="70.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="79.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="30" width="69.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="30" width="75.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="30" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="29"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="34"/>
     </row>
-    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B2" s="33" t="s">
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="37" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>1011</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="C2" s="39" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>1081</v>
-      </c>
-      <c r="H3" s="5"/>
+    <row r="3" s="43" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H3" s="44"/>
     </row>
-    <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B4" s="31" t="s">
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>1011</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
+      <c r="C4" s="40" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="45" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B5" s="47" t="s">
         <v>1011</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="48" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>1015</v>
       </c>
-      <c r="E5" s="40" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
+      <c r="E5" s="49" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="45" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>1011</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="48" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>1015</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
+      <c r="E6" s="50" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D7" s="41" t="s">
+      <c r="A7" s="45" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>1015</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
+      <c r="E7" s="50" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D8" s="41" t="s">
+      <c r="A8" s="45" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>1015</v>
       </c>
-      <c r="E8" s="41" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
+      <c r="E8" s="50" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
     </row>
     <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
+      <c r="A9" s="45" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="45" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>1011</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
+      <c r="C10" s="48" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B11" s="38" t="s">
+      <c r="A11" s="45" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>1011</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
+      <c r="C11" s="48" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
     </row>
-    <row r="12" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
+    <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="45" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="45" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>1011</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
+      <c r="C13" s="35" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
+      <c r="A14" s="45" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>1116</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
+      <c r="A15" s="45" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B16" s="31" t="s">
+      <c r="A16" s="45" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>1011</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
+      <c r="C16" s="35" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B17" s="31" t="s">
+      <c r="A17" s="45" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>1011</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>1110</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
+      <c r="C17" s="35" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B18" s="38" t="s">
+      <c r="A18" s="45" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B18" s="47" t="s">
         <v>1011</v>
       </c>
-      <c r="C18" s="39" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
+      <c r="C18" s="48" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="40" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
+      <c r="A19" s="45" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="49" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
     </row>
     <row r="20" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>1131</v>
-      </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
+      <c r="A20" s="45" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="35" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="41" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>1011</v>
       </c>
-      <c r="C21" s="47" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>1134</v>
+      <c r="C21" s="57" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>1151</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/tests/data/waarismijnstemlokaal.nl_invulformulier.xlsx
+++ b/tests/data/waarismijnstemlokaal.nl_invulformulier.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,14 +22,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1147">
   <si>
     <t xml:space="preserve">Toelichting</t>
   </si>
   <si>
     <t xml:space="preserve">Op dit tabblad wordt het gebruik van deze spreadsheet toegelicht. Hieronder staat de beschrijving van de andere twee tabbladen 'Attributen' en 'Metadata'.
 Dit invulformulier is bedoeld om geüpload te worden naar https://waarismijnstemlokaal.nl/. In plaats van dit invulformulier kan ook de invultool op https://waarismijnstemlokaal.nl/ gebruikt worden. Ook kan op die website een versie van dit invulformulier gedownload worden waarin de stembureaus van de vorige verkiezing alvast (deels) ingevuld staan.
-Dit invulformulier is gebaseerd op de Stembureaus Open Data Standaard versie 1.4.</t>
+Dit invulformulier is gebaseerd op de Stembureaus Open Data Standaard versie 1.5.</t>
   </si>
   <si>
     <t xml:space="preserve">Attributen</t>
@@ -3140,9 +3140,6 @@
     <t xml:space="preserve">Ingang aan achterkant gebouw</t>
   </si>
   <si>
-    <t xml:space="preserve">Via de deur links</t>
-  </si>
-  <si>
     <t xml:space="preserve">X</t>
   </si>
   <si>
@@ -3191,19 +3188,19 @@
     <t xml:space="preserve">YYYY-MM-DDTHH:MM:SS</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-15T07:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-15T02:30:00</t>
+    <t xml:space="preserve">2023-11-22T07:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-22T02:30:00</t>
   </si>
   <si>
     <t xml:space="preserve">Sluitingstijd</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-15T21:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-15T22:00:00</t>
+    <t xml:space="preserve">2023-11-22T21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-22T22:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">Toegankelijk voor mensen met een lichamelijke beperking</t>
@@ -3229,7 +3226,7 @@
     <t xml:space="preserve">binnen 100 meter, rolstoeltoegankelijk, geleidelijnen</t>
   </si>
   <si>
-    <t xml:space="preserve">Akoestiek</t>
+    <t xml:space="preserve">Akoestiek geschikt voor slechthorenden</t>
   </si>
   <si>
     <t xml:space="preserve">Is de akoestiek van het stembureau geschikt voor slechthorenden?
@@ -3302,21 +3299,6 @@
     <t xml:space="preserve">https://www.stembureausindenhaag.nl/</t>
   </si>
   <si>
-    <t xml:space="preserve">Verkiezingen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In het geval van waterschapsverkiezingen kan er in sommige gemeenten niet in elk stembureau voor elk waterschap gestemd worden. Door Amsterdam lopen er bijvoorbeeld drie waterschappen en er kan enkel voor een waterschap gestemd worden bij stembureaus die in het gebied van het waterschap liggen. Alle gemeenten vragen we daarom in het geval van deze verkiezingen per stembureau specifiek aan te geven voor welke waterschappen er gestemd kunnen worden. Ook als er überhaupt maar één keuze is (bv. als er in de hele gemeente maar voor één waterschap gekozen kan worden) en ook als er in de gemeente bij elk stembureau voor alle verkiezingen gestemd kan worden.
-In het geval dat er in dit stembureau voor meerdere waterschapen gestemd kan worden dan scheidt u deze met een puntkomma, bv.:
-Waterschapsverkiezingen voor Delfland; waterschapsverkiezingen voor Rijnland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keuze uit:
-– 'waterschapsverkiezingen voor &lt;naam van waterschap zonder "Waterschap" of "Hoogheemraadschap" voor de naam&gt;'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waterschapsverkiezingen voor Delfland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Titel</t>
   </si>
   <si>
@@ -3327,13 +3309,13 @@
     <t xml:space="preserve">Stembureaus &lt;verkiezing&gt; &lt;jaar&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Stembureaus Provinciale Statenverkiezingen 2023</t>
+    <t xml:space="preserve">Stembureaus Tweede Kamerverkiezingen 2023</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;CBS gemeentecode&gt;: code bestaande uit 6 karakters, zie https://opendata.cbs.nl/#/CBS/nl/dataset/85385NED/table?dl=B165 of gebruik GM9001 voor Bonaire, GM9002 voor Sint Eustatius of GM9003 voor Saba.
+    <t xml:space="preserve">&lt;CBS gemeentecode&gt;: code bestaande uit 6 karakters, zie https://opendata.cbs.nl/#/CBS/nl/dataset/70739ned/table?dl=5A68C of gebruik GM9001 voor Bonaire, GM9002 voor Sint Eustatius of GM9003 voor Saba.
 &lt;YYYYMMDD&gt;: datum van de verkiezing
 &lt;oplopend getal&gt;: getal tussen 000 en 999</t>
   </si>
@@ -3341,20 +3323,20 @@
     <t xml:space="preserve">NLODS&lt;CBS gemeentecode&gt;stembureaus&lt;YYYYMMDD&gt;&lt;oplopend getal van 000 t/m 999&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">NLODSGM0518stembureaus20230315010</t>
+    <t xml:space="preserve">NLODSGM0518stembureaus20231122014</t>
   </si>
   <si>
     <t xml:space="preserve">Omschrijving</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;verkiezing&gt;: keuze uit 'de Tweede Kamerverkiezingen', 'de gemeenteraadsverkiezingen', 'de Provinciale Statenverkiezingen', 'referendum &lt;naam van referendum&gt;', 'de kiescollegeverkiezingen', 'de eilandsraadsverkiezingen', 'de Europese Parlementsverkiezingen', 'de waterschapsverkiezingen', 'verkiezingen gebiedscommissies en wijkraden' en 'verkiezingen stadsdeelcommissies'
-&lt;datum&gt;: in format zoals '15 maart 2023'</t>
+&lt;datum&gt;: in format zoals '22 november 2023'</t>
   </si>
   <si>
     <t xml:space="preserve">Overzicht van de locaties van stembureaus. De gegevens hebben betrekking op &lt;verkiezing&gt; op &lt;datum&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Overzicht van de locaties van stembureaus. De gegevens hebben betrekking op de Provinciale Statenverkiezingen op 15 maart 2023.</t>
+    <t xml:space="preserve">Overzicht van de locaties van stembureaus. De gegevens hebben betrekking op de Tweede Kamerverkiezingen op 22 november 2023.</t>
   </si>
   <si>
     <t xml:space="preserve">Eigenaar</t>
@@ -3393,7 +3375,7 @@
     <t xml:space="preserve">verkiezingen, stembureaus, overheid, democratie, stemmen, kiesdistrict, &lt;aard van de verkiezing&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">verkiezingen, stembureaus, overheid, democratie, stemmen, kiesdistrict, gemeenteraadsverkiezingen</t>
+    <t xml:space="preserve">verkiezingen, stembureaus, overheid, democratie, stemmen, kiesdistrict, Tweede Kamerverkiezingen</t>
   </si>
   <si>
     <t xml:space="preserve">Thema</t>
@@ -3422,7 +3404,7 @@
     <t xml:space="preserve">&lt;gebied&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Europees Nederland</t>
+    <t xml:space="preserve">Nederland</t>
   </si>
   <si>
     <t xml:space="preserve">Datum publicatie</t>
@@ -3434,7 +3416,7 @@
     <t xml:space="preserve">YYYY-MM-DDTHH:MM:SS+-HH:MM</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-01-16T13:05:23+01:00</t>
+    <t xml:space="preserve">2023-09-16T13:05:23+01:00</t>
   </si>
   <si>
     <t xml:space="preserve">Relatie / gebruik andere standaarden</t>
@@ -3452,19 +3434,19 @@
     <t xml:space="preserve">YYYY-MM-DD</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-03-15</t>
+    <t xml:space="preserve">2023-11-22</t>
   </si>
   <si>
     <t xml:space="preserve">Update frequentie</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;datum verkiezing&gt;: in format zoals '15 maart 2023'</t>
+    <t xml:space="preserve">&lt;datum verkiezing&gt;: in format zoals '22 november 2023'</t>
   </si>
   <si>
     <t xml:space="preserve">Incidenteel tot en met &lt;datum verkiezing&gt; (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezing)</t>
   </si>
   <si>
-    <t xml:space="preserve">Incidenteel tot en met 15 maart 2023 (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezingen)</t>
+    <t xml:space="preserve">Incidenteel tot en met 22 november 2023 (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezingen)</t>
   </si>
   <si>
     <t xml:space="preserve">Wijzigings datum</t>
@@ -3486,7 +3468,7 @@
 Invoer is "vast"</t>
   </si>
   <si>
-    <t xml:space="preserve">Stembureaus ODS 1.3</t>
+    <t xml:space="preserve">Stembureaus ODS 1.5</t>
   </si>
   <si>
     <t xml:space="preserve">Status</t>
@@ -3523,7 +3505,7 @@
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3663,6 +3645,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -3671,6 +3660,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3685,7 +3681,13 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="arial"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3704,13 +3706,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
@@ -3723,27 +3718,6 @@
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3870,7 +3844,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3987,26 +3961,26 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="11" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4023,15 +3997,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4039,203 +4025,171 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="60" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="60" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="61" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="61" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="12" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="12" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="12" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="12" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="12" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="12" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4386,7 +4340,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4396,7 +4350,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4406,10 +4360,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4427,31 +4381,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AMJ24"/>
+  <dimension ref="A1:AMJ23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="53.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="64.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="46.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="5" width="51.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="51.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1005" min="9" style="5" width="51.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1006" style="5" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="28.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="53.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="64.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="46.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="8" width="51.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="51.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1005" min="9" style="8" width="51.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1006" style="6" width="11.17"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4466,4192 +4420,4160 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AM1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AN1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AO1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AR1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AT1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AU1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AV1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AW1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AX1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AY1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BA1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BB1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BC1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BD1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BE1" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BF1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BG1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BH1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BI1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="BJ1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BK1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="8" t="s">
+      <c r="BL1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="BM1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="BN1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BO1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BP1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BQ1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="BR1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="BS1" s="8" t="s">
+      <c r="BS1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="BT1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="BU1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="BV1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="BW1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="BX1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="BY1" s="8" t="s">
+      <c r="BY1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="BZ1" s="8" t="s">
+      <c r="BZ1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="CA1" s="8" t="s">
+      <c r="CA1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="CB1" s="8" t="s">
+      <c r="CB1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="CC1" s="8" t="s">
+      <c r="CC1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="CD1" s="8" t="s">
+      <c r="CD1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="CE1" s="8" t="s">
+      <c r="CE1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CF1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="CG1" s="8" t="s">
+      <c r="CG1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="CH1" s="8" t="s">
+      <c r="CH1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="CI1" s="8" t="s">
+      <c r="CI1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="CJ1" s="8" t="s">
+      <c r="CJ1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="CK1" s="8" t="s">
+      <c r="CK1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="CL1" s="8" t="s">
+      <c r="CL1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="CM1" s="8" t="s">
+      <c r="CM1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="CN1" s="8" t="s">
+      <c r="CN1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="CO1" s="8" t="s">
+      <c r="CO1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="CP1" s="8" t="s">
+      <c r="CP1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="CQ1" s="8" t="s">
+      <c r="CQ1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="CR1" s="8" t="s">
+      <c r="CR1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="CS1" s="8" t="s">
+      <c r="CS1" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="CT1" s="8" t="s">
+      <c r="CT1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="CU1" s="8" t="s">
+      <c r="CU1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="CV1" s="8" t="s">
+      <c r="CV1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="CW1" s="8" t="s">
+      <c r="CW1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="CX1" s="8" t="s">
+      <c r="CX1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="CY1" s="8" t="s">
+      <c r="CY1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="CZ1" s="8" t="s">
+      <c r="CZ1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="DA1" s="8" t="s">
+      <c r="DA1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="DB1" s="8" t="s">
+      <c r="DB1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="DC1" s="8" t="s">
+      <c r="DC1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="DD1" s="8" t="s">
+      <c r="DD1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="DE1" s="8" t="s">
+      <c r="DE1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="DF1" s="8" t="s">
+      <c r="DF1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="DG1" s="8" t="s">
+      <c r="DG1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="DH1" s="8" t="s">
+      <c r="DH1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="DI1" s="8" t="s">
+      <c r="DI1" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="DJ1" s="8" t="s">
+      <c r="DJ1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="DK1" s="8" t="s">
+      <c r="DK1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="DL1" s="8" t="s">
+      <c r="DL1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="DM1" s="8" t="s">
+      <c r="DM1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="DN1" s="8" t="s">
+      <c r="DN1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="DO1" s="8" t="s">
+      <c r="DO1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="DP1" s="8" t="s">
+      <c r="DP1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="DQ1" s="8" t="s">
+      <c r="DQ1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="DR1" s="8" t="s">
+      <c r="DR1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="DS1" s="8" t="s">
+      <c r="DS1" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="DT1" s="8" t="s">
+      <c r="DT1" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="DU1" s="8" t="s">
+      <c r="DU1" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="DV1" s="8" t="s">
+      <c r="DV1" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="DW1" s="8" t="s">
+      <c r="DW1" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="DX1" s="8" t="s">
+      <c r="DX1" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="DY1" s="8" t="s">
+      <c r="DY1" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="DZ1" s="8" t="s">
+      <c r="DZ1" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="EA1" s="8" t="s">
+      <c r="EA1" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="EB1" s="8" t="s">
+      <c r="EB1" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="EC1" s="8" t="s">
+      <c r="EC1" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="ED1" s="8" t="s">
+      <c r="ED1" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="EE1" s="8" t="s">
+      <c r="EE1" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="EF1" s="8" t="s">
+      <c r="EF1" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="EG1" s="8" t="s">
+      <c r="EG1" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="EH1" s="8" t="s">
+      <c r="EH1" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="EI1" s="8" t="s">
+      <c r="EI1" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="EJ1" s="8" t="s">
+      <c r="EJ1" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="EK1" s="8" t="s">
+      <c r="EK1" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="EL1" s="8" t="s">
+      <c r="EL1" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="EM1" s="8" t="s">
+      <c r="EM1" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="EN1" s="8" t="s">
+      <c r="EN1" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="EO1" s="8" t="s">
+      <c r="EO1" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="EP1" s="8" t="s">
+      <c r="EP1" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="EQ1" s="8" t="s">
+      <c r="EQ1" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="ER1" s="8" t="s">
+      <c r="ER1" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="ES1" s="8" t="s">
+      <c r="ES1" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="ET1" s="8" t="s">
+      <c r="ET1" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="EU1" s="8" t="s">
+      <c r="EU1" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="EV1" s="8" t="s">
+      <c r="EV1" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="EW1" s="8" t="s">
+      <c r="EW1" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="EX1" s="8" t="s">
+      <c r="EX1" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="EY1" s="8" t="s">
+      <c r="EY1" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="EZ1" s="8" t="s">
+      <c r="EZ1" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="FA1" s="8" t="s">
+      <c r="FA1" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="FB1" s="8" t="s">
+      <c r="FB1" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="FC1" s="8" t="s">
+      <c r="FC1" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="FD1" s="8" t="s">
+      <c r="FD1" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="FE1" s="8" t="s">
+      <c r="FE1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="FF1" s="8" t="s">
+      <c r="FF1" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="FG1" s="8" t="s">
+      <c r="FG1" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="FH1" s="8" t="s">
+      <c r="FH1" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="FI1" s="8" t="s">
+      <c r="FI1" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="FJ1" s="8" t="s">
+      <c r="FJ1" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="FK1" s="8" t="s">
+      <c r="FK1" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="FL1" s="8" t="s">
+      <c r="FL1" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="FM1" s="8" t="s">
+      <c r="FM1" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="FN1" s="8" t="s">
+      <c r="FN1" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="FO1" s="8" t="s">
+      <c r="FO1" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="FP1" s="8" t="s">
+      <c r="FP1" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="FQ1" s="8" t="s">
+      <c r="FQ1" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="FR1" s="8" t="s">
+      <c r="FR1" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="FS1" s="8" t="s">
+      <c r="FS1" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="FT1" s="8" t="s">
+      <c r="FT1" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="FU1" s="8" t="s">
+      <c r="FU1" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="FV1" s="8" t="s">
+      <c r="FV1" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="FW1" s="8" t="s">
+      <c r="FW1" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="FX1" s="8" t="s">
+      <c r="FX1" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="FY1" s="8" t="s">
+      <c r="FY1" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="FZ1" s="8" t="s">
+      <c r="FZ1" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="GA1" s="8" t="s">
+      <c r="GA1" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="GB1" s="8" t="s">
+      <c r="GB1" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="GC1" s="8" t="s">
+      <c r="GC1" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="GD1" s="8" t="s">
+      <c r="GD1" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="GE1" s="8" t="s">
+      <c r="GE1" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="GF1" s="8" t="s">
+      <c r="GF1" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="GG1" s="8" t="s">
+      <c r="GG1" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="GH1" s="8" t="s">
+      <c r="GH1" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="GI1" s="8" t="s">
+      <c r="GI1" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="GJ1" s="8" t="s">
+      <c r="GJ1" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="GK1" s="8" t="s">
+      <c r="GK1" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="GL1" s="8" t="s">
+      <c r="GL1" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="GM1" s="8" t="s">
+      <c r="GM1" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="GN1" s="8" t="s">
+      <c r="GN1" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="GO1" s="8" t="s">
+      <c r="GO1" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="GP1" s="8" t="s">
+      <c r="GP1" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="GQ1" s="8" t="s">
+      <c r="GQ1" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="GR1" s="8" t="s">
+      <c r="GR1" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="GS1" s="8" t="s">
+      <c r="GS1" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="GT1" s="8" t="s">
+      <c r="GT1" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="GU1" s="8" t="s">
+      <c r="GU1" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="GV1" s="8" t="s">
+      <c r="GV1" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="GW1" s="8" t="s">
+      <c r="GW1" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="GX1" s="8" t="s">
+      <c r="GX1" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="GY1" s="8" t="s">
+      <c r="GY1" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="GZ1" s="8" t="s">
+      <c r="GZ1" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="HA1" s="8" t="s">
+      <c r="HA1" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="HB1" s="8" t="s">
+      <c r="HB1" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="HC1" s="8" t="s">
+      <c r="HC1" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="HD1" s="8" t="s">
+      <c r="HD1" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="HE1" s="8" t="s">
+      <c r="HE1" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="HF1" s="8" t="s">
+      <c r="HF1" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="HG1" s="8" t="s">
+      <c r="HG1" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="HH1" s="8" t="s">
+      <c r="HH1" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="HI1" s="8" t="s">
+      <c r="HI1" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="HJ1" s="8" t="s">
+      <c r="HJ1" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="HK1" s="8" t="s">
+      <c r="HK1" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="HL1" s="8" t="s">
+      <c r="HL1" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="HM1" s="8" t="s">
+      <c r="HM1" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="HN1" s="8" t="s">
+      <c r="HN1" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="HO1" s="8" t="s">
+      <c r="HO1" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="HP1" s="8" t="s">
+      <c r="HP1" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="HQ1" s="8" t="s">
+      <c r="HQ1" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="HR1" s="8" t="s">
+      <c r="HR1" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="HS1" s="8" t="s">
+      <c r="HS1" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="HT1" s="8" t="s">
+      <c r="HT1" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="HU1" s="8" t="s">
+      <c r="HU1" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="HV1" s="8" t="s">
+      <c r="HV1" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="HW1" s="8" t="s">
+      <c r="HW1" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="HX1" s="8" t="s">
+      <c r="HX1" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="HY1" s="8" t="s">
+      <c r="HY1" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="HZ1" s="8" t="s">
+      <c r="HZ1" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="IA1" s="8" t="s">
+      <c r="IA1" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="IB1" s="8" t="s">
+      <c r="IB1" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="IC1" s="8" t="s">
+      <c r="IC1" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="ID1" s="8" t="s">
+      <c r="ID1" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="IE1" s="8" t="s">
+      <c r="IE1" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="IF1" s="8" t="s">
+      <c r="IF1" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="IG1" s="8" t="s">
+      <c r="IG1" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="IH1" s="8" t="s">
+      <c r="IH1" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="II1" s="8" t="s">
+      <c r="II1" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="IJ1" s="8" t="s">
+      <c r="IJ1" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="IK1" s="8" t="s">
+      <c r="IK1" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="IL1" s="8" t="s">
+      <c r="IL1" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="IM1" s="8" t="s">
+      <c r="IM1" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="IN1" s="8" t="s">
+      <c r="IN1" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="IO1" s="8" t="s">
+      <c r="IO1" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="IP1" s="8" t="s">
+      <c r="IP1" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="IQ1" s="8" t="s">
+      <c r="IQ1" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="IR1" s="8" t="s">
+      <c r="IR1" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="IS1" s="8" t="s">
+      <c r="IS1" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="IT1" s="8" t="s">
+      <c r="IT1" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="IU1" s="8" t="s">
+      <c r="IU1" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="IV1" s="8" t="s">
+      <c r="IV1" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="IW1" s="8" t="s">
+      <c r="IW1" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="IX1" s="8" t="s">
+      <c r="IX1" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="IY1" s="8" t="s">
+      <c r="IY1" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="IZ1" s="8" t="s">
+      <c r="IZ1" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="JA1" s="8" t="s">
+      <c r="JA1" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="JB1" s="8" t="s">
+      <c r="JB1" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="JC1" s="8" t="s">
+      <c r="JC1" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="JD1" s="8" t="s">
+      <c r="JD1" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="JE1" s="8" t="s">
+      <c r="JE1" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="JF1" s="8" t="s">
+      <c r="JF1" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="JG1" s="8" t="s">
+      <c r="JG1" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="JH1" s="8" t="s">
+      <c r="JH1" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="JI1" s="8" t="s">
+      <c r="JI1" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="JJ1" s="8" t="s">
+      <c r="JJ1" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="JK1" s="8" t="s">
+      <c r="JK1" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="JL1" s="8" t="s">
+      <c r="JL1" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="JM1" s="8" t="s">
+      <c r="JM1" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="JN1" s="8" t="s">
+      <c r="JN1" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="JO1" s="8" t="s">
+      <c r="JO1" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="JP1" s="8" t="s">
+      <c r="JP1" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="JQ1" s="8" t="s">
+      <c r="JQ1" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="JR1" s="8" t="s">
+      <c r="JR1" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="JS1" s="8" t="s">
+      <c r="JS1" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="JT1" s="8" t="s">
+      <c r="JT1" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="JU1" s="8" t="s">
+      <c r="JU1" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="JV1" s="8" t="s">
+      <c r="JV1" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="JW1" s="8" t="s">
+      <c r="JW1" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="JX1" s="8" t="s">
+      <c r="JX1" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="JY1" s="8" t="s">
+      <c r="JY1" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="JZ1" s="8" t="s">
+      <c r="JZ1" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="KA1" s="8" t="s">
+      <c r="KA1" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="KB1" s="8" t="s">
+      <c r="KB1" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="KC1" s="8" t="s">
+      <c r="KC1" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="KD1" s="8" t="s">
+      <c r="KD1" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="KE1" s="8" t="s">
+      <c r="KE1" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="KF1" s="8" t="s">
+      <c r="KF1" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="KG1" s="8" t="s">
+      <c r="KG1" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="KH1" s="8" t="s">
+      <c r="KH1" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="KI1" s="8" t="s">
+      <c r="KI1" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="KJ1" s="8" t="s">
+      <c r="KJ1" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="KK1" s="8" t="s">
+      <c r="KK1" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="KL1" s="8" t="s">
+      <c r="KL1" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="KM1" s="8" t="s">
+      <c r="KM1" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="KN1" s="8" t="s">
+      <c r="KN1" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="KO1" s="8" t="s">
+      <c r="KO1" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="KP1" s="8" t="s">
+      <c r="KP1" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="KQ1" s="8" t="s">
+      <c r="KQ1" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="KR1" s="8" t="s">
+      <c r="KR1" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="KS1" s="8" t="s">
+      <c r="KS1" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="KT1" s="8" t="s">
+      <c r="KT1" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="KU1" s="8" t="s">
+      <c r="KU1" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="KV1" s="8" t="s">
+      <c r="KV1" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="KW1" s="8" t="s">
+      <c r="KW1" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="KX1" s="8" t="s">
+      <c r="KX1" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="KY1" s="8" t="s">
+      <c r="KY1" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="KZ1" s="8" t="s">
+      <c r="KZ1" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="LA1" s="8" t="s">
+      <c r="LA1" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="LB1" s="8" t="s">
+      <c r="LB1" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="LC1" s="8" t="s">
+      <c r="LC1" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="LD1" s="8" t="s">
+      <c r="LD1" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="LE1" s="8" t="s">
+      <c r="LE1" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="LF1" s="8" t="s">
+      <c r="LF1" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="LG1" s="8" t="s">
+      <c r="LG1" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="LH1" s="8" t="s">
+      <c r="LH1" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="LI1" s="8" t="s">
+      <c r="LI1" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="LJ1" s="8" t="s">
+      <c r="LJ1" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="LK1" s="8" t="s">
+      <c r="LK1" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="LL1" s="8" t="s">
+      <c r="LL1" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="LM1" s="8" t="s">
+      <c r="LM1" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="LN1" s="8" t="s">
+      <c r="LN1" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="LO1" s="8" t="s">
+      <c r="LO1" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="LP1" s="8" t="s">
+      <c r="LP1" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="LQ1" s="8" t="s">
+      <c r="LQ1" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="LR1" s="8" t="s">
+      <c r="LR1" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="LS1" s="8" t="s">
+      <c r="LS1" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="LT1" s="8" t="s">
+      <c r="LT1" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="LU1" s="8" t="s">
+      <c r="LU1" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="LV1" s="8" t="s">
+      <c r="LV1" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="LW1" s="8" t="s">
+      <c r="LW1" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="LX1" s="8" t="s">
+      <c r="LX1" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="LY1" s="8" t="s">
+      <c r="LY1" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="LZ1" s="8" t="s">
+      <c r="LZ1" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="MA1" s="8" t="s">
+      <c r="MA1" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="MB1" s="8" t="s">
+      <c r="MB1" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="MC1" s="8" t="s">
+      <c r="MC1" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="MD1" s="8" t="s">
+      <c r="MD1" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="ME1" s="8" t="s">
+      <c r="ME1" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="MF1" s="8" t="s">
+      <c r="MF1" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="MG1" s="8" t="s">
+      <c r="MG1" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="MH1" s="8" t="s">
+      <c r="MH1" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="MI1" s="8" t="s">
+      <c r="MI1" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="MJ1" s="8" t="s">
+      <c r="MJ1" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="MK1" s="8" t="s">
+      <c r="MK1" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="ML1" s="8" t="s">
+      <c r="ML1" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="MM1" s="8" t="s">
+      <c r="MM1" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="MN1" s="8" t="s">
+      <c r="MN1" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="MO1" s="8" t="s">
+      <c r="MO1" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="MP1" s="8" t="s">
+      <c r="MP1" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="MQ1" s="8" t="s">
+      <c r="MQ1" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="MR1" s="8" t="s">
+      <c r="MR1" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="MS1" s="8" t="s">
+      <c r="MS1" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="MT1" s="8" t="s">
+      <c r="MT1" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="MU1" s="8" t="s">
+      <c r="MU1" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="MV1" s="8" t="s">
+      <c r="MV1" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="MW1" s="8" t="s">
+      <c r="MW1" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="MX1" s="8" t="s">
+      <c r="MX1" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="MY1" s="8" t="s">
+      <c r="MY1" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="MZ1" s="8" t="s">
+      <c r="MZ1" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="NA1" s="8" t="s">
+      <c r="NA1" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="NB1" s="8" t="s">
+      <c r="NB1" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="NC1" s="8" t="s">
+      <c r="NC1" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="ND1" s="8" t="s">
+      <c r="ND1" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="NE1" s="8" t="s">
+      <c r="NE1" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="NF1" s="8" t="s">
+      <c r="NF1" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="NG1" s="8" t="s">
+      <c r="NG1" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="NH1" s="8" t="s">
+      <c r="NH1" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="NI1" s="8" t="s">
+      <c r="NI1" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="NJ1" s="8" t="s">
+      <c r="NJ1" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="NK1" s="8" t="s">
+      <c r="NK1" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="NL1" s="8" t="s">
+      <c r="NL1" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="NM1" s="8" t="s">
+      <c r="NM1" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="NN1" s="8" t="s">
+      <c r="NN1" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="NO1" s="8" t="s">
+      <c r="NO1" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="NP1" s="8" t="s">
+      <c r="NP1" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="NQ1" s="8" t="s">
+      <c r="NQ1" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="NR1" s="8" t="s">
+      <c r="NR1" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="NS1" s="8" t="s">
+      <c r="NS1" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="NT1" s="8" t="s">
+      <c r="NT1" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="NU1" s="8" t="s">
+      <c r="NU1" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="NV1" s="8" t="s">
+      <c r="NV1" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="NW1" s="8" t="s">
+      <c r="NW1" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="NX1" s="8" t="s">
+      <c r="NX1" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="NY1" s="8" t="s">
+      <c r="NY1" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="NZ1" s="8" t="s">
+      <c r="NZ1" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="OA1" s="8" t="s">
+      <c r="OA1" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="OB1" s="8" t="s">
+      <c r="OB1" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="OC1" s="8" t="s">
+      <c r="OC1" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="OD1" s="8" t="s">
+      <c r="OD1" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="OE1" s="8" t="s">
+      <c r="OE1" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="OF1" s="8" t="s">
+      <c r="OF1" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="OG1" s="8" t="s">
+      <c r="OG1" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="OH1" s="8" t="s">
+      <c r="OH1" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="OI1" s="8" t="s">
+      <c r="OI1" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="OJ1" s="8" t="s">
+      <c r="OJ1" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="OK1" s="8" t="s">
+      <c r="OK1" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="OL1" s="8" t="s">
+      <c r="OL1" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="OM1" s="8" t="s">
+      <c r="OM1" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="ON1" s="8" t="s">
+      <c r="ON1" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="OO1" s="8" t="s">
+      <c r="OO1" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="OP1" s="8" t="s">
+      <c r="OP1" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="OQ1" s="8" t="s">
+      <c r="OQ1" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="OR1" s="8" t="s">
+      <c r="OR1" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="OS1" s="8" t="s">
+      <c r="OS1" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="OT1" s="8" t="s">
+      <c r="OT1" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="OU1" s="8" t="s">
+      <c r="OU1" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="OV1" s="8" t="s">
+      <c r="OV1" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="OW1" s="8" t="s">
+      <c r="OW1" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="OX1" s="8" t="s">
+      <c r="OX1" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="OY1" s="8" t="s">
+      <c r="OY1" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="OZ1" s="8" t="s">
+      <c r="OZ1" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="PA1" s="8" t="s">
+      <c r="PA1" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="PB1" s="8" t="s">
+      <c r="PB1" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="PC1" s="8" t="s">
+      <c r="PC1" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="PD1" s="8" t="s">
+      <c r="PD1" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="PE1" s="8" t="s">
+      <c r="PE1" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="PF1" s="8" t="s">
+      <c r="PF1" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="PG1" s="8" t="s">
+      <c r="PG1" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="PH1" s="8" t="s">
+      <c r="PH1" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="PI1" s="8" t="s">
+      <c r="PI1" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="PJ1" s="8" t="s">
+      <c r="PJ1" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="PK1" s="8" t="s">
+      <c r="PK1" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="PL1" s="8" t="s">
+      <c r="PL1" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="PM1" s="8" t="s">
+      <c r="PM1" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="PN1" s="8" t="s">
+      <c r="PN1" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="PO1" s="8" t="s">
+      <c r="PO1" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="PP1" s="8" t="s">
+      <c r="PP1" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="PQ1" s="8" t="s">
+      <c r="PQ1" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="PR1" s="8" t="s">
+      <c r="PR1" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="PS1" s="8" t="s">
+      <c r="PS1" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="PT1" s="8" t="s">
+      <c r="PT1" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="PU1" s="8" t="s">
+      <c r="PU1" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="PV1" s="8" t="s">
+      <c r="PV1" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="PW1" s="8" t="s">
+      <c r="PW1" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="PX1" s="8" t="s">
+      <c r="PX1" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="PY1" s="8" t="s">
+      <c r="PY1" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="PZ1" s="8" t="s">
+      <c r="PZ1" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="QA1" s="8" t="s">
+      <c r="QA1" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="QB1" s="8" t="s">
+      <c r="QB1" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="QC1" s="8" t="s">
+      <c r="QC1" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="QD1" s="8" t="s">
+      <c r="QD1" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="QE1" s="8" t="s">
+      <c r="QE1" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="QF1" s="8" t="s">
+      <c r="QF1" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="QG1" s="8" t="s">
+      <c r="QG1" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="QH1" s="8" t="s">
+      <c r="QH1" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="QI1" s="8" t="s">
+      <c r="QI1" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="QJ1" s="8" t="s">
+      <c r="QJ1" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="QK1" s="8" t="s">
+      <c r="QK1" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="QL1" s="8" t="s">
+      <c r="QL1" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="QM1" s="8" t="s">
+      <c r="QM1" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="QN1" s="8" t="s">
+      <c r="QN1" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="QO1" s="8" t="s">
+      <c r="QO1" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="QP1" s="8" t="s">
+      <c r="QP1" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="QQ1" s="8" t="s">
+      <c r="QQ1" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="QR1" s="8" t="s">
+      <c r="QR1" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="QS1" s="8" t="s">
+      <c r="QS1" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="QT1" s="8" t="s">
+      <c r="QT1" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="QU1" s="8" t="s">
+      <c r="QU1" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="QV1" s="8" t="s">
+      <c r="QV1" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="QW1" s="8" t="s">
+      <c r="QW1" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="QX1" s="8" t="s">
+      <c r="QX1" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="QY1" s="8" t="s">
+      <c r="QY1" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="QZ1" s="8" t="s">
+      <c r="QZ1" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="RA1" s="8" t="s">
+      <c r="RA1" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="RB1" s="8" t="s">
+      <c r="RB1" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="RC1" s="8" t="s">
+      <c r="RC1" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="RD1" s="8" t="s">
+      <c r="RD1" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="RE1" s="8" t="s">
+      <c r="RE1" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="RF1" s="8" t="s">
+      <c r="RF1" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="RG1" s="8" t="s">
+      <c r="RG1" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="RH1" s="8" t="s">
+      <c r="RH1" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="RI1" s="8" t="s">
+      <c r="RI1" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="RJ1" s="8" t="s">
+      <c r="RJ1" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="RK1" s="8" t="s">
+      <c r="RK1" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="RL1" s="8" t="s">
+      <c r="RL1" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="RM1" s="8" t="s">
+      <c r="RM1" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="RN1" s="8" t="s">
+      <c r="RN1" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="RO1" s="8" t="s">
+      <c r="RO1" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="RP1" s="8" t="s">
+      <c r="RP1" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="RQ1" s="8" t="s">
+      <c r="RQ1" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="RR1" s="8" t="s">
+      <c r="RR1" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="RS1" s="8" t="s">
+      <c r="RS1" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="RT1" s="8" t="s">
+      <c r="RT1" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="RU1" s="8" t="s">
+      <c r="RU1" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="RV1" s="8" t="s">
+      <c r="RV1" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="RW1" s="8" t="s">
+      <c r="RW1" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="RX1" s="8" t="s">
+      <c r="RX1" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="RY1" s="8" t="s">
+      <c r="RY1" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="RZ1" s="8" t="s">
+      <c r="RZ1" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="SA1" s="8" t="s">
+      <c r="SA1" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="SB1" s="8" t="s">
+      <c r="SB1" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="SC1" s="8" t="s">
+      <c r="SC1" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="SD1" s="8" t="s">
+      <c r="SD1" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="SE1" s="8" t="s">
+      <c r="SE1" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="SF1" s="8" t="s">
+      <c r="SF1" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="SG1" s="8" t="s">
+      <c r="SG1" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="SH1" s="8" t="s">
+      <c r="SH1" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="SI1" s="8" t="s">
+      <c r="SI1" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="SJ1" s="8" t="s">
+      <c r="SJ1" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="SK1" s="8" t="s">
+      <c r="SK1" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="SL1" s="8" t="s">
+      <c r="SL1" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="SM1" s="8" t="s">
+      <c r="SM1" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="SN1" s="8" t="s">
+      <c r="SN1" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="SO1" s="8" t="s">
+      <c r="SO1" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="SP1" s="8" t="s">
+      <c r="SP1" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="SQ1" s="8" t="s">
+      <c r="SQ1" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="SR1" s="8" t="s">
+      <c r="SR1" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="SS1" s="8" t="s">
+      <c r="SS1" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="ST1" s="8" t="s">
+      <c r="ST1" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="SU1" s="8" t="s">
+      <c r="SU1" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="SV1" s="8" t="s">
+      <c r="SV1" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="SW1" s="8" t="s">
+      <c r="SW1" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="SX1" s="8" t="s">
+      <c r="SX1" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="SY1" s="8" t="s">
+      <c r="SY1" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="SZ1" s="8" t="s">
+      <c r="SZ1" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="TA1" s="8" t="s">
+      <c r="TA1" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="TB1" s="8" t="s">
+      <c r="TB1" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="TC1" s="8" t="s">
+      <c r="TC1" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="TD1" s="8" t="s">
+      <c r="TD1" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="TE1" s="8" t="s">
+      <c r="TE1" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="TF1" s="8" t="s">
+      <c r="TF1" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="TG1" s="8" t="s">
+      <c r="TG1" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="TH1" s="8" t="s">
+      <c r="TH1" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="TI1" s="8" t="s">
+      <c r="TI1" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="TJ1" s="8" t="s">
+      <c r="TJ1" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="TK1" s="8" t="s">
+      <c r="TK1" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="TL1" s="8" t="s">
+      <c r="TL1" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="TM1" s="8" t="s">
+      <c r="TM1" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="TN1" s="8" t="s">
+      <c r="TN1" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="TO1" s="8" t="s">
+      <c r="TO1" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="TP1" s="8" t="s">
+      <c r="TP1" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="TQ1" s="8" t="s">
+      <c r="TQ1" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="TR1" s="8" t="s">
+      <c r="TR1" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="TS1" s="8" t="s">
+      <c r="TS1" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="TT1" s="8" t="s">
+      <c r="TT1" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="TU1" s="8" t="s">
+      <c r="TU1" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="TV1" s="8" t="s">
+      <c r="TV1" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="TW1" s="8" t="s">
+      <c r="TW1" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="TX1" s="8" t="s">
+      <c r="TX1" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="TY1" s="8" t="s">
+      <c r="TY1" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="TZ1" s="8" t="s">
+      <c r="TZ1" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="UA1" s="8" t="s">
+      <c r="UA1" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="UB1" s="8" t="s">
+      <c r="UB1" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="UC1" s="8" t="s">
+      <c r="UC1" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="UD1" s="8" t="s">
+      <c r="UD1" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="UE1" s="8" t="s">
+      <c r="UE1" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="UF1" s="8" t="s">
+      <c r="UF1" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="UG1" s="8" t="s">
+      <c r="UG1" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="UH1" s="8" t="s">
+      <c r="UH1" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="UI1" s="8" t="s">
+      <c r="UI1" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="UJ1" s="8" t="s">
+      <c r="UJ1" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="UK1" s="8" t="s">
+      <c r="UK1" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="UL1" s="8" t="s">
+      <c r="UL1" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="UM1" s="8" t="s">
+      <c r="UM1" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="UN1" s="8" t="s">
+      <c r="UN1" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="UO1" s="8" t="s">
+      <c r="UO1" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="UP1" s="8" t="s">
+      <c r="UP1" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="UQ1" s="8" t="s">
+      <c r="UQ1" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="UR1" s="8" t="s">
+      <c r="UR1" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="US1" s="8" t="s">
+      <c r="US1" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="UT1" s="8" t="s">
+      <c r="UT1" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="UU1" s="8" t="s">
+      <c r="UU1" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="UV1" s="8" t="s">
+      <c r="UV1" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="UW1" s="8" t="s">
+      <c r="UW1" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="UX1" s="8" t="s">
+      <c r="UX1" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="UY1" s="8" t="s">
+      <c r="UY1" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="UZ1" s="8" t="s">
+      <c r="UZ1" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="VA1" s="8" t="s">
+      <c r="VA1" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="VB1" s="8" t="s">
+      <c r="VB1" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="VC1" s="8" t="s">
+      <c r="VC1" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="VD1" s="8" t="s">
+      <c r="VD1" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="VE1" s="8" t="s">
+      <c r="VE1" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="VF1" s="8" t="s">
+      <c r="VF1" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="VG1" s="8" t="s">
+      <c r="VG1" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="VH1" s="8" t="s">
+      <c r="VH1" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="VI1" s="8" t="s">
+      <c r="VI1" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="VJ1" s="8" t="s">
+      <c r="VJ1" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="VK1" s="8" t="s">
+      <c r="VK1" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="VL1" s="8" t="s">
+      <c r="VL1" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="VM1" s="8" t="s">
+      <c r="VM1" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="VN1" s="8" t="s">
+      <c r="VN1" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="VO1" s="8" t="s">
+      <c r="VO1" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="VP1" s="8" t="s">
+      <c r="VP1" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="VQ1" s="8" t="s">
+      <c r="VQ1" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="VR1" s="8" t="s">
+      <c r="VR1" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="VS1" s="8" t="s">
+      <c r="VS1" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="VT1" s="8" t="s">
+      <c r="VT1" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="VU1" s="8" t="s">
+      <c r="VU1" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="VV1" s="8" t="s">
+      <c r="VV1" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="VW1" s="8" t="s">
+      <c r="VW1" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="VX1" s="8" t="s">
+      <c r="VX1" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="VY1" s="8" t="s">
+      <c r="VY1" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="VZ1" s="8" t="s">
+      <c r="VZ1" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="WA1" s="8" t="s">
+      <c r="WA1" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="WB1" s="8" t="s">
+      <c r="WB1" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="WC1" s="8" t="s">
+      <c r="WC1" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="WD1" s="8" t="s">
+      <c r="WD1" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="WE1" s="8" t="s">
+      <c r="WE1" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="WF1" s="8" t="s">
+      <c r="WF1" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="WG1" s="8" t="s">
+      <c r="WG1" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="WH1" s="8" t="s">
+      <c r="WH1" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="WI1" s="8" t="s">
+      <c r="WI1" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="WJ1" s="8" t="s">
+      <c r="WJ1" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="WK1" s="8" t="s">
+      <c r="WK1" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="WL1" s="8" t="s">
+      <c r="WL1" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="WM1" s="8" t="s">
+      <c r="WM1" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="WN1" s="8" t="s">
+      <c r="WN1" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="WO1" s="8" t="s">
+      <c r="WO1" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="WP1" s="8" t="s">
+      <c r="WP1" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="WQ1" s="8" t="s">
+      <c r="WQ1" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="WR1" s="8" t="s">
+      <c r="WR1" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="WS1" s="8" t="s">
+      <c r="WS1" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="WT1" s="8" t="s">
+      <c r="WT1" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="WU1" s="8" t="s">
+      <c r="WU1" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="WV1" s="8" t="s">
+      <c r="WV1" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="WW1" s="8" t="s">
+      <c r="WW1" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="WX1" s="8" t="s">
+      <c r="WX1" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="WY1" s="8" t="s">
+      <c r="WY1" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="WZ1" s="8" t="s">
+      <c r="WZ1" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="XA1" s="8" t="s">
+      <c r="XA1" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="XB1" s="8" t="s">
+      <c r="XB1" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="XC1" s="8" t="s">
+      <c r="XC1" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="XD1" s="8" t="s">
+      <c r="XD1" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="XE1" s="8" t="s">
+      <c r="XE1" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="XF1" s="8" t="s">
+      <c r="XF1" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="XG1" s="8" t="s">
+      <c r="XG1" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="XH1" s="8" t="s">
+      <c r="XH1" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="XI1" s="8" t="s">
+      <c r="XI1" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="XJ1" s="8" t="s">
+      <c r="XJ1" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="XK1" s="8" t="s">
+      <c r="XK1" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="XL1" s="8" t="s">
+      <c r="XL1" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="XM1" s="8" t="s">
+      <c r="XM1" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="XN1" s="8" t="s">
+      <c r="XN1" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="XO1" s="8" t="s">
+      <c r="XO1" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="XP1" s="8" t="s">
+      <c r="XP1" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="XQ1" s="8" t="s">
+      <c r="XQ1" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="XR1" s="8" t="s">
+      <c r="XR1" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="XS1" s="8" t="s">
+      <c r="XS1" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="XT1" s="8" t="s">
+      <c r="XT1" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="XU1" s="8" t="s">
+      <c r="XU1" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="XV1" s="8" t="s">
+      <c r="XV1" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="XW1" s="8" t="s">
+      <c r="XW1" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="XX1" s="8" t="s">
+      <c r="XX1" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="XY1" s="8" t="s">
+      <c r="XY1" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="XZ1" s="8" t="s">
+      <c r="XZ1" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="YA1" s="8" t="s">
+      <c r="YA1" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="YB1" s="8" t="s">
+      <c r="YB1" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="YC1" s="8" t="s">
+      <c r="YC1" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="YD1" s="8" t="s">
+      <c r="YD1" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="YE1" s="8" t="s">
+      <c r="YE1" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="YF1" s="8" t="s">
+      <c r="YF1" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="YG1" s="8" t="s">
+      <c r="YG1" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="YH1" s="8" t="s">
+      <c r="YH1" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="YI1" s="8" t="s">
+      <c r="YI1" s="11" t="s">
         <v>663</v>
       </c>
-      <c r="YJ1" s="8" t="s">
+      <c r="YJ1" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="YK1" s="8" t="s">
+      <c r="YK1" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="YL1" s="8" t="s">
+      <c r="YL1" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="YM1" s="8" t="s">
+      <c r="YM1" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="YN1" s="8" t="s">
+      <c r="YN1" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="YO1" s="8" t="s">
+      <c r="YO1" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="YP1" s="8" t="s">
+      <c r="YP1" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="YQ1" s="8" t="s">
+      <c r="YQ1" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="YR1" s="8" t="s">
+      <c r="YR1" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="YS1" s="8" t="s">
+      <c r="YS1" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="YT1" s="8" t="s">
+      <c r="YT1" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="YU1" s="8" t="s">
+      <c r="YU1" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="YV1" s="8" t="s">
+      <c r="YV1" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="YW1" s="8" t="s">
+      <c r="YW1" s="11" t="s">
         <v>677</v>
       </c>
-      <c r="YX1" s="8" t="s">
+      <c r="YX1" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="YY1" s="8" t="s">
+      <c r="YY1" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="YZ1" s="8" t="s">
+      <c r="YZ1" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="ZA1" s="8" t="s">
+      <c r="ZA1" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="ZB1" s="8" t="s">
+      <c r="ZB1" s="11" t="s">
         <v>682</v>
       </c>
-      <c r="ZC1" s="8" t="s">
+      <c r="ZC1" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="ZD1" s="8" t="s">
+      <c r="ZD1" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="ZE1" s="8" t="s">
+      <c r="ZE1" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="ZF1" s="8" t="s">
+      <c r="ZF1" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="ZG1" s="8" t="s">
+      <c r="ZG1" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="ZH1" s="8" t="s">
+      <c r="ZH1" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="ZI1" s="8" t="s">
+      <c r="ZI1" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="ZJ1" s="8" t="s">
+      <c r="ZJ1" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="ZK1" s="8" t="s">
+      <c r="ZK1" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="ZL1" s="8" t="s">
+      <c r="ZL1" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="ZM1" s="8" t="s">
+      <c r="ZM1" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="ZN1" s="8" t="s">
+      <c r="ZN1" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="ZO1" s="8" t="s">
+      <c r="ZO1" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="ZP1" s="8" t="s">
+      <c r="ZP1" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="ZQ1" s="8" t="s">
+      <c r="ZQ1" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="ZR1" s="8" t="s">
+      <c r="ZR1" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="ZS1" s="8" t="s">
+      <c r="ZS1" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="ZT1" s="8" t="s">
+      <c r="ZT1" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="ZU1" s="8" t="s">
+      <c r="ZU1" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="ZV1" s="8" t="s">
+      <c r="ZV1" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="ZW1" s="8" t="s">
+      <c r="ZW1" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="ZX1" s="8" t="s">
+      <c r="ZX1" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="ZY1" s="8" t="s">
+      <c r="ZY1" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="ZZ1" s="8" t="s">
+      <c r="ZZ1" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="AAA1" s="8" t="s">
+      <c r="AAA1" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="AAB1" s="8" t="s">
+      <c r="AAB1" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="AAC1" s="8" t="s">
+      <c r="AAC1" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="AAD1" s="8" t="s">
+      <c r="AAD1" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="AAE1" s="8" t="s">
+      <c r="AAE1" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="AAF1" s="8" t="s">
+      <c r="AAF1" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="AAG1" s="8" t="s">
+      <c r="AAG1" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="AAH1" s="8" t="s">
+      <c r="AAH1" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="AAI1" s="8" t="s">
+      <c r="AAI1" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="AAJ1" s="8" t="s">
+      <c r="AAJ1" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="AAK1" s="8" t="s">
+      <c r="AAK1" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="AAL1" s="8" t="s">
+      <c r="AAL1" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="AAM1" s="8" t="s">
+      <c r="AAM1" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="AAN1" s="8" t="s">
+      <c r="AAN1" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="AAO1" s="8" t="s">
+      <c r="AAO1" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="AAP1" s="8" t="s">
+      <c r="AAP1" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="AAQ1" s="8" t="s">
+      <c r="AAQ1" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="AAR1" s="8" t="s">
+      <c r="AAR1" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="AAS1" s="8" t="s">
+      <c r="AAS1" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="AAT1" s="8" t="s">
+      <c r="AAT1" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="AAU1" s="8" t="s">
+      <c r="AAU1" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="AAV1" s="8" t="s">
+      <c r="AAV1" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="AAW1" s="8" t="s">
+      <c r="AAW1" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="AAX1" s="8" t="s">
+      <c r="AAX1" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="AAY1" s="8" t="s">
+      <c r="AAY1" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="AAZ1" s="8" t="s">
+      <c r="AAZ1" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="ABA1" s="8" t="s">
+      <c r="ABA1" s="11" t="s">
         <v>733</v>
       </c>
-      <c r="ABB1" s="8" t="s">
+      <c r="ABB1" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="ABC1" s="8" t="s">
+      <c r="ABC1" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="ABD1" s="8" t="s">
+      <c r="ABD1" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="ABE1" s="8" t="s">
+      <c r="ABE1" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="ABF1" s="8" t="s">
+      <c r="ABF1" s="11" t="s">
         <v>738</v>
       </c>
-      <c r="ABG1" s="8" t="s">
+      <c r="ABG1" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="ABH1" s="8" t="s">
+      <c r="ABH1" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="ABI1" s="8" t="s">
+      <c r="ABI1" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="ABJ1" s="8" t="s">
+      <c r="ABJ1" s="11" t="s">
         <v>742</v>
       </c>
-      <c r="ABK1" s="8" t="s">
+      <c r="ABK1" s="11" t="s">
         <v>743</v>
       </c>
-      <c r="ABL1" s="8" t="s">
+      <c r="ABL1" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="ABM1" s="8" t="s">
+      <c r="ABM1" s="11" t="s">
         <v>745</v>
       </c>
-      <c r="ABN1" s="8" t="s">
+      <c r="ABN1" s="11" t="s">
         <v>746</v>
       </c>
-      <c r="ABO1" s="8" t="s">
+      <c r="ABO1" s="11" t="s">
         <v>747</v>
       </c>
-      <c r="ABP1" s="8" t="s">
+      <c r="ABP1" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="ABQ1" s="8" t="s">
+      <c r="ABQ1" s="11" t="s">
         <v>749</v>
       </c>
-      <c r="ABR1" s="8" t="s">
+      <c r="ABR1" s="11" t="s">
         <v>750</v>
       </c>
-      <c r="ABS1" s="8" t="s">
+      <c r="ABS1" s="11" t="s">
         <v>751</v>
       </c>
-      <c r="ABT1" s="8" t="s">
+      <c r="ABT1" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="ABU1" s="8" t="s">
+      <c r="ABU1" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="ABV1" s="8" t="s">
+      <c r="ABV1" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="ABW1" s="8" t="s">
+      <c r="ABW1" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="ABX1" s="8" t="s">
+      <c r="ABX1" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="ABY1" s="8" t="s">
+      <c r="ABY1" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="ABZ1" s="8" t="s">
+      <c r="ABZ1" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="ACA1" s="8" t="s">
+      <c r="ACA1" s="11" t="s">
         <v>759</v>
       </c>
-      <c r="ACB1" s="8" t="s">
+      <c r="ACB1" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="ACC1" s="8" t="s">
+      <c r="ACC1" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="ACD1" s="8" t="s">
+      <c r="ACD1" s="11" t="s">
         <v>762</v>
       </c>
-      <c r="ACE1" s="8" t="s">
+      <c r="ACE1" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="ACF1" s="8" t="s">
+      <c r="ACF1" s="11" t="s">
         <v>764</v>
       </c>
-      <c r="ACG1" s="8" t="s">
+      <c r="ACG1" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="ACH1" s="8" t="s">
+      <c r="ACH1" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="ACI1" s="8" t="s">
+      <c r="ACI1" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="ACJ1" s="8" t="s">
+      <c r="ACJ1" s="11" t="s">
         <v>768</v>
       </c>
-      <c r="ACK1" s="8" t="s">
+      <c r="ACK1" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="ACL1" s="8" t="s">
+      <c r="ACL1" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="ACM1" s="8" t="s">
+      <c r="ACM1" s="11" t="s">
         <v>771</v>
       </c>
-      <c r="ACN1" s="8" t="s">
+      <c r="ACN1" s="11" t="s">
         <v>772</v>
       </c>
-      <c r="ACO1" s="8" t="s">
+      <c r="ACO1" s="11" t="s">
         <v>773</v>
       </c>
-      <c r="ACP1" s="8" t="s">
+      <c r="ACP1" s="11" t="s">
         <v>774</v>
       </c>
-      <c r="ACQ1" s="8" t="s">
+      <c r="ACQ1" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="ACR1" s="8" t="s">
+      <c r="ACR1" s="11" t="s">
         <v>776</v>
       </c>
-      <c r="ACS1" s="8" t="s">
+      <c r="ACS1" s="11" t="s">
         <v>777</v>
       </c>
-      <c r="ACT1" s="8" t="s">
+      <c r="ACT1" s="11" t="s">
         <v>778</v>
       </c>
-      <c r="ACU1" s="8" t="s">
+      <c r="ACU1" s="11" t="s">
         <v>779</v>
       </c>
-      <c r="ACV1" s="8" t="s">
+      <c r="ACV1" s="11" t="s">
         <v>780</v>
       </c>
-      <c r="ACW1" s="8" t="s">
+      <c r="ACW1" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="ACX1" s="8" t="s">
+      <c r="ACX1" s="11" t="s">
         <v>782</v>
       </c>
-      <c r="ACY1" s="8" t="s">
+      <c r="ACY1" s="11" t="s">
         <v>783</v>
       </c>
-      <c r="ACZ1" s="8" t="s">
+      <c r="ACZ1" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="ADA1" s="8" t="s">
+      <c r="ADA1" s="11" t="s">
         <v>785</v>
       </c>
-      <c r="ADB1" s="8" t="s">
+      <c r="ADB1" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="ADC1" s="8" t="s">
+      <c r="ADC1" s="11" t="s">
         <v>787</v>
       </c>
-      <c r="ADD1" s="8" t="s">
+      <c r="ADD1" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="ADE1" s="8" t="s">
+      <c r="ADE1" s="11" t="s">
         <v>789</v>
       </c>
-      <c r="ADF1" s="8" t="s">
+      <c r="ADF1" s="11" t="s">
         <v>790</v>
       </c>
-      <c r="ADG1" s="8" t="s">
+      <c r="ADG1" s="11" t="s">
         <v>791</v>
       </c>
-      <c r="ADH1" s="8" t="s">
+      <c r="ADH1" s="11" t="s">
         <v>792</v>
       </c>
-      <c r="ADI1" s="8" t="s">
+      <c r="ADI1" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="ADJ1" s="8" t="s">
+      <c r="ADJ1" s="11" t="s">
         <v>794</v>
       </c>
-      <c r="ADK1" s="8" t="s">
+      <c r="ADK1" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="ADL1" s="8" t="s">
+      <c r="ADL1" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="ADM1" s="8" t="s">
+      <c r="ADM1" s="11" t="s">
         <v>797</v>
       </c>
-      <c r="ADN1" s="8" t="s">
+      <c r="ADN1" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="ADO1" s="8" t="s">
+      <c r="ADO1" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="ADP1" s="8" t="s">
+      <c r="ADP1" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="ADQ1" s="8" t="s">
+      <c r="ADQ1" s="11" t="s">
         <v>801</v>
       </c>
-      <c r="ADR1" s="8" t="s">
+      <c r="ADR1" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="ADS1" s="8" t="s">
+      <c r="ADS1" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="ADT1" s="8" t="s">
+      <c r="ADT1" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="ADU1" s="8" t="s">
+      <c r="ADU1" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="ADV1" s="8" t="s">
+      <c r="ADV1" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="ADW1" s="8" t="s">
+      <c r="ADW1" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="ADX1" s="8" t="s">
+      <c r="ADX1" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="ADY1" s="8" t="s">
+      <c r="ADY1" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="ADZ1" s="8" t="s">
+      <c r="ADZ1" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="AEA1" s="8" t="s">
+      <c r="AEA1" s="11" t="s">
         <v>811</v>
       </c>
-      <c r="AEB1" s="8" t="s">
+      <c r="AEB1" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="AEC1" s="8" t="s">
+      <c r="AEC1" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="AED1" s="8" t="s">
+      <c r="AED1" s="11" t="s">
         <v>814</v>
       </c>
-      <c r="AEE1" s="8" t="s">
+      <c r="AEE1" s="11" t="s">
         <v>815</v>
       </c>
-      <c r="AEF1" s="8" t="s">
+      <c r="AEF1" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="AEG1" s="8" t="s">
+      <c r="AEG1" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="AEH1" s="8" t="s">
+      <c r="AEH1" s="11" t="s">
         <v>818</v>
       </c>
-      <c r="AEI1" s="8" t="s">
+      <c r="AEI1" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="AEJ1" s="8" t="s">
+      <c r="AEJ1" s="11" t="s">
         <v>820</v>
       </c>
-      <c r="AEK1" s="8" t="s">
+      <c r="AEK1" s="11" t="s">
         <v>821</v>
       </c>
-      <c r="AEL1" s="8" t="s">
+      <c r="AEL1" s="11" t="s">
         <v>822</v>
       </c>
-      <c r="AEM1" s="8" t="s">
+      <c r="AEM1" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="AEN1" s="8" t="s">
+      <c r="AEN1" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="AEO1" s="8" t="s">
+      <c r="AEO1" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="AEP1" s="8" t="s">
+      <c r="AEP1" s="11" t="s">
         <v>826</v>
       </c>
-      <c r="AEQ1" s="8" t="s">
+      <c r="AEQ1" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="AER1" s="8" t="s">
+      <c r="AER1" s="11" t="s">
         <v>828</v>
       </c>
-      <c r="AES1" s="8" t="s">
+      <c r="AES1" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="AET1" s="8" t="s">
+      <c r="AET1" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="AEU1" s="8" t="s">
+      <c r="AEU1" s="11" t="s">
         <v>831</v>
       </c>
-      <c r="AEV1" s="8" t="s">
+      <c r="AEV1" s="11" t="s">
         <v>832</v>
       </c>
-      <c r="AEW1" s="8" t="s">
+      <c r="AEW1" s="11" t="s">
         <v>833</v>
       </c>
-      <c r="AEX1" s="8" t="s">
+      <c r="AEX1" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="AEY1" s="8" t="s">
+      <c r="AEY1" s="11" t="s">
         <v>835</v>
       </c>
-      <c r="AEZ1" s="8" t="s">
+      <c r="AEZ1" s="11" t="s">
         <v>836</v>
       </c>
-      <c r="AFA1" s="8" t="s">
+      <c r="AFA1" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="AFB1" s="8" t="s">
+      <c r="AFB1" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="AFC1" s="8" t="s">
+      <c r="AFC1" s="11" t="s">
         <v>839</v>
       </c>
-      <c r="AFD1" s="8" t="s">
+      <c r="AFD1" s="11" t="s">
         <v>840</v>
       </c>
-      <c r="AFE1" s="8" t="s">
+      <c r="AFE1" s="11" t="s">
         <v>841</v>
       </c>
-      <c r="AFF1" s="8" t="s">
+      <c r="AFF1" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="AFG1" s="8" t="s">
+      <c r="AFG1" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="AFH1" s="8" t="s">
+      <c r="AFH1" s="11" t="s">
         <v>844</v>
       </c>
-      <c r="AFI1" s="8" t="s">
+      <c r="AFI1" s="11" t="s">
         <v>845</v>
       </c>
-      <c r="AFJ1" s="8" t="s">
+      <c r="AFJ1" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="AFK1" s="8" t="s">
+      <c r="AFK1" s="11" t="s">
         <v>847</v>
       </c>
-      <c r="AFL1" s="8" t="s">
+      <c r="AFL1" s="11" t="s">
         <v>848</v>
       </c>
-      <c r="AFM1" s="8" t="s">
+      <c r="AFM1" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="AFN1" s="8" t="s">
+      <c r="AFN1" s="11" t="s">
         <v>850</v>
       </c>
-      <c r="AFO1" s="8" t="s">
+      <c r="AFO1" s="11" t="s">
         <v>851</v>
       </c>
-      <c r="AFP1" s="8" t="s">
+      <c r="AFP1" s="11" t="s">
         <v>852</v>
       </c>
-      <c r="AFQ1" s="8" t="s">
+      <c r="AFQ1" s="11" t="s">
         <v>853</v>
       </c>
-      <c r="AFR1" s="8" t="s">
+      <c r="AFR1" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="AFS1" s="8" t="s">
+      <c r="AFS1" s="11" t="s">
         <v>855</v>
       </c>
-      <c r="AFT1" s="8" t="s">
+      <c r="AFT1" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="AFU1" s="8" t="s">
+      <c r="AFU1" s="11" t="s">
         <v>857</v>
       </c>
-      <c r="AFV1" s="8" t="s">
+      <c r="AFV1" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="AFW1" s="8" t="s">
+      <c r="AFW1" s="11" t="s">
         <v>859</v>
       </c>
-      <c r="AFX1" s="8" t="s">
+      <c r="AFX1" s="11" t="s">
         <v>860</v>
       </c>
-      <c r="AFY1" s="8" t="s">
+      <c r="AFY1" s="11" t="s">
         <v>861</v>
       </c>
-      <c r="AFZ1" s="8" t="s">
+      <c r="AFZ1" s="11" t="s">
         <v>862</v>
       </c>
-      <c r="AGA1" s="8" t="s">
+      <c r="AGA1" s="11" t="s">
         <v>863</v>
       </c>
-      <c r="AGB1" s="8" t="s">
+      <c r="AGB1" s="11" t="s">
         <v>864</v>
       </c>
-      <c r="AGC1" s="8" t="s">
+      <c r="AGC1" s="11" t="s">
         <v>865</v>
       </c>
-      <c r="AGD1" s="8" t="s">
+      <c r="AGD1" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="AGE1" s="8" t="s">
+      <c r="AGE1" s="11" t="s">
         <v>867</v>
       </c>
-      <c r="AGF1" s="8" t="s">
+      <c r="AGF1" s="11" t="s">
         <v>868</v>
       </c>
-      <c r="AGG1" s="8" t="s">
+      <c r="AGG1" s="11" t="s">
         <v>869</v>
       </c>
-      <c r="AGH1" s="8" t="s">
+      <c r="AGH1" s="11" t="s">
         <v>870</v>
       </c>
-      <c r="AGI1" s="8" t="s">
+      <c r="AGI1" s="11" t="s">
         <v>871</v>
       </c>
-      <c r="AGJ1" s="8" t="s">
+      <c r="AGJ1" s="11" t="s">
         <v>872</v>
       </c>
-      <c r="AGK1" s="8" t="s">
+      <c r="AGK1" s="11" t="s">
         <v>873</v>
       </c>
-      <c r="AGL1" s="8" t="s">
+      <c r="AGL1" s="11" t="s">
         <v>874</v>
       </c>
-      <c r="AGM1" s="8" t="s">
+      <c r="AGM1" s="11" t="s">
         <v>875</v>
       </c>
-      <c r="AGN1" s="8" t="s">
+      <c r="AGN1" s="11" t="s">
         <v>876</v>
       </c>
-      <c r="AGO1" s="8" t="s">
+      <c r="AGO1" s="11" t="s">
         <v>877</v>
       </c>
-      <c r="AGP1" s="8" t="s">
+      <c r="AGP1" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="AGQ1" s="8" t="s">
+      <c r="AGQ1" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="AGR1" s="8" t="s">
+      <c r="AGR1" s="11" t="s">
         <v>880</v>
       </c>
-      <c r="AGS1" s="8" t="s">
+      <c r="AGS1" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="AGT1" s="8" t="s">
+      <c r="AGT1" s="11" t="s">
         <v>882</v>
       </c>
-      <c r="AGU1" s="8" t="s">
+      <c r="AGU1" s="11" t="s">
         <v>883</v>
       </c>
-      <c r="AGV1" s="8" t="s">
+      <c r="AGV1" s="11" t="s">
         <v>884</v>
       </c>
-      <c r="AGW1" s="8" t="s">
+      <c r="AGW1" s="11" t="s">
         <v>885</v>
       </c>
-      <c r="AGX1" s="8" t="s">
+      <c r="AGX1" s="11" t="s">
         <v>886</v>
       </c>
-      <c r="AGY1" s="8" t="s">
+      <c r="AGY1" s="11" t="s">
         <v>887</v>
       </c>
-      <c r="AGZ1" s="8" t="s">
+      <c r="AGZ1" s="11" t="s">
         <v>888</v>
       </c>
-      <c r="AHA1" s="8" t="s">
+      <c r="AHA1" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="AHB1" s="8" t="s">
+      <c r="AHB1" s="11" t="s">
         <v>890</v>
       </c>
-      <c r="AHC1" s="8" t="s">
+      <c r="AHC1" s="11" t="s">
         <v>891</v>
       </c>
-      <c r="AHD1" s="8" t="s">
+      <c r="AHD1" s="11" t="s">
         <v>892</v>
       </c>
-      <c r="AHE1" s="8" t="s">
+      <c r="AHE1" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="AHF1" s="8" t="s">
+      <c r="AHF1" s="11" t="s">
         <v>894</v>
       </c>
-      <c r="AHG1" s="8" t="s">
+      <c r="AHG1" s="11" t="s">
         <v>895</v>
       </c>
-      <c r="AHH1" s="8" t="s">
+      <c r="AHH1" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="AHI1" s="8" t="s">
+      <c r="AHI1" s="11" t="s">
         <v>897</v>
       </c>
-      <c r="AHJ1" s="8" t="s">
+      <c r="AHJ1" s="11" t="s">
         <v>898</v>
       </c>
-      <c r="AHK1" s="8" t="s">
+      <c r="AHK1" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="AHL1" s="8" t="s">
+      <c r="AHL1" s="11" t="s">
         <v>900</v>
       </c>
-      <c r="AHM1" s="8" t="s">
+      <c r="AHM1" s="11" t="s">
         <v>901</v>
       </c>
-      <c r="AHN1" s="8" t="s">
+      <c r="AHN1" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="AHO1" s="8" t="s">
+      <c r="AHO1" s="11" t="s">
         <v>903</v>
       </c>
-      <c r="AHP1" s="8" t="s">
+      <c r="AHP1" s="11" t="s">
         <v>904</v>
       </c>
-      <c r="AHQ1" s="8" t="s">
+      <c r="AHQ1" s="11" t="s">
         <v>905</v>
       </c>
-      <c r="AHR1" s="8" t="s">
+      <c r="AHR1" s="11" t="s">
         <v>906</v>
       </c>
-      <c r="AHS1" s="8" t="s">
+      <c r="AHS1" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="AHT1" s="8" t="s">
+      <c r="AHT1" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="AHU1" s="8" t="s">
+      <c r="AHU1" s="11" t="s">
         <v>909</v>
       </c>
-      <c r="AHV1" s="8" t="s">
+      <c r="AHV1" s="11" t="s">
         <v>910</v>
       </c>
-      <c r="AHW1" s="8" t="s">
+      <c r="AHW1" s="11" t="s">
         <v>911</v>
       </c>
-      <c r="AHX1" s="8" t="s">
+      <c r="AHX1" s="11" t="s">
         <v>912</v>
       </c>
-      <c r="AHY1" s="8" t="s">
+      <c r="AHY1" s="11" t="s">
         <v>913</v>
       </c>
-      <c r="AHZ1" s="8" t="s">
+      <c r="AHZ1" s="11" t="s">
         <v>914</v>
       </c>
-      <c r="AIA1" s="8" t="s">
+      <c r="AIA1" s="11" t="s">
         <v>915</v>
       </c>
-      <c r="AIB1" s="8" t="s">
+      <c r="AIB1" s="11" t="s">
         <v>916</v>
       </c>
-      <c r="AIC1" s="8" t="s">
+      <c r="AIC1" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="AID1" s="8" t="s">
+      <c r="AID1" s="11" t="s">
         <v>918</v>
       </c>
-      <c r="AIE1" s="8" t="s">
+      <c r="AIE1" s="11" t="s">
         <v>919</v>
       </c>
-      <c r="AIF1" s="8" t="s">
+      <c r="AIF1" s="11" t="s">
         <v>920</v>
       </c>
-      <c r="AIG1" s="8" t="s">
+      <c r="AIG1" s="11" t="s">
         <v>921</v>
       </c>
-      <c r="AIH1" s="8" t="s">
+      <c r="AIH1" s="11" t="s">
         <v>922</v>
       </c>
-      <c r="AII1" s="8" t="s">
+      <c r="AII1" s="11" t="s">
         <v>923</v>
       </c>
-      <c r="AIJ1" s="8" t="s">
+      <c r="AIJ1" s="11" t="s">
         <v>924</v>
       </c>
-      <c r="AIK1" s="8" t="s">
+      <c r="AIK1" s="11" t="s">
         <v>925</v>
       </c>
-      <c r="AIL1" s="8" t="s">
+      <c r="AIL1" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="AIM1" s="8" t="s">
+      <c r="AIM1" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="AIN1" s="8" t="s">
+      <c r="AIN1" s="11" t="s">
         <v>928</v>
       </c>
-      <c r="AIO1" s="8" t="s">
+      <c r="AIO1" s="11" t="s">
         <v>929</v>
       </c>
-      <c r="AIP1" s="8" t="s">
+      <c r="AIP1" s="11" t="s">
         <v>930</v>
       </c>
-      <c r="AIQ1" s="8" t="s">
+      <c r="AIQ1" s="11" t="s">
         <v>931</v>
       </c>
-      <c r="AIR1" s="8" t="s">
+      <c r="AIR1" s="11" t="s">
         <v>932</v>
       </c>
-      <c r="AIS1" s="8" t="s">
+      <c r="AIS1" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="AIT1" s="8" t="s">
+      <c r="AIT1" s="11" t="s">
         <v>934</v>
       </c>
-      <c r="AIU1" s="8" t="s">
+      <c r="AIU1" s="11" t="s">
         <v>935</v>
       </c>
-      <c r="AIV1" s="8" t="s">
+      <c r="AIV1" s="11" t="s">
         <v>936</v>
       </c>
-      <c r="AIW1" s="8" t="s">
+      <c r="AIW1" s="11" t="s">
         <v>937</v>
       </c>
-      <c r="AIX1" s="8" t="s">
+      <c r="AIX1" s="11" t="s">
         <v>938</v>
       </c>
-      <c r="AIY1" s="8" t="s">
+      <c r="AIY1" s="11" t="s">
         <v>939</v>
       </c>
-      <c r="AIZ1" s="8" t="s">
+      <c r="AIZ1" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="AJA1" s="8" t="s">
+      <c r="AJA1" s="11" t="s">
         <v>941</v>
       </c>
-      <c r="AJB1" s="8" t="s">
+      <c r="AJB1" s="11" t="s">
         <v>942</v>
       </c>
-      <c r="AJC1" s="8" t="s">
+      <c r="AJC1" s="11" t="s">
         <v>943</v>
       </c>
-      <c r="AJD1" s="8" t="s">
+      <c r="AJD1" s="11" t="s">
         <v>944</v>
       </c>
-      <c r="AJE1" s="8" t="s">
+      <c r="AJE1" s="11" t="s">
         <v>945</v>
       </c>
-      <c r="AJF1" s="8" t="s">
+      <c r="AJF1" s="11" t="s">
         <v>946</v>
       </c>
-      <c r="AJG1" s="8" t="s">
+      <c r="AJG1" s="11" t="s">
         <v>947</v>
       </c>
-      <c r="AJH1" s="8" t="s">
+      <c r="AJH1" s="11" t="s">
         <v>948</v>
       </c>
-      <c r="AJI1" s="8" t="s">
+      <c r="AJI1" s="11" t="s">
         <v>949</v>
       </c>
-      <c r="AJJ1" s="8" t="s">
+      <c r="AJJ1" s="11" t="s">
         <v>950</v>
       </c>
-      <c r="AJK1" s="8" t="s">
+      <c r="AJK1" s="11" t="s">
         <v>951</v>
       </c>
-      <c r="AJL1" s="8" t="s">
+      <c r="AJL1" s="11" t="s">
         <v>952</v>
       </c>
-      <c r="AJM1" s="8" t="s">
+      <c r="AJM1" s="11" t="s">
         <v>953</v>
       </c>
-      <c r="AJN1" s="8" t="s">
+      <c r="AJN1" s="11" t="s">
         <v>954</v>
       </c>
-      <c r="AJO1" s="8" t="s">
+      <c r="AJO1" s="11" t="s">
         <v>955</v>
       </c>
-      <c r="AJP1" s="8" t="s">
+      <c r="AJP1" s="11" t="s">
         <v>956</v>
       </c>
-      <c r="AJQ1" s="8" t="s">
+      <c r="AJQ1" s="11" t="s">
         <v>957</v>
       </c>
-      <c r="AJR1" s="8" t="s">
+      <c r="AJR1" s="11" t="s">
         <v>958</v>
       </c>
-      <c r="AJS1" s="8" t="s">
+      <c r="AJS1" s="11" t="s">
         <v>959</v>
       </c>
-      <c r="AJT1" s="8" t="s">
+      <c r="AJT1" s="11" t="s">
         <v>960</v>
       </c>
-      <c r="AJU1" s="8" t="s">
+      <c r="AJU1" s="11" t="s">
         <v>961</v>
       </c>
-      <c r="AJV1" s="8" t="s">
+      <c r="AJV1" s="11" t="s">
         <v>962</v>
       </c>
-      <c r="AJW1" s="8" t="s">
+      <c r="AJW1" s="11" t="s">
         <v>963</v>
       </c>
-      <c r="AJX1" s="8" t="s">
+      <c r="AJX1" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="AJY1" s="8" t="s">
+      <c r="AJY1" s="11" t="s">
         <v>965</v>
       </c>
-      <c r="AJZ1" s="8" t="s">
+      <c r="AJZ1" s="11" t="s">
         <v>966</v>
       </c>
-      <c r="AKA1" s="8" t="s">
+      <c r="AKA1" s="11" t="s">
         <v>967</v>
       </c>
-      <c r="AKB1" s="8" t="s">
+      <c r="AKB1" s="11" t="s">
         <v>968</v>
       </c>
-      <c r="AKC1" s="8" t="s">
+      <c r="AKC1" s="11" t="s">
         <v>969</v>
       </c>
-      <c r="AKD1" s="8" t="s">
+      <c r="AKD1" s="11" t="s">
         <v>970</v>
       </c>
-      <c r="AKE1" s="8" t="s">
+      <c r="AKE1" s="11" t="s">
         <v>971</v>
       </c>
-      <c r="AKF1" s="8" t="s">
+      <c r="AKF1" s="11" t="s">
         <v>972</v>
       </c>
-      <c r="AKG1" s="8" t="s">
+      <c r="AKG1" s="11" t="s">
         <v>973</v>
       </c>
-      <c r="AKH1" s="8" t="s">
+      <c r="AKH1" s="11" t="s">
         <v>974</v>
       </c>
-      <c r="AKI1" s="8" t="s">
+      <c r="AKI1" s="11" t="s">
         <v>975</v>
       </c>
-      <c r="AKJ1" s="8" t="s">
+      <c r="AKJ1" s="11" t="s">
         <v>976</v>
       </c>
-      <c r="AKK1" s="8" t="s">
+      <c r="AKK1" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="AKL1" s="8" t="s">
+      <c r="AKL1" s="11" t="s">
         <v>978</v>
       </c>
-      <c r="AKM1" s="8" t="s">
+      <c r="AKM1" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="AKN1" s="8" t="s">
+      <c r="AKN1" s="11" t="s">
         <v>980</v>
       </c>
-      <c r="AKO1" s="8" t="s">
+      <c r="AKO1" s="11" t="s">
         <v>981</v>
       </c>
-      <c r="AKP1" s="8" t="s">
+      <c r="AKP1" s="11" t="s">
         <v>982</v>
       </c>
-      <c r="AKQ1" s="8" t="s">
+      <c r="AKQ1" s="11" t="s">
         <v>983</v>
       </c>
-      <c r="AKR1" s="8" t="s">
+      <c r="AKR1" s="11" t="s">
         <v>984</v>
       </c>
-      <c r="AKS1" s="8" t="s">
+      <c r="AKS1" s="11" t="s">
         <v>985</v>
       </c>
-      <c r="AKT1" s="8" t="s">
+      <c r="AKT1" s="11" t="s">
         <v>986</v>
       </c>
-      <c r="AKU1" s="8" t="s">
+      <c r="AKU1" s="11" t="s">
         <v>987</v>
       </c>
-      <c r="AKV1" s="8" t="s">
+      <c r="AKV1" s="11" t="s">
         <v>988</v>
       </c>
-      <c r="AKW1" s="8" t="s">
+      <c r="AKW1" s="11" t="s">
         <v>989</v>
       </c>
-      <c r="AKX1" s="8" t="s">
+      <c r="AKX1" s="11" t="s">
         <v>990</v>
       </c>
-      <c r="AKY1" s="8" t="s">
+      <c r="AKY1" s="11" t="s">
         <v>991</v>
       </c>
-      <c r="AKZ1" s="8" t="s">
+      <c r="AKZ1" s="11" t="s">
         <v>992</v>
       </c>
-      <c r="ALA1" s="8" t="s">
+      <c r="ALA1" s="11" t="s">
         <v>993</v>
       </c>
-      <c r="ALB1" s="8" t="s">
+      <c r="ALB1" s="11" t="s">
         <v>994</v>
       </c>
-      <c r="ALC1" s="8" t="s">
+      <c r="ALC1" s="11" t="s">
         <v>995</v>
       </c>
-      <c r="ALD1" s="8" t="s">
+      <c r="ALD1" s="11" t="s">
         <v>996</v>
       </c>
-      <c r="ALE1" s="8" t="s">
+      <c r="ALE1" s="11" t="s">
         <v>997</v>
       </c>
-      <c r="ALF1" s="8" t="s">
+      <c r="ALF1" s="11" t="s">
         <v>998</v>
       </c>
-      <c r="ALG1" s="8" t="s">
+      <c r="ALG1" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="ALH1" s="8" t="s">
+      <c r="ALH1" s="11" t="s">
         <v>1000</v>
       </c>
-      <c r="ALI1" s="8" t="s">
+      <c r="ALI1" s="11" t="s">
         <v>1001</v>
       </c>
-      <c r="ALJ1" s="8" t="s">
+      <c r="ALJ1" s="11" t="s">
         <v>1002</v>
       </c>
-      <c r="ALK1" s="8" t="s">
+      <c r="ALK1" s="11" t="s">
         <v>1003</v>
       </c>
-      <c r="ALL1" s="8" t="s">
+      <c r="ALL1" s="11" t="s">
         <v>1004</v>
       </c>
-      <c r="ALM1" s="8" t="s">
+      <c r="ALM1" s="11" t="s">
         <v>1005</v>
       </c>
-      <c r="ALN1" s="8" t="s">
+      <c r="ALN1" s="11" t="s">
         <v>1006</v>
       </c>
-      <c r="ALO1" s="8" t="s">
+      <c r="ALO1" s="11" t="s">
         <v>1007</v>
       </c>
-      <c r="ALP1" s="8" t="s">
+      <c r="ALP1" s="11" t="s">
         <v>1008</v>
       </c>
-      <c r="ALQ1" s="8" t="s">
+      <c r="ALQ1" s="11" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="2" s="15" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+    <row r="2" s="9" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
         <v>1010</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>1012</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="14" t="s">
         <v>1013</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="16" t="n">
+        <v>516</v>
+      </c>
+      <c r="F2" s="16" t="n">
         <v>517</v>
       </c>
-      <c r="F2" s="13" t="n">
+      <c r="G2" s="16" t="n">
         <v>516</v>
       </c>
-      <c r="G2" s="13" t="n">
-        <v>517</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="ALR2" s="5"/>
-      <c r="ALS2" s="5"/>
-      <c r="ALT2" s="5"/>
-      <c r="ALU2" s="5"/>
-      <c r="ALV2" s="5"/>
-      <c r="ALW2" s="5"/>
-      <c r="ALX2" s="5"/>
-      <c r="ALY2" s="5"/>
-      <c r="ALZ2" s="5"/>
-      <c r="AMA2" s="5"/>
-      <c r="AMB2" s="5"/>
-      <c r="AMC2" s="5"/>
-      <c r="AMD2" s="5"/>
-      <c r="AME2" s="5"/>
-      <c r="AMF2" s="5"/>
-      <c r="AMG2" s="5"/>
-      <c r="AMH2" s="5"/>
-      <c r="AMI2" s="5"/>
-      <c r="AMJ2" s="5"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="ALR2" s="6"/>
+      <c r="ALS2" s="6"/>
+      <c r="ALT2" s="6"/>
+      <c r="ALU2" s="6"/>
+      <c r="ALV2" s="6"/>
+      <c r="ALW2" s="6"/>
+      <c r="ALX2" s="6"/>
+      <c r="ALY2" s="6"/>
+      <c r="ALZ2" s="6"/>
+      <c r="AMA2" s="6"/>
+      <c r="AMB2" s="6"/>
+      <c r="AMC2" s="6"/>
+      <c r="AMD2" s="6"/>
+      <c r="AME2" s="6"/>
+      <c r="AMF2" s="6"/>
+      <c r="AMG2" s="6"/>
+      <c r="AMH2" s="6"/>
+      <c r="AMI2" s="6"/>
+      <c r="AMJ2" s="6"/>
     </row>
-    <row r="3" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
         <v>1014</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>1015</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="16" t="s">
         <v>1016</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="16" t="s">
         <v>1016</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="16" t="s">
         <v>1016</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="ALR3" s="5"/>
-      <c r="ALS3" s="5"/>
-      <c r="ALT3" s="5"/>
-      <c r="ALU3" s="5"/>
-      <c r="ALV3" s="5"/>
-      <c r="ALW3" s="5"/>
-      <c r="ALX3" s="5"/>
-      <c r="ALY3" s="5"/>
-      <c r="ALZ3" s="5"/>
-      <c r="AMA3" s="5"/>
-      <c r="AMB3" s="5"/>
-      <c r="AMC3" s="5"/>
-      <c r="AMD3" s="5"/>
-      <c r="AME3" s="5"/>
-      <c r="AMF3" s="5"/>
-      <c r="AMG3" s="5"/>
-      <c r="AMH3" s="5"/>
-      <c r="AMI3" s="5"/>
-      <c r="AMJ3" s="5"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="ALR3" s="6"/>
+      <c r="ALS3" s="6"/>
+      <c r="ALT3" s="6"/>
+      <c r="ALU3" s="6"/>
+      <c r="ALV3" s="6"/>
+      <c r="ALW3" s="6"/>
+      <c r="ALX3" s="6"/>
+      <c r="ALY3" s="6"/>
+      <c r="ALZ3" s="6"/>
+      <c r="AMA3" s="6"/>
+      <c r="AMB3" s="6"/>
+      <c r="AMC3" s="6"/>
+      <c r="AMD3" s="6"/>
+      <c r="AME3" s="6"/>
+      <c r="AMF3" s="6"/>
+      <c r="AMG3" s="6"/>
+      <c r="AMH3" s="6"/>
+      <c r="AMI3" s="6"/>
+      <c r="AMJ3" s="6"/>
     </row>
-    <row r="4" s="15" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+    <row r="4" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
         <v>1017</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="18" t="s">
         <v>1018</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="14" t="s">
         <v>1019</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="16" t="s">
         <v>1020</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="16" t="s">
         <v>1020</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="16" t="s">
         <v>1021</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="ALR4" s="5"/>
-      <c r="ALS4" s="5"/>
-      <c r="ALT4" s="5"/>
-      <c r="ALU4" s="5"/>
-      <c r="ALV4" s="5"/>
-      <c r="ALW4" s="5"/>
-      <c r="ALX4" s="5"/>
-      <c r="ALY4" s="5"/>
-      <c r="ALZ4" s="5"/>
-      <c r="AMA4" s="5"/>
-      <c r="AMB4" s="5"/>
-      <c r="AMC4" s="5"/>
-      <c r="AMD4" s="5"/>
-      <c r="AME4" s="5"/>
-      <c r="AMF4" s="5"/>
-      <c r="AMG4" s="5"/>
-      <c r="AMH4" s="5"/>
-      <c r="AMI4" s="5"/>
-      <c r="AMJ4" s="5"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="ALR4" s="6"/>
+      <c r="ALS4" s="6"/>
+      <c r="ALT4" s="6"/>
+      <c r="ALU4" s="6"/>
+      <c r="ALV4" s="6"/>
+      <c r="ALW4" s="6"/>
+      <c r="ALX4" s="6"/>
+      <c r="ALY4" s="6"/>
+      <c r="ALZ4" s="6"/>
+      <c r="AMA4" s="6"/>
+      <c r="AMB4" s="6"/>
+      <c r="AMC4" s="6"/>
+      <c r="AMD4" s="6"/>
+      <c r="AME4" s="6"/>
+      <c r="AMF4" s="6"/>
+      <c r="AMG4" s="6"/>
+      <c r="AMH4" s="6"/>
+      <c r="AMI4" s="6"/>
+      <c r="AMJ4" s="6"/>
     </row>
-    <row r="5" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+    <row r="5" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
         <v>1022</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>1024</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="14" t="s">
         <v>1025</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="19" t="s">
         <v>1026</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="19" t="s">
         <v>1026</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="19" t="s">
         <v>1026</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="ALR5" s="5"/>
-      <c r="ALS5" s="5"/>
-      <c r="ALT5" s="5"/>
-      <c r="ALU5" s="5"/>
-      <c r="ALV5" s="5"/>
-      <c r="ALW5" s="5"/>
-      <c r="ALX5" s="5"/>
-      <c r="ALY5" s="5"/>
-      <c r="ALZ5" s="5"/>
-      <c r="AMA5" s="5"/>
-      <c r="AMB5" s="5"/>
-      <c r="AMC5" s="5"/>
-      <c r="AMD5" s="5"/>
-      <c r="AME5" s="5"/>
-      <c r="AMF5" s="5"/>
-      <c r="AMG5" s="5"/>
-      <c r="AMH5" s="5"/>
-      <c r="AMI5" s="5"/>
-      <c r="AMJ5" s="5"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="ALR5" s="6"/>
+      <c r="ALS5" s="6"/>
+      <c r="ALT5" s="6"/>
+      <c r="ALU5" s="6"/>
+      <c r="ALV5" s="6"/>
+      <c r="ALW5" s="6"/>
+      <c r="ALX5" s="6"/>
+      <c r="ALY5" s="6"/>
+      <c r="ALZ5" s="6"/>
+      <c r="AMA5" s="6"/>
+      <c r="AMB5" s="6"/>
+      <c r="AMC5" s="6"/>
+      <c r="AMD5" s="6"/>
+      <c r="AME5" s="6"/>
+      <c r="AMF5" s="6"/>
+      <c r="AMG5" s="6"/>
+      <c r="AMH5" s="6"/>
+      <c r="AMI5" s="6"/>
+      <c r="AMJ5" s="6"/>
     </row>
-    <row r="6" s="15" customFormat="true" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+    <row r="6" s="9" customFormat="true" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
         <v>1027</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="14" t="s">
         <v>1013</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="20" t="s">
         <v>1029</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="20" t="s">
         <v>1029</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="20" t="s">
         <v>1029</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="ALR6" s="5"/>
-      <c r="ALS6" s="5"/>
-      <c r="ALT6" s="5"/>
-      <c r="ALU6" s="5"/>
-      <c r="ALV6" s="5"/>
-      <c r="ALW6" s="5"/>
-      <c r="ALX6" s="5"/>
-      <c r="ALY6" s="5"/>
-      <c r="ALZ6" s="5"/>
-      <c r="AMA6" s="5"/>
-      <c r="AMB6" s="5"/>
-      <c r="AMC6" s="5"/>
-      <c r="AMD6" s="5"/>
-      <c r="AME6" s="5"/>
-      <c r="AMF6" s="5"/>
-      <c r="AMG6" s="5"/>
-      <c r="AMH6" s="5"/>
-      <c r="AMI6" s="5"/>
-      <c r="AMJ6" s="5"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="ALR6" s="6"/>
+      <c r="ALS6" s="6"/>
+      <c r="ALT6" s="6"/>
+      <c r="ALU6" s="6"/>
+      <c r="ALV6" s="6"/>
+      <c r="ALW6" s="6"/>
+      <c r="ALX6" s="6"/>
+      <c r="ALY6" s="6"/>
+      <c r="ALZ6" s="6"/>
+      <c r="AMA6" s="6"/>
+      <c r="AMB6" s="6"/>
+      <c r="AMC6" s="6"/>
+      <c r="AMD6" s="6"/>
+      <c r="AME6" s="6"/>
+      <c r="AMF6" s="6"/>
+      <c r="AMG6" s="6"/>
+      <c r="AMH6" s="6"/>
+      <c r="AMI6" s="6"/>
+      <c r="AMJ6" s="6"/>
     </row>
-    <row r="7" s="15" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+    <row r="7" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
         <v>1030</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="14" t="s">
         <v>1031</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="14" t="s">
         <v>1032</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="14" t="s">
         <v>1033</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="22" t="s">
         <v>1034</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="22" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="ALR7" s="6"/>
+      <c r="ALS7" s="6"/>
+      <c r="ALT7" s="6"/>
+      <c r="ALU7" s="6"/>
+      <c r="ALV7" s="6"/>
+      <c r="ALW7" s="6"/>
+      <c r="ALX7" s="6"/>
+      <c r="ALY7" s="6"/>
+      <c r="ALZ7" s="6"/>
+      <c r="AMA7" s="6"/>
+      <c r="AMB7" s="6"/>
+      <c r="AMC7" s="6"/>
+      <c r="AMD7" s="6"/>
+      <c r="AME7" s="6"/>
+      <c r="AMF7" s="6"/>
+      <c r="AMG7" s="6"/>
+      <c r="AMH7" s="6"/>
+      <c r="AMI7" s="6"/>
+      <c r="AMJ7" s="6"/>
+    </row>
+    <row r="8" s="9" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
         <v>1035</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="ALR7" s="5"/>
-      <c r="ALS7" s="5"/>
-      <c r="ALT7" s="5"/>
-      <c r="ALU7" s="5"/>
-      <c r="ALV7" s="5"/>
-      <c r="ALW7" s="5"/>
-      <c r="ALX7" s="5"/>
-      <c r="ALY7" s="5"/>
-      <c r="ALZ7" s="5"/>
-      <c r="AMA7" s="5"/>
-      <c r="AMB7" s="5"/>
-      <c r="AMC7" s="5"/>
-      <c r="AMD7" s="5"/>
-      <c r="AME7" s="5"/>
-      <c r="AMF7" s="5"/>
-      <c r="AMG7" s="5"/>
-      <c r="AMH7" s="5"/>
-      <c r="AMI7" s="5"/>
-      <c r="AMJ7" s="5"/>
+      <c r="B8" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E8" s="19" t="n">
+        <v>81611</v>
+      </c>
+      <c r="F8" s="19" t="n">
+        <v>81611</v>
+      </c>
+      <c r="G8" s="19" t="n">
+        <v>81611</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="ALR8" s="6"/>
+      <c r="ALS8" s="6"/>
+      <c r="ALT8" s="6"/>
+      <c r="ALU8" s="6"/>
+      <c r="ALV8" s="6"/>
+      <c r="ALW8" s="6"/>
+      <c r="ALX8" s="6"/>
+      <c r="ALY8" s="6"/>
+      <c r="ALZ8" s="6"/>
+      <c r="AMA8" s="6"/>
+      <c r="AMB8" s="6"/>
+      <c r="AMC8" s="6"/>
+      <c r="AMD8" s="6"/>
+      <c r="AME8" s="6"/>
+      <c r="AMF8" s="6"/>
+      <c r="AMG8" s="6"/>
+      <c r="AMH8" s="6"/>
+      <c r="AMI8" s="6"/>
+      <c r="AMJ8" s="6"/>
     </row>
-    <row r="8" s="15" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+    <row r="9" s="9" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>1036</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E8" s="16" t="n">
-        <v>81611</v>
-      </c>
-      <c r="F8" s="16" t="n">
-        <v>81611</v>
-      </c>
-      <c r="G8" s="16" t="n">
-        <v>81611</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="ALR8" s="5"/>
-      <c r="ALS8" s="5"/>
-      <c r="ALT8" s="5"/>
-      <c r="ALU8" s="5"/>
-      <c r="ALV8" s="5"/>
-      <c r="ALW8" s="5"/>
-      <c r="ALX8" s="5"/>
-      <c r="ALY8" s="5"/>
-      <c r="ALZ8" s="5"/>
-      <c r="AMA8" s="5"/>
-      <c r="AMB8" s="5"/>
-      <c r="AMC8" s="5"/>
-      <c r="AMD8" s="5"/>
-      <c r="AME8" s="5"/>
-      <c r="AMF8" s="5"/>
-      <c r="AMG8" s="5"/>
-      <c r="AMH8" s="5"/>
-      <c r="AMI8" s="5"/>
-      <c r="AMJ8" s="5"/>
+      <c r="C9" s="15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E9" s="19" t="n">
+        <v>454909</v>
+      </c>
+      <c r="F9" s="19" t="n">
+        <v>454909</v>
+      </c>
+      <c r="G9" s="19" t="n">
+        <v>454909</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="ALR9" s="6"/>
+      <c r="ALS9" s="6"/>
+      <c r="ALT9" s="6"/>
+      <c r="ALU9" s="6"/>
+      <c r="ALV9" s="6"/>
+      <c r="ALW9" s="6"/>
+      <c r="ALX9" s="6"/>
+      <c r="ALY9" s="6"/>
+      <c r="ALZ9" s="6"/>
+      <c r="AMA9" s="6"/>
+      <c r="AMB9" s="6"/>
+      <c r="AMC9" s="6"/>
+      <c r="AMD9" s="6"/>
+      <c r="AME9" s="6"/>
+      <c r="AMF9" s="6"/>
+      <c r="AMG9" s="6"/>
+      <c r="AMH9" s="6"/>
+      <c r="AMI9" s="6"/>
+      <c r="AMJ9" s="6"/>
     </row>
-    <row r="9" s="15" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D9" s="11" t="s">
+    <row r="10" s="9" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
         <v>1042</v>
       </c>
-      <c r="E9" s="16" t="n">
-        <v>454909</v>
-      </c>
-      <c r="F9" s="16" t="n">
-        <v>454909</v>
-      </c>
-      <c r="G9" s="16" t="n">
-        <v>454909</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="ALR9" s="5"/>
-      <c r="ALS9" s="5"/>
-      <c r="ALT9" s="5"/>
-      <c r="ALU9" s="5"/>
-      <c r="ALV9" s="5"/>
-      <c r="ALW9" s="5"/>
-      <c r="ALX9" s="5"/>
-      <c r="ALY9" s="5"/>
-      <c r="ALZ9" s="5"/>
-      <c r="AMA9" s="5"/>
-      <c r="AMB9" s="5"/>
-      <c r="AMC9" s="5"/>
-      <c r="AMD9" s="5"/>
-      <c r="AME9" s="5"/>
-      <c r="AMF9" s="5"/>
-      <c r="AMG9" s="5"/>
-      <c r="AMH9" s="5"/>
-      <c r="AMI9" s="5"/>
-      <c r="AMJ9" s="5"/>
+      <c r="B10" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E10" s="19" t="n">
+        <v>52.0775912</v>
+      </c>
+      <c r="F10" s="19" t="n">
+        <v>52.0775912</v>
+      </c>
+      <c r="G10" s="19" t="n">
+        <v>52.0775912</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="ALR10" s="6"/>
+      <c r="ALS10" s="6"/>
+      <c r="ALT10" s="6"/>
+      <c r="ALU10" s="6"/>
+      <c r="ALV10" s="6"/>
+      <c r="ALW10" s="6"/>
+      <c r="ALX10" s="6"/>
+      <c r="ALY10" s="6"/>
+      <c r="ALZ10" s="6"/>
+      <c r="AMA10" s="6"/>
+      <c r="AMB10" s="6"/>
+      <c r="AMC10" s="6"/>
+      <c r="AMD10" s="6"/>
+      <c r="AME10" s="6"/>
+      <c r="AMF10" s="6"/>
+      <c r="AMG10" s="6"/>
+      <c r="AMH10" s="6"/>
+      <c r="AMI10" s="6"/>
+      <c r="AMJ10" s="6"/>
     </row>
-    <row r="10" s="15" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C10" s="12" t="s">
+    <row r="11" s="9" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>1044</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E10" s="16" t="n">
-        <v>52.0775912</v>
-      </c>
-      <c r="F10" s="16" t="n">
-        <v>52.0775912</v>
-      </c>
-      <c r="G10" s="16" t="n">
-        <v>52.0775912</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="ALR10" s="5"/>
-      <c r="ALS10" s="5"/>
-      <c r="ALT10" s="5"/>
-      <c r="ALU10" s="5"/>
-      <c r="ALV10" s="5"/>
-      <c r="ALW10" s="5"/>
-      <c r="ALX10" s="5"/>
-      <c r="ALY10" s="5"/>
-      <c r="ALZ10" s="5"/>
-      <c r="AMA10" s="5"/>
-      <c r="AMB10" s="5"/>
-      <c r="AMC10" s="5"/>
-      <c r="AMD10" s="5"/>
-      <c r="AME10" s="5"/>
-      <c r="AMF10" s="5"/>
-      <c r="AMG10" s="5"/>
-      <c r="AMH10" s="5"/>
-      <c r="AMI10" s="5"/>
-      <c r="AMJ10" s="5"/>
+      <c r="E11" s="19" t="n">
+        <v>4.3166395</v>
+      </c>
+      <c r="F11" s="19" t="n">
+        <v>4.3166395</v>
+      </c>
+      <c r="G11" s="19" t="n">
+        <v>4.3166395</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="ALR11" s="6"/>
+      <c r="ALS11" s="6"/>
+      <c r="ALT11" s="6"/>
+      <c r="ALU11" s="6"/>
+      <c r="ALV11" s="6"/>
+      <c r="ALW11" s="6"/>
+      <c r="ALX11" s="6"/>
+      <c r="ALY11" s="6"/>
+      <c r="ALZ11" s="6"/>
+      <c r="AMA11" s="6"/>
+      <c r="AMB11" s="6"/>
+      <c r="AMC11" s="6"/>
+      <c r="AMD11" s="6"/>
+      <c r="AME11" s="6"/>
+      <c r="AMF11" s="6"/>
+      <c r="AMG11" s="6"/>
+      <c r="AMH11" s="6"/>
+      <c r="AMI11" s="6"/>
+      <c r="AMJ11" s="6"/>
     </row>
-    <row r="11" s="15" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C11" s="12" t="s">
+    <row r="12" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="24" t="s">
         <v>1047</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E11" s="16" t="n">
-        <v>4.3166395</v>
-      </c>
-      <c r="F11" s="16" t="n">
-        <v>4.3166395</v>
-      </c>
-      <c r="G11" s="16" t="n">
-        <v>4.3166395</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="ALR11" s="5"/>
-      <c r="ALS11" s="5"/>
-      <c r="ALT11" s="5"/>
-      <c r="ALU11" s="5"/>
-      <c r="ALV11" s="5"/>
-      <c r="ALW11" s="5"/>
-      <c r="ALX11" s="5"/>
-      <c r="ALY11" s="5"/>
-      <c r="ALZ11" s="5"/>
-      <c r="AMA11" s="5"/>
-      <c r="AMB11" s="5"/>
-      <c r="AMC11" s="5"/>
-      <c r="AMD11" s="5"/>
-      <c r="AME11" s="5"/>
-      <c r="AMF11" s="5"/>
-      <c r="AMG11" s="5"/>
-      <c r="AMH11" s="5"/>
-      <c r="AMI11" s="5"/>
-      <c r="AMJ11" s="5"/>
+      <c r="B12" s="25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="ALR12" s="6"/>
+      <c r="ALS12" s="6"/>
+      <c r="ALT12" s="6"/>
+      <c r="ALU12" s="6"/>
+      <c r="ALV12" s="6"/>
+      <c r="ALW12" s="6"/>
+      <c r="ALX12" s="6"/>
+      <c r="ALY12" s="6"/>
+      <c r="ALZ12" s="6"/>
+      <c r="AMA12" s="6"/>
+      <c r="AMB12" s="6"/>
+      <c r="AMC12" s="6"/>
+      <c r="AMD12" s="6"/>
+      <c r="AME12" s="6"/>
+      <c r="AMF12" s="6"/>
+      <c r="AMG12" s="6"/>
+      <c r="AMH12" s="6"/>
+      <c r="AMI12" s="6"/>
+      <c r="AMJ12" s="6"/>
     </row>
-    <row r="12" s="15" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
+    <row r="13" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>1048</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="D13" s="14" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="ALR13" s="6"/>
+      <c r="ALS13" s="6"/>
+      <c r="ALT13" s="6"/>
+      <c r="ALU13" s="6"/>
+      <c r="ALV13" s="6"/>
+      <c r="ALW13" s="6"/>
+      <c r="ALX13" s="6"/>
+      <c r="ALY13" s="6"/>
+      <c r="ALZ13" s="6"/>
+      <c r="AMA13" s="6"/>
+      <c r="AMB13" s="6"/>
+      <c r="AMC13" s="6"/>
+      <c r="AMD13" s="6"/>
+      <c r="AME13" s="6"/>
+      <c r="AMF13" s="6"/>
+      <c r="AMG13" s="6"/>
+      <c r="AMH13" s="6"/>
+      <c r="AMI13" s="6"/>
+      <c r="AMJ13" s="6"/>
+    </row>
+    <row r="14" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="ALR12" s="5"/>
-      <c r="ALS12" s="5"/>
-      <c r="ALT12" s="5"/>
-      <c r="ALU12" s="5"/>
-      <c r="ALV12" s="5"/>
-      <c r="ALW12" s="5"/>
-      <c r="ALX12" s="5"/>
-      <c r="ALY12" s="5"/>
-      <c r="ALZ12" s="5"/>
-      <c r="AMA12" s="5"/>
-      <c r="AMB12" s="5"/>
-      <c r="AMC12" s="5"/>
-      <c r="AMD12" s="5"/>
-      <c r="AME12" s="5"/>
-      <c r="AMF12" s="5"/>
-      <c r="AMG12" s="5"/>
-      <c r="AMH12" s="5"/>
-      <c r="AMI12" s="5"/>
-      <c r="AMJ12" s="5"/>
+      <c r="C14" s="15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="ALR14" s="6"/>
+      <c r="ALS14" s="6"/>
+      <c r="ALT14" s="6"/>
+      <c r="ALU14" s="6"/>
+      <c r="ALV14" s="6"/>
+      <c r="ALW14" s="6"/>
+      <c r="ALX14" s="6"/>
+      <c r="ALY14" s="6"/>
+      <c r="ALZ14" s="6"/>
+      <c r="AMA14" s="6"/>
+      <c r="AMB14" s="6"/>
+      <c r="AMC14" s="6"/>
+      <c r="AMD14" s="6"/>
+      <c r="AME14" s="6"/>
+      <c r="AMF14" s="6"/>
+      <c r="AMG14" s="6"/>
+      <c r="AMH14" s="6"/>
+      <c r="AMI14" s="6"/>
+      <c r="AMJ14" s="6"/>
     </row>
-    <row r="13" s="15" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B13" s="22" t="s">
+    <row r="15" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="ALR15" s="6"/>
+      <c r="ALS15" s="6"/>
+      <c r="ALT15" s="6"/>
+      <c r="ALU15" s="6"/>
+      <c r="ALV15" s="6"/>
+      <c r="ALW15" s="6"/>
+      <c r="ALX15" s="6"/>
+      <c r="ALY15" s="6"/>
+      <c r="ALZ15" s="6"/>
+      <c r="AMA15" s="6"/>
+      <c r="AMB15" s="6"/>
+      <c r="AMC15" s="6"/>
+      <c r="AMD15" s="6"/>
+      <c r="AME15" s="6"/>
+      <c r="AMF15" s="6"/>
+      <c r="AMG15" s="6"/>
+      <c r="AMH15" s="6"/>
+      <c r="AMI15" s="6"/>
+      <c r="AMJ15" s="6"/>
+    </row>
+    <row r="16" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="24" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>1011</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="ALR13" s="5"/>
-      <c r="ALS13" s="5"/>
-      <c r="ALT13" s="5"/>
-      <c r="ALU13" s="5"/>
-      <c r="ALV13" s="5"/>
-      <c r="ALW13" s="5"/>
-      <c r="ALX13" s="5"/>
-      <c r="ALY13" s="5"/>
-      <c r="ALZ13" s="5"/>
-      <c r="AMA13" s="5"/>
-      <c r="AMB13" s="5"/>
-      <c r="AMC13" s="5"/>
-      <c r="AMD13" s="5"/>
-      <c r="AME13" s="5"/>
-      <c r="AMF13" s="5"/>
-      <c r="AMG13" s="5"/>
-      <c r="AMH13" s="5"/>
-      <c r="AMI13" s="5"/>
-      <c r="AMJ13" s="5"/>
+      <c r="G16" s="19" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="ALR16" s="6"/>
+      <c r="ALS16" s="6"/>
+      <c r="ALT16" s="6"/>
+      <c r="ALU16" s="6"/>
+      <c r="ALV16" s="6"/>
+      <c r="ALW16" s="6"/>
+      <c r="ALX16" s="6"/>
+      <c r="ALY16" s="6"/>
+      <c r="ALZ16" s="6"/>
+      <c r="AMA16" s="6"/>
+      <c r="AMB16" s="6"/>
+      <c r="AMC16" s="6"/>
+      <c r="AMD16" s="6"/>
+      <c r="AME16" s="6"/>
+      <c r="AMF16" s="6"/>
+      <c r="AMG16" s="6"/>
+      <c r="AMH16" s="6"/>
+      <c r="AMI16" s="6"/>
+      <c r="AMJ16" s="6"/>
     </row>
-    <row r="14" s="15" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B14" s="11" t="s">
+    <row r="17" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="ALR17" s="6"/>
+      <c r="ALS17" s="6"/>
+      <c r="ALT17" s="6"/>
+      <c r="ALU17" s="6"/>
+      <c r="ALV17" s="6"/>
+      <c r="ALW17" s="6"/>
+      <c r="ALX17" s="6"/>
+      <c r="ALY17" s="6"/>
+      <c r="ALZ17" s="6"/>
+      <c r="AMA17" s="6"/>
+      <c r="AMB17" s="6"/>
+      <c r="AMC17" s="6"/>
+      <c r="AMD17" s="6"/>
+      <c r="AME17" s="6"/>
+      <c r="AMF17" s="6"/>
+      <c r="AMG17" s="6"/>
+      <c r="AMH17" s="6"/>
+      <c r="AMI17" s="6"/>
+      <c r="AMJ17" s="6"/>
+    </row>
+    <row r="18" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="ALR18" s="6"/>
+      <c r="ALS18" s="6"/>
+      <c r="ALT18" s="6"/>
+      <c r="ALU18" s="6"/>
+      <c r="ALV18" s="6"/>
+      <c r="ALW18" s="6"/>
+      <c r="ALX18" s="6"/>
+      <c r="ALY18" s="6"/>
+      <c r="ALZ18" s="6"/>
+      <c r="AMA18" s="6"/>
+      <c r="AMB18" s="6"/>
+      <c r="AMC18" s="6"/>
+      <c r="AMD18" s="6"/>
+      <c r="AME18" s="6"/>
+      <c r="AMF18" s="6"/>
+      <c r="AMG18" s="6"/>
+      <c r="AMH18" s="6"/>
+      <c r="AMI18" s="6"/>
+      <c r="AMJ18" s="6"/>
+    </row>
+    <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>1011</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="F19" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="ALR19" s="6"/>
+      <c r="ALS19" s="6"/>
+      <c r="ALT19" s="6"/>
+      <c r="ALU19" s="6"/>
+      <c r="ALV19" s="6"/>
+      <c r="ALW19" s="6"/>
+      <c r="ALX19" s="6"/>
+      <c r="ALY19" s="6"/>
+      <c r="ALZ19" s="6"/>
+      <c r="AMA19" s="6"/>
+      <c r="AMB19" s="6"/>
+      <c r="AMC19" s="6"/>
+      <c r="AMD19" s="6"/>
+      <c r="AME19" s="6"/>
+      <c r="AMF19" s="6"/>
+      <c r="AMG19" s="6"/>
+      <c r="AMH19" s="6"/>
+      <c r="AMI19" s="6"/>
+      <c r="AMJ19" s="6"/>
+    </row>
+    <row r="20" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="24" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="ALR20" s="6"/>
+      <c r="ALS20" s="6"/>
+      <c r="ALT20" s="6"/>
+      <c r="ALU20" s="6"/>
+      <c r="ALV20" s="6"/>
+      <c r="ALW20" s="6"/>
+      <c r="ALX20" s="6"/>
+      <c r="ALY20" s="6"/>
+      <c r="ALZ20" s="6"/>
+      <c r="AMA20" s="6"/>
+      <c r="AMB20" s="6"/>
+      <c r="AMC20" s="6"/>
+      <c r="AMD20" s="6"/>
+      <c r="AME20" s="6"/>
+      <c r="AMF20" s="6"/>
+      <c r="AMG20" s="6"/>
+      <c r="AMH20" s="6"/>
+      <c r="AMI20" s="6"/>
+      <c r="AMJ20" s="6"/>
+    </row>
+    <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>1057</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="E21" s="27" t="s">
         <v>1011</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F21" s="27" t="s">
         <v>1011</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G21" s="27" t="s">
         <v>1023</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="ALR14" s="5"/>
-      <c r="ALS14" s="5"/>
-      <c r="ALT14" s="5"/>
-      <c r="ALU14" s="5"/>
-      <c r="ALV14" s="5"/>
-      <c r="ALW14" s="5"/>
-      <c r="ALX14" s="5"/>
-      <c r="ALY14" s="5"/>
-      <c r="ALZ14" s="5"/>
-      <c r="AMA14" s="5"/>
-      <c r="AMB14" s="5"/>
-      <c r="AMC14" s="5"/>
-      <c r="AMD14" s="5"/>
-      <c r="AME14" s="5"/>
-      <c r="AMF14" s="5"/>
-      <c r="AMG14" s="5"/>
-      <c r="AMH14" s="5"/>
-      <c r="AMI14" s="5"/>
-      <c r="AMJ14" s="5"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="ALR21" s="6"/>
+      <c r="ALS21" s="6"/>
+      <c r="ALT21" s="6"/>
+      <c r="ALU21" s="6"/>
+      <c r="ALV21" s="6"/>
+      <c r="ALW21" s="6"/>
+      <c r="ALX21" s="6"/>
+      <c r="ALY21" s="6"/>
+      <c r="ALZ21" s="6"/>
+      <c r="AMA21" s="6"/>
+      <c r="AMB21" s="6"/>
+      <c r="AMC21" s="6"/>
+      <c r="AMD21" s="6"/>
+      <c r="AME21" s="6"/>
+      <c r="AMF21" s="6"/>
+      <c r="AMG21" s="6"/>
+      <c r="AMH21" s="6"/>
+      <c r="AMI21" s="6"/>
+      <c r="AMJ21" s="6"/>
     </row>
-    <row r="15" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="ALR15" s="5"/>
-      <c r="ALS15" s="5"/>
-      <c r="ALT15" s="5"/>
-      <c r="ALU15" s="5"/>
-      <c r="ALV15" s="5"/>
-      <c r="ALW15" s="5"/>
-      <c r="ALX15" s="5"/>
-      <c r="ALY15" s="5"/>
-      <c r="ALZ15" s="5"/>
-      <c r="AMA15" s="5"/>
-      <c r="AMB15" s="5"/>
-      <c r="AMC15" s="5"/>
-      <c r="AMD15" s="5"/>
-      <c r="AME15" s="5"/>
-      <c r="AMF15" s="5"/>
-      <c r="AMG15" s="5"/>
-      <c r="AMH15" s="5"/>
-      <c r="AMI15" s="5"/>
-      <c r="AMJ15" s="5"/>
+    <row r="22" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="ALR22" s="6"/>
+      <c r="ALS22" s="6"/>
+      <c r="ALT22" s="6"/>
+      <c r="ALU22" s="6"/>
+      <c r="ALV22" s="6"/>
+      <c r="ALW22" s="6"/>
+      <c r="ALX22" s="6"/>
+      <c r="ALY22" s="6"/>
+      <c r="ALZ22" s="6"/>
+      <c r="AMA22" s="6"/>
+      <c r="AMB22" s="6"/>
+      <c r="AMC22" s="6"/>
+      <c r="AMD22" s="6"/>
+      <c r="AME22" s="6"/>
+      <c r="AMF22" s="6"/>
+      <c r="AMG22" s="6"/>
+      <c r="AMH22" s="6"/>
+      <c r="AMI22" s="6"/>
+      <c r="AMJ22" s="6"/>
     </row>
-    <row r="16" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F16" s="16" t="s">
+    <row r="23" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>1011</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="ALR16" s="5"/>
-      <c r="ALS16" s="5"/>
-      <c r="ALT16" s="5"/>
-      <c r="ALU16" s="5"/>
-      <c r="ALV16" s="5"/>
-      <c r="ALW16" s="5"/>
-      <c r="ALX16" s="5"/>
-      <c r="ALY16" s="5"/>
-      <c r="ALZ16" s="5"/>
-      <c r="AMA16" s="5"/>
-      <c r="AMB16" s="5"/>
-      <c r="AMC16" s="5"/>
-      <c r="AMD16" s="5"/>
-      <c r="AME16" s="5"/>
-      <c r="AMF16" s="5"/>
-      <c r="AMG16" s="5"/>
-      <c r="AMH16" s="5"/>
-      <c r="AMI16" s="5"/>
-      <c r="AMJ16" s="5"/>
-    </row>
-    <row r="17" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="ALR17" s="5"/>
-      <c r="ALS17" s="5"/>
-      <c r="ALT17" s="5"/>
-      <c r="ALU17" s="5"/>
-      <c r="ALV17" s="5"/>
-      <c r="ALW17" s="5"/>
-      <c r="ALX17" s="5"/>
-      <c r="ALY17" s="5"/>
-      <c r="ALZ17" s="5"/>
-      <c r="AMA17" s="5"/>
-      <c r="AMB17" s="5"/>
-      <c r="AMC17" s="5"/>
-      <c r="AMD17" s="5"/>
-      <c r="AME17" s="5"/>
-      <c r="AMF17" s="5"/>
-      <c r="AMG17" s="5"/>
-      <c r="AMH17" s="5"/>
-      <c r="AMI17" s="5"/>
-      <c r="AMJ17" s="5"/>
-    </row>
-    <row r="18" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>1072</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="ALR18" s="5"/>
-      <c r="ALS18" s="5"/>
-      <c r="ALT18" s="5"/>
-      <c r="ALU18" s="5"/>
-      <c r="ALV18" s="5"/>
-      <c r="ALW18" s="5"/>
-      <c r="ALX18" s="5"/>
-      <c r="ALY18" s="5"/>
-      <c r="ALZ18" s="5"/>
-      <c r="AMA18" s="5"/>
-      <c r="AMB18" s="5"/>
-      <c r="AMC18" s="5"/>
-      <c r="AMD18" s="5"/>
-      <c r="AME18" s="5"/>
-      <c r="AMF18" s="5"/>
-      <c r="AMG18" s="5"/>
-      <c r="AMH18" s="5"/>
-      <c r="AMI18" s="5"/>
-      <c r="AMJ18" s="5"/>
-    </row>
-    <row r="19" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="ALR19" s="5"/>
-      <c r="ALS19" s="5"/>
-      <c r="ALT19" s="5"/>
-      <c r="ALU19" s="5"/>
-      <c r="ALV19" s="5"/>
-      <c r="ALW19" s="5"/>
-      <c r="ALX19" s="5"/>
-      <c r="ALY19" s="5"/>
-      <c r="ALZ19" s="5"/>
-      <c r="AMA19" s="5"/>
-      <c r="AMB19" s="5"/>
-      <c r="AMC19" s="5"/>
-      <c r="AMD19" s="5"/>
-      <c r="AME19" s="5"/>
-      <c r="AMF19" s="5"/>
-      <c r="AMG19" s="5"/>
-      <c r="AMH19" s="5"/>
-      <c r="AMI19" s="5"/>
-      <c r="AMJ19" s="5"/>
-    </row>
-    <row r="20" s="15" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="ALR20" s="5"/>
-      <c r="ALS20" s="5"/>
-      <c r="ALT20" s="5"/>
-      <c r="ALU20" s="5"/>
-      <c r="ALV20" s="5"/>
-      <c r="ALW20" s="5"/>
-      <c r="ALX20" s="5"/>
-      <c r="ALY20" s="5"/>
-      <c r="ALZ20" s="5"/>
-      <c r="AMA20" s="5"/>
-      <c r="AMB20" s="5"/>
-      <c r="AMC20" s="5"/>
-      <c r="AMD20" s="5"/>
-      <c r="AME20" s="5"/>
-      <c r="AMF20" s="5"/>
-      <c r="AMG20" s="5"/>
-      <c r="AMH20" s="5"/>
-      <c r="AMI20" s="5"/>
-      <c r="AMJ20" s="5"/>
-    </row>
-    <row r="21" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="ALR21" s="5"/>
-      <c r="ALS21" s="5"/>
-      <c r="ALT21" s="5"/>
-      <c r="ALU21" s="5"/>
-      <c r="ALV21" s="5"/>
-      <c r="ALW21" s="5"/>
-      <c r="ALX21" s="5"/>
-      <c r="ALY21" s="5"/>
-      <c r="ALZ21" s="5"/>
-      <c r="AMA21" s="5"/>
-      <c r="AMB21" s="5"/>
-      <c r="AMC21" s="5"/>
-      <c r="AMD21" s="5"/>
-      <c r="AME21" s="5"/>
-      <c r="AMF21" s="5"/>
-      <c r="AMG21" s="5"/>
-      <c r="AMH21" s="5"/>
-      <c r="AMI21" s="5"/>
-      <c r="AMJ21" s="5"/>
-    </row>
-    <row r="22" s="15" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>1083</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="ALR22" s="5"/>
-      <c r="ALS22" s="5"/>
-      <c r="ALT22" s="5"/>
-      <c r="ALU22" s="5"/>
-      <c r="ALV22" s="5"/>
-      <c r="ALW22" s="5"/>
-      <c r="ALX22" s="5"/>
-      <c r="ALY22" s="5"/>
-      <c r="ALZ22" s="5"/>
-      <c r="AMA22" s="5"/>
-      <c r="AMB22" s="5"/>
-      <c r="AMC22" s="5"/>
-      <c r="AMD22" s="5"/>
-      <c r="AME22" s="5"/>
-      <c r="AMF22" s="5"/>
-      <c r="AMG22" s="5"/>
-      <c r="AMH22" s="5"/>
-      <c r="AMI22" s="5"/>
-      <c r="AMJ22" s="5"/>
-    </row>
-    <row r="23" s="15" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="s">
+      <c r="C23" s="15" t="s">
         <v>1084</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="15" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>1085</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>1086</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>1086</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="ALR23" s="5"/>
-      <c r="ALS23" s="5"/>
-      <c r="ALT23" s="5"/>
-      <c r="ALU23" s="5"/>
-      <c r="ALV23" s="5"/>
-      <c r="ALW23" s="5"/>
-      <c r="ALX23" s="5"/>
-      <c r="ALY23" s="5"/>
-      <c r="ALZ23" s="5"/>
-      <c r="AMA23" s="5"/>
-      <c r="AMB23" s="5"/>
-      <c r="AMC23" s="5"/>
-      <c r="AMD23" s="5"/>
-      <c r="AME23" s="5"/>
-      <c r="AMF23" s="5"/>
-      <c r="AMG23" s="5"/>
-      <c r="AMH23" s="5"/>
-      <c r="AMI23" s="5"/>
-      <c r="AMJ23" s="5"/>
-    </row>
-    <row r="24" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="F23" s="29" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="ALR23" s="6"/>
+      <c r="ALS23" s="6"/>
+      <c r="ALT23" s="6"/>
+      <c r="ALU23" s="6"/>
+      <c r="ALV23" s="6"/>
+      <c r="ALW23" s="6"/>
+      <c r="ALX23" s="6"/>
+      <c r="ALY23" s="6"/>
+      <c r="ALZ23" s="6"/>
+      <c r="AMA23" s="6"/>
+      <c r="AMB23" s="6"/>
+      <c r="AMC23" s="6"/>
+      <c r="AMD23" s="6"/>
+      <c r="AME23" s="6"/>
+      <c r="AMF23" s="6"/>
+      <c r="AMG23" s="6"/>
+      <c r="AMH23" s="6"/>
+      <c r="AMI23" s="6"/>
+      <c r="AMJ23" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8671,7 +8593,7 @@
   </sheetPr>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -8712,25 +8634,25 @@
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>1011</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
-      <c r="H2" s="40"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="34"/>
-      <c r="J2" s="40"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
@@ -8740,45 +8662,45 @@
       <c r="Q2" s="34"/>
       <c r="R2" s="34"/>
     </row>
-    <row r="3" s="43" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>1095</v>
+    <row r="3" s="6" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="40" t="s">
+        <v>1090</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>1023</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>1097</v>
+      <c r="C3" s="15" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>1092</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>1098</v>
-      </c>
-      <c r="H3" s="44"/>
+        <v>1093</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="s">
-        <v>1099</v>
+      <c r="A4" s="41" t="s">
+        <v>1094</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>1011</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>1100</v>
+      <c r="C4" s="18" t="s">
+        <v>1095</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>1102</v>
-      </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+        <v>1096</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
@@ -8789,26 +8711,26 @@
       <c r="R4" s="34"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="45" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B5" s="47" t="s">
+      <c r="A5" s="41" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>1011</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="44" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D5" s="45" t="s">
         <v>1015</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F5" s="40"/>
+      <c r="E5" s="45" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F5" s="18"/>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
-      <c r="J5" s="40"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
       <c r="M5" s="34"/>
@@ -8819,26 +8741,26 @@
       <c r="R5" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="41" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>1011</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D6" s="50" t="s">
+      <c r="C6" s="44" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>1015</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>1107</v>
+      <c r="E6" s="46" t="s">
+        <v>1102</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
-      <c r="J6" s="40"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
@@ -8849,26 +8771,26 @@
       <c r="R6" s="34"/>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="41" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>1023</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="44" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>1104</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>1109</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
-      <c r="J7" s="40"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
@@ -8879,26 +8801,26 @@
       <c r="R7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="45" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B8" s="47" t="s">
+      <c r="A8" s="41" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>1023</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D8" s="50" t="s">
+      <c r="C8" s="44" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>1015</v>
       </c>
-      <c r="E8" s="50" t="s">
-        <v>1111</v>
+      <c r="E8" s="46" t="s">
+        <v>1106</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
-      <c r="J8" s="40"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
@@ -8909,24 +8831,24 @@
       <c r="R8" s="34"/>
     </row>
     <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="45" t="s">
-        <v>1112</v>
+      <c r="A9" s="41" t="s">
+        <v>1107</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>1023</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>1113</v>
+      <c r="C9" s="18" t="s">
+        <v>1108</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F9" s="40"/>
+        <v>1109</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F9" s="18"/>
       <c r="G9" s="34"/>
-      <c r="H9" s="40"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
@@ -8939,18 +8861,18 @@
       <c r="R9" s="34"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="45" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="41" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>1011</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50" t="s">
-        <v>1117</v>
+      <c r="C10" s="44" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46" t="s">
+        <v>1112</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
@@ -8967,22 +8889,22 @@
       <c r="R10" s="34"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="45" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B11" s="47" t="s">
+      <c r="A11" s="41" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>1011</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50" t="s">
-        <v>1119</v>
+      <c r="C11" s="44" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46" t="s">
+        <v>1114</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="40"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
@@ -8995,26 +8917,26 @@
       <c r="R11" s="34"/>
     </row>
     <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="45" t="s">
-        <v>1120</v>
+      <c r="A12" s="41" t="s">
+        <v>1115</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>1023</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>1123</v>
-      </c>
-      <c r="F12" s="40"/>
+        <v>1117</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F12" s="18"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
-      <c r="J12" s="40"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
       <c r="M12" s="34"/>
@@ -9025,26 +8947,26 @@
       <c r="R12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="45" t="s">
-        <v>1124</v>
+      <c r="A13" s="41" t="s">
+        <v>1119</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>1011</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>1127</v>
+        <v>1121</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>1122</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
-      <c r="J13" s="40"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
@@ -9055,22 +8977,22 @@
       <c r="R13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="45" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="41" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>1023</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52" t="s">
-        <v>1129</v>
+      <c r="C14" s="44" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48" t="s">
+        <v>1124</v>
       </c>
       <c r="F14" s="34"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
@@ -9083,26 +9005,26 @@
       <c r="R14" s="34"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="45" t="s">
-        <v>1130</v>
+      <c r="A15" s="41" t="s">
+        <v>1125</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1023</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>1133</v>
+        <v>1127</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>1128</v>
       </c>
       <c r="F15" s="34"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="54"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="49"/>
       <c r="I15" s="34"/>
-      <c r="J15" s="40"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
@@ -9113,26 +9035,26 @@
       <c r="R15" s="34"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="45" t="s">
-        <v>1134</v>
+      <c r="A16" s="41" t="s">
+        <v>1129</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>1011</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>1137</v>
+        <v>1130</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>1132</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="54"/>
+      <c r="H16" s="49"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="40"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
@@ -9143,26 +9065,26 @@
       <c r="R16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="45" t="s">
-        <v>1138</v>
+      <c r="A17" s="41" t="s">
+        <v>1133</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>1011</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>1127</v>
+        <v>1121</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>1122</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="54"/>
+      <c r="H17" s="49"/>
       <c r="I17" s="34"/>
-      <c r="J17" s="40"/>
+      <c r="J17" s="18"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
@@ -9173,24 +9095,24 @@
       <c r="R17" s="34"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="45" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="41" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>1011</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56" t="s">
-        <v>1141</v>
+      <c r="C18" s="44" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51" t="s">
+        <v>1136</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="34"/>
-      <c r="H18" s="54"/>
+      <c r="H18" s="49"/>
       <c r="I18" s="34"/>
-      <c r="J18" s="40"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
@@ -9201,24 +9123,24 @@
       <c r="R18" s="34"/>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="45" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B19" s="47" t="s">
+      <c r="A19" s="41" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>1023</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="49" t="s">
-        <v>1144</v>
+      <c r="C19" s="44" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="45" t="s">
+        <v>1139</v>
       </c>
       <c r="F19" s="34"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="34"/>
-      <c r="J19" s="40"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
@@ -9229,26 +9151,26 @@
       <c r="R19" s="34"/>
     </row>
     <row r="20" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="45" t="s">
-        <v>1145</v>
+      <c r="A20" s="41" t="s">
+        <v>1140</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>1023</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>1148</v>
+        <v>1141</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>1143</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
-      <c r="J20" s="40"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
@@ -9259,20 +9181,23 @@
       <c r="R20" s="34"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41" t="s">
-        <v>1149</v>
+      <c r="A21" s="40" t="s">
+        <v>1144</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>1011</v>
       </c>
-      <c r="C21" s="57" t="s">
-        <v>1150</v>
+      <c r="C21" s="52" t="s">
+        <v>1145</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" location="/CBS/nl/dataset/70739ned/table?dl=5A68C" display="&lt;CBS gemeentecode&gt;: code bestaande uit 6 karakters, zie https://opendata.cbs.nl/#/CBS/nl/dataset/70739ned/table?dl=5A68C of gebruik GM9001 voor Bonaire, GM9002 voor Sint Eustatius of GM9003 voor Saba.&#10;&#10;&lt;YYYYMMDD&gt;: datum van de verkiezing&#10;&#10;&lt;oplopend getal&gt;: getal tussen 000 en 999"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/tests/data/waarismijnstemlokaal.nl_invulformulier.xlsx
+++ b/tests/data/waarismijnstemlokaal.nl_invulformulier.xlsx
@@ -22,14 +22,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1160">
   <si>
     <t xml:space="preserve">Toelichting</t>
   </si>
   <si>
     <t xml:space="preserve">Op dit tabblad wordt het gebruik van deze spreadsheet toegelicht. Hieronder staat de beschrijving van de andere twee tabbladen 'Attributen' en 'Metadata'.
-Dit invulformulier is bedoeld om geüpload te worden naar https://waarismijnstemlokaal.nl/. In plaats van dit invulformulier kan ook de invultool op https://waarismijnstemlokaal.nl/ gebruikt worden. Ook kan op die website een versie van dit invulformulier gedownload worden waarin de stembureaus van de vorige verkiezing alvast (deels) ingevuld staan.
-Dit invulformulier is gebaseerd op de Stembureaus Open Data Standaard versie 1.5.</t>
+Dit invulformulier is bedoeld om geüpload te worden naar https://WaarIsMijnStemlokaal.nl/. In plaats van dit invulformulier kan ook de invultool op https://WaarIsMijnStemlokaal.nl/ gebruikt worden. Ook kan op die website een versie van dit invulformulier gedownload worden waarin de stembureaus van de vorige verkiezing alvast (deels) ingevuld staan.
+Dit invulformulier is gebaseerd op de Stembureaus Open Data Standaard versie 1.6.</t>
   </si>
   <si>
     <t xml:space="preserve">Attributen</t>
@@ -39,7 +39,7 @@
 Elk stembureau voegt u toe in een eigen 'Invulveld'-kolom waar u minimaal alle verplichte attributen (aangegeven met 'ja') invult (NB: in sommige gevallen kan hiervan worden afgeweken zoals beschreven in de opmerkingen bij een attribuut).
 De kolommen 'Opmerkingen, 'Format' en 'Voorbeeld' helpen u daarbij. De 'Opmerkingen'-kolom geeft algemene informatie over het attribuut en geeft soms meer informatie over hoe u het veld moet invullen zoals gespecificeerd in de 'Format'-kolom. In de 'Voorbeeld'-kolom wordt een voorbeeld gegeven van hoe u het attribuut moet invullen.
 Sommige gemeenten werken met mobiele stembureaus die gedurende de dag op verschillende locaties staan. Voor mobiele stembureaus moet elke locatie apart worden ingevoerd in een eigen 'Invulveld'-kolom (vul dus hele kolom in en niet enkel de attributen die veranderen, zoals de locatie en openingstijden).
-Er zijn 1000 'Invulveld'-kolommen, aangezien de gemeente met de meeste stembureaus (Amsterdam) er bijna 500 heeft en er voor mobiele stembureaus dus meerdere 'Invulveld'-kolommen nodig zijn. Mocht dit toch niet genoeg zijn dan kunt u gewoon extra kolommen aanmaken en ze doornummeren.</t>
+Er zijn 1000 'Invulveld'-kolommen, aangezien de gemeente met de meeste stembureaus (Amsterdam) er circa 500 heeft en er voor mobiele stembureaus dus meerdere 'Invulveld'-kolommen nodig zijn. Mocht dit toch niet genoeg zijn dan kunt u gewoon extra kolommen aanmaken en ze doornummeren.</t>
   </si>
   <si>
     <t xml:space="preserve">Metadata</t>
@@ -3109,7 +3109,7 @@
     <t xml:space="preserve">URL</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.denhaag.nl/nl/bestuur-en-organisatie/contact-met-de-gemeente/stadhuis-den-haag.htm</t>
+    <t xml:space="preserve">https://www.denhaag.nl/nl/contact-met-de-gemeente/stadhuis-den-haag/</t>
   </si>
   <si>
     <t xml:space="preserve">BAG Nummeraanduiding ID</t>
@@ -3182,33 +3182,31 @@
     <t xml:space="preserve">Openingstijd</t>
   </si>
   <si>
-    <t xml:space="preserve">In sommige gevallen heeft een stembureau meerdere openingstijden, bijvoorbeeld een mobiel stemburea of een stembureau dat ‘s middags even dicht is. In zulke gevallen moeten voor alle openingstijden alle attributen apart ingevuld worden.</t>
+    <t xml:space="preserve">In sommige gevallen heeft een stembureau meerdere openingstijden, bijvoorbeeld een mobiel stembureau of een stembureau dat ‘s middags even dicht is. In zulke gevallen moeten alle openingstijden als aparte stembureaus ingevuld worden.</t>
   </si>
   <si>
     <t xml:space="preserve">YYYY-MM-DDTHH:MM:SS</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-11-22T07:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-22T02:30:00</t>
+    <t xml:space="preserve">2024-06-06T07:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-06T02:30:00</t>
   </si>
   <si>
     <t xml:space="preserve">Sluitingstijd</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-11-22T21:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-22T22:00:00</t>
+    <t xml:space="preserve">2024-06-06T21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-06T20:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">Toegankelijk voor mensen met een lichamelijke beperking</t>
   </si>
   <si>
-    <t xml:space="preserve">Is het stembureau toegankelijk voor mensen met een lichamelijke beperking?
-Voor meer informatie, zie:
-https://www.rijksoverheid.nl/onderwerpen/verkiezingen/verkiezingentoolkit/toegankelijkheid-verkiezingen</t>
+    <t xml:space="preserve">Is het stembureau toegankelijk voor mensen met een lichamelijke beperking? Voor meer informatie, zie: https://www.rijksoverheid.nl/onderwerpen/verkiezingen/verkiezingentoolkit/toegankelijkheid-verkiezingen.</t>
   </si>
   <si>
     <t xml:space="preserve">ja of nee</t>
@@ -3217,59 +3215,97 @@
     <t xml:space="preserve">Toegankelijke ov-halte</t>
   </si>
   <si>
-    <t xml:space="preserve">Is er een toegankelijke ov-halte in de buurt? Beschrijf hoe ver deze van het stembureau ligt en hoe deze toegankelijk is.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tekst; als er geen toegankelijke ov-halte is, laat dit veld dan leeg (‘nee’ e.d. worden automatisch verwijderd)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">binnen 100 meter, rolstoeltoegankelijk, geleidelijnen</t>
+    <t xml:space="preserve">Is er een toegankelijke ov-halte in de buurt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gehandicaptentoilet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is er een gehandicaptentoilet aanwezig? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is er iemand aanwezig die kiezers ontvangt en kan helpen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geleidelijnen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zijn er geleidelijnen aanwezig buiten en/of binnen het stembureau voor mensen met een visuele beperking?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keuze uit: 'buiten en binnen', 'buiten', 'binnen', 'nee'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buiten en binnen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stemmal met audio-ondersteuning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is er een stemmal met audio-ondersteuning (stembox/soundbox) aanwezig voor mensen met een visuele beperking of mensen die moeite hebben met lezen? Voor meer informatie, zie: https://www.oogvereniging.nl/leven-met/stemmen-met-een-oogaandoening/#stemmal, https://stemmal.nl/ en https://www.stembox.nl/.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kandidatenlijst in braille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is er een kandidatenlijst in braille aanwezig voor mensen met een visuele beperking?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kandidatenlijst met grote letters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is er een kandidatenlijst met grote letters aanwezig voor mensen met een visuele beperking?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebarentolk (NGT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is er een gebarentolk op locatie in het stembureau of op afstand (via videobellen) aanwezig die de Nederlandse Gebarentaal (NGT) beheerst? Als de gebarentolk niet de hele dag aanwezig is, vermeldt dan gedurende welke periode(n) deze precies aanwezig is in het 'Extra toegankelijkheidsinformatie'-attribuut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keuze uit: 'op locatie', 'op afstand', 'nee'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">op locatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebarentalig stembureaulid (NGT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is er een stembureaulid aanwezig die de Nederlandse Gebarentaal (NGT) beheerst?</t>
   </si>
   <si>
     <t xml:space="preserve">Akoestiek geschikt voor slechthorenden</t>
   </si>
   <si>
-    <t xml:space="preserve">Is de akoestiek van het stembureau geschikt voor slechthorenden?
-Voor meer informatie, zie: https://bk.nijsnet.com/04040_Slechthorenden.aspx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditieve hulpmiddelen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welke auditieve hulpmiddelen voor slechthorende en doven zijn aanwezig? Dit is een vrij tekstveld.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tekst; als er geen hulpmiddelen zijn, laat dit veld dan leeg (‘nee’ e.d. worden automatisch verwijderd)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gebarentolk, schrijftolk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visuele hulpmiddelen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welke visuele hulpmiddelen voor blinden en slechtzienden zijn aanwezig? Dit is een vrij tekstveld.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tekst; als er geen hulpmiddelen zijn, laat dit veld dan leeg (‘nee’ e.d. worden automatisch verwijderd); NB: een leesloep is verplicht op elk stembureau en moet hier dus niet vermeld worden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stemmal, soundbox, vrijwilliger/host aanwezig, geleidelijnen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gehandicaptentoilet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is er een gehandicaptentoilet aanwezig? </t>
+    <t xml:space="preserve">Is de akoestiek van het stembureau geschikt voor slechthorenden? Voor meer informatie, zie: https://bk.nijsnet.nl/d_ontwerpregels/40_Slechthorenden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prikkelarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dit stembureau is zo ingericht dat er weinig prikkels zijn.</t>
   </si>
   <si>
     <t xml:space="preserve">Extra toegankelijkheidsinformatie</t>
   </si>
   <si>
-    <t xml:space="preserve">Eventuele extra informatie over de toegankelijkheid van dit stembureau.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prikkelarm stembureau, stembureau is volledig toegankelijk voor mensen met een lichamelijke beperking er is echter geen gehandicaptenparkeerplaats</t>
+    <t xml:space="preserve">Eventuele extra informatie over de toegankelijkheid van dit stembureau. Zie ook de voorbeelden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tekst; als er geen extra informatie is, laat dit veld dan leeg (‘nee’ e.d. worden automatisch verwijderd). NB: een leesloep is verplicht op elk stembureau en moet hier dus niet vermeld worden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dit stembureau is ingericht voor kwetsbare mensen, stembureau is volledig toegankelijk voor mensen met een lichamelijke beperking er is echter geen gehandicaptenparkeerplaats, gebarentolk op locatie (NGT) is aanwezig van 10:00-12:00 en 16:00-18:00, oefenstembureau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overige informatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventuele overige informatie over dit stembureau.</t>
   </si>
   <si>
     <t xml:space="preserve">Tellocatie</t>
@@ -3309,7 +3345,7 @@
     <t xml:space="preserve">Stembureaus &lt;verkiezing&gt; &lt;jaar&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Stembureaus Tweede Kamerverkiezingen 2023</t>
+    <t xml:space="preserve">Stembureaus Europese Parlementsverkiezingen 2024</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -3323,20 +3359,20 @@
     <t xml:space="preserve">NLODS&lt;CBS gemeentecode&gt;stembureaus&lt;YYYYMMDD&gt;&lt;oplopend getal van 000 t/m 999&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">NLODSGM0518stembureaus20231122014</t>
+    <t xml:space="preserve">NLODSGM0518stembureaus20240606015</t>
   </si>
   <si>
     <t xml:space="preserve">Omschrijving</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;verkiezing&gt;: keuze uit 'de Tweede Kamerverkiezingen', 'de gemeenteraadsverkiezingen', 'de Provinciale Statenverkiezingen', 'referendum &lt;naam van referendum&gt;', 'de kiescollegeverkiezingen', 'de eilandsraadsverkiezingen', 'de Europese Parlementsverkiezingen', 'de waterschapsverkiezingen', 'verkiezingen gebiedscommissies en wijkraden' en 'verkiezingen stadsdeelcommissies'
-&lt;datum&gt;: in format zoals '22 november 2023'</t>
+&lt;datum&gt;: in format zoals '6 juni 2024'</t>
   </si>
   <si>
     <t xml:space="preserve">Overzicht van de locaties van stembureaus. De gegevens hebben betrekking op &lt;verkiezing&gt; op &lt;datum&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Overzicht van de locaties van stembureaus. De gegevens hebben betrekking op de Tweede Kamerverkiezingen op 22 november 2023.</t>
+    <t xml:space="preserve">Overzicht van de locaties van stembureaus. De gegevens hebben betrekking op de Europese Parlementsverkiezingen op 6 juni 2024.</t>
   </si>
   <si>
     <t xml:space="preserve">Eigenaar</t>
@@ -3375,7 +3411,7 @@
     <t xml:space="preserve">verkiezingen, stembureaus, overheid, democratie, stemmen, kiesdistrict, &lt;aard van de verkiezing&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">verkiezingen, stembureaus, overheid, democratie, stemmen, kiesdistrict, Tweede Kamerverkiezingen</t>
+    <t xml:space="preserve">verkiezingen, stembureaus, overheid, democratie, stemmen, kiesdistrict, Europese Parlementsverkiezingen</t>
   </si>
   <si>
     <t xml:space="preserve">Thema</t>
@@ -3416,7 +3452,7 @@
     <t xml:space="preserve">YYYY-MM-DDTHH:MM:SS+-HH:MM</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-09-16T13:05:23+01:00</t>
+    <t xml:space="preserve">2024-04-15T13:05:23+01:00</t>
   </si>
   <si>
     <t xml:space="preserve">Relatie / gebruik andere standaarden</t>
@@ -3434,19 +3470,19 @@
     <t xml:space="preserve">YYYY-MM-DD</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-11-22</t>
+    <t xml:space="preserve">2024-06-06</t>
   </si>
   <si>
     <t xml:space="preserve">Update frequentie</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;datum verkiezing&gt;: in format zoals '22 november 2023'</t>
+    <t xml:space="preserve">&lt;datum verkiezing&gt;: in format zoals '6 juni 2024'</t>
   </si>
   <si>
     <t xml:space="preserve">Incidenteel tot en met &lt;datum verkiezing&gt; (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezing)</t>
   </si>
   <si>
-    <t xml:space="preserve">Incidenteel tot en met 22 november 2023 (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezingen)</t>
+    <t xml:space="preserve">Incidenteel tot en met 6 juni 2024 (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezingen)</t>
   </si>
   <si>
     <t xml:space="preserve">Wijzigings datum</t>
@@ -3468,7 +3504,7 @@
 Invoer is "vast"</t>
   </si>
   <si>
-    <t xml:space="preserve">Stembureaus ODS 1.5</t>
+    <t xml:space="preserve">Stembureaus ODS 1.6</t>
   </si>
   <si>
     <t xml:space="preserve">Status</t>
@@ -4381,14 +4417,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AMJ23"/>
+  <dimension ref="A1:AMJ30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7435,7 +7471,7 @@
         <v>1013</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F2" s="16" t="n">
         <v>517</v>
@@ -8106,7 +8142,7 @@
       <c r="AMI14" s="6"/>
       <c r="AMJ14" s="6"/>
     </row>
-    <row r="15" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
         <v>1058</v>
       </c>
@@ -8117,15 +8153,17 @@
         <v>1059</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>1061</v>
+        <v>1011</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G15" s="19"/>
+        <v>1011</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>1023</v>
+      </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -8157,21 +8195,21 @@
       <c r="AMI15" s="6"/>
       <c r="AMJ15" s="6"/>
     </row>
-    <row r="16" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
-        <v>1062</v>
+    <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>1060</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>1063</v>
+      <c r="C16" s="15" t="s">
+        <v>1061</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>1057</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>1011</v>
@@ -8210,26 +8248,28 @@
       <c r="AMI16" s="6"/>
       <c r="AMJ16" s="6"/>
     </row>
-    <row r="17" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>1065</v>
+      <c r="C17" s="15" t="s">
+        <v>1063</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>1067</v>
+        <v>1011</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G17" s="19"/>
+        <v>1011</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1023</v>
+      </c>
       <c r="H17" s="21"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
@@ -8263,24 +8303,26 @@
     </row>
     <row r="18" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>1070</v>
+        <v>1065</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>1066</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>1071</v>
-      </c>
-      <c r="G18" s="19"/>
+        <v>1067</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>1023</v>
+      </c>
       <c r="H18" s="21"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
@@ -8312,15 +8354,15 @@
       <c r="AMI18" s="6"/>
       <c r="AMJ18" s="6"/>
     </row>
-    <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>1073</v>
+      <c r="C19" s="15" t="s">
+        <v>1069</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>1057</v>
@@ -8365,26 +8407,28 @@
       <c r="AMI19" s="6"/>
       <c r="AMJ19" s="6"/>
     </row>
-    <row r="20" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B20" s="25" t="s">
+    <row r="20" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>1023</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>1075</v>
+      <c r="C20" s="15" t="s">
+        <v>1071</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>1033</v>
+        <v>1057</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>1076</v>
+        <v>1011</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G20" s="19"/>
+        <v>1011</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>1023</v>
+      </c>
       <c r="H20" s="21"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
@@ -8416,26 +8460,26 @@
       <c r="AMI20" s="6"/>
       <c r="AMJ20" s="6"/>
     </row>
-    <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>1057</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="19" t="s">
         <v>1011</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="19" t="s">
         <v>1011</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="19" t="s">
         <v>1023</v>
       </c>
       <c r="H21" s="17"/>
@@ -8469,27 +8513,27 @@
       <c r="AMI21" s="6"/>
       <c r="AMJ21" s="6"/>
     </row>
-    <row r="22" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>1011</v>
+    <row r="22" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>1023</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>1082</v>
+        <v>1075</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>1023</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -8523,26 +8567,26 @@
       <c r="AMJ22" s="6"/>
     </row>
     <row r="23" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>1011</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G23" s="29" t="s">
-        <v>1085</v>
+      <c r="F23" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>1023</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="17"/>
@@ -8574,6 +8618,159 @@
       <c r="AMH23" s="6"/>
       <c r="AMI23" s="6"/>
       <c r="AMJ23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="28" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="28" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>1098</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8634,19 +8831,19 @@
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
-        <v>1086</v>
+        <v>1099</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>1011</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>1087</v>
+        <v>1100</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>1088</v>
+        <v>1101</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>1089</v>
+        <v>1102</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
@@ -8664,37 +8861,37 @@
     </row>
     <row r="3" s="6" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="40" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>1023</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>1091</v>
+        <v>1104</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>1092</v>
+        <v>1105</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>1093</v>
+        <v>1106</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="41" t="s">
-        <v>1094</v>
+        <v>1107</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>1011</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1095</v>
+        <v>1108</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>1096</v>
+        <v>1109</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>1097</v>
+        <v>1110</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -8712,19 +8909,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="s">
-        <v>1098</v>
+        <v>1111</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>1011</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>1099</v>
+        <v>1112</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>1015</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>1100</v>
+        <v>1113</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="34"/>
@@ -8742,19 +8939,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="s">
-        <v>1101</v>
+        <v>1114</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>1011</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>1099</v>
+        <v>1112</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>1015</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>1102</v>
+        <v>1115</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -8772,19 +8969,19 @@
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="s">
-        <v>1103</v>
+        <v>1116</v>
       </c>
       <c r="B7" s="43" t="s">
         <v>1023</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>1099</v>
+        <v>1112</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>1015</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>1104</v>
+        <v>1117</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -8802,19 +8999,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="41" t="s">
-        <v>1105</v>
+        <v>1118</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>1023</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>1099</v>
+        <v>1112</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>1015</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>1106</v>
+        <v>1119</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -8832,19 +9029,19 @@
     </row>
     <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="41" t="s">
-        <v>1107</v>
+        <v>1120</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>1023</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>1108</v>
+        <v>1121</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>1109</v>
+        <v>1122</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>1110</v>
+        <v>1123</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="34"/>
@@ -8862,17 +9059,17 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="41" t="s">
-        <v>1111</v>
+        <v>1124</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>1011</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>1099</v>
+        <v>1112</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46" t="s">
-        <v>1112</v>
+        <v>1125</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
@@ -8890,17 +9087,17 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="41" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
       <c r="B11" s="43" t="s">
         <v>1011</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>1099</v>
+        <v>1112</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46" t="s">
-        <v>1114</v>
+        <v>1127</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="34"/>
@@ -8918,19 +9115,19 @@
     </row>
     <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="41" t="s">
-        <v>1115</v>
+        <v>1128</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>1023</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>1116</v>
+        <v>1129</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>1117</v>
+        <v>1130</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>1118</v>
+        <v>1131</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="34"/>
@@ -8948,19 +9145,19 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="41" t="s">
-        <v>1119</v>
+        <v>1132</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>1011</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>1120</v>
+        <v>1133</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>1121</v>
+        <v>1134</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>1122</v>
+        <v>1135</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -8978,17 +9175,17 @@
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="41" t="s">
-        <v>1123</v>
+        <v>1136</v>
       </c>
       <c r="B14" s="43" t="s">
         <v>1023</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>1099</v>
+        <v>1112</v>
       </c>
       <c r="D14" s="48"/>
       <c r="E14" s="48" t="s">
-        <v>1124</v>
+        <v>1137</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="18"/>
@@ -9006,19 +9203,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="41" t="s">
-        <v>1125</v>
+        <v>1138</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1023</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>1128</v>
+        <v>1141</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="18"/>
@@ -9036,19 +9233,19 @@
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>1129</v>
+        <v>1142</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>1011</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>1130</v>
+        <v>1143</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>1131</v>
+        <v>1144</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>1132</v>
+        <v>1145</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -9066,19 +9263,19 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="41" t="s">
-        <v>1133</v>
+        <v>1146</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>1011</v>
       </c>
       <c r="C17" s="35" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D17" s="35" t="s">
         <v>1134</v>
       </c>
-      <c r="D17" s="35" t="s">
-        <v>1121</v>
-      </c>
       <c r="E17" s="47" t="s">
-        <v>1122</v>
+        <v>1135</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -9096,17 +9293,17 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
-        <v>1135</v>
+        <v>1148</v>
       </c>
       <c r="B18" s="43" t="s">
         <v>1011</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>1099</v>
+        <v>1112</v>
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="51" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="34"/>
@@ -9124,17 +9321,17 @@
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="41" t="s">
-        <v>1137</v>
+        <v>1150</v>
       </c>
       <c r="B19" s="43" t="s">
         <v>1023</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>1138</v>
+        <v>1151</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="45" t="s">
-        <v>1139</v>
+        <v>1152</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="18"/>
@@ -9152,19 +9349,19 @@
     </row>
     <row r="20" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="41" t="s">
-        <v>1140</v>
+        <v>1153</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>1023</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>1141</v>
+        <v>1154</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>1142</v>
+        <v>1155</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>1143</v>
+        <v>1156</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -9182,22 +9379,19 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="40" t="s">
-        <v>1144</v>
+        <v>1157</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>1011</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>1145</v>
+        <v>1158</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>1146</v>
+        <v>1159</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" location="/CBS/nl/dataset/70739ned/table?dl=5A68C" display="&lt;CBS gemeentecode&gt;: code bestaande uit 6 karakters, zie https://opendata.cbs.nl/#/CBS/nl/dataset/70739ned/table?dl=5A68C of gebruik GM9001 voor Bonaire, GM9002 voor Sint Eustatius of GM9003 voor Saba.&#10;&#10;&lt;YYYYMMDD&gt;: datum van de verkiezing&#10;&#10;&lt;oplopend getal&gt;: getal tussen 000 en 999"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/tests/data/waarismijnstemlokaal.nl_invulformulier.xlsx
+++ b/tests/data/waarismijnstemlokaal.nl_invulformulier.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Toelichting" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Attributen" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Metadata" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Toelichting" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Attributen" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Metadata" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1162">
   <si>
     <t xml:space="preserve">Toelichting</t>
   </si>
@@ -3191,7 +3191,10 @@
     <t xml:space="preserve">2024-06-06T07:30:00</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-06-06T02:30:00</t>
+    <t xml:space="preserve">2025-10-29T07:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-29T02:30:00</t>
   </si>
   <si>
     <t xml:space="preserve">Sluitingstijd</t>
@@ -3200,7 +3203,10 @@
     <t xml:space="preserve">2024-06-06T21:00:00</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-06-06T20:00:00</t>
+    <t xml:space="preserve">2025-10-29T21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-29T20:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">Toegankelijk voor mensen met een lichamelijke beperking</t>
@@ -4021,39 +4027,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4065,19 +4071,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4085,11 +4091,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4109,15 +4115,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4129,15 +4135,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4153,15 +4159,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4177,11 +4183,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4189,7 +4195,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4197,7 +4203,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4205,7 +4211,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4225,7 +4231,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4346,18 +4352,124 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="78.19"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="10.82"/>
@@ -4370,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4380,7 +4492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4413,18 +4525,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:AMJ30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7667,7 +7779,7 @@
       <c r="AMI5" s="6"/>
       <c r="AMJ5" s="6"/>
     </row>
-    <row r="6" s="9" customFormat="true" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="9" customFormat="true" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
         <v>1027</v>
       </c>
@@ -7720,7 +7832,7 @@
       <c r="AMI6" s="6"/>
       <c r="AMJ6" s="6"/>
     </row>
-    <row r="7" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="9" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
         <v>1030</v>
       </c>
@@ -7771,7 +7883,7 @@
       <c r="AMI7" s="6"/>
       <c r="AMJ7" s="6"/>
     </row>
-    <row r="8" s="9" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="9" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
         <v>1035</v>
       </c>
@@ -7824,7 +7936,7 @@
       <c r="AMI8" s="6"/>
       <c r="AMJ8" s="6"/>
     </row>
-    <row r="9" s="9" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="9" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
         <v>1039</v>
       </c>
@@ -7877,7 +7989,7 @@
       <c r="AMI9" s="6"/>
       <c r="AMJ9" s="6"/>
     </row>
-    <row r="10" s="9" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="9" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
         <v>1042</v>
       </c>
@@ -7930,7 +8042,7 @@
       <c r="AMI10" s="6"/>
       <c r="AMJ10" s="6"/>
     </row>
-    <row r="11" s="9" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="9" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
         <v>1045</v>
       </c>
@@ -7983,7 +8095,7 @@
       <c r="AMI11" s="6"/>
       <c r="AMJ11" s="6"/>
     </row>
-    <row r="12" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="s">
         <v>1047</v>
       </c>
@@ -8000,10 +8112,10 @@
         <v>1050</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -8036,9 +8148,9 @@
       <c r="AMI12" s="6"/>
       <c r="AMJ12" s="6"/>
     </row>
-    <row r="13" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>1011</v>
@@ -8050,13 +8162,13 @@
         <v>1049</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -8091,16 +8203,16 @@
     </row>
     <row r="14" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>1011</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>1011</v>
@@ -8144,16 +8256,16 @@
     </row>
     <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>1059</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>1057</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>1011</v>
@@ -8197,16 +8309,16 @@
     </row>
     <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>1011</v>
@@ -8250,16 +8362,16 @@
     </row>
     <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>1011</v>
@@ -8303,22 +8415,22 @@
     </row>
     <row r="18" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>1023</v>
@@ -8354,18 +8466,18 @@
       <c r="AMI18" s="6"/>
       <c r="AMJ18" s="6"/>
     </row>
-    <row r="19" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="9" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>1011</v>
@@ -8409,16 +8521,16 @@
     </row>
     <row r="20" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>1011</v>
@@ -8462,16 +8574,16 @@
     </row>
     <row r="21" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>1011</v>
@@ -8513,24 +8625,24 @@
       <c r="AMI21" s="6"/>
       <c r="AMJ21" s="6"/>
     </row>
-    <row r="22" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" s="9" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>1023</v>
@@ -8568,16 +8680,16 @@
     </row>
     <row r="23" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>1011</v>
@@ -8619,18 +8731,18 @@
       <c r="AMI23" s="6"/>
       <c r="AMJ23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>1011</v>
@@ -8644,16 +8756,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>1011</v>
@@ -8665,36 +8777,36 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="G26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>1033</v>
@@ -8705,16 +8817,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E28" s="27" t="s">
         <v>1011</v>
@@ -8728,48 +8840,48 @@
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>1011</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>1011</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>1025</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -8784,7 +8896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -8831,19 +8943,19 @@
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="37" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>1011</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
@@ -8861,37 +8973,37 @@
     </row>
     <row r="3" s="6" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="40" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>1023</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="41" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>1011</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -8909,19 +9021,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>1011</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>1015</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="34"/>
@@ -8939,19 +9051,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>1011</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>1015</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -8967,21 +9079,21 @@
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B7" s="43" t="s">
         <v>1023</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>1015</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -8999,19 +9111,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="41" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>1023</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D8" s="46" t="s">
         <v>1015</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -9027,21 +9139,21 @@
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
     </row>
-    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="41" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>1023</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="34"/>
@@ -9059,17 +9171,17 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="41" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>1011</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
@@ -9087,17 +9199,17 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="41" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B11" s="43" t="s">
         <v>1011</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="34"/>
@@ -9115,19 +9227,19 @@
     </row>
     <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="41" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>1023</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="34"/>
@@ -9145,19 +9257,19 @@
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="41" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B13" s="36" t="s">
         <v>1011</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -9175,17 +9287,17 @@
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="41" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="B14" s="43" t="s">
         <v>1023</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D14" s="48"/>
       <c r="E14" s="48" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="18"/>
@@ -9203,19 +9315,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="41" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>1023</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="18"/>
@@ -9233,19 +9345,19 @@
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>1011</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -9263,19 +9375,19 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="41" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>1011</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -9293,17 +9405,17 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B18" s="43" t="s">
         <v>1011</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="51" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="34"/>
@@ -9321,17 +9433,17 @@
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="41" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B19" s="43" t="s">
         <v>1023</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="45" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="18"/>
@@ -9349,19 +9461,19 @@
     </row>
     <row r="20" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="41" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>1023</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -9379,16 +9491,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="40" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>1011</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/waarismijnstemlokaal.nl_invulformulier.xlsx
+++ b/tests/data/waarismijnstemlokaal.nl_invulformulier.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Toelichting" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,24 +22,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="1164">
   <si>
     <t xml:space="preserve">Toelichting</t>
   </si>
   <si>
     <t xml:space="preserve">Op dit tabblad wordt het gebruik van deze spreadsheet toegelicht. Hieronder staat de beschrijving van de andere twee tabbladen 'Attributen' en 'Metadata'.
 Dit invulformulier is bedoeld om geüpload te worden naar https://WaarIsMijnStemlokaal.nl/. In plaats van dit invulformulier kan ook de invultool op https://WaarIsMijnStemlokaal.nl/ gebruikt worden. Ook kan op die website een versie van dit invulformulier gedownload worden waarin de stembureaus van de vorige verkiezing alvast (deels) ingevuld staan.
-Dit invulformulier is gebaseerd op de Stembureaus Open Data Standaard versie 1.6.</t>
+Dit invulformulier is gebaseerd op de Stembureaus Open Data Standaard versie 1.7.</t>
   </si>
   <si>
     <t xml:space="preserve">Attributen</t>
   </si>
   <si>
-    <t xml:space="preserve">Op het tabblad 'Attributen' kunt u alle stembureaus in uw gemeente toevoegen.
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Op het tabblad 'Attributen' kunt u alle stembureaus in uw gemeente toevoegen.
 Elk stembureau voegt u toe in een eigen 'Invulveld'-kolom waar u minimaal alle verplichte attributen (aangegeven met 'ja') invult (NB: in sommige gevallen kan hiervan worden afgeweken zoals beschreven in de opmerkingen bij een attribuut).
 De kolommen 'Opmerkingen, 'Format' en 'Voorbeeld' helpen u daarbij. De 'Opmerkingen'-kolom geeft algemene informatie over het attribuut en geeft soms meer informatie over hoe u het veld moet invullen zoals gespecificeerd in de 'Format'-kolom. In de 'Voorbeeld'-kolom wordt een voorbeeld gegeven van hoe u het attribuut moet invullen.
 Sommige gemeenten werken met mobiele stembureaus die gedurende de dag op verschillende locaties staan. Voor mobiele stembureaus moet elke locatie apart worden ingevoerd in een eigen 'Invulveld'-kolom (vul dus hele kolom in en niet enkel de attributen die veranderen, zoals de locatie en openingstijden).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sommige toegankelijkheidsattributen kunnen soms niet gedurende de hele openingstijd van een stembureau beschikbaar zijn. Bijvoorbeeld een 'Gebarentolk (NGT)' met de waarde 'op locatie', die gedurende de dag langs meerdere stembureaus gaat. Vul deze informatie dan in het 'Extra toegankelijkheidsinformatie'-attribuut in, bijvoorbeeld: 'Gebarentolk op locatie (NGT) is aanwezig van 10:00-12:00 en 16:00-18:00'.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 Er zijn 1000 'Invulveld'-kolommen, aangezien de gemeente met de meeste stembureaus (Amsterdam) er circa 500 heeft en er voor mobiele stembureaus dus meerdere 'Invulveld'-kolommen nodig zijn. Mocht dit toch niet genoeg zijn dan kunt u gewoon extra kolommen aanmaken en ze doornummeren.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Metadata</t>
@@ -3188,25 +3216,19 @@
     <t xml:space="preserve">YYYY-MM-DDTHH:MM:SS</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-06-06T07:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-10-29T07:30:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-10-29T02:30:00</t>
+    <t xml:space="preserve">2026-03-18T07:30:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-03-18T02:30:00</t>
   </si>
   <si>
     <t xml:space="preserve">Sluitingstijd</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-06-06T21:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-10-29T21:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-10-29T20:00:00</t>
+    <t xml:space="preserve">2026-03-18T21:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-03-18T20:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">Toegankelijk voor mensen met een lichamelijke beperking</t>
@@ -3221,13 +3243,19 @@
     <t xml:space="preserve">Toegankelijke ov-halte</t>
   </si>
   <si>
-    <t xml:space="preserve">Is er een toegankelijke ov-halte in de buurt?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gehandicaptentoilet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is er een gehandicaptentoilet aanwezig? </t>
+    <t xml:space="preserve">Is er een toegankelijke ov-halte in de buurt en is de logische route vanaf deze ov-halte naar het stembureau toegankelijk?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toilet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is er een toilet, genderneutraal toilet of toegankelijk toilet aanwezig? Als er zowel een 'toilet' en/of een 'genderneutraal toilet' aanwezig zijn én er ook een 'toegankelijk toilet' aanwezig is vul dan 'toegankelijk toilet' in. Als er zowel een 'toilet' en een 'genderneutraal toilet' aanwezig zijn vul dan 'genderneutraal toilet' in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keuze uit: 'ja', 'ja, genderneutraal toilet', 'ja, toegankelijk toilet', 'nee'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ja, toegankelijk toilet</t>
   </si>
   <si>
     <t xml:space="preserve">Host</t>
@@ -3263,7 +3291,7 @@
     <t xml:space="preserve">Kandidatenlijst met grote letters</t>
   </si>
   <si>
-    <t xml:space="preserve">Is er een kandidatenlijst met grote letters aanwezig voor mensen met een visuele beperking?</t>
+    <t xml:space="preserve">Is er een kandidatenlijst met grote letters aanwezig voor mensen met een visuele beperking? NB: niet te verwarren met de 'vergrote kandidatenlijst' die in elk stembureau verplicht aanwezig is.</t>
   </si>
   <si>
     <t xml:space="preserve">Gebarentolk (NGT)</t>
@@ -3296,6 +3324,12 @@
     <t xml:space="preserve">Dit stembureau is zo ingericht dat er weinig prikkels zijn.</t>
   </si>
   <si>
+    <t xml:space="preserve">Prokkelduo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is er een prokkelduo aanwezig op dit stembureau? Een prokkelduo bestaat uit twee vrijwilligers, één met een (licht) verstandelijke beperking en één zonder, die samen verschillende taken op het stembureau uitvoeren. Voor meer informatie, zie: https://www.prokkel.nl/inclusieve-stembureaus/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extra toegankelijkheidsinformatie</t>
   </si>
   <si>
@@ -3338,7 +3372,7 @@
     <t xml:space="preserve">URL van de gemeentewebsite met data of informatie over de stembureaus (of verkiezingen); Een URL moet met 'http://' of 'https://' beginnen.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.stembureausindenhaag.nl/</t>
+    <t xml:space="preserve">https://www.denhaag.nl/nl/verkiezingen/</t>
   </si>
   <si>
     <t xml:space="preserve">Titel</t>
@@ -3351,7 +3385,7 @@
     <t xml:space="preserve">Stembureaus &lt;verkiezing&gt; &lt;jaar&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Stembureaus Europese Parlementsverkiezingen 2024</t>
+    <t xml:space="preserve">Stembureaus gemeenteraadsverkiezingen 2026</t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -3365,20 +3399,20 @@
     <t xml:space="preserve">NLODS&lt;CBS gemeentecode&gt;stembureaus&lt;YYYYMMDD&gt;&lt;oplopend getal van 000 t/m 999&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">NLODSGM0518stembureaus20240606015</t>
+    <t xml:space="preserve">NLODSGM0518stembureaus20260318017</t>
   </si>
   <si>
     <t xml:space="preserve">Omschrijving</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;verkiezing&gt;: keuze uit 'de Tweede Kamerverkiezingen', 'de gemeenteraadsverkiezingen', 'de Provinciale Statenverkiezingen', 'referendum &lt;naam van referendum&gt;', 'de kiescollegeverkiezingen', 'de eilandsraadsverkiezingen', 'de Europese Parlementsverkiezingen', 'de waterschapsverkiezingen', 'verkiezingen gebiedscommissies en wijkraden' en 'verkiezingen stadsdeelcommissies'
-&lt;datum&gt;: in format zoals '6 juni 2024'</t>
+&lt;datum&gt;: in format zoals '18 maart 2026'</t>
   </si>
   <si>
     <t xml:space="preserve">Overzicht van de locaties van stembureaus. De gegevens hebben betrekking op &lt;verkiezing&gt; op &lt;datum&gt;.</t>
   </si>
   <si>
-    <t xml:space="preserve">Overzicht van de locaties van stembureaus. De gegevens hebben betrekking op de Europese Parlementsverkiezingen op 6 juni 2024.</t>
+    <t xml:space="preserve">Overzicht van de locaties van stembureaus. De gegevens hebben betrekking op de Europese Parlementsverkiezingen op 18 maart 2026.</t>
   </si>
   <si>
     <t xml:space="preserve">Eigenaar</t>
@@ -3417,7 +3451,7 @@
     <t xml:space="preserve">verkiezingen, stembureaus, overheid, democratie, stemmen, kiesdistrict, &lt;aard van de verkiezing&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">verkiezingen, stembureaus, overheid, democratie, stemmen, kiesdistrict, Europese Parlementsverkiezingen</t>
+    <t xml:space="preserve">verkiezingen, stembureaus, overheid, democratie, stemmen, kiesdistrict, gemeenteraadsverkiezingen</t>
   </si>
   <si>
     <t xml:space="preserve">Thema</t>
@@ -3446,7 +3480,7 @@
     <t xml:space="preserve">&lt;gebied&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Nederland</t>
+    <t xml:space="preserve">Europees Nederland</t>
   </si>
   <si>
     <t xml:space="preserve">Datum publicatie</t>
@@ -3458,7 +3492,7 @@
     <t xml:space="preserve">YYYY-MM-DDTHH:MM:SS+-HH:MM</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-04-15T13:05:23+01:00</t>
+    <t xml:space="preserve">2026-02-15T13:05:23+01:00</t>
   </si>
   <si>
     <t xml:space="preserve">Relatie / gebruik andere standaarden</t>
@@ -3476,19 +3510,19 @@
     <t xml:space="preserve">YYYY-MM-DD</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-06-06</t>
+    <t xml:space="preserve">2026-03-18</t>
   </si>
   <si>
     <t xml:space="preserve">Update frequentie</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;datum verkiezing&gt;: in format zoals '6 juni 2024'</t>
+    <t xml:space="preserve">&lt;datum verkiezing&gt;: in format zoals '18 maart 2026'</t>
   </si>
   <si>
     <t xml:space="preserve">Incidenteel tot en met &lt;datum verkiezing&gt; (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezing)</t>
   </si>
   <si>
-    <t xml:space="preserve">Incidenteel tot en met 6 juni 2024 (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezingen)</t>
+    <t xml:space="preserve">Incidenteel tot en met 18 maart 2026 (uiterste bekendmaking van stembureaus is 4 dagen voor de verkiezingen)</t>
   </si>
   <si>
     <t xml:space="preserve">Wijzigings datum</t>
@@ -3510,7 +3544,7 @@
 Invoer is "vast"</t>
   </si>
   <si>
-    <t xml:space="preserve">Stembureaus ODS 1.6</t>
+    <t xml:space="preserve">Stembureaus ODS 1.7</t>
   </si>
   <si>
     <t xml:space="preserve">Status</t>
@@ -3542,12 +3576,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="[$-413]General"/>
+    <numFmt numFmtId="167" formatCode="[$-413]@"/>
+    <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3700,6 +3736,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="arial"/>
       <family val="2"/>
@@ -3731,7 +3773,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3739,6 +3780,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3886,7 +3933,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -4003,43 +4050,219 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="9" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="60" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="61" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="61" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4047,115 +4270,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="60" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="61" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="12" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="12" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="12" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4163,75 +4298,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="64" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="62" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="63" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="59" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4465,20 +4588,21 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="78.19"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="2" width="10.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="2" width="10.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="3" width="10.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4488,17 +4612,17 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4508,10 +4632,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5"/>
+      <c r="B15" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4529,4359 +4653,5381 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AMJ30"/>
+  <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="G27" activeCellId="0" sqref="G27"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="51.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="51.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="28.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="53.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="64.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="46.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="8" width="51.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="51.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1005" min="9" style="8" width="51.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1006" style="6" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="28.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="25.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="53.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="64.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="46.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="9" width="51.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="10" width="51.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1005" min="9" style="9" width="51.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1006" style="7" width="11.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="3" width="51.87"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="13" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AN1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="11" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AR1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AS1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AT1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="11" t="s">
+      <c r="AU1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AV1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AW1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AX1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AY1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="BA1" s="11" t="s">
+      <c r="BA1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BB1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="11" t="s">
+      <c r="BC1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="11" t="s">
+      <c r="BD1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="11" t="s">
+      <c r="BE1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="11" t="s">
+      <c r="BF1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="11" t="s">
+      <c r="BG1" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="11" t="s">
+      <c r="BH1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="11" t="s">
+      <c r="BI1" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="11" t="s">
+      <c r="BJ1" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="11" t="s">
+      <c r="BK1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="11" t="s">
+      <c r="BL1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="11" t="s">
+      <c r="BM1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="11" t="s">
+      <c r="BN1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="11" t="s">
+      <c r="BO1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="BP1" s="11" t="s">
+      <c r="BP1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="11" t="s">
+      <c r="BQ1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="BR1" s="11" t="s">
+      <c r="BR1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="BS1" s="11" t="s">
+      <c r="BS1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="11" t="s">
+      <c r="BT1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="11" t="s">
+      <c r="BU1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="11" t="s">
+      <c r="BV1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="11" t="s">
+      <c r="BW1" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="BX1" s="11" t="s">
+      <c r="BX1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="BY1" s="11" t="s">
+      <c r="BY1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="BZ1" s="11" t="s">
+      <c r="BZ1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="CA1" s="11" t="s">
+      <c r="CA1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="CB1" s="11" t="s">
+      <c r="CB1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="CC1" s="11" t="s">
+      <c r="CC1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="CD1" s="11" t="s">
+      <c r="CD1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="CE1" s="11" t="s">
+      <c r="CE1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="CF1" s="11" t="s">
+      <c r="CF1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="CG1" s="11" t="s">
+      <c r="CG1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="CH1" s="11" t="s">
+      <c r="CH1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="CI1" s="11" t="s">
+      <c r="CI1" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="CJ1" s="11" t="s">
+      <c r="CJ1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="CK1" s="11" t="s">
+      <c r="CK1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="CL1" s="11" t="s">
+      <c r="CL1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="CM1" s="11" t="s">
+      <c r="CM1" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="CN1" s="11" t="s">
+      <c r="CN1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="CO1" s="11" t="s">
+      <c r="CO1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="CP1" s="11" t="s">
+      <c r="CP1" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="CQ1" s="11" t="s">
+      <c r="CQ1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="CR1" s="11" t="s">
+      <c r="CR1" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="CS1" s="11" t="s">
+      <c r="CS1" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="CT1" s="11" t="s">
+      <c r="CT1" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="CU1" s="11" t="s">
+      <c r="CU1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="CV1" s="11" t="s">
+      <c r="CV1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="CW1" s="11" t="s">
+      <c r="CW1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="CX1" s="11" t="s">
+      <c r="CX1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="CY1" s="11" t="s">
+      <c r="CY1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="CZ1" s="11" t="s">
+      <c r="CZ1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="DA1" s="11" t="s">
+      <c r="DA1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="DB1" s="11" t="s">
+      <c r="DB1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="DC1" s="11" t="s">
+      <c r="DC1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="DD1" s="11" t="s">
+      <c r="DD1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="DE1" s="11" t="s">
+      <c r="DE1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="DF1" s="11" t="s">
+      <c r="DF1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="DG1" s="11" t="s">
+      <c r="DG1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="DH1" s="11" t="s">
+      <c r="DH1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="DI1" s="11" t="s">
+      <c r="DI1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="DJ1" s="11" t="s">
+      <c r="DJ1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="DK1" s="11" t="s">
+      <c r="DK1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="DL1" s="11" t="s">
+      <c r="DL1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="DM1" s="11" t="s">
+      <c r="DM1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="DN1" s="11" t="s">
+      <c r="DN1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="DO1" s="11" t="s">
+      <c r="DO1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="DP1" s="11" t="s">
+      <c r="DP1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="DQ1" s="11" t="s">
+      <c r="DQ1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="DR1" s="11" t="s">
+      <c r="DR1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="DS1" s="11" t="s">
+      <c r="DS1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="DT1" s="11" t="s">
+      <c r="DT1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="DU1" s="11" t="s">
+      <c r="DU1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="DV1" s="11" t="s">
+      <c r="DV1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="DW1" s="11" t="s">
+      <c r="DW1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="DX1" s="11" t="s">
+      <c r="DX1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="DY1" s="11" t="s">
+      <c r="DY1" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="DZ1" s="11" t="s">
+      <c r="DZ1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="EA1" s="11" t="s">
+      <c r="EA1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="EB1" s="11" t="s">
+      <c r="EB1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="EC1" s="11" t="s">
+      <c r="EC1" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="ED1" s="11" t="s">
+      <c r="ED1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="EE1" s="11" t="s">
+      <c r="EE1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="EF1" s="11" t="s">
+      <c r="EF1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="EG1" s="11" t="s">
+      <c r="EG1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="EH1" s="11" t="s">
+      <c r="EH1" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="EI1" s="11" t="s">
+      <c r="EI1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="EJ1" s="11" t="s">
+      <c r="EJ1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="EK1" s="11" t="s">
+      <c r="EK1" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="EL1" s="11" t="s">
+      <c r="EL1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="EM1" s="11" t="s">
+      <c r="EM1" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="EN1" s="11" t="s">
+      <c r="EN1" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="EO1" s="11" t="s">
+      <c r="EO1" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="EP1" s="11" t="s">
+      <c r="EP1" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="EQ1" s="11" t="s">
+      <c r="EQ1" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="ER1" s="11" t="s">
+      <c r="ER1" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="ES1" s="11" t="s">
+      <c r="ES1" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="ET1" s="11" t="s">
+      <c r="ET1" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="EU1" s="11" t="s">
+      <c r="EU1" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="EV1" s="11" t="s">
+      <c r="EV1" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="EW1" s="11" t="s">
+      <c r="EW1" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="EX1" s="11" t="s">
+      <c r="EX1" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="EY1" s="11" t="s">
+      <c r="EY1" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="EZ1" s="11" t="s">
+      <c r="EZ1" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="FA1" s="11" t="s">
+      <c r="FA1" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="FB1" s="11" t="s">
+      <c r="FB1" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="FC1" s="11" t="s">
+      <c r="FC1" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="FD1" s="11" t="s">
+      <c r="FD1" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="FE1" s="11" t="s">
+      <c r="FE1" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="FF1" s="11" t="s">
+      <c r="FF1" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="FG1" s="11" t="s">
+      <c r="FG1" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="FH1" s="11" t="s">
+      <c r="FH1" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="FI1" s="11" t="s">
+      <c r="FI1" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="FJ1" s="11" t="s">
+      <c r="FJ1" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="FK1" s="11" t="s">
+      <c r="FK1" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="FL1" s="11" t="s">
+      <c r="FL1" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="FM1" s="11" t="s">
+      <c r="FM1" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="FN1" s="11" t="s">
+      <c r="FN1" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="FO1" s="11" t="s">
+      <c r="FO1" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="FP1" s="11" t="s">
+      <c r="FP1" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="FQ1" s="11" t="s">
+      <c r="FQ1" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="FR1" s="11" t="s">
+      <c r="FR1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="FS1" s="11" t="s">
+      <c r="FS1" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="FT1" s="11" t="s">
+      <c r="FT1" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="FU1" s="11" t="s">
+      <c r="FU1" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="FV1" s="11" t="s">
+      <c r="FV1" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="FW1" s="11" t="s">
+      <c r="FW1" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="FX1" s="11" t="s">
+      <c r="FX1" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="FY1" s="11" t="s">
+      <c r="FY1" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="FZ1" s="11" t="s">
+      <c r="FZ1" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="GA1" s="11" t="s">
+      <c r="GA1" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="GB1" s="11" t="s">
+      <c r="GB1" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="GC1" s="11" t="s">
+      <c r="GC1" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="GD1" s="11" t="s">
+      <c r="GD1" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="GE1" s="11" t="s">
+      <c r="GE1" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="GF1" s="11" t="s">
+      <c r="GF1" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="GG1" s="11" t="s">
+      <c r="GG1" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="GH1" s="11" t="s">
+      <c r="GH1" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="GI1" s="11" t="s">
+      <c r="GI1" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="GJ1" s="11" t="s">
+      <c r="GJ1" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="GK1" s="11" t="s">
+      <c r="GK1" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="GL1" s="11" t="s">
+      <c r="GL1" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="GM1" s="11" t="s">
+      <c r="GM1" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="GN1" s="11" t="s">
+      <c r="GN1" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="GO1" s="11" t="s">
+      <c r="GO1" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="GP1" s="11" t="s">
+      <c r="GP1" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="GQ1" s="11" t="s">
+      <c r="GQ1" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="GR1" s="11" t="s">
+      <c r="GR1" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="GS1" s="11" t="s">
+      <c r="GS1" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="GT1" s="11" t="s">
+      <c r="GT1" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="GU1" s="11" t="s">
+      <c r="GU1" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="GV1" s="11" t="s">
+      <c r="GV1" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="GW1" s="11" t="s">
+      <c r="GW1" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="GX1" s="11" t="s">
+      <c r="GX1" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="GY1" s="11" t="s">
+      <c r="GY1" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="GZ1" s="11" t="s">
+      <c r="GZ1" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="HA1" s="11" t="s">
+      <c r="HA1" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="HB1" s="11" t="s">
+      <c r="HB1" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="HC1" s="11" t="s">
+      <c r="HC1" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="HD1" s="11" t="s">
+      <c r="HD1" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="HE1" s="11" t="s">
+      <c r="HE1" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="HF1" s="11" t="s">
+      <c r="HF1" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="HG1" s="11" t="s">
+      <c r="HG1" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="HH1" s="11" t="s">
+      <c r="HH1" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="HI1" s="11" t="s">
+      <c r="HI1" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="HJ1" s="11" t="s">
+      <c r="HJ1" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="HK1" s="11" t="s">
+      <c r="HK1" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="HL1" s="11" t="s">
+      <c r="HL1" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="HM1" s="11" t="s">
+      <c r="HM1" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="HN1" s="11" t="s">
+      <c r="HN1" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="HO1" s="11" t="s">
+      <c r="HO1" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="HP1" s="11" t="s">
+      <c r="HP1" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="HQ1" s="11" t="s">
+      <c r="HQ1" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="HR1" s="11" t="s">
+      <c r="HR1" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="HS1" s="11" t="s">
+      <c r="HS1" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="HT1" s="11" t="s">
+      <c r="HT1" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="HU1" s="11" t="s">
+      <c r="HU1" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="HV1" s="11" t="s">
+      <c r="HV1" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="HW1" s="11" t="s">
+      <c r="HW1" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="HX1" s="11" t="s">
+      <c r="HX1" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="HY1" s="11" t="s">
+      <c r="HY1" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="HZ1" s="11" t="s">
+      <c r="HZ1" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="IA1" s="11" t="s">
+      <c r="IA1" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="IB1" s="11" t="s">
+      <c r="IB1" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="IC1" s="11" t="s">
+      <c r="IC1" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="ID1" s="11" t="s">
+      <c r="ID1" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="IE1" s="11" t="s">
+      <c r="IE1" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="IF1" s="11" t="s">
+      <c r="IF1" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="IG1" s="11" t="s">
+      <c r="IG1" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="IH1" s="11" t="s">
+      <c r="IH1" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="II1" s="11" t="s">
+      <c r="II1" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="IJ1" s="11" t="s">
+      <c r="IJ1" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="IK1" s="11" t="s">
+      <c r="IK1" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="IL1" s="11" t="s">
+      <c r="IL1" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="IM1" s="11" t="s">
+      <c r="IM1" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="IN1" s="11" t="s">
+      <c r="IN1" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="IO1" s="11" t="s">
+      <c r="IO1" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="IP1" s="11" t="s">
+      <c r="IP1" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="IQ1" s="11" t="s">
+      <c r="IQ1" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="IR1" s="11" t="s">
+      <c r="IR1" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="IS1" s="11" t="s">
+      <c r="IS1" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="IT1" s="11" t="s">
+      <c r="IT1" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="IU1" s="11" t="s">
+      <c r="IU1" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="IV1" s="11" t="s">
+      <c r="IV1" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="IW1" s="11" t="s">
+      <c r="IW1" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="IX1" s="11" t="s">
+      <c r="IX1" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="IY1" s="11" t="s">
+      <c r="IY1" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="IZ1" s="11" t="s">
+      <c r="IZ1" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="JA1" s="11" t="s">
+      <c r="JA1" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="JB1" s="11" t="s">
+      <c r="JB1" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="JC1" s="11" t="s">
+      <c r="JC1" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="JD1" s="11" t="s">
+      <c r="JD1" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="JE1" s="11" t="s">
+      <c r="JE1" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="JF1" s="11" t="s">
+      <c r="JF1" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="JG1" s="11" t="s">
+      <c r="JG1" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="JH1" s="11" t="s">
+      <c r="JH1" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="JI1" s="11" t="s">
+      <c r="JI1" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="JJ1" s="11" t="s">
+      <c r="JJ1" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="JK1" s="11" t="s">
+      <c r="JK1" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="JL1" s="11" t="s">
+      <c r="JL1" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="JM1" s="11" t="s">
+      <c r="JM1" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="JN1" s="11" t="s">
+      <c r="JN1" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="JO1" s="11" t="s">
+      <c r="JO1" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="JP1" s="11" t="s">
+      <c r="JP1" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="JQ1" s="11" t="s">
+      <c r="JQ1" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="JR1" s="11" t="s">
+      <c r="JR1" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="JS1" s="11" t="s">
+      <c r="JS1" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="JT1" s="11" t="s">
+      <c r="JT1" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="JU1" s="11" t="s">
+      <c r="JU1" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="JV1" s="11" t="s">
+      <c r="JV1" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="JW1" s="11" t="s">
+      <c r="JW1" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="JX1" s="11" t="s">
+      <c r="JX1" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="JY1" s="11" t="s">
+      <c r="JY1" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="JZ1" s="11" t="s">
+      <c r="JZ1" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="KA1" s="11" t="s">
+      <c r="KA1" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="KB1" s="11" t="s">
+      <c r="KB1" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="KC1" s="11" t="s">
+      <c r="KC1" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="KD1" s="11" t="s">
+      <c r="KD1" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="KE1" s="11" t="s">
+      <c r="KE1" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="KF1" s="11" t="s">
+      <c r="KF1" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="KG1" s="11" t="s">
+      <c r="KG1" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="KH1" s="11" t="s">
+      <c r="KH1" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="KI1" s="11" t="s">
+      <c r="KI1" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="KJ1" s="11" t="s">
+      <c r="KJ1" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="KK1" s="11" t="s">
+      <c r="KK1" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="KL1" s="11" t="s">
+      <c r="KL1" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="KM1" s="11" t="s">
+      <c r="KM1" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="KN1" s="11" t="s">
+      <c r="KN1" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="KO1" s="11" t="s">
+      <c r="KO1" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="KP1" s="11" t="s">
+      <c r="KP1" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="KQ1" s="11" t="s">
+      <c r="KQ1" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="KR1" s="11" t="s">
+      <c r="KR1" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="KS1" s="11" t="s">
+      <c r="KS1" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="KT1" s="11" t="s">
+      <c r="KT1" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="KU1" s="11" t="s">
+      <c r="KU1" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="KV1" s="11" t="s">
+      <c r="KV1" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="KW1" s="11" t="s">
+      <c r="KW1" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="KX1" s="11" t="s">
+      <c r="KX1" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="KY1" s="11" t="s">
+      <c r="KY1" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="KZ1" s="11" t="s">
+      <c r="KZ1" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="LA1" s="11" t="s">
+      <c r="LA1" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="LB1" s="11" t="s">
+      <c r="LB1" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="LC1" s="11" t="s">
+      <c r="LC1" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="LD1" s="11" t="s">
+      <c r="LD1" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="LE1" s="11" t="s">
+      <c r="LE1" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="LF1" s="11" t="s">
+      <c r="LF1" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="LG1" s="11" t="s">
+      <c r="LG1" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="LH1" s="11" t="s">
+      <c r="LH1" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="LI1" s="11" t="s">
+      <c r="LI1" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="LJ1" s="11" t="s">
+      <c r="LJ1" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="LK1" s="11" t="s">
+      <c r="LK1" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="LL1" s="11" t="s">
+      <c r="LL1" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="LM1" s="11" t="s">
+      <c r="LM1" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="LN1" s="11" t="s">
+      <c r="LN1" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="LO1" s="11" t="s">
+      <c r="LO1" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="LP1" s="11" t="s">
+      <c r="LP1" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="LQ1" s="11" t="s">
+      <c r="LQ1" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="LR1" s="11" t="s">
+      <c r="LR1" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="LS1" s="11" t="s">
+      <c r="LS1" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="LT1" s="11" t="s">
+      <c r="LT1" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="LU1" s="11" t="s">
+      <c r="LU1" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="LV1" s="11" t="s">
+      <c r="LV1" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="LW1" s="11" t="s">
+      <c r="LW1" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="LX1" s="11" t="s">
+      <c r="LX1" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="LY1" s="11" t="s">
+      <c r="LY1" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="LZ1" s="11" t="s">
+      <c r="LZ1" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="MA1" s="11" t="s">
+      <c r="MA1" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="MB1" s="11" t="s">
+      <c r="MB1" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="MC1" s="11" t="s">
+      <c r="MC1" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="MD1" s="11" t="s">
+      <c r="MD1" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="ME1" s="11" t="s">
+      <c r="ME1" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="MF1" s="11" t="s">
+      <c r="MF1" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="MG1" s="11" t="s">
+      <c r="MG1" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="MH1" s="11" t="s">
+      <c r="MH1" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="MI1" s="11" t="s">
+      <c r="MI1" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="MJ1" s="11" t="s">
+      <c r="MJ1" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="MK1" s="11" t="s">
+      <c r="MK1" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="ML1" s="11" t="s">
+      <c r="ML1" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="MM1" s="11" t="s">
+      <c r="MM1" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="MN1" s="11" t="s">
+      <c r="MN1" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="MO1" s="11" t="s">
+      <c r="MO1" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="MP1" s="11" t="s">
+      <c r="MP1" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="MQ1" s="11" t="s">
+      <c r="MQ1" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="MR1" s="11" t="s">
+      <c r="MR1" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="MS1" s="11" t="s">
+      <c r="MS1" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="MT1" s="11" t="s">
+      <c r="MT1" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="MU1" s="11" t="s">
+      <c r="MU1" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="MV1" s="11" t="s">
+      <c r="MV1" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="MW1" s="11" t="s">
+      <c r="MW1" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="MX1" s="11" t="s">
+      <c r="MX1" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="MY1" s="11" t="s">
+      <c r="MY1" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="MZ1" s="11" t="s">
+      <c r="MZ1" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="NA1" s="11" t="s">
+      <c r="NA1" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="NB1" s="11" t="s">
+      <c r="NB1" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="NC1" s="11" t="s">
+      <c r="NC1" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="ND1" s="11" t="s">
+      <c r="ND1" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="NE1" s="11" t="s">
+      <c r="NE1" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="NF1" s="11" t="s">
+      <c r="NF1" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="NG1" s="11" t="s">
+      <c r="NG1" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="NH1" s="11" t="s">
+      <c r="NH1" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="NI1" s="11" t="s">
+      <c r="NI1" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="NJ1" s="11" t="s">
+      <c r="NJ1" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="NK1" s="11" t="s">
+      <c r="NK1" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="NL1" s="11" t="s">
+      <c r="NL1" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="NM1" s="11" t="s">
+      <c r="NM1" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="NN1" s="11" t="s">
+      <c r="NN1" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="NO1" s="11" t="s">
+      <c r="NO1" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="NP1" s="11" t="s">
+      <c r="NP1" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="NQ1" s="11" t="s">
+      <c r="NQ1" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="NR1" s="11" t="s">
+      <c r="NR1" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="NS1" s="11" t="s">
+      <c r="NS1" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="NT1" s="11" t="s">
+      <c r="NT1" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="NU1" s="11" t="s">
+      <c r="NU1" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="NV1" s="11" t="s">
+      <c r="NV1" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="NW1" s="11" t="s">
+      <c r="NW1" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="NX1" s="11" t="s">
+      <c r="NX1" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="NY1" s="11" t="s">
+      <c r="NY1" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="NZ1" s="11" t="s">
+      <c r="NZ1" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="OA1" s="11" t="s">
+      <c r="OA1" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="OB1" s="11" t="s">
+      <c r="OB1" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="OC1" s="11" t="s">
+      <c r="OC1" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="OD1" s="11" t="s">
+      <c r="OD1" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="OE1" s="11" t="s">
+      <c r="OE1" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="OF1" s="11" t="s">
+      <c r="OF1" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="OG1" s="11" t="s">
+      <c r="OG1" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="OH1" s="11" t="s">
+      <c r="OH1" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="OI1" s="11" t="s">
+      <c r="OI1" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="OJ1" s="11" t="s">
+      <c r="OJ1" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="OK1" s="11" t="s">
+      <c r="OK1" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="OL1" s="11" t="s">
+      <c r="OL1" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="OM1" s="11" t="s">
+      <c r="OM1" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="ON1" s="11" t="s">
+      <c r="ON1" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="OO1" s="11" t="s">
+      <c r="OO1" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="OP1" s="11" t="s">
+      <c r="OP1" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="OQ1" s="11" t="s">
+      <c r="OQ1" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="OR1" s="11" t="s">
+      <c r="OR1" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="OS1" s="11" t="s">
+      <c r="OS1" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="OT1" s="11" t="s">
+      <c r="OT1" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="OU1" s="11" t="s">
+      <c r="OU1" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="OV1" s="11" t="s">
+      <c r="OV1" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="OW1" s="11" t="s">
+      <c r="OW1" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="OX1" s="11" t="s">
+      <c r="OX1" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="OY1" s="11" t="s">
+      <c r="OY1" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="OZ1" s="11" t="s">
+      <c r="OZ1" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="PA1" s="11" t="s">
+      <c r="PA1" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="PB1" s="11" t="s">
+      <c r="PB1" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="PC1" s="11" t="s">
+      <c r="PC1" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="PD1" s="11" t="s">
+      <c r="PD1" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="PE1" s="11" t="s">
+      <c r="PE1" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="PF1" s="11" t="s">
+      <c r="PF1" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="PG1" s="11" t="s">
+      <c r="PG1" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="PH1" s="11" t="s">
+      <c r="PH1" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="PI1" s="11" t="s">
+      <c r="PI1" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="PJ1" s="11" t="s">
+      <c r="PJ1" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="PK1" s="11" t="s">
+      <c r="PK1" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="PL1" s="11" t="s">
+      <c r="PL1" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="PM1" s="11" t="s">
+      <c r="PM1" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="PN1" s="11" t="s">
+      <c r="PN1" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="PO1" s="11" t="s">
+      <c r="PO1" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="PP1" s="11" t="s">
+      <c r="PP1" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="PQ1" s="11" t="s">
+      <c r="PQ1" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="PR1" s="11" t="s">
+      <c r="PR1" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="PS1" s="11" t="s">
+      <c r="PS1" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="PT1" s="11" t="s">
+      <c r="PT1" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="PU1" s="11" t="s">
+      <c r="PU1" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="PV1" s="11" t="s">
+      <c r="PV1" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="PW1" s="11" t="s">
+      <c r="PW1" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="PX1" s="11" t="s">
+      <c r="PX1" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="PY1" s="11" t="s">
+      <c r="PY1" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="PZ1" s="11" t="s">
+      <c r="PZ1" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="QA1" s="11" t="s">
+      <c r="QA1" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="QB1" s="11" t="s">
+      <c r="QB1" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="QC1" s="11" t="s">
+      <c r="QC1" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="QD1" s="11" t="s">
+      <c r="QD1" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="QE1" s="11" t="s">
+      <c r="QE1" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="QF1" s="11" t="s">
+      <c r="QF1" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="QG1" s="11" t="s">
+      <c r="QG1" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="QH1" s="11" t="s">
+      <c r="QH1" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="QI1" s="11" t="s">
+      <c r="QI1" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="QJ1" s="11" t="s">
+      <c r="QJ1" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="QK1" s="11" t="s">
+      <c r="QK1" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="QL1" s="11" t="s">
+      <c r="QL1" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="QM1" s="11" t="s">
+      <c r="QM1" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="QN1" s="11" t="s">
+      <c r="QN1" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="QO1" s="11" t="s">
+      <c r="QO1" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="QP1" s="11" t="s">
+      <c r="QP1" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="QQ1" s="11" t="s">
+      <c r="QQ1" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="QR1" s="11" t="s">
+      <c r="QR1" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="QS1" s="11" t="s">
+      <c r="QS1" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="QT1" s="11" t="s">
+      <c r="QT1" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="QU1" s="11" t="s">
+      <c r="QU1" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="QV1" s="11" t="s">
+      <c r="QV1" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="QW1" s="11" t="s">
+      <c r="QW1" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="QX1" s="11" t="s">
+      <c r="QX1" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="QY1" s="11" t="s">
+      <c r="QY1" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="QZ1" s="11" t="s">
+      <c r="QZ1" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="RA1" s="11" t="s">
+      <c r="RA1" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="RB1" s="11" t="s">
+      <c r="RB1" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="RC1" s="11" t="s">
+      <c r="RC1" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="RD1" s="11" t="s">
+      <c r="RD1" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="RE1" s="11" t="s">
+      <c r="RE1" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="RF1" s="11" t="s">
+      <c r="RF1" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="RG1" s="11" t="s">
+      <c r="RG1" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="RH1" s="11" t="s">
+      <c r="RH1" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="RI1" s="11" t="s">
+      <c r="RI1" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="RJ1" s="11" t="s">
+      <c r="RJ1" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="RK1" s="11" t="s">
+      <c r="RK1" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="RL1" s="11" t="s">
+      <c r="RL1" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="RM1" s="11" t="s">
+      <c r="RM1" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="RN1" s="11" t="s">
+      <c r="RN1" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="RO1" s="11" t="s">
+      <c r="RO1" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="RP1" s="11" t="s">
+      <c r="RP1" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="RQ1" s="11" t="s">
+      <c r="RQ1" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="RR1" s="11" t="s">
+      <c r="RR1" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="RS1" s="11" t="s">
+      <c r="RS1" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="RT1" s="11" t="s">
+      <c r="RT1" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="RU1" s="11" t="s">
+      <c r="RU1" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="RV1" s="11" t="s">
+      <c r="RV1" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="RW1" s="11" t="s">
+      <c r="RW1" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="RX1" s="11" t="s">
+      <c r="RX1" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="RY1" s="11" t="s">
+      <c r="RY1" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="RZ1" s="11" t="s">
+      <c r="RZ1" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="SA1" s="11" t="s">
+      <c r="SA1" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="SB1" s="11" t="s">
+      <c r="SB1" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="SC1" s="11" t="s">
+      <c r="SC1" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="SD1" s="11" t="s">
+      <c r="SD1" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="SE1" s="11" t="s">
+      <c r="SE1" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="SF1" s="11" t="s">
+      <c r="SF1" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="SG1" s="11" t="s">
+      <c r="SG1" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="SH1" s="11" t="s">
+      <c r="SH1" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="SI1" s="11" t="s">
+      <c r="SI1" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="SJ1" s="11" t="s">
+      <c r="SJ1" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="SK1" s="11" t="s">
+      <c r="SK1" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="SL1" s="11" t="s">
+      <c r="SL1" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="SM1" s="11" t="s">
+      <c r="SM1" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="SN1" s="11" t="s">
+      <c r="SN1" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="SO1" s="11" t="s">
+      <c r="SO1" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="SP1" s="11" t="s">
+      <c r="SP1" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="SQ1" s="11" t="s">
+      <c r="SQ1" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="SR1" s="11" t="s">
+      <c r="SR1" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="SS1" s="11" t="s">
+      <c r="SS1" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="ST1" s="11" t="s">
+      <c r="ST1" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="SU1" s="11" t="s">
+      <c r="SU1" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="SV1" s="11" t="s">
+      <c r="SV1" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="SW1" s="11" t="s">
+      <c r="SW1" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="SX1" s="11" t="s">
+      <c r="SX1" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="SY1" s="11" t="s">
+      <c r="SY1" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="SZ1" s="11" t="s">
+      <c r="SZ1" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="TA1" s="11" t="s">
+      <c r="TA1" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="TB1" s="11" t="s">
+      <c r="TB1" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="TC1" s="11" t="s">
+      <c r="TC1" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="TD1" s="11" t="s">
+      <c r="TD1" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="TE1" s="11" t="s">
+      <c r="TE1" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="TF1" s="11" t="s">
+      <c r="TF1" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="TG1" s="11" t="s">
+      <c r="TG1" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="TH1" s="11" t="s">
+      <c r="TH1" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="TI1" s="11" t="s">
+      <c r="TI1" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="TJ1" s="11" t="s">
+      <c r="TJ1" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="TK1" s="11" t="s">
+      <c r="TK1" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="TL1" s="11" t="s">
+      <c r="TL1" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="TM1" s="11" t="s">
+      <c r="TM1" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="TN1" s="11" t="s">
+      <c r="TN1" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="TO1" s="11" t="s">
+      <c r="TO1" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="TP1" s="11" t="s">
+      <c r="TP1" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="TQ1" s="11" t="s">
+      <c r="TQ1" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="TR1" s="11" t="s">
+      <c r="TR1" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="TS1" s="11" t="s">
+      <c r="TS1" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="TT1" s="11" t="s">
+      <c r="TT1" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="TU1" s="11" t="s">
+      <c r="TU1" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="TV1" s="11" t="s">
+      <c r="TV1" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="TW1" s="11" t="s">
+      <c r="TW1" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="TX1" s="11" t="s">
+      <c r="TX1" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="TY1" s="11" t="s">
+      <c r="TY1" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="TZ1" s="11" t="s">
+      <c r="TZ1" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="UA1" s="11" t="s">
+      <c r="UA1" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="UB1" s="11" t="s">
+      <c r="UB1" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="UC1" s="11" t="s">
+      <c r="UC1" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="UD1" s="11" t="s">
+      <c r="UD1" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="UE1" s="11" t="s">
+      <c r="UE1" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="UF1" s="11" t="s">
+      <c r="UF1" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="UG1" s="11" t="s">
+      <c r="UG1" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="UH1" s="11" t="s">
+      <c r="UH1" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="UI1" s="11" t="s">
+      <c r="UI1" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="UJ1" s="11" t="s">
+      <c r="UJ1" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="UK1" s="11" t="s">
+      <c r="UK1" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="UL1" s="11" t="s">
+      <c r="UL1" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="UM1" s="11" t="s">
+      <c r="UM1" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="UN1" s="11" t="s">
+      <c r="UN1" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="UO1" s="11" t="s">
+      <c r="UO1" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="UP1" s="11" t="s">
+      <c r="UP1" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="UQ1" s="11" t="s">
+      <c r="UQ1" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="UR1" s="11" t="s">
+      <c r="UR1" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="US1" s="11" t="s">
+      <c r="US1" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="UT1" s="11" t="s">
+      <c r="UT1" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="UU1" s="11" t="s">
+      <c r="UU1" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="UV1" s="11" t="s">
+      <c r="UV1" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="UW1" s="11" t="s">
+      <c r="UW1" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="UX1" s="11" t="s">
+      <c r="UX1" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="UY1" s="11" t="s">
+      <c r="UY1" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="UZ1" s="11" t="s">
+      <c r="UZ1" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="VA1" s="11" t="s">
+      <c r="VA1" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="VB1" s="11" t="s">
+      <c r="VB1" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="VC1" s="11" t="s">
+      <c r="VC1" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="VD1" s="11" t="s">
+      <c r="VD1" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="VE1" s="11" t="s">
+      <c r="VE1" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="VF1" s="11" t="s">
+      <c r="VF1" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="VG1" s="11" t="s">
+      <c r="VG1" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="VH1" s="11" t="s">
+      <c r="VH1" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="VI1" s="11" t="s">
+      <c r="VI1" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="VJ1" s="11" t="s">
+      <c r="VJ1" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="VK1" s="11" t="s">
+      <c r="VK1" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="VL1" s="11" t="s">
+      <c r="VL1" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="VM1" s="11" t="s">
+      <c r="VM1" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="VN1" s="11" t="s">
+      <c r="VN1" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="VO1" s="11" t="s">
+      <c r="VO1" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="VP1" s="11" t="s">
+      <c r="VP1" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="VQ1" s="11" t="s">
+      <c r="VQ1" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="VR1" s="11" t="s">
+      <c r="VR1" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="VS1" s="11" t="s">
+      <c r="VS1" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="VT1" s="11" t="s">
+      <c r="VT1" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="VU1" s="11" t="s">
+      <c r="VU1" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="VV1" s="11" t="s">
+      <c r="VV1" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="VW1" s="11" t="s">
+      <c r="VW1" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="VX1" s="11" t="s">
+      <c r="VX1" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="VY1" s="11" t="s">
+      <c r="VY1" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="VZ1" s="11" t="s">
+      <c r="VZ1" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="WA1" s="11" t="s">
+      <c r="WA1" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="WB1" s="11" t="s">
+      <c r="WB1" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="WC1" s="11" t="s">
+      <c r="WC1" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="WD1" s="11" t="s">
+      <c r="WD1" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="WE1" s="11" t="s">
+      <c r="WE1" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="WF1" s="11" t="s">
+      <c r="WF1" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="WG1" s="11" t="s">
+      <c r="WG1" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="WH1" s="11" t="s">
+      <c r="WH1" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="WI1" s="11" t="s">
+      <c r="WI1" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="WJ1" s="11" t="s">
+      <c r="WJ1" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="WK1" s="11" t="s">
+      <c r="WK1" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="WL1" s="11" t="s">
+      <c r="WL1" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="WM1" s="11" t="s">
+      <c r="WM1" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="WN1" s="11" t="s">
+      <c r="WN1" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="WO1" s="11" t="s">
+      <c r="WO1" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="WP1" s="11" t="s">
+      <c r="WP1" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="WQ1" s="11" t="s">
+      <c r="WQ1" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="WR1" s="11" t="s">
+      <c r="WR1" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="WS1" s="11" t="s">
+      <c r="WS1" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="WT1" s="11" t="s">
+      <c r="WT1" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="WU1" s="11" t="s">
+      <c r="WU1" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="WV1" s="11" t="s">
+      <c r="WV1" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="WW1" s="11" t="s">
+      <c r="WW1" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="WX1" s="11" t="s">
+      <c r="WX1" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="WY1" s="11" t="s">
+      <c r="WY1" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="WZ1" s="11" t="s">
+      <c r="WZ1" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="XA1" s="11" t="s">
+      <c r="XA1" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="XB1" s="11" t="s">
+      <c r="XB1" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="XC1" s="11" t="s">
+      <c r="XC1" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="XD1" s="11" t="s">
+      <c r="XD1" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="XE1" s="11" t="s">
+      <c r="XE1" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="XF1" s="11" t="s">
+      <c r="XF1" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="XG1" s="11" t="s">
+      <c r="XG1" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="XH1" s="11" t="s">
+      <c r="XH1" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="XI1" s="11" t="s">
+      <c r="XI1" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="XJ1" s="11" t="s">
+      <c r="XJ1" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="XK1" s="11" t="s">
+      <c r="XK1" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="XL1" s="11" t="s">
+      <c r="XL1" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="XM1" s="11" t="s">
+      <c r="XM1" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="XN1" s="11" t="s">
+      <c r="XN1" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="XO1" s="11" t="s">
+      <c r="XO1" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="XP1" s="11" t="s">
+      <c r="XP1" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="XQ1" s="11" t="s">
+      <c r="XQ1" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="XR1" s="11" t="s">
+      <c r="XR1" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="XS1" s="11" t="s">
+      <c r="XS1" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="XT1" s="11" t="s">
+      <c r="XT1" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="XU1" s="11" t="s">
+      <c r="XU1" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="XV1" s="11" t="s">
+      <c r="XV1" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="XW1" s="11" t="s">
+      <c r="XW1" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="XX1" s="11" t="s">
+      <c r="XX1" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="XY1" s="11" t="s">
+      <c r="XY1" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="XZ1" s="11" t="s">
+      <c r="XZ1" s="12" t="s">
         <v>654</v>
       </c>
-      <c r="YA1" s="11" t="s">
+      <c r="YA1" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="YB1" s="11" t="s">
+      <c r="YB1" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="YC1" s="11" t="s">
+      <c r="YC1" s="12" t="s">
         <v>657</v>
       </c>
-      <c r="YD1" s="11" t="s">
+      <c r="YD1" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="YE1" s="11" t="s">
+      <c r="YE1" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="YF1" s="11" t="s">
+      <c r="YF1" s="12" t="s">
         <v>660</v>
       </c>
-      <c r="YG1" s="11" t="s">
+      <c r="YG1" s="12" t="s">
         <v>661</v>
       </c>
-      <c r="YH1" s="11" t="s">
+      <c r="YH1" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="YI1" s="11" t="s">
+      <c r="YI1" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="YJ1" s="11" t="s">
+      <c r="YJ1" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="YK1" s="11" t="s">
+      <c r="YK1" s="12" t="s">
         <v>665</v>
       </c>
-      <c r="YL1" s="11" t="s">
+      <c r="YL1" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="YM1" s="11" t="s">
+      <c r="YM1" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="YN1" s="11" t="s">
+      <c r="YN1" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="YO1" s="11" t="s">
+      <c r="YO1" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="YP1" s="11" t="s">
+      <c r="YP1" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="YQ1" s="11" t="s">
+      <c r="YQ1" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="YR1" s="11" t="s">
+      <c r="YR1" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="YS1" s="11" t="s">
+      <c r="YS1" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="YT1" s="11" t="s">
+      <c r="YT1" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="YU1" s="11" t="s">
+      <c r="YU1" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="YV1" s="11" t="s">
+      <c r="YV1" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="YW1" s="11" t="s">
+      <c r="YW1" s="12" t="s">
         <v>677</v>
       </c>
-      <c r="YX1" s="11" t="s">
+      <c r="YX1" s="12" t="s">
         <v>678</v>
       </c>
-      <c r="YY1" s="11" t="s">
+      <c r="YY1" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="YZ1" s="11" t="s">
+      <c r="YZ1" s="12" t="s">
         <v>680</v>
       </c>
-      <c r="ZA1" s="11" t="s">
+      <c r="ZA1" s="12" t="s">
         <v>681</v>
       </c>
-      <c r="ZB1" s="11" t="s">
+      <c r="ZB1" s="12" t="s">
         <v>682</v>
       </c>
-      <c r="ZC1" s="11" t="s">
+      <c r="ZC1" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="ZD1" s="11" t="s">
+      <c r="ZD1" s="12" t="s">
         <v>684</v>
       </c>
-      <c r="ZE1" s="11" t="s">
+      <c r="ZE1" s="12" t="s">
         <v>685</v>
       </c>
-      <c r="ZF1" s="11" t="s">
+      <c r="ZF1" s="12" t="s">
         <v>686</v>
       </c>
-      <c r="ZG1" s="11" t="s">
+      <c r="ZG1" s="12" t="s">
         <v>687</v>
       </c>
-      <c r="ZH1" s="11" t="s">
+      <c r="ZH1" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="ZI1" s="11" t="s">
+      <c r="ZI1" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="ZJ1" s="11" t="s">
+      <c r="ZJ1" s="12" t="s">
         <v>690</v>
       </c>
-      <c r="ZK1" s="11" t="s">
+      <c r="ZK1" s="12" t="s">
         <v>691</v>
       </c>
-      <c r="ZL1" s="11" t="s">
+      <c r="ZL1" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="ZM1" s="11" t="s">
+      <c r="ZM1" s="12" t="s">
         <v>693</v>
       </c>
-      <c r="ZN1" s="11" t="s">
+      <c r="ZN1" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="ZO1" s="11" t="s">
+      <c r="ZO1" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="ZP1" s="11" t="s">
+      <c r="ZP1" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="ZQ1" s="11" t="s">
+      <c r="ZQ1" s="12" t="s">
         <v>697</v>
       </c>
-      <c r="ZR1" s="11" t="s">
+      <c r="ZR1" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="ZS1" s="11" t="s">
+      <c r="ZS1" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="ZT1" s="11" t="s">
+      <c r="ZT1" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="ZU1" s="11" t="s">
+      <c r="ZU1" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="ZV1" s="11" t="s">
+      <c r="ZV1" s="12" t="s">
         <v>702</v>
       </c>
-      <c r="ZW1" s="11" t="s">
+      <c r="ZW1" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="ZX1" s="11" t="s">
+      <c r="ZX1" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="ZY1" s="11" t="s">
+      <c r="ZY1" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="ZZ1" s="11" t="s">
+      <c r="ZZ1" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="AAA1" s="11" t="s">
+      <c r="AAA1" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="AAB1" s="11" t="s">
+      <c r="AAB1" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="AAC1" s="11" t="s">
+      <c r="AAC1" s="12" t="s">
         <v>709</v>
       </c>
-      <c r="AAD1" s="11" t="s">
+      <c r="AAD1" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="AAE1" s="11" t="s">
+      <c r="AAE1" s="12" t="s">
         <v>711</v>
       </c>
-      <c r="AAF1" s="11" t="s">
+      <c r="AAF1" s="12" t="s">
         <v>712</v>
       </c>
-      <c r="AAG1" s="11" t="s">
+      <c r="AAG1" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="AAH1" s="11" t="s">
+      <c r="AAH1" s="12" t="s">
         <v>714</v>
       </c>
-      <c r="AAI1" s="11" t="s">
+      <c r="AAI1" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="AAJ1" s="11" t="s">
+      <c r="AAJ1" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="AAK1" s="11" t="s">
+      <c r="AAK1" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="AAL1" s="11" t="s">
+      <c r="AAL1" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="AAM1" s="11" t="s">
+      <c r="AAM1" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="AAN1" s="11" t="s">
+      <c r="AAN1" s="12" t="s">
         <v>720</v>
       </c>
-      <c r="AAO1" s="11" t="s">
+      <c r="AAO1" s="12" t="s">
         <v>721</v>
       </c>
-      <c r="AAP1" s="11" t="s">
+      <c r="AAP1" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="AAQ1" s="11" t="s">
+      <c r="AAQ1" s="12" t="s">
         <v>723</v>
       </c>
-      <c r="AAR1" s="11" t="s">
+      <c r="AAR1" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="AAS1" s="11" t="s">
+      <c r="AAS1" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="AAT1" s="11" t="s">
+      <c r="AAT1" s="12" t="s">
         <v>726</v>
       </c>
-      <c r="AAU1" s="11" t="s">
+      <c r="AAU1" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="AAV1" s="11" t="s">
+      <c r="AAV1" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="AAW1" s="11" t="s">
+      <c r="AAW1" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="AAX1" s="11" t="s">
+      <c r="AAX1" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="AAY1" s="11" t="s">
+      <c r="AAY1" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="AAZ1" s="11" t="s">
+      <c r="AAZ1" s="12" t="s">
         <v>732</v>
       </c>
-      <c r="ABA1" s="11" t="s">
+      <c r="ABA1" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="ABB1" s="11" t="s">
+      <c r="ABB1" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="ABC1" s="11" t="s">
+      <c r="ABC1" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="ABD1" s="11" t="s">
+      <c r="ABD1" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="ABE1" s="11" t="s">
+      <c r="ABE1" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="ABF1" s="11" t="s">
+      <c r="ABF1" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="ABG1" s="11" t="s">
+      <c r="ABG1" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="ABH1" s="11" t="s">
+      <c r="ABH1" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="ABI1" s="11" t="s">
+      <c r="ABI1" s="12" t="s">
         <v>741</v>
       </c>
-      <c r="ABJ1" s="11" t="s">
+      <c r="ABJ1" s="12" t="s">
         <v>742</v>
       </c>
-      <c r="ABK1" s="11" t="s">
+      <c r="ABK1" s="12" t="s">
         <v>743</v>
       </c>
-      <c r="ABL1" s="11" t="s">
+      <c r="ABL1" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="ABM1" s="11" t="s">
+      <c r="ABM1" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="ABN1" s="11" t="s">
+      <c r="ABN1" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="ABO1" s="11" t="s">
+      <c r="ABO1" s="12" t="s">
         <v>747</v>
       </c>
-      <c r="ABP1" s="11" t="s">
+      <c r="ABP1" s="12" t="s">
         <v>748</v>
       </c>
-      <c r="ABQ1" s="11" t="s">
+      <c r="ABQ1" s="12" t="s">
         <v>749</v>
       </c>
-      <c r="ABR1" s="11" t="s">
+      <c r="ABR1" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="ABS1" s="11" t="s">
+      <c r="ABS1" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="ABT1" s="11" t="s">
+      <c r="ABT1" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="ABU1" s="11" t="s">
+      <c r="ABU1" s="12" t="s">
         <v>753</v>
       </c>
-      <c r="ABV1" s="11" t="s">
+      <c r="ABV1" s="12" t="s">
         <v>754</v>
       </c>
-      <c r="ABW1" s="11" t="s">
+      <c r="ABW1" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="ABX1" s="11" t="s">
+      <c r="ABX1" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="ABY1" s="11" t="s">
+      <c r="ABY1" s="12" t="s">
         <v>757</v>
       </c>
-      <c r="ABZ1" s="11" t="s">
+      <c r="ABZ1" s="12" t="s">
         <v>758</v>
       </c>
-      <c r="ACA1" s="11" t="s">
+      <c r="ACA1" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="ACB1" s="11" t="s">
+      <c r="ACB1" s="12" t="s">
         <v>760</v>
       </c>
-      <c r="ACC1" s="11" t="s">
+      <c r="ACC1" s="12" t="s">
         <v>761</v>
       </c>
-      <c r="ACD1" s="11" t="s">
+      <c r="ACD1" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="ACE1" s="11" t="s">
+      <c r="ACE1" s="12" t="s">
         <v>763</v>
       </c>
-      <c r="ACF1" s="11" t="s">
+      <c r="ACF1" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="ACG1" s="11" t="s">
+      <c r="ACG1" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="ACH1" s="11" t="s">
+      <c r="ACH1" s="12" t="s">
         <v>766</v>
       </c>
-      <c r="ACI1" s="11" t="s">
+      <c r="ACI1" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="ACJ1" s="11" t="s">
+      <c r="ACJ1" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="ACK1" s="11" t="s">
+      <c r="ACK1" s="12" t="s">
         <v>769</v>
       </c>
-      <c r="ACL1" s="11" t="s">
+      <c r="ACL1" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="ACM1" s="11" t="s">
+      <c r="ACM1" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="ACN1" s="11" t="s">
+      <c r="ACN1" s="12" t="s">
         <v>772</v>
       </c>
-      <c r="ACO1" s="11" t="s">
+      <c r="ACO1" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="ACP1" s="11" t="s">
+      <c r="ACP1" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="ACQ1" s="11" t="s">
+      <c r="ACQ1" s="12" t="s">
         <v>775</v>
       </c>
-      <c r="ACR1" s="11" t="s">
+      <c r="ACR1" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="ACS1" s="11" t="s">
+      <c r="ACS1" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="ACT1" s="11" t="s">
+      <c r="ACT1" s="12" t="s">
         <v>778</v>
       </c>
-      <c r="ACU1" s="11" t="s">
+      <c r="ACU1" s="12" t="s">
         <v>779</v>
       </c>
-      <c r="ACV1" s="11" t="s">
+      <c r="ACV1" s="12" t="s">
         <v>780</v>
       </c>
-      <c r="ACW1" s="11" t="s">
+      <c r="ACW1" s="12" t="s">
         <v>781</v>
       </c>
-      <c r="ACX1" s="11" t="s">
+      <c r="ACX1" s="12" t="s">
         <v>782</v>
       </c>
-      <c r="ACY1" s="11" t="s">
+      <c r="ACY1" s="12" t="s">
         <v>783</v>
       </c>
-      <c r="ACZ1" s="11" t="s">
+      <c r="ACZ1" s="12" t="s">
         <v>784</v>
       </c>
-      <c r="ADA1" s="11" t="s">
+      <c r="ADA1" s="12" t="s">
         <v>785</v>
       </c>
-      <c r="ADB1" s="11" t="s">
+      <c r="ADB1" s="12" t="s">
         <v>786</v>
       </c>
-      <c r="ADC1" s="11" t="s">
+      <c r="ADC1" s="12" t="s">
         <v>787</v>
       </c>
-      <c r="ADD1" s="11" t="s">
+      <c r="ADD1" s="12" t="s">
         <v>788</v>
       </c>
-      <c r="ADE1" s="11" t="s">
+      <c r="ADE1" s="12" t="s">
         <v>789</v>
       </c>
-      <c r="ADF1" s="11" t="s">
+      <c r="ADF1" s="12" t="s">
         <v>790</v>
       </c>
-      <c r="ADG1" s="11" t="s">
+      <c r="ADG1" s="12" t="s">
         <v>791</v>
       </c>
-      <c r="ADH1" s="11" t="s">
+      <c r="ADH1" s="12" t="s">
         <v>792</v>
       </c>
-      <c r="ADI1" s="11" t="s">
+      <c r="ADI1" s="12" t="s">
         <v>793</v>
       </c>
-      <c r="ADJ1" s="11" t="s">
+      <c r="ADJ1" s="12" t="s">
         <v>794</v>
       </c>
-      <c r="ADK1" s="11" t="s">
+      <c r="ADK1" s="12" t="s">
         <v>795</v>
       </c>
-      <c r="ADL1" s="11" t="s">
+      <c r="ADL1" s="12" t="s">
         <v>796</v>
       </c>
-      <c r="ADM1" s="11" t="s">
+      <c r="ADM1" s="12" t="s">
         <v>797</v>
       </c>
-      <c r="ADN1" s="11" t="s">
+      <c r="ADN1" s="12" t="s">
         <v>798</v>
       </c>
-      <c r="ADO1" s="11" t="s">
+      <c r="ADO1" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="ADP1" s="11" t="s">
+      <c r="ADP1" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="ADQ1" s="11" t="s">
+      <c r="ADQ1" s="12" t="s">
         <v>801</v>
       </c>
-      <c r="ADR1" s="11" t="s">
+      <c r="ADR1" s="12" t="s">
         <v>802</v>
       </c>
-      <c r="ADS1" s="11" t="s">
+      <c r="ADS1" s="12" t="s">
         <v>803</v>
       </c>
-      <c r="ADT1" s="11" t="s">
+      <c r="ADT1" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="ADU1" s="11" t="s">
+      <c r="ADU1" s="12" t="s">
         <v>805</v>
       </c>
-      <c r="ADV1" s="11" t="s">
+      <c r="ADV1" s="12" t="s">
         <v>806</v>
       </c>
-      <c r="ADW1" s="11" t="s">
+      <c r="ADW1" s="12" t="s">
         <v>807</v>
       </c>
-      <c r="ADX1" s="11" t="s">
+      <c r="ADX1" s="12" t="s">
         <v>808</v>
       </c>
-      <c r="ADY1" s="11" t="s">
+      <c r="ADY1" s="12" t="s">
         <v>809</v>
       </c>
-      <c r="ADZ1" s="11" t="s">
+      <c r="ADZ1" s="12" t="s">
         <v>810</v>
       </c>
-      <c r="AEA1" s="11" t="s">
+      <c r="AEA1" s="12" t="s">
         <v>811</v>
       </c>
-      <c r="AEB1" s="11" t="s">
+      <c r="AEB1" s="12" t="s">
         <v>812</v>
       </c>
-      <c r="AEC1" s="11" t="s">
+      <c r="AEC1" s="12" t="s">
         <v>813</v>
       </c>
-      <c r="AED1" s="11" t="s">
+      <c r="AED1" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="AEE1" s="11" t="s">
+      <c r="AEE1" s="12" t="s">
         <v>815</v>
       </c>
-      <c r="AEF1" s="11" t="s">
+      <c r="AEF1" s="12" t="s">
         <v>816</v>
       </c>
-      <c r="AEG1" s="11" t="s">
+      <c r="AEG1" s="12" t="s">
         <v>817</v>
       </c>
-      <c r="AEH1" s="11" t="s">
+      <c r="AEH1" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="AEI1" s="11" t="s">
+      <c r="AEI1" s="12" t="s">
         <v>819</v>
       </c>
-      <c r="AEJ1" s="11" t="s">
+      <c r="AEJ1" s="12" t="s">
         <v>820</v>
       </c>
-      <c r="AEK1" s="11" t="s">
+      <c r="AEK1" s="12" t="s">
         <v>821</v>
       </c>
-      <c r="AEL1" s="11" t="s">
+      <c r="AEL1" s="12" t="s">
         <v>822</v>
       </c>
-      <c r="AEM1" s="11" t="s">
+      <c r="AEM1" s="12" t="s">
         <v>823</v>
       </c>
-      <c r="AEN1" s="11" t="s">
+      <c r="AEN1" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="AEO1" s="11" t="s">
+      <c r="AEO1" s="12" t="s">
         <v>825</v>
       </c>
-      <c r="AEP1" s="11" t="s">
+      <c r="AEP1" s="12" t="s">
         <v>826</v>
       </c>
-      <c r="AEQ1" s="11" t="s">
+      <c r="AEQ1" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="AER1" s="11" t="s">
+      <c r="AER1" s="12" t="s">
         <v>828</v>
       </c>
-      <c r="AES1" s="11" t="s">
+      <c r="AES1" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="AET1" s="11" t="s">
+      <c r="AET1" s="12" t="s">
         <v>830</v>
       </c>
-      <c r="AEU1" s="11" t="s">
+      <c r="AEU1" s="12" t="s">
         <v>831</v>
       </c>
-      <c r="AEV1" s="11" t="s">
+      <c r="AEV1" s="12" t="s">
         <v>832</v>
       </c>
-      <c r="AEW1" s="11" t="s">
+      <c r="AEW1" s="12" t="s">
         <v>833</v>
       </c>
-      <c r="AEX1" s="11" t="s">
+      <c r="AEX1" s="12" t="s">
         <v>834</v>
       </c>
-      <c r="AEY1" s="11" t="s">
+      <c r="AEY1" s="12" t="s">
         <v>835</v>
       </c>
-      <c r="AEZ1" s="11" t="s">
+      <c r="AEZ1" s="12" t="s">
         <v>836</v>
       </c>
-      <c r="AFA1" s="11" t="s">
+      <c r="AFA1" s="12" t="s">
         <v>837</v>
       </c>
-      <c r="AFB1" s="11" t="s">
+      <c r="AFB1" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="AFC1" s="11" t="s">
+      <c r="AFC1" s="12" t="s">
         <v>839</v>
       </c>
-      <c r="AFD1" s="11" t="s">
+      <c r="AFD1" s="12" t="s">
         <v>840</v>
       </c>
-      <c r="AFE1" s="11" t="s">
+      <c r="AFE1" s="12" t="s">
         <v>841</v>
       </c>
-      <c r="AFF1" s="11" t="s">
+      <c r="AFF1" s="12" t="s">
         <v>842</v>
       </c>
-      <c r="AFG1" s="11" t="s">
+      <c r="AFG1" s="12" t="s">
         <v>843</v>
       </c>
-      <c r="AFH1" s="11" t="s">
+      <c r="AFH1" s="12" t="s">
         <v>844</v>
       </c>
-      <c r="AFI1" s="11" t="s">
+      <c r="AFI1" s="12" t="s">
         <v>845</v>
       </c>
-      <c r="AFJ1" s="11" t="s">
+      <c r="AFJ1" s="12" t="s">
         <v>846</v>
       </c>
-      <c r="AFK1" s="11" t="s">
+      <c r="AFK1" s="12" t="s">
         <v>847</v>
       </c>
-      <c r="AFL1" s="11" t="s">
+      <c r="AFL1" s="12" t="s">
         <v>848</v>
       </c>
-      <c r="AFM1" s="11" t="s">
+      <c r="AFM1" s="12" t="s">
         <v>849</v>
       </c>
-      <c r="AFN1" s="11" t="s">
+      <c r="AFN1" s="12" t="s">
         <v>850</v>
       </c>
-      <c r="AFO1" s="11" t="s">
+      <c r="AFO1" s="12" t="s">
         <v>851</v>
       </c>
-      <c r="AFP1" s="11" t="s">
+      <c r="AFP1" s="12" t="s">
         <v>852</v>
       </c>
-      <c r="AFQ1" s="11" t="s">
+      <c r="AFQ1" s="12" t="s">
         <v>853</v>
       </c>
-      <c r="AFR1" s="11" t="s">
+      <c r="AFR1" s="12" t="s">
         <v>854</v>
       </c>
-      <c r="AFS1" s="11" t="s">
+      <c r="AFS1" s="12" t="s">
         <v>855</v>
       </c>
-      <c r="AFT1" s="11" t="s">
+      <c r="AFT1" s="12" t="s">
         <v>856</v>
       </c>
-      <c r="AFU1" s="11" t="s">
+      <c r="AFU1" s="12" t="s">
         <v>857</v>
       </c>
-      <c r="AFV1" s="11" t="s">
+      <c r="AFV1" s="12" t="s">
         <v>858</v>
       </c>
-      <c r="AFW1" s="11" t="s">
+      <c r="AFW1" s="12" t="s">
         <v>859</v>
       </c>
-      <c r="AFX1" s="11" t="s">
+      <c r="AFX1" s="12" t="s">
         <v>860</v>
       </c>
-      <c r="AFY1" s="11" t="s">
+      <c r="AFY1" s="12" t="s">
         <v>861</v>
       </c>
-      <c r="AFZ1" s="11" t="s">
+      <c r="AFZ1" s="12" t="s">
         <v>862</v>
       </c>
-      <c r="AGA1" s="11" t="s">
+      <c r="AGA1" s="12" t="s">
         <v>863</v>
       </c>
-      <c r="AGB1" s="11" t="s">
+      <c r="AGB1" s="12" t="s">
         <v>864</v>
       </c>
-      <c r="AGC1" s="11" t="s">
+      <c r="AGC1" s="12" t="s">
         <v>865</v>
       </c>
-      <c r="AGD1" s="11" t="s">
+      <c r="AGD1" s="12" t="s">
         <v>866</v>
       </c>
-      <c r="AGE1" s="11" t="s">
+      <c r="AGE1" s="12" t="s">
         <v>867</v>
       </c>
-      <c r="AGF1" s="11" t="s">
+      <c r="AGF1" s="12" t="s">
         <v>868</v>
       </c>
-      <c r="AGG1" s="11" t="s">
+      <c r="AGG1" s="12" t="s">
         <v>869</v>
       </c>
-      <c r="AGH1" s="11" t="s">
+      <c r="AGH1" s="12" t="s">
         <v>870</v>
       </c>
-      <c r="AGI1" s="11" t="s">
+      <c r="AGI1" s="12" t="s">
         <v>871</v>
       </c>
-      <c r="AGJ1" s="11" t="s">
+      <c r="AGJ1" s="12" t="s">
         <v>872</v>
       </c>
-      <c r="AGK1" s="11" t="s">
+      <c r="AGK1" s="12" t="s">
         <v>873</v>
       </c>
-      <c r="AGL1" s="11" t="s">
+      <c r="AGL1" s="12" t="s">
         <v>874</v>
       </c>
-      <c r="AGM1" s="11" t="s">
+      <c r="AGM1" s="12" t="s">
         <v>875</v>
       </c>
-      <c r="AGN1" s="11" t="s">
+      <c r="AGN1" s="12" t="s">
         <v>876</v>
       </c>
-      <c r="AGO1" s="11" t="s">
+      <c r="AGO1" s="12" t="s">
         <v>877</v>
       </c>
-      <c r="AGP1" s="11" t="s">
+      <c r="AGP1" s="12" t="s">
         <v>878</v>
       </c>
-      <c r="AGQ1" s="11" t="s">
+      <c r="AGQ1" s="12" t="s">
         <v>879</v>
       </c>
-      <c r="AGR1" s="11" t="s">
+      <c r="AGR1" s="12" t="s">
         <v>880</v>
       </c>
-      <c r="AGS1" s="11" t="s">
+      <c r="AGS1" s="12" t="s">
         <v>881</v>
       </c>
-      <c r="AGT1" s="11" t="s">
+      <c r="AGT1" s="12" t="s">
         <v>882</v>
       </c>
-      <c r="AGU1" s="11" t="s">
+      <c r="AGU1" s="12" t="s">
         <v>883</v>
       </c>
-      <c r="AGV1" s="11" t="s">
+      <c r="AGV1" s="12" t="s">
         <v>884</v>
       </c>
-      <c r="AGW1" s="11" t="s">
+      <c r="AGW1" s="12" t="s">
         <v>885</v>
       </c>
-      <c r="AGX1" s="11" t="s">
+      <c r="AGX1" s="12" t="s">
         <v>886</v>
       </c>
-      <c r="AGY1" s="11" t="s">
+      <c r="AGY1" s="12" t="s">
         <v>887</v>
       </c>
-      <c r="AGZ1" s="11" t="s">
+      <c r="AGZ1" s="12" t="s">
         <v>888</v>
       </c>
-      <c r="AHA1" s="11" t="s">
+      <c r="AHA1" s="12" t="s">
         <v>889</v>
       </c>
-      <c r="AHB1" s="11" t="s">
+      <c r="AHB1" s="12" t="s">
         <v>890</v>
       </c>
-      <c r="AHC1" s="11" t="s">
+      <c r="AHC1" s="12" t="s">
         <v>891</v>
       </c>
-      <c r="AHD1" s="11" t="s">
+      <c r="AHD1" s="12" t="s">
         <v>892</v>
       </c>
-      <c r="AHE1" s="11" t="s">
+      <c r="AHE1" s="12" t="s">
         <v>893</v>
       </c>
-      <c r="AHF1" s="11" t="s">
+      <c r="AHF1" s="12" t="s">
         <v>894</v>
       </c>
-      <c r="AHG1" s="11" t="s">
+      <c r="AHG1" s="12" t="s">
         <v>895</v>
       </c>
-      <c r="AHH1" s="11" t="s">
+      <c r="AHH1" s="12" t="s">
         <v>896</v>
       </c>
-      <c r="AHI1" s="11" t="s">
+      <c r="AHI1" s="12" t="s">
         <v>897</v>
       </c>
-      <c r="AHJ1" s="11" t="s">
+      <c r="AHJ1" s="12" t="s">
         <v>898</v>
       </c>
-      <c r="AHK1" s="11" t="s">
+      <c r="AHK1" s="12" t="s">
         <v>899</v>
       </c>
-      <c r="AHL1" s="11" t="s">
+      <c r="AHL1" s="12" t="s">
         <v>900</v>
       </c>
-      <c r="AHM1" s="11" t="s">
+      <c r="AHM1" s="12" t="s">
         <v>901</v>
       </c>
-      <c r="AHN1" s="11" t="s">
+      <c r="AHN1" s="12" t="s">
         <v>902</v>
       </c>
-      <c r="AHO1" s="11" t="s">
+      <c r="AHO1" s="12" t="s">
         <v>903</v>
       </c>
-      <c r="AHP1" s="11" t="s">
+      <c r="AHP1" s="12" t="s">
         <v>904</v>
       </c>
-      <c r="AHQ1" s="11" t="s">
+      <c r="AHQ1" s="12" t="s">
         <v>905</v>
       </c>
-      <c r="AHR1" s="11" t="s">
+      <c r="AHR1" s="12" t="s">
         <v>906</v>
       </c>
-      <c r="AHS1" s="11" t="s">
+      <c r="AHS1" s="12" t="s">
         <v>907</v>
       </c>
-      <c r="AHT1" s="11" t="s">
+      <c r="AHT1" s="12" t="s">
         <v>908</v>
       </c>
-      <c r="AHU1" s="11" t="s">
+      <c r="AHU1" s="12" t="s">
         <v>909</v>
       </c>
-      <c r="AHV1" s="11" t="s">
+      <c r="AHV1" s="12" t="s">
         <v>910</v>
       </c>
-      <c r="AHW1" s="11" t="s">
+      <c r="AHW1" s="12" t="s">
         <v>911</v>
       </c>
-      <c r="AHX1" s="11" t="s">
+      <c r="AHX1" s="12" t="s">
         <v>912</v>
       </c>
-      <c r="AHY1" s="11" t="s">
+      <c r="AHY1" s="12" t="s">
         <v>913</v>
       </c>
-      <c r="AHZ1" s="11" t="s">
+      <c r="AHZ1" s="12" t="s">
         <v>914</v>
       </c>
-      <c r="AIA1" s="11" t="s">
+      <c r="AIA1" s="12" t="s">
         <v>915</v>
       </c>
-      <c r="AIB1" s="11" t="s">
+      <c r="AIB1" s="12" t="s">
         <v>916</v>
       </c>
-      <c r="AIC1" s="11" t="s">
+      <c r="AIC1" s="12" t="s">
         <v>917</v>
       </c>
-      <c r="AID1" s="11" t="s">
+      <c r="AID1" s="12" t="s">
         <v>918</v>
       </c>
-      <c r="AIE1" s="11" t="s">
+      <c r="AIE1" s="12" t="s">
         <v>919</v>
       </c>
-      <c r="AIF1" s="11" t="s">
+      <c r="AIF1" s="12" t="s">
         <v>920</v>
       </c>
-      <c r="AIG1" s="11" t="s">
+      <c r="AIG1" s="12" t="s">
         <v>921</v>
       </c>
-      <c r="AIH1" s="11" t="s">
+      <c r="AIH1" s="12" t="s">
         <v>922</v>
       </c>
-      <c r="AII1" s="11" t="s">
+      <c r="AII1" s="12" t="s">
         <v>923</v>
       </c>
-      <c r="AIJ1" s="11" t="s">
+      <c r="AIJ1" s="12" t="s">
         <v>924</v>
       </c>
-      <c r="AIK1" s="11" t="s">
+      <c r="AIK1" s="12" t="s">
         <v>925</v>
       </c>
-      <c r="AIL1" s="11" t="s">
+      <c r="AIL1" s="12" t="s">
         <v>926</v>
       </c>
-      <c r="AIM1" s="11" t="s">
+      <c r="AIM1" s="12" t="s">
         <v>927</v>
       </c>
-      <c r="AIN1" s="11" t="s">
+      <c r="AIN1" s="12" t="s">
         <v>928</v>
       </c>
-      <c r="AIO1" s="11" t="s">
+      <c r="AIO1" s="12" t="s">
         <v>929</v>
       </c>
-      <c r="AIP1" s="11" t="s">
+      <c r="AIP1" s="12" t="s">
         <v>930</v>
       </c>
-      <c r="AIQ1" s="11" t="s">
+      <c r="AIQ1" s="12" t="s">
         <v>931</v>
       </c>
-      <c r="AIR1" s="11" t="s">
+      <c r="AIR1" s="12" t="s">
         <v>932</v>
       </c>
-      <c r="AIS1" s="11" t="s">
+      <c r="AIS1" s="12" t="s">
         <v>933</v>
       </c>
-      <c r="AIT1" s="11" t="s">
+      <c r="AIT1" s="12" t="s">
         <v>934</v>
       </c>
-      <c r="AIU1" s="11" t="s">
+      <c r="AIU1" s="12" t="s">
         <v>935</v>
       </c>
-      <c r="AIV1" s="11" t="s">
+      <c r="AIV1" s="12" t="s">
         <v>936</v>
       </c>
-      <c r="AIW1" s="11" t="s">
+      <c r="AIW1" s="12" t="s">
         <v>937</v>
       </c>
-      <c r="AIX1" s="11" t="s">
+      <c r="AIX1" s="12" t="s">
         <v>938</v>
       </c>
-      <c r="AIY1" s="11" t="s">
+      <c r="AIY1" s="12" t="s">
         <v>939</v>
       </c>
-      <c r="AIZ1" s="11" t="s">
+      <c r="AIZ1" s="12" t="s">
         <v>940</v>
       </c>
-      <c r="AJA1" s="11" t="s">
+      <c r="AJA1" s="12" t="s">
         <v>941</v>
       </c>
-      <c r="AJB1" s="11" t="s">
+      <c r="AJB1" s="12" t="s">
         <v>942</v>
       </c>
-      <c r="AJC1" s="11" t="s">
+      <c r="AJC1" s="12" t="s">
         <v>943</v>
       </c>
-      <c r="AJD1" s="11" t="s">
+      <c r="AJD1" s="12" t="s">
         <v>944</v>
       </c>
-      <c r="AJE1" s="11" t="s">
+      <c r="AJE1" s="12" t="s">
         <v>945</v>
       </c>
-      <c r="AJF1" s="11" t="s">
+      <c r="AJF1" s="12" t="s">
         <v>946</v>
       </c>
-      <c r="AJG1" s="11" t="s">
+      <c r="AJG1" s="12" t="s">
         <v>947</v>
       </c>
-      <c r="AJH1" s="11" t="s">
+      <c r="AJH1" s="12" t="s">
         <v>948</v>
       </c>
-      <c r="AJI1" s="11" t="s">
+      <c r="AJI1" s="12" t="s">
         <v>949</v>
       </c>
-      <c r="AJJ1" s="11" t="s">
+      <c r="AJJ1" s="12" t="s">
         <v>950</v>
       </c>
-      <c r="AJK1" s="11" t="s">
+      <c r="AJK1" s="12" t="s">
         <v>951</v>
       </c>
-      <c r="AJL1" s="11" t="s">
+      <c r="AJL1" s="12" t="s">
         <v>952</v>
       </c>
-      <c r="AJM1" s="11" t="s">
+      <c r="AJM1" s="12" t="s">
         <v>953</v>
       </c>
-      <c r="AJN1" s="11" t="s">
+      <c r="AJN1" s="12" t="s">
         <v>954</v>
       </c>
-      <c r="AJO1" s="11" t="s">
+      <c r="AJO1" s="12" t="s">
         <v>955</v>
       </c>
-      <c r="AJP1" s="11" t="s">
+      <c r="AJP1" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="AJQ1" s="11" t="s">
+      <c r="AJQ1" s="12" t="s">
         <v>957</v>
       </c>
-      <c r="AJR1" s="11" t="s">
+      <c r="AJR1" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="AJS1" s="11" t="s">
+      <c r="AJS1" s="12" t="s">
         <v>959</v>
       </c>
-      <c r="AJT1" s="11" t="s">
+      <c r="AJT1" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="AJU1" s="11" t="s">
+      <c r="AJU1" s="12" t="s">
         <v>961</v>
       </c>
-      <c r="AJV1" s="11" t="s">
+      <c r="AJV1" s="12" t="s">
         <v>962</v>
       </c>
-      <c r="AJW1" s="11" t="s">
+      <c r="AJW1" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="AJX1" s="11" t="s">
+      <c r="AJX1" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="AJY1" s="11" t="s">
+      <c r="AJY1" s="12" t="s">
         <v>965</v>
       </c>
-      <c r="AJZ1" s="11" t="s">
+      <c r="AJZ1" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="AKA1" s="11" t="s">
+      <c r="AKA1" s="12" t="s">
         <v>967</v>
       </c>
-      <c r="AKB1" s="11" t="s">
+      <c r="AKB1" s="12" t="s">
         <v>968</v>
       </c>
-      <c r="AKC1" s="11" t="s">
+      <c r="AKC1" s="12" t="s">
         <v>969</v>
       </c>
-      <c r="AKD1" s="11" t="s">
+      <c r="AKD1" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="AKE1" s="11" t="s">
+      <c r="AKE1" s="12" t="s">
         <v>971</v>
       </c>
-      <c r="AKF1" s="11" t="s">
+      <c r="AKF1" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="AKG1" s="11" t="s">
+      <c r="AKG1" s="12" t="s">
         <v>973</v>
       </c>
-      <c r="AKH1" s="11" t="s">
+      <c r="AKH1" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="AKI1" s="11" t="s">
+      <c r="AKI1" s="12" t="s">
         <v>975</v>
       </c>
-      <c r="AKJ1" s="11" t="s">
+      <c r="AKJ1" s="12" t="s">
         <v>976</v>
       </c>
-      <c r="AKK1" s="11" t="s">
+      <c r="AKK1" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="AKL1" s="11" t="s">
+      <c r="AKL1" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="AKM1" s="11" t="s">
+      <c r="AKM1" s="12" t="s">
         <v>979</v>
       </c>
-      <c r="AKN1" s="11" t="s">
+      <c r="AKN1" s="12" t="s">
         <v>980</v>
       </c>
-      <c r="AKO1" s="11" t="s">
+      <c r="AKO1" s="12" t="s">
         <v>981</v>
       </c>
-      <c r="AKP1" s="11" t="s">
+      <c r="AKP1" s="12" t="s">
         <v>982</v>
       </c>
-      <c r="AKQ1" s="11" t="s">
+      <c r="AKQ1" s="12" t="s">
         <v>983</v>
       </c>
-      <c r="AKR1" s="11" t="s">
+      <c r="AKR1" s="12" t="s">
         <v>984</v>
       </c>
-      <c r="AKS1" s="11" t="s">
+      <c r="AKS1" s="12" t="s">
         <v>985</v>
       </c>
-      <c r="AKT1" s="11" t="s">
+      <c r="AKT1" s="12" t="s">
         <v>986</v>
       </c>
-      <c r="AKU1" s="11" t="s">
+      <c r="AKU1" s="12" t="s">
         <v>987</v>
       </c>
-      <c r="AKV1" s="11" t="s">
+      <c r="AKV1" s="12" t="s">
         <v>988</v>
       </c>
-      <c r="AKW1" s="11" t="s">
+      <c r="AKW1" s="12" t="s">
         <v>989</v>
       </c>
-      <c r="AKX1" s="11" t="s">
+      <c r="AKX1" s="12" t="s">
         <v>990</v>
       </c>
-      <c r="AKY1" s="11" t="s">
+      <c r="AKY1" s="12" t="s">
         <v>991</v>
       </c>
-      <c r="AKZ1" s="11" t="s">
+      <c r="AKZ1" s="12" t="s">
         <v>992</v>
       </c>
-      <c r="ALA1" s="11" t="s">
+      <c r="ALA1" s="12" t="s">
         <v>993</v>
       </c>
-      <c r="ALB1" s="11" t="s">
+      <c r="ALB1" s="12" t="s">
         <v>994</v>
       </c>
-      <c r="ALC1" s="11" t="s">
+      <c r="ALC1" s="12" t="s">
         <v>995</v>
       </c>
-      <c r="ALD1" s="11" t="s">
+      <c r="ALD1" s="12" t="s">
         <v>996</v>
       </c>
-      <c r="ALE1" s="11" t="s">
+      <c r="ALE1" s="12" t="s">
         <v>997</v>
       </c>
-      <c r="ALF1" s="11" t="s">
+      <c r="ALF1" s="12" t="s">
         <v>998</v>
       </c>
-      <c r="ALG1" s="11" t="s">
+      <c r="ALG1" s="12" t="s">
         <v>999</v>
       </c>
-      <c r="ALH1" s="11" t="s">
+      <c r="ALH1" s="12" t="s">
         <v>1000</v>
       </c>
-      <c r="ALI1" s="11" t="s">
+      <c r="ALI1" s="12" t="s">
         <v>1001</v>
       </c>
-      <c r="ALJ1" s="11" t="s">
+      <c r="ALJ1" s="12" t="s">
         <v>1002</v>
       </c>
-      <c r="ALK1" s="11" t="s">
+      <c r="ALK1" s="12" t="s">
         <v>1003</v>
       </c>
-      <c r="ALL1" s="11" t="s">
+      <c r="ALL1" s="12" t="s">
         <v>1004</v>
       </c>
-      <c r="ALM1" s="11" t="s">
+      <c r="ALM1" s="12" t="s">
         <v>1005</v>
       </c>
-      <c r="ALN1" s="11" t="s">
+      <c r="ALN1" s="12" t="s">
         <v>1006</v>
       </c>
-      <c r="ALO1" s="11" t="s">
+      <c r="ALO1" s="12" t="s">
         <v>1007</v>
       </c>
-      <c r="ALP1" s="11" t="s">
+      <c r="ALP1" s="12" t="s">
         <v>1008</v>
       </c>
-      <c r="ALQ1" s="11" t="s">
+      <c r="ALQ1" s="12" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+    <row r="2" s="10" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
         <v>1010</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>1011</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>1012</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>1013</v>
       </c>
-      <c r="E2" s="16" t="n">
+      <c r="E2" s="17" t="n">
         <v>517</v>
       </c>
-      <c r="F2" s="16" t="n">
+      <c r="F2" s="18" t="n">
         <v>517</v>
       </c>
-      <c r="G2" s="16" t="n">
+      <c r="G2" s="18" t="n">
         <v>516</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="ALR2" s="6"/>
-      <c r="ALS2" s="6"/>
-      <c r="ALT2" s="6"/>
-      <c r="ALU2" s="6"/>
-      <c r="ALV2" s="6"/>
-      <c r="ALW2" s="6"/>
-      <c r="ALX2" s="6"/>
-      <c r="ALY2" s="6"/>
-      <c r="ALZ2" s="6"/>
-      <c r="AMA2" s="6"/>
-      <c r="AMB2" s="6"/>
-      <c r="AMC2" s="6"/>
-      <c r="AMD2" s="6"/>
-      <c r="AME2" s="6"/>
-      <c r="AMF2" s="6"/>
-      <c r="AMG2" s="6"/>
-      <c r="AMH2" s="6"/>
-      <c r="AMI2" s="6"/>
-      <c r="AMJ2" s="6"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="ALR2" s="7"/>
+      <c r="ALS2" s="7"/>
+      <c r="ALT2" s="7"/>
+      <c r="ALU2" s="7"/>
+      <c r="ALV2" s="7"/>
+      <c r="ALW2" s="7"/>
+      <c r="ALX2" s="7"/>
+      <c r="ALY2" s="7"/>
+      <c r="ALZ2" s="7"/>
+      <c r="AMA2" s="7"/>
+      <c r="AMB2" s="7"/>
+      <c r="AMC2" s="7"/>
+      <c r="AMD2" s="7"/>
+      <c r="AME2" s="7"/>
+      <c r="AMF2" s="7"/>
+      <c r="AMG2" s="7"/>
+      <c r="AMH2" s="7"/>
+      <c r="AMI2" s="7"/>
+      <c r="AMJ2" s="7"/>
     </row>
-    <row r="3" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
         <v>1014</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>1011</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>1015</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>1016</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>1016</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="18" t="s">
         <v>1016</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="ALR3" s="6"/>
-      <c r="ALS3" s="6"/>
-      <c r="ALT3" s="6"/>
-      <c r="ALU3" s="6"/>
-      <c r="ALV3" s="6"/>
-      <c r="ALW3" s="6"/>
-      <c r="ALX3" s="6"/>
-      <c r="ALY3" s="6"/>
-      <c r="ALZ3" s="6"/>
-      <c r="AMA3" s="6"/>
-      <c r="AMB3" s="6"/>
-      <c r="AMC3" s="6"/>
-      <c r="AMD3" s="6"/>
-      <c r="AME3" s="6"/>
-      <c r="AMF3" s="6"/>
-      <c r="AMG3" s="6"/>
-      <c r="AMH3" s="6"/>
-      <c r="AMI3" s="6"/>
-      <c r="AMJ3" s="6"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="ALR3" s="7"/>
+      <c r="ALS3" s="7"/>
+      <c r="ALT3" s="7"/>
+      <c r="ALU3" s="7"/>
+      <c r="ALV3" s="7"/>
+      <c r="ALW3" s="7"/>
+      <c r="ALX3" s="7"/>
+      <c r="ALY3" s="7"/>
+      <c r="ALZ3" s="7"/>
+      <c r="AMA3" s="7"/>
+      <c r="AMB3" s="7"/>
+      <c r="AMC3" s="7"/>
+      <c r="AMD3" s="7"/>
+      <c r="AME3" s="7"/>
+      <c r="AMF3" s="7"/>
+      <c r="AMG3" s="7"/>
+      <c r="AMH3" s="7"/>
+      <c r="AMI3" s="7"/>
+      <c r="AMJ3" s="7"/>
     </row>
-    <row r="4" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+    <row r="4" s="10" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
         <v>1017</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>1011</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>1018</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>1019</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>1020</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>1020</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="18" t="s">
         <v>1021</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="ALR4" s="6"/>
-      <c r="ALS4" s="6"/>
-      <c r="ALT4" s="6"/>
-      <c r="ALU4" s="6"/>
-      <c r="ALV4" s="6"/>
-      <c r="ALW4" s="6"/>
-      <c r="ALX4" s="6"/>
-      <c r="ALY4" s="6"/>
-      <c r="ALZ4" s="6"/>
-      <c r="AMA4" s="6"/>
-      <c r="AMB4" s="6"/>
-      <c r="AMC4" s="6"/>
-      <c r="AMD4" s="6"/>
-      <c r="AME4" s="6"/>
-      <c r="AMF4" s="6"/>
-      <c r="AMG4" s="6"/>
-      <c r="AMH4" s="6"/>
-      <c r="AMI4" s="6"/>
-      <c r="AMJ4" s="6"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="ALR4" s="7"/>
+      <c r="ALS4" s="7"/>
+      <c r="ALT4" s="7"/>
+      <c r="ALU4" s="7"/>
+      <c r="ALV4" s="7"/>
+      <c r="ALW4" s="7"/>
+      <c r="ALX4" s="7"/>
+      <c r="ALY4" s="7"/>
+      <c r="ALZ4" s="7"/>
+      <c r="AMA4" s="7"/>
+      <c r="AMB4" s="7"/>
+      <c r="AMC4" s="7"/>
+      <c r="AMD4" s="7"/>
+      <c r="AME4" s="7"/>
+      <c r="AMF4" s="7"/>
+      <c r="AMG4" s="7"/>
+      <c r="AMH4" s="7"/>
+      <c r="AMI4" s="7"/>
+      <c r="AMJ4" s="7"/>
     </row>
-    <row r="5" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+    <row r="5" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
         <v>1022</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>1023</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>1024</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>1025</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="21" t="s">
         <v>1026</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="22" t="s">
         <v>1026</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="22" t="s">
         <v>1026</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="ALR5" s="6"/>
-      <c r="ALS5" s="6"/>
-      <c r="ALT5" s="6"/>
-      <c r="ALU5" s="6"/>
-      <c r="ALV5" s="6"/>
-      <c r="ALW5" s="6"/>
-      <c r="ALX5" s="6"/>
-      <c r="ALY5" s="6"/>
-      <c r="ALZ5" s="6"/>
-      <c r="AMA5" s="6"/>
-      <c r="AMB5" s="6"/>
-      <c r="AMC5" s="6"/>
-      <c r="AMD5" s="6"/>
-      <c r="AME5" s="6"/>
-      <c r="AMF5" s="6"/>
-      <c r="AMG5" s="6"/>
-      <c r="AMH5" s="6"/>
-      <c r="AMI5" s="6"/>
-      <c r="AMJ5" s="6"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="ALR5" s="7"/>
+      <c r="ALS5" s="7"/>
+      <c r="ALT5" s="7"/>
+      <c r="ALU5" s="7"/>
+      <c r="ALV5" s="7"/>
+      <c r="ALW5" s="7"/>
+      <c r="ALX5" s="7"/>
+      <c r="ALY5" s="7"/>
+      <c r="ALZ5" s="7"/>
+      <c r="AMA5" s="7"/>
+      <c r="AMB5" s="7"/>
+      <c r="AMC5" s="7"/>
+      <c r="AMD5" s="7"/>
+      <c r="AME5" s="7"/>
+      <c r="AMF5" s="7"/>
+      <c r="AMG5" s="7"/>
+      <c r="AMH5" s="7"/>
+      <c r="AMI5" s="7"/>
+      <c r="AMJ5" s="7"/>
     </row>
-    <row r="6" s="9" customFormat="true" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
+    <row r="6" s="10" customFormat="true" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
         <v>1027</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>1011</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>1028</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>1013</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="23" t="s">
         <v>1029</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="24" t="s">
         <v>1029</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="24" t="s">
         <v>1029</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="ALR6" s="6"/>
-      <c r="ALS6" s="6"/>
-      <c r="ALT6" s="6"/>
-      <c r="ALU6" s="6"/>
-      <c r="ALV6" s="6"/>
-      <c r="ALW6" s="6"/>
-      <c r="ALX6" s="6"/>
-      <c r="ALY6" s="6"/>
-      <c r="ALZ6" s="6"/>
-      <c r="AMA6" s="6"/>
-      <c r="AMB6" s="6"/>
-      <c r="AMC6" s="6"/>
-      <c r="AMD6" s="6"/>
-      <c r="AME6" s="6"/>
-      <c r="AMF6" s="6"/>
-      <c r="AMG6" s="6"/>
-      <c r="AMH6" s="6"/>
-      <c r="AMI6" s="6"/>
-      <c r="AMJ6" s="6"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="ALR6" s="7"/>
+      <c r="ALS6" s="7"/>
+      <c r="ALT6" s="7"/>
+      <c r="ALU6" s="7"/>
+      <c r="ALV6" s="7"/>
+      <c r="ALW6" s="7"/>
+      <c r="ALX6" s="7"/>
+      <c r="ALY6" s="7"/>
+      <c r="ALZ6" s="7"/>
+      <c r="AMA6" s="7"/>
+      <c r="AMB6" s="7"/>
+      <c r="AMC6" s="7"/>
+      <c r="AMD6" s="7"/>
+      <c r="AME6" s="7"/>
+      <c r="AMF6" s="7"/>
+      <c r="AMG6" s="7"/>
+      <c r="AMH6" s="7"/>
+      <c r="AMI6" s="7"/>
+      <c r="AMJ6" s="7"/>
     </row>
-    <row r="7" s="9" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+    <row r="7" s="10" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
         <v>1030</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>1031</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>1032</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>1033</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="26" t="s">
         <v>1034</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="27" t="s">
         <v>1034</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="ALR7" s="6"/>
-      <c r="ALS7" s="6"/>
-      <c r="ALT7" s="6"/>
-      <c r="ALU7" s="6"/>
-      <c r="ALV7" s="6"/>
-      <c r="ALW7" s="6"/>
-      <c r="ALX7" s="6"/>
-      <c r="ALY7" s="6"/>
-      <c r="ALZ7" s="6"/>
-      <c r="AMA7" s="6"/>
-      <c r="AMB7" s="6"/>
-      <c r="AMC7" s="6"/>
-      <c r="AMD7" s="6"/>
-      <c r="AME7" s="6"/>
-      <c r="AMF7" s="6"/>
-      <c r="AMG7" s="6"/>
-      <c r="AMH7" s="6"/>
-      <c r="AMI7" s="6"/>
-      <c r="AMJ7" s="6"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="ALR7" s="7"/>
+      <c r="ALS7" s="7"/>
+      <c r="ALT7" s="7"/>
+      <c r="ALU7" s="7"/>
+      <c r="ALV7" s="7"/>
+      <c r="ALW7" s="7"/>
+      <c r="ALX7" s="7"/>
+      <c r="ALY7" s="7"/>
+      <c r="ALZ7" s="7"/>
+      <c r="AMA7" s="7"/>
+      <c r="AMB7" s="7"/>
+      <c r="AMC7" s="7"/>
+      <c r="AMD7" s="7"/>
+      <c r="AME7" s="7"/>
+      <c r="AMF7" s="7"/>
+      <c r="AMG7" s="7"/>
+      <c r="AMH7" s="7"/>
+      <c r="AMI7" s="7"/>
+      <c r="AMJ7" s="7"/>
     </row>
-    <row r="8" s="9" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+    <row r="8" s="10" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
         <v>1035</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>1036</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>1037</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>1038</v>
       </c>
-      <c r="E8" s="19" t="n">
+      <c r="E8" s="21" t="n">
         <v>81611</v>
       </c>
-      <c r="F8" s="19" t="n">
+      <c r="F8" s="22" t="n">
         <v>81611</v>
       </c>
-      <c r="G8" s="19" t="n">
+      <c r="G8" s="22" t="n">
         <v>81611</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="ALR8" s="6"/>
-      <c r="ALS8" s="6"/>
-      <c r="ALT8" s="6"/>
-      <c r="ALU8" s="6"/>
-      <c r="ALV8" s="6"/>
-      <c r="ALW8" s="6"/>
-      <c r="ALX8" s="6"/>
-      <c r="ALY8" s="6"/>
-      <c r="ALZ8" s="6"/>
-      <c r="AMA8" s="6"/>
-      <c r="AMB8" s="6"/>
-      <c r="AMC8" s="6"/>
-      <c r="AMD8" s="6"/>
-      <c r="AME8" s="6"/>
-      <c r="AMF8" s="6"/>
-      <c r="AMG8" s="6"/>
-      <c r="AMH8" s="6"/>
-      <c r="AMI8" s="6"/>
-      <c r="AMJ8" s="6"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="ALR8" s="7"/>
+      <c r="ALS8" s="7"/>
+      <c r="ALT8" s="7"/>
+      <c r="ALU8" s="7"/>
+      <c r="ALV8" s="7"/>
+      <c r="ALW8" s="7"/>
+      <c r="ALX8" s="7"/>
+      <c r="ALY8" s="7"/>
+      <c r="ALZ8" s="7"/>
+      <c r="AMA8" s="7"/>
+      <c r="AMB8" s="7"/>
+      <c r="AMC8" s="7"/>
+      <c r="AMD8" s="7"/>
+      <c r="AME8" s="7"/>
+      <c r="AMF8" s="7"/>
+      <c r="AMG8" s="7"/>
+      <c r="AMH8" s="7"/>
+      <c r="AMI8" s="7"/>
+      <c r="AMJ8" s="7"/>
     </row>
-    <row r="9" s="9" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+    <row r="9" s="10" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
         <v>1039</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>1036</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>1040</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>1041</v>
       </c>
-      <c r="E9" s="19" t="n">
+      <c r="E9" s="21" t="n">
         <v>454909</v>
       </c>
-      <c r="F9" s="19" t="n">
+      <c r="F9" s="22" t="n">
         <v>454909</v>
       </c>
-      <c r="G9" s="19" t="n">
+      <c r="G9" s="22" t="n">
         <v>454909</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="ALR9" s="6"/>
-      <c r="ALS9" s="6"/>
-      <c r="ALT9" s="6"/>
-      <c r="ALU9" s="6"/>
-      <c r="ALV9" s="6"/>
-      <c r="ALW9" s="6"/>
-      <c r="ALX9" s="6"/>
-      <c r="ALY9" s="6"/>
-      <c r="ALZ9" s="6"/>
-      <c r="AMA9" s="6"/>
-      <c r="AMB9" s="6"/>
-      <c r="AMC9" s="6"/>
-      <c r="AMD9" s="6"/>
-      <c r="AME9" s="6"/>
-      <c r="AMF9" s="6"/>
-      <c r="AMG9" s="6"/>
-      <c r="AMH9" s="6"/>
-      <c r="AMI9" s="6"/>
-      <c r="AMJ9" s="6"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="ALR9" s="7"/>
+      <c r="ALS9" s="7"/>
+      <c r="ALT9" s="7"/>
+      <c r="ALU9" s="7"/>
+      <c r="ALV9" s="7"/>
+      <c r="ALW9" s="7"/>
+      <c r="ALX9" s="7"/>
+      <c r="ALY9" s="7"/>
+      <c r="ALZ9" s="7"/>
+      <c r="AMA9" s="7"/>
+      <c r="AMB9" s="7"/>
+      <c r="AMC9" s="7"/>
+      <c r="AMD9" s="7"/>
+      <c r="AME9" s="7"/>
+      <c r="AMF9" s="7"/>
+      <c r="AMG9" s="7"/>
+      <c r="AMH9" s="7"/>
+      <c r="AMI9" s="7"/>
+      <c r="AMJ9" s="7"/>
     </row>
-    <row r="10" s="9" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+    <row r="10" s="10" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
         <v>1042</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>1036</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>1043</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>1044</v>
       </c>
-      <c r="E10" s="19" t="n">
+      <c r="E10" s="21" t="n">
         <v>52.0775912</v>
       </c>
-      <c r="F10" s="19" t="n">
+      <c r="F10" s="22" t="n">
         <v>52.0775912</v>
       </c>
-      <c r="G10" s="19" t="n">
+      <c r="G10" s="22" t="n">
         <v>52.0775912</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="ALR10" s="6"/>
-      <c r="ALS10" s="6"/>
-      <c r="ALT10" s="6"/>
-      <c r="ALU10" s="6"/>
-      <c r="ALV10" s="6"/>
-      <c r="ALW10" s="6"/>
-      <c r="ALX10" s="6"/>
-      <c r="ALY10" s="6"/>
-      <c r="ALZ10" s="6"/>
-      <c r="AMA10" s="6"/>
-      <c r="AMB10" s="6"/>
-      <c r="AMC10" s="6"/>
-      <c r="AMD10" s="6"/>
-      <c r="AME10" s="6"/>
-      <c r="AMF10" s="6"/>
-      <c r="AMG10" s="6"/>
-      <c r="AMH10" s="6"/>
-      <c r="AMI10" s="6"/>
-      <c r="AMJ10" s="6"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="ALR10" s="7"/>
+      <c r="ALS10" s="7"/>
+      <c r="ALT10" s="7"/>
+      <c r="ALU10" s="7"/>
+      <c r="ALV10" s="7"/>
+      <c r="ALW10" s="7"/>
+      <c r="ALX10" s="7"/>
+      <c r="ALY10" s="7"/>
+      <c r="ALZ10" s="7"/>
+      <c r="AMA10" s="7"/>
+      <c r="AMB10" s="7"/>
+      <c r="AMC10" s="7"/>
+      <c r="AMD10" s="7"/>
+      <c r="AME10" s="7"/>
+      <c r="AMF10" s="7"/>
+      <c r="AMG10" s="7"/>
+      <c r="AMH10" s="7"/>
+      <c r="AMI10" s="7"/>
+      <c r="AMJ10" s="7"/>
     </row>
-    <row r="11" s="9" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+    <row r="11" s="10" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="s">
         <v>1045</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>1036</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>1046</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>1044</v>
       </c>
-      <c r="E11" s="19" t="n">
+      <c r="E11" s="21" t="n">
         <v>4.3166395</v>
       </c>
-      <c r="F11" s="19" t="n">
+      <c r="F11" s="22" t="n">
         <v>4.3166395</v>
       </c>
-      <c r="G11" s="19" t="n">
+      <c r="G11" s="22" t="n">
         <v>4.3166395</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="ALR11" s="6"/>
-      <c r="ALS11" s="6"/>
-      <c r="ALT11" s="6"/>
-      <c r="ALU11" s="6"/>
-      <c r="ALV11" s="6"/>
-      <c r="ALW11" s="6"/>
-      <c r="ALX11" s="6"/>
-      <c r="ALY11" s="6"/>
-      <c r="ALZ11" s="6"/>
-      <c r="AMA11" s="6"/>
-      <c r="AMB11" s="6"/>
-      <c r="AMC11" s="6"/>
-      <c r="AMD11" s="6"/>
-      <c r="AME11" s="6"/>
-      <c r="AMF11" s="6"/>
-      <c r="AMG11" s="6"/>
-      <c r="AMH11" s="6"/>
-      <c r="AMI11" s="6"/>
-      <c r="AMJ11" s="6"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="ALR11" s="7"/>
+      <c r="ALS11" s="7"/>
+      <c r="ALT11" s="7"/>
+      <c r="ALU11" s="7"/>
+      <c r="ALV11" s="7"/>
+      <c r="ALW11" s="7"/>
+      <c r="ALX11" s="7"/>
+      <c r="ALY11" s="7"/>
+      <c r="ALZ11" s="7"/>
+      <c r="AMA11" s="7"/>
+      <c r="AMB11" s="7"/>
+      <c r="AMC11" s="7"/>
+      <c r="AMD11" s="7"/>
+      <c r="AME11" s="7"/>
+      <c r="AMF11" s="7"/>
+      <c r="AMG11" s="7"/>
+      <c r="AMH11" s="7"/>
+      <c r="AMI11" s="7"/>
+      <c r="AMJ11" s="7"/>
     </row>
-    <row r="12" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
+    <row r="12" s="10" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="29" t="s">
         <v>1047</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="30" t="s">
         <v>1011</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>1048</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="15" t="s">
         <v>1049</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="31" t="s">
         <v>1050</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="31" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G12" s="31" t="s">
         <v>1051</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="ALR12" s="7"/>
+      <c r="ALS12" s="7"/>
+      <c r="ALT12" s="7"/>
+      <c r="ALU12" s="7"/>
+      <c r="ALV12" s="7"/>
+      <c r="ALW12" s="7"/>
+      <c r="ALX12" s="7"/>
+      <c r="ALY12" s="7"/>
+      <c r="ALZ12" s="7"/>
+      <c r="AMA12" s="7"/>
+      <c r="AMB12" s="7"/>
+      <c r="AMC12" s="7"/>
+      <c r="AMD12" s="7"/>
+      <c r="AME12" s="7"/>
+      <c r="AMF12" s="7"/>
+      <c r="AMG12" s="7"/>
+      <c r="AMH12" s="7"/>
+      <c r="AMI12" s="7"/>
+      <c r="AMJ12" s="7"/>
+    </row>
+    <row r="13" s="10" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="29" t="s">
         <v>1052</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="ALR12" s="6"/>
-      <c r="ALS12" s="6"/>
-      <c r="ALT12" s="6"/>
-      <c r="ALU12" s="6"/>
-      <c r="ALV12" s="6"/>
-      <c r="ALW12" s="6"/>
-      <c r="ALX12" s="6"/>
-      <c r="ALY12" s="6"/>
-      <c r="ALZ12" s="6"/>
-      <c r="AMA12" s="6"/>
-      <c r="AMB12" s="6"/>
-      <c r="AMC12" s="6"/>
-      <c r="AMD12" s="6"/>
-      <c r="AME12" s="6"/>
-      <c r="AMF12" s="6"/>
-      <c r="AMG12" s="6"/>
-      <c r="AMH12" s="6"/>
-      <c r="AMI12" s="6"/>
-      <c r="AMJ12" s="6"/>
+      <c r="B13" s="30" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="ALR13" s="7"/>
+      <c r="ALS13" s="7"/>
+      <c r="ALT13" s="7"/>
+      <c r="ALU13" s="7"/>
+      <c r="ALV13" s="7"/>
+      <c r="ALW13" s="7"/>
+      <c r="ALX13" s="7"/>
+      <c r="ALY13" s="7"/>
+      <c r="ALZ13" s="7"/>
+      <c r="AMA13" s="7"/>
+      <c r="AMB13" s="7"/>
+      <c r="AMC13" s="7"/>
+      <c r="AMD13" s="7"/>
+      <c r="AME13" s="7"/>
+      <c r="AMF13" s="7"/>
+      <c r="AMG13" s="7"/>
+      <c r="AMH13" s="7"/>
+      <c r="AMI13" s="7"/>
+      <c r="AMJ13" s="7"/>
     </row>
-    <row r="13" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B13" s="25" t="s">
+    <row r="14" s="10" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>1011</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G13" s="26" t="s">
+      <c r="C14" s="16" t="s">
         <v>1056</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="ALR13" s="6"/>
-      <c r="ALS13" s="6"/>
-      <c r="ALT13" s="6"/>
-      <c r="ALU13" s="6"/>
-      <c r="ALV13" s="6"/>
-      <c r="ALW13" s="6"/>
-      <c r="ALX13" s="6"/>
-      <c r="ALY13" s="6"/>
-      <c r="ALZ13" s="6"/>
-      <c r="AMA13" s="6"/>
-      <c r="AMB13" s="6"/>
-      <c r="AMC13" s="6"/>
-      <c r="AMD13" s="6"/>
-      <c r="AME13" s="6"/>
-      <c r="AMF13" s="6"/>
-      <c r="AMG13" s="6"/>
-      <c r="AMH13" s="6"/>
-      <c r="AMI13" s="6"/>
-      <c r="AMJ13" s="6"/>
+      <c r="D14" s="15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="ALR14" s="7"/>
+      <c r="ALS14" s="7"/>
+      <c r="ALT14" s="7"/>
+      <c r="ALU14" s="7"/>
+      <c r="ALV14" s="7"/>
+      <c r="ALW14" s="7"/>
+      <c r="ALX14" s="7"/>
+      <c r="ALY14" s="7"/>
+      <c r="ALZ14" s="7"/>
+      <c r="AMA14" s="7"/>
+      <c r="AMB14" s="7"/>
+      <c r="AMC14" s="7"/>
+      <c r="AMD14" s="7"/>
+      <c r="AME14" s="7"/>
+      <c r="AMF14" s="7"/>
+      <c r="AMG14" s="7"/>
+      <c r="AMH14" s="7"/>
+      <c r="AMI14" s="7"/>
+      <c r="AMJ14" s="7"/>
     </row>
-    <row r="14" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
+    <row r="15" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>1057</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="E15" s="21" t="s">
         <v>1011</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="F15" s="22" t="s">
         <v>1011</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="G15" s="22" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="ALR15" s="7"/>
+      <c r="ALS15" s="7"/>
+      <c r="ALT15" s="7"/>
+      <c r="ALU15" s="7"/>
+      <c r="ALV15" s="7"/>
+      <c r="ALW15" s="7"/>
+      <c r="ALX15" s="7"/>
+      <c r="ALY15" s="7"/>
+      <c r="ALZ15" s="7"/>
+      <c r="AMA15" s="7"/>
+      <c r="AMB15" s="7"/>
+      <c r="AMC15" s="7"/>
+      <c r="AMD15" s="7"/>
+      <c r="AME15" s="7"/>
+      <c r="AMF15" s="7"/>
+      <c r="AMG15" s="7"/>
+      <c r="AMH15" s="7"/>
+      <c r="AMI15" s="7"/>
+      <c r="AMJ15" s="7"/>
+    </row>
+    <row r="16" s="10" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="33" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="ALR16" s="7"/>
+      <c r="ALS16" s="7"/>
+      <c r="ALT16" s="7"/>
+      <c r="ALU16" s="7"/>
+      <c r="ALV16" s="7"/>
+      <c r="ALW16" s="7"/>
+      <c r="ALX16" s="7"/>
+      <c r="ALY16" s="7"/>
+      <c r="ALZ16" s="7"/>
+      <c r="AMA16" s="7"/>
+      <c r="AMB16" s="7"/>
+      <c r="AMC16" s="7"/>
+      <c r="AMD16" s="7"/>
+      <c r="AME16" s="7"/>
+      <c r="AMF16" s="7"/>
+      <c r="AMG16" s="7"/>
+      <c r="AMH16" s="7"/>
+      <c r="AMI16" s="7"/>
+      <c r="AMJ16" s="7"/>
+    </row>
+    <row r="17" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>1011</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="F17" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>1023</v>
       </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="ALR14" s="6"/>
-      <c r="ALS14" s="6"/>
-      <c r="ALT14" s="6"/>
-      <c r="ALU14" s="6"/>
-      <c r="ALV14" s="6"/>
-      <c r="ALW14" s="6"/>
-      <c r="ALX14" s="6"/>
-      <c r="ALY14" s="6"/>
-      <c r="ALZ14" s="6"/>
-      <c r="AMA14" s="6"/>
-      <c r="AMB14" s="6"/>
-      <c r="AMC14" s="6"/>
-      <c r="AMD14" s="6"/>
-      <c r="AME14" s="6"/>
-      <c r="AMF14" s="6"/>
-      <c r="AMG14" s="6"/>
-      <c r="AMH14" s="6"/>
-      <c r="AMI14" s="6"/>
-      <c r="AMJ14" s="6"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="ALR17" s="7"/>
+      <c r="ALS17" s="7"/>
+      <c r="ALT17" s="7"/>
+      <c r="ALU17" s="7"/>
+      <c r="ALV17" s="7"/>
+      <c r="ALW17" s="7"/>
+      <c r="ALX17" s="7"/>
+      <c r="ALY17" s="7"/>
+      <c r="ALZ17" s="7"/>
+      <c r="AMA17" s="7"/>
+      <c r="AMB17" s="7"/>
+      <c r="AMC17" s="7"/>
+      <c r="AMD17" s="7"/>
+      <c r="AME17" s="7"/>
+      <c r="AMF17" s="7"/>
+      <c r="AMG17" s="7"/>
+      <c r="AMH17" s="7"/>
+      <c r="AMI17" s="7"/>
+      <c r="AMJ17" s="7"/>
     </row>
-    <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B15" s="14" t="s">
+    <row r="18" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>1023</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E15" s="19" t="s">
+      <c r="C18" s="16" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="ALR18" s="7"/>
+      <c r="ALS18" s="7"/>
+      <c r="ALT18" s="7"/>
+      <c r="ALU18" s="7"/>
+      <c r="ALV18" s="7"/>
+      <c r="ALW18" s="7"/>
+      <c r="ALX18" s="7"/>
+      <c r="ALY18" s="7"/>
+      <c r="ALZ18" s="7"/>
+      <c r="AMA18" s="7"/>
+      <c r="AMB18" s="7"/>
+      <c r="AMC18" s="7"/>
+      <c r="AMD18" s="7"/>
+      <c r="AME18" s="7"/>
+      <c r="AMF18" s="7"/>
+      <c r="AMG18" s="7"/>
+      <c r="AMH18" s="7"/>
+      <c r="AMI18" s="7"/>
+      <c r="AMJ18" s="7"/>
+    </row>
+    <row r="19" s="10" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>1011</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F19" s="22" t="s">
         <v>1011</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G19" s="22" t="s">
         <v>1023</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="ALR15" s="6"/>
-      <c r="ALS15" s="6"/>
-      <c r="ALT15" s="6"/>
-      <c r="ALU15" s="6"/>
-      <c r="ALV15" s="6"/>
-      <c r="ALW15" s="6"/>
-      <c r="ALX15" s="6"/>
-      <c r="ALY15" s="6"/>
-      <c r="ALZ15" s="6"/>
-      <c r="AMA15" s="6"/>
-      <c r="AMB15" s="6"/>
-      <c r="AMC15" s="6"/>
-      <c r="AMD15" s="6"/>
-      <c r="AME15" s="6"/>
-      <c r="AMF15" s="6"/>
-      <c r="AMG15" s="6"/>
-      <c r="AMH15" s="6"/>
-      <c r="AMI15" s="6"/>
-      <c r="AMJ15" s="6"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="ALR19" s="7"/>
+      <c r="ALS19" s="7"/>
+      <c r="ALT19" s="7"/>
+      <c r="ALU19" s="7"/>
+      <c r="ALV19" s="7"/>
+      <c r="ALW19" s="7"/>
+      <c r="ALX19" s="7"/>
+      <c r="ALY19" s="7"/>
+      <c r="ALZ19" s="7"/>
+      <c r="AMA19" s="7"/>
+      <c r="AMB19" s="7"/>
+      <c r="AMC19" s="7"/>
+      <c r="AMD19" s="7"/>
+      <c r="AME19" s="7"/>
+      <c r="AMF19" s="7"/>
+      <c r="AMG19" s="7"/>
+      <c r="AMH19" s="7"/>
+      <c r="AMI19" s="7"/>
+      <c r="AMJ19" s="7"/>
     </row>
-    <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B16" s="14" t="s">
+    <row r="20" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>1023</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="C20" s="16" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>1011</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F20" s="22" t="s">
         <v>1011</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G20" s="22" t="s">
         <v>1023</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="ALR16" s="6"/>
-      <c r="ALS16" s="6"/>
-      <c r="ALT16" s="6"/>
-      <c r="ALU16" s="6"/>
-      <c r="ALV16" s="6"/>
-      <c r="ALW16" s="6"/>
-      <c r="ALX16" s="6"/>
-      <c r="ALY16" s="6"/>
-      <c r="ALZ16" s="6"/>
-      <c r="AMA16" s="6"/>
-      <c r="AMB16" s="6"/>
-      <c r="AMC16" s="6"/>
-      <c r="AMD16" s="6"/>
-      <c r="AME16" s="6"/>
-      <c r="AMF16" s="6"/>
-      <c r="AMG16" s="6"/>
-      <c r="AMH16" s="6"/>
-      <c r="AMI16" s="6"/>
-      <c r="AMJ16" s="6"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="ALR20" s="7"/>
+      <c r="ALS20" s="7"/>
+      <c r="ALT20" s="7"/>
+      <c r="ALU20" s="7"/>
+      <c r="ALV20" s="7"/>
+      <c r="ALW20" s="7"/>
+      <c r="ALX20" s="7"/>
+      <c r="ALY20" s="7"/>
+      <c r="ALZ20" s="7"/>
+      <c r="AMA20" s="7"/>
+      <c r="AMB20" s="7"/>
+      <c r="AMC20" s="7"/>
+      <c r="AMD20" s="7"/>
+      <c r="AME20" s="7"/>
+      <c r="AMF20" s="7"/>
+      <c r="AMG20" s="7"/>
+      <c r="AMH20" s="7"/>
+      <c r="AMI20" s="7"/>
+      <c r="AMJ20" s="7"/>
     </row>
-    <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B17" s="14" t="s">
+    <row r="21" s="10" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>1023</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E17" s="19" t="s">
+      <c r="C21" s="32" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>1011</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F21" s="22" t="s">
         <v>1011</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G21" s="22" t="s">
         <v>1023</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="ALR17" s="6"/>
-      <c r="ALS17" s="6"/>
-      <c r="ALT17" s="6"/>
-      <c r="ALU17" s="6"/>
-      <c r="ALV17" s="6"/>
-      <c r="ALW17" s="6"/>
-      <c r="ALX17" s="6"/>
-      <c r="ALY17" s="6"/>
-      <c r="ALZ17" s="6"/>
-      <c r="AMA17" s="6"/>
-      <c r="AMB17" s="6"/>
-      <c r="AMC17" s="6"/>
-      <c r="AMD17" s="6"/>
-      <c r="AME17" s="6"/>
-      <c r="AMF17" s="6"/>
-      <c r="AMG17" s="6"/>
-      <c r="AMH17" s="6"/>
-      <c r="AMI17" s="6"/>
-      <c r="AMJ17" s="6"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="ALR21" s="7"/>
+      <c r="ALS21" s="7"/>
+      <c r="ALT21" s="7"/>
+      <c r="ALU21" s="7"/>
+      <c r="ALV21" s="7"/>
+      <c r="ALW21" s="7"/>
+      <c r="ALX21" s="7"/>
+      <c r="ALY21" s="7"/>
+      <c r="ALZ21" s="7"/>
+      <c r="AMA21" s="7"/>
+      <c r="AMB21" s="7"/>
+      <c r="AMC21" s="7"/>
+      <c r="AMD21" s="7"/>
+      <c r="AME21" s="7"/>
+      <c r="AMF21" s="7"/>
+      <c r="AMG21" s="7"/>
+      <c r="AMH21" s="7"/>
+      <c r="AMI21" s="7"/>
+      <c r="AMJ21" s="7"/>
     </row>
-    <row r="18" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B18" s="14" t="s">
+    <row r="22" s="10" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>1023</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G18" s="19" t="s">
+      <c r="C22" s="16" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>1023</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="ALR18" s="6"/>
-      <c r="ALS18" s="6"/>
-      <c r="ALT18" s="6"/>
-      <c r="ALU18" s="6"/>
-      <c r="ALV18" s="6"/>
-      <c r="ALW18" s="6"/>
-      <c r="ALX18" s="6"/>
-      <c r="ALY18" s="6"/>
-      <c r="ALZ18" s="6"/>
-      <c r="AMA18" s="6"/>
-      <c r="AMB18" s="6"/>
-      <c r="AMC18" s="6"/>
-      <c r="AMD18" s="6"/>
-      <c r="AME18" s="6"/>
-      <c r="AMF18" s="6"/>
-      <c r="AMG18" s="6"/>
-      <c r="AMH18" s="6"/>
-      <c r="AMI18" s="6"/>
-      <c r="AMJ18" s="6"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="ALR22" s="7"/>
+      <c r="ALS22" s="7"/>
+      <c r="ALT22" s="7"/>
+      <c r="ALU22" s="7"/>
+      <c r="ALV22" s="7"/>
+      <c r="ALW22" s="7"/>
+      <c r="ALX22" s="7"/>
+      <c r="ALY22" s="7"/>
+      <c r="ALZ22" s="7"/>
+      <c r="AMA22" s="7"/>
+      <c r="AMB22" s="7"/>
+      <c r="AMC22" s="7"/>
+      <c r="AMD22" s="7"/>
+      <c r="AME22" s="7"/>
+      <c r="AMF22" s="7"/>
+      <c r="AMG22" s="7"/>
+      <c r="AMH22" s="7"/>
+      <c r="AMI22" s="7"/>
+      <c r="AMJ22" s="7"/>
     </row>
-    <row r="19" s="9" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B19" s="14" t="s">
+    <row r="23" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>1023</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="C23" s="16" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>1011</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F23" s="22" t="s">
         <v>1011</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G23" s="22" t="s">
         <v>1023</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="ALR19" s="6"/>
-      <c r="ALS19" s="6"/>
-      <c r="ALT19" s="6"/>
-      <c r="ALU19" s="6"/>
-      <c r="ALV19" s="6"/>
-      <c r="ALW19" s="6"/>
-      <c r="ALX19" s="6"/>
-      <c r="ALY19" s="6"/>
-      <c r="ALZ19" s="6"/>
-      <c r="AMA19" s="6"/>
-      <c r="AMB19" s="6"/>
-      <c r="AMC19" s="6"/>
-      <c r="AMD19" s="6"/>
-      <c r="AME19" s="6"/>
-      <c r="AMF19" s="6"/>
-      <c r="AMG19" s="6"/>
-      <c r="AMH19" s="6"/>
-      <c r="AMI19" s="6"/>
-      <c r="AMJ19" s="6"/>
-    </row>
-    <row r="20" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="ALR20" s="6"/>
-      <c r="ALS20" s="6"/>
-      <c r="ALT20" s="6"/>
-      <c r="ALU20" s="6"/>
-      <c r="ALV20" s="6"/>
-      <c r="ALW20" s="6"/>
-      <c r="ALX20" s="6"/>
-      <c r="ALY20" s="6"/>
-      <c r="ALZ20" s="6"/>
-      <c r="AMA20" s="6"/>
-      <c r="AMB20" s="6"/>
-      <c r="AMC20" s="6"/>
-      <c r="AMD20" s="6"/>
-      <c r="AME20" s="6"/>
-      <c r="AMF20" s="6"/>
-      <c r="AMG20" s="6"/>
-      <c r="AMH20" s="6"/>
-      <c r="AMI20" s="6"/>
-      <c r="AMJ20" s="6"/>
-    </row>
-    <row r="21" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="ALR21" s="6"/>
-      <c r="ALS21" s="6"/>
-      <c r="ALT21" s="6"/>
-      <c r="ALU21" s="6"/>
-      <c r="ALV21" s="6"/>
-      <c r="ALW21" s="6"/>
-      <c r="ALX21" s="6"/>
-      <c r="ALY21" s="6"/>
-      <c r="ALZ21" s="6"/>
-      <c r="AMA21" s="6"/>
-      <c r="AMB21" s="6"/>
-      <c r="AMC21" s="6"/>
-      <c r="AMD21" s="6"/>
-      <c r="AME21" s="6"/>
-      <c r="AMF21" s="6"/>
-      <c r="AMG21" s="6"/>
-      <c r="AMH21" s="6"/>
-      <c r="AMI21" s="6"/>
-      <c r="AMJ21" s="6"/>
-    </row>
-    <row r="22" s="9" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="ALR22" s="6"/>
-      <c r="ALS22" s="6"/>
-      <c r="ALT22" s="6"/>
-      <c r="ALU22" s="6"/>
-      <c r="ALV22" s="6"/>
-      <c r="ALW22" s="6"/>
-      <c r="ALX22" s="6"/>
-      <c r="ALY22" s="6"/>
-      <c r="ALZ22" s="6"/>
-      <c r="AMA22" s="6"/>
-      <c r="AMB22" s="6"/>
-      <c r="AMC22" s="6"/>
-      <c r="AMD22" s="6"/>
-      <c r="AME22" s="6"/>
-      <c r="AMF22" s="6"/>
-      <c r="AMG22" s="6"/>
-      <c r="AMH22" s="6"/>
-      <c r="AMI22" s="6"/>
-      <c r="AMJ22" s="6"/>
-    </row>
-    <row r="23" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="ALR23" s="6"/>
-      <c r="ALS23" s="6"/>
-      <c r="ALT23" s="6"/>
-      <c r="ALU23" s="6"/>
-      <c r="ALV23" s="6"/>
-      <c r="ALW23" s="6"/>
-      <c r="ALX23" s="6"/>
-      <c r="ALY23" s="6"/>
-      <c r="ALZ23" s="6"/>
-      <c r="AMA23" s="6"/>
-      <c r="AMB23" s="6"/>
-      <c r="AMC23" s="6"/>
-      <c r="AMD23" s="6"/>
-      <c r="AME23" s="6"/>
-      <c r="AMF23" s="6"/>
-      <c r="AMG23" s="6"/>
-      <c r="AMH23" s="6"/>
-      <c r="AMI23" s="6"/>
-      <c r="AMJ23" s="6"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="ALR23" s="7"/>
+      <c r="ALS23" s="7"/>
+      <c r="ALT23" s="7"/>
+      <c r="ALU23" s="7"/>
+      <c r="ALV23" s="7"/>
+      <c r="ALW23" s="7"/>
+      <c r="ALX23" s="7"/>
+      <c r="ALY23" s="7"/>
+      <c r="ALZ23" s="7"/>
+      <c r="AMA23" s="7"/>
+      <c r="AMB23" s="7"/>
+      <c r="AMC23" s="7"/>
+      <c r="AMD23" s="7"/>
+      <c r="AME23" s="7"/>
+      <c r="AMF23" s="7"/>
+      <c r="AMG23" s="7"/>
+      <c r="AMH23" s="7"/>
+      <c r="AMI23" s="7"/>
+      <c r="AMJ23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>1082</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>1023</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>1083</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E24" s="19" t="s">
+      <c r="D24" s="15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>1011</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="22" t="s">
         <v>1011</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="22" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="s">
         <v>1084</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>1023</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>1085</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E25" s="19" t="s">
+      <c r="D25" s="15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>1011</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="22" t="s">
         <v>1011</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="22" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
+    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="29" t="s">
         <v>1086</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="30" t="s">
         <v>1023</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>1087</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="30" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="7"/>
+      <c r="BB26" s="7"/>
+      <c r="BC26" s="7"/>
+      <c r="BD26" s="7"/>
+      <c r="BE26" s="7"/>
+      <c r="BF26" s="7"/>
+      <c r="BG26" s="7"/>
+      <c r="BH26" s="7"/>
+      <c r="BI26" s="7"/>
+      <c r="BJ26" s="7"/>
+      <c r="BK26" s="7"/>
+      <c r="BL26" s="7"/>
+      <c r="BM26" s="7"/>
+      <c r="BN26" s="7"/>
+      <c r="BO26" s="7"/>
+      <c r="BP26" s="7"/>
+      <c r="BQ26" s="7"/>
+      <c r="BR26" s="7"/>
+      <c r="BS26" s="7"/>
+      <c r="BT26" s="7"/>
+      <c r="BU26" s="7"/>
+      <c r="BV26" s="7"/>
+      <c r="BW26" s="7"/>
+      <c r="BX26" s="7"/>
+      <c r="BY26" s="7"/>
+      <c r="BZ26" s="7"/>
+      <c r="CA26" s="7"/>
+      <c r="CB26" s="7"/>
+      <c r="CC26" s="7"/>
+      <c r="CD26" s="7"/>
+      <c r="CE26" s="7"/>
+      <c r="CF26" s="7"/>
+      <c r="CG26" s="7"/>
+      <c r="CH26" s="7"/>
+      <c r="CI26" s="7"/>
+      <c r="CJ26" s="7"/>
+      <c r="CK26" s="7"/>
+      <c r="CL26" s="7"/>
+      <c r="CM26" s="7"/>
+      <c r="CN26" s="7"/>
+      <c r="CO26" s="7"/>
+      <c r="CP26" s="7"/>
+      <c r="CQ26" s="7"/>
+      <c r="CR26" s="7"/>
+      <c r="CS26" s="7"/>
+      <c r="CT26" s="7"/>
+      <c r="CU26" s="7"/>
+      <c r="CV26" s="7"/>
+      <c r="CW26" s="7"/>
+      <c r="CX26" s="7"/>
+      <c r="CY26" s="7"/>
+      <c r="CZ26" s="7"/>
+      <c r="DA26" s="7"/>
+      <c r="DB26" s="7"/>
+      <c r="DC26" s="7"/>
+      <c r="DD26" s="7"/>
+      <c r="DE26" s="7"/>
+      <c r="DF26" s="7"/>
+      <c r="DG26" s="7"/>
+      <c r="DH26" s="7"/>
+      <c r="DI26" s="7"/>
+      <c r="DJ26" s="7"/>
+      <c r="DK26" s="7"/>
+      <c r="DL26" s="7"/>
+      <c r="DM26" s="7"/>
+      <c r="DN26" s="7"/>
+      <c r="DO26" s="7"/>
+      <c r="DP26" s="7"/>
+      <c r="DQ26" s="7"/>
+      <c r="DR26" s="7"/>
+      <c r="DS26" s="7"/>
+      <c r="DT26" s="7"/>
+      <c r="DU26" s="7"/>
+      <c r="DV26" s="7"/>
+      <c r="DW26" s="7"/>
+      <c r="DX26" s="7"/>
+      <c r="DY26" s="7"/>
+      <c r="DZ26" s="7"/>
+      <c r="EA26" s="7"/>
+      <c r="EB26" s="7"/>
+      <c r="EC26" s="7"/>
+      <c r="ED26" s="7"/>
+      <c r="EE26" s="7"/>
+      <c r="EF26" s="7"/>
+      <c r="EG26" s="7"/>
+      <c r="EH26" s="7"/>
+      <c r="EI26" s="7"/>
+      <c r="EJ26" s="7"/>
+      <c r="EK26" s="7"/>
+      <c r="EL26" s="7"/>
+      <c r="EM26" s="7"/>
+      <c r="EN26" s="7"/>
+      <c r="EO26" s="7"/>
+      <c r="EP26" s="7"/>
+      <c r="EQ26" s="7"/>
+      <c r="ER26" s="7"/>
+      <c r="ES26" s="7"/>
+      <c r="ET26" s="7"/>
+      <c r="EU26" s="7"/>
+      <c r="EV26" s="7"/>
+      <c r="EW26" s="7"/>
+      <c r="EX26" s="7"/>
+      <c r="EY26" s="7"/>
+      <c r="EZ26" s="7"/>
+      <c r="FA26" s="7"/>
+      <c r="FB26" s="7"/>
+      <c r="FC26" s="7"/>
+      <c r="FD26" s="7"/>
+      <c r="FE26" s="7"/>
+      <c r="FF26" s="7"/>
+      <c r="FG26" s="7"/>
+      <c r="FH26" s="7"/>
+      <c r="FI26" s="7"/>
+      <c r="FJ26" s="7"/>
+      <c r="FK26" s="7"/>
+      <c r="FL26" s="7"/>
+      <c r="FM26" s="7"/>
+      <c r="FN26" s="7"/>
+      <c r="FO26" s="7"/>
+      <c r="FP26" s="7"/>
+      <c r="FQ26" s="7"/>
+      <c r="FR26" s="7"/>
+      <c r="FS26" s="7"/>
+      <c r="FT26" s="7"/>
+      <c r="FU26" s="7"/>
+      <c r="FV26" s="7"/>
+      <c r="FW26" s="7"/>
+      <c r="FX26" s="7"/>
+      <c r="FY26" s="7"/>
+      <c r="FZ26" s="7"/>
+      <c r="GA26" s="7"/>
+      <c r="GB26" s="7"/>
+      <c r="GC26" s="7"/>
+      <c r="GD26" s="7"/>
+      <c r="GE26" s="7"/>
+      <c r="GF26" s="7"/>
+      <c r="GG26" s="7"/>
+      <c r="GH26" s="7"/>
+      <c r="GI26" s="7"/>
+      <c r="GJ26" s="7"/>
+      <c r="GK26" s="7"/>
+      <c r="GL26" s="7"/>
+      <c r="GM26" s="7"/>
+      <c r="GN26" s="7"/>
+      <c r="GO26" s="7"/>
+      <c r="GP26" s="7"/>
+      <c r="GQ26" s="7"/>
+      <c r="GR26" s="7"/>
+      <c r="GS26" s="7"/>
+      <c r="GT26" s="7"/>
+      <c r="GU26" s="7"/>
+      <c r="GV26" s="7"/>
+      <c r="GW26" s="7"/>
+      <c r="GX26" s="7"/>
+      <c r="GY26" s="7"/>
+      <c r="GZ26" s="7"/>
+      <c r="HA26" s="7"/>
+      <c r="HB26" s="7"/>
+      <c r="HC26" s="7"/>
+      <c r="HD26" s="7"/>
+      <c r="HE26" s="7"/>
+      <c r="HF26" s="7"/>
+      <c r="HG26" s="7"/>
+      <c r="HH26" s="7"/>
+      <c r="HI26" s="7"/>
+      <c r="HJ26" s="7"/>
+      <c r="HK26" s="7"/>
+      <c r="HL26" s="7"/>
+      <c r="HM26" s="7"/>
+      <c r="HN26" s="7"/>
+      <c r="HO26" s="7"/>
+      <c r="HP26" s="7"/>
+      <c r="HQ26" s="7"/>
+      <c r="HR26" s="7"/>
+      <c r="HS26" s="7"/>
+      <c r="HT26" s="7"/>
+      <c r="HU26" s="7"/>
+      <c r="HV26" s="7"/>
+      <c r="HW26" s="7"/>
+      <c r="HX26" s="7"/>
+      <c r="HY26" s="7"/>
+      <c r="HZ26" s="7"/>
+      <c r="IA26" s="7"/>
+      <c r="IB26" s="7"/>
+      <c r="IC26" s="7"/>
+      <c r="ID26" s="7"/>
+      <c r="IE26" s="7"/>
+      <c r="IF26" s="7"/>
+      <c r="IG26" s="7"/>
+      <c r="IH26" s="7"/>
+      <c r="II26" s="7"/>
+      <c r="IJ26" s="7"/>
+      <c r="IK26" s="7"/>
+      <c r="IL26" s="7"/>
+      <c r="IM26" s="7"/>
+      <c r="IN26" s="7"/>
+      <c r="IO26" s="7"/>
+      <c r="IP26" s="7"/>
+      <c r="IQ26" s="7"/>
+      <c r="IR26" s="7"/>
+      <c r="IS26" s="7"/>
+      <c r="IT26" s="7"/>
+      <c r="IU26" s="7"/>
+      <c r="IV26" s="7"/>
+      <c r="IW26" s="7"/>
+      <c r="IX26" s="7"/>
+      <c r="IY26" s="7"/>
+      <c r="IZ26" s="7"/>
+      <c r="JA26" s="7"/>
+      <c r="JB26" s="7"/>
+      <c r="JC26" s="7"/>
+      <c r="JD26" s="7"/>
+      <c r="JE26" s="7"/>
+      <c r="JF26" s="7"/>
+      <c r="JG26" s="7"/>
+      <c r="JH26" s="7"/>
+      <c r="JI26" s="7"/>
+      <c r="JJ26" s="7"/>
+      <c r="JK26" s="7"/>
+      <c r="JL26" s="7"/>
+      <c r="JM26" s="7"/>
+      <c r="JN26" s="7"/>
+      <c r="JO26" s="7"/>
+      <c r="JP26" s="7"/>
+      <c r="JQ26" s="7"/>
+      <c r="JR26" s="7"/>
+      <c r="JS26" s="7"/>
+      <c r="JT26" s="7"/>
+      <c r="JU26" s="7"/>
+      <c r="JV26" s="7"/>
+      <c r="JW26" s="7"/>
+      <c r="JX26" s="7"/>
+      <c r="JY26" s="7"/>
+      <c r="JZ26" s="7"/>
+      <c r="KA26" s="7"/>
+      <c r="KB26" s="7"/>
+      <c r="KC26" s="7"/>
+      <c r="KD26" s="7"/>
+      <c r="KE26" s="7"/>
+      <c r="KF26" s="7"/>
+      <c r="KG26" s="7"/>
+      <c r="KH26" s="7"/>
+      <c r="KI26" s="7"/>
+      <c r="KJ26" s="7"/>
+      <c r="KK26" s="7"/>
+      <c r="KL26" s="7"/>
+      <c r="KM26" s="7"/>
+      <c r="KN26" s="7"/>
+      <c r="KO26" s="7"/>
+      <c r="KP26" s="7"/>
+      <c r="KQ26" s="7"/>
+      <c r="KR26" s="7"/>
+      <c r="KS26" s="7"/>
+      <c r="KT26" s="7"/>
+      <c r="KU26" s="7"/>
+      <c r="KV26" s="7"/>
+      <c r="KW26" s="7"/>
+      <c r="KX26" s="7"/>
+      <c r="KY26" s="7"/>
+      <c r="KZ26" s="7"/>
+      <c r="LA26" s="7"/>
+      <c r="LB26" s="7"/>
+      <c r="LC26" s="7"/>
+      <c r="LD26" s="7"/>
+      <c r="LE26" s="7"/>
+      <c r="LF26" s="7"/>
+      <c r="LG26" s="7"/>
+      <c r="LH26" s="7"/>
+      <c r="LI26" s="7"/>
+      <c r="LJ26" s="7"/>
+      <c r="LK26" s="7"/>
+      <c r="LL26" s="7"/>
+      <c r="LM26" s="7"/>
+      <c r="LN26" s="7"/>
+      <c r="LO26" s="7"/>
+      <c r="LP26" s="7"/>
+      <c r="LQ26" s="7"/>
+      <c r="LR26" s="7"/>
+      <c r="LS26" s="7"/>
+      <c r="LT26" s="7"/>
+      <c r="LU26" s="7"/>
+      <c r="LV26" s="7"/>
+      <c r="LW26" s="7"/>
+      <c r="LX26" s="7"/>
+      <c r="LY26" s="7"/>
+      <c r="LZ26" s="7"/>
+      <c r="MA26" s="7"/>
+      <c r="MB26" s="7"/>
+      <c r="MC26" s="7"/>
+      <c r="MD26" s="7"/>
+      <c r="ME26" s="7"/>
+      <c r="MF26" s="7"/>
+      <c r="MG26" s="7"/>
+      <c r="MH26" s="7"/>
+      <c r="MI26" s="7"/>
+      <c r="MJ26" s="7"/>
+      <c r="MK26" s="7"/>
+      <c r="ML26" s="7"/>
+      <c r="MM26" s="7"/>
+      <c r="MN26" s="7"/>
+      <c r="MO26" s="7"/>
+      <c r="MP26" s="7"/>
+      <c r="MQ26" s="7"/>
+      <c r="MR26" s="7"/>
+      <c r="MS26" s="7"/>
+      <c r="MT26" s="7"/>
+      <c r="MU26" s="7"/>
+      <c r="MV26" s="7"/>
+      <c r="MW26" s="7"/>
+      <c r="MX26" s="7"/>
+      <c r="MY26" s="7"/>
+      <c r="MZ26" s="7"/>
+      <c r="NA26" s="7"/>
+      <c r="NB26" s="7"/>
+      <c r="NC26" s="7"/>
+      <c r="ND26" s="7"/>
+      <c r="NE26" s="7"/>
+      <c r="NF26" s="7"/>
+      <c r="NG26" s="7"/>
+      <c r="NH26" s="7"/>
+      <c r="NI26" s="7"/>
+      <c r="NJ26" s="7"/>
+      <c r="NK26" s="7"/>
+      <c r="NL26" s="7"/>
+      <c r="NM26" s="7"/>
+      <c r="NN26" s="7"/>
+      <c r="NO26" s="7"/>
+      <c r="NP26" s="7"/>
+      <c r="NQ26" s="7"/>
+      <c r="NR26" s="7"/>
+      <c r="NS26" s="7"/>
+      <c r="NT26" s="7"/>
+      <c r="NU26" s="7"/>
+      <c r="NV26" s="7"/>
+      <c r="NW26" s="7"/>
+      <c r="NX26" s="7"/>
+      <c r="NY26" s="7"/>
+      <c r="NZ26" s="7"/>
+      <c r="OA26" s="7"/>
+      <c r="OB26" s="7"/>
+      <c r="OC26" s="7"/>
+      <c r="OD26" s="7"/>
+      <c r="OE26" s="7"/>
+      <c r="OF26" s="7"/>
+      <c r="OG26" s="7"/>
+      <c r="OH26" s="7"/>
+      <c r="OI26" s="7"/>
+      <c r="OJ26" s="7"/>
+      <c r="OK26" s="7"/>
+      <c r="OL26" s="7"/>
+      <c r="OM26" s="7"/>
+      <c r="ON26" s="7"/>
+      <c r="OO26" s="7"/>
+      <c r="OP26" s="7"/>
+      <c r="OQ26" s="7"/>
+      <c r="OR26" s="7"/>
+      <c r="OS26" s="7"/>
+      <c r="OT26" s="7"/>
+      <c r="OU26" s="7"/>
+      <c r="OV26" s="7"/>
+      <c r="OW26" s="7"/>
+      <c r="OX26" s="7"/>
+      <c r="OY26" s="7"/>
+      <c r="OZ26" s="7"/>
+      <c r="PA26" s="7"/>
+      <c r="PB26" s="7"/>
+      <c r="PC26" s="7"/>
+      <c r="PD26" s="7"/>
+      <c r="PE26" s="7"/>
+      <c r="PF26" s="7"/>
+      <c r="PG26" s="7"/>
+      <c r="PH26" s="7"/>
+      <c r="PI26" s="7"/>
+      <c r="PJ26" s="7"/>
+      <c r="PK26" s="7"/>
+      <c r="PL26" s="7"/>
+      <c r="PM26" s="7"/>
+      <c r="PN26" s="7"/>
+      <c r="PO26" s="7"/>
+      <c r="PP26" s="7"/>
+      <c r="PQ26" s="7"/>
+      <c r="PR26" s="7"/>
+      <c r="PS26" s="7"/>
+      <c r="PT26" s="7"/>
+      <c r="PU26" s="7"/>
+      <c r="PV26" s="7"/>
+      <c r="PW26" s="7"/>
+      <c r="PX26" s="7"/>
+      <c r="PY26" s="7"/>
+      <c r="PZ26" s="7"/>
+      <c r="QA26" s="7"/>
+      <c r="QB26" s="7"/>
+      <c r="QC26" s="7"/>
+      <c r="QD26" s="7"/>
+      <c r="QE26" s="7"/>
+      <c r="QF26" s="7"/>
+      <c r="QG26" s="7"/>
+      <c r="QH26" s="7"/>
+      <c r="QI26" s="7"/>
+      <c r="QJ26" s="7"/>
+      <c r="QK26" s="7"/>
+      <c r="QL26" s="7"/>
+      <c r="QM26" s="7"/>
+      <c r="QN26" s="7"/>
+      <c r="QO26" s="7"/>
+      <c r="QP26" s="7"/>
+      <c r="QQ26" s="7"/>
+      <c r="QR26" s="7"/>
+      <c r="QS26" s="7"/>
+      <c r="QT26" s="7"/>
+      <c r="QU26" s="7"/>
+      <c r="QV26" s="7"/>
+      <c r="QW26" s="7"/>
+      <c r="QX26" s="7"/>
+      <c r="QY26" s="7"/>
+      <c r="QZ26" s="7"/>
+      <c r="RA26" s="7"/>
+      <c r="RB26" s="7"/>
+      <c r="RC26" s="7"/>
+      <c r="RD26" s="7"/>
+      <c r="RE26" s="7"/>
+      <c r="RF26" s="7"/>
+      <c r="RG26" s="7"/>
+      <c r="RH26" s="7"/>
+      <c r="RI26" s="7"/>
+      <c r="RJ26" s="7"/>
+      <c r="RK26" s="7"/>
+      <c r="RL26" s="7"/>
+      <c r="RM26" s="7"/>
+      <c r="RN26" s="7"/>
+      <c r="RO26" s="7"/>
+      <c r="RP26" s="7"/>
+      <c r="RQ26" s="7"/>
+      <c r="RR26" s="7"/>
+      <c r="RS26" s="7"/>
+      <c r="RT26" s="7"/>
+      <c r="RU26" s="7"/>
+      <c r="RV26" s="7"/>
+      <c r="RW26" s="7"/>
+      <c r="RX26" s="7"/>
+      <c r="RY26" s="7"/>
+      <c r="RZ26" s="7"/>
+      <c r="SA26" s="7"/>
+      <c r="SB26" s="7"/>
+      <c r="SC26" s="7"/>
+      <c r="SD26" s="7"/>
+      <c r="SE26" s="7"/>
+      <c r="SF26" s="7"/>
+      <c r="SG26" s="7"/>
+      <c r="SH26" s="7"/>
+      <c r="SI26" s="7"/>
+      <c r="SJ26" s="7"/>
+      <c r="SK26" s="7"/>
+      <c r="SL26" s="7"/>
+      <c r="SM26" s="7"/>
+      <c r="SN26" s="7"/>
+      <c r="SO26" s="7"/>
+      <c r="SP26" s="7"/>
+      <c r="SQ26" s="7"/>
+      <c r="SR26" s="7"/>
+      <c r="SS26" s="7"/>
+      <c r="ST26" s="7"/>
+      <c r="SU26" s="7"/>
+      <c r="SV26" s="7"/>
+      <c r="SW26" s="7"/>
+      <c r="SX26" s="7"/>
+      <c r="SY26" s="7"/>
+      <c r="SZ26" s="7"/>
+      <c r="TA26" s="7"/>
+      <c r="TB26" s="7"/>
+      <c r="TC26" s="7"/>
+      <c r="TD26" s="7"/>
+      <c r="TE26" s="7"/>
+      <c r="TF26" s="7"/>
+      <c r="TG26" s="7"/>
+      <c r="TH26" s="7"/>
+      <c r="TI26" s="7"/>
+      <c r="TJ26" s="7"/>
+      <c r="TK26" s="7"/>
+      <c r="TL26" s="7"/>
+      <c r="TM26" s="7"/>
+      <c r="TN26" s="7"/>
+      <c r="TO26" s="7"/>
+      <c r="TP26" s="7"/>
+      <c r="TQ26" s="7"/>
+      <c r="TR26" s="7"/>
+      <c r="TS26" s="7"/>
+      <c r="TT26" s="7"/>
+      <c r="TU26" s="7"/>
+      <c r="TV26" s="7"/>
+      <c r="TW26" s="7"/>
+      <c r="TX26" s="7"/>
+      <c r="TY26" s="7"/>
+      <c r="TZ26" s="7"/>
+      <c r="UA26" s="7"/>
+      <c r="UB26" s="7"/>
+      <c r="UC26" s="7"/>
+      <c r="UD26" s="7"/>
+      <c r="UE26" s="7"/>
+      <c r="UF26" s="7"/>
+      <c r="UG26" s="7"/>
+      <c r="UH26" s="7"/>
+      <c r="UI26" s="7"/>
+      <c r="UJ26" s="7"/>
+      <c r="UK26" s="7"/>
+      <c r="UL26" s="7"/>
+      <c r="UM26" s="7"/>
+      <c r="UN26" s="7"/>
+      <c r="UO26" s="7"/>
+      <c r="UP26" s="7"/>
+      <c r="UQ26" s="7"/>
+      <c r="UR26" s="7"/>
+      <c r="US26" s="7"/>
+      <c r="UT26" s="7"/>
+      <c r="UU26" s="7"/>
+      <c r="UV26" s="7"/>
+      <c r="UW26" s="7"/>
+      <c r="UX26" s="7"/>
+      <c r="UY26" s="7"/>
+      <c r="UZ26" s="7"/>
+      <c r="VA26" s="7"/>
+      <c r="VB26" s="7"/>
+      <c r="VC26" s="7"/>
+      <c r="VD26" s="7"/>
+      <c r="VE26" s="7"/>
+      <c r="VF26" s="7"/>
+      <c r="VG26" s="7"/>
+      <c r="VH26" s="7"/>
+      <c r="VI26" s="7"/>
+      <c r="VJ26" s="7"/>
+      <c r="VK26" s="7"/>
+      <c r="VL26" s="7"/>
+      <c r="VM26" s="7"/>
+      <c r="VN26" s="7"/>
+      <c r="VO26" s="7"/>
+      <c r="VP26" s="7"/>
+      <c r="VQ26" s="7"/>
+      <c r="VR26" s="7"/>
+      <c r="VS26" s="7"/>
+      <c r="VT26" s="7"/>
+      <c r="VU26" s="7"/>
+      <c r="VV26" s="7"/>
+      <c r="VW26" s="7"/>
+      <c r="VX26" s="7"/>
+      <c r="VY26" s="7"/>
+      <c r="VZ26" s="7"/>
+      <c r="WA26" s="7"/>
+      <c r="WB26" s="7"/>
+      <c r="WC26" s="7"/>
+      <c r="WD26" s="7"/>
+      <c r="WE26" s="7"/>
+      <c r="WF26" s="7"/>
+      <c r="WG26" s="7"/>
+      <c r="WH26" s="7"/>
+      <c r="WI26" s="7"/>
+      <c r="WJ26" s="7"/>
+      <c r="WK26" s="7"/>
+      <c r="WL26" s="7"/>
+      <c r="WM26" s="7"/>
+      <c r="WN26" s="7"/>
+      <c r="WO26" s="7"/>
+      <c r="WP26" s="7"/>
+      <c r="WQ26" s="7"/>
+      <c r="WR26" s="7"/>
+      <c r="WS26" s="7"/>
+      <c r="WT26" s="7"/>
+      <c r="WU26" s="7"/>
+      <c r="WV26" s="7"/>
+      <c r="WW26" s="7"/>
+      <c r="WX26" s="7"/>
+      <c r="WY26" s="7"/>
+      <c r="WZ26" s="7"/>
+      <c r="XA26" s="7"/>
+      <c r="XB26" s="7"/>
+      <c r="XC26" s="7"/>
+      <c r="XD26" s="7"/>
+      <c r="XE26" s="7"/>
+      <c r="XF26" s="7"/>
+      <c r="XG26" s="7"/>
+      <c r="XH26" s="7"/>
+      <c r="XI26" s="7"/>
+      <c r="XJ26" s="7"/>
+      <c r="XK26" s="7"/>
+      <c r="XL26" s="7"/>
+      <c r="XM26" s="7"/>
+      <c r="XN26" s="7"/>
+      <c r="XO26" s="7"/>
+      <c r="XP26" s="7"/>
+      <c r="XQ26" s="7"/>
+      <c r="XR26" s="7"/>
+      <c r="XS26" s="7"/>
+      <c r="XT26" s="7"/>
+      <c r="XU26" s="7"/>
+      <c r="XV26" s="7"/>
+      <c r="XW26" s="7"/>
+      <c r="XX26" s="7"/>
+      <c r="XY26" s="7"/>
+      <c r="XZ26" s="7"/>
+      <c r="YA26" s="7"/>
+      <c r="YB26" s="7"/>
+      <c r="YC26" s="7"/>
+      <c r="YD26" s="7"/>
+      <c r="YE26" s="7"/>
+      <c r="YF26" s="7"/>
+      <c r="YG26" s="7"/>
+      <c r="YH26" s="7"/>
+      <c r="YI26" s="7"/>
+      <c r="YJ26" s="7"/>
+      <c r="YK26" s="7"/>
+      <c r="YL26" s="7"/>
+      <c r="YM26" s="7"/>
+      <c r="YN26" s="7"/>
+      <c r="YO26" s="7"/>
+      <c r="YP26" s="7"/>
+      <c r="YQ26" s="7"/>
+      <c r="YR26" s="7"/>
+      <c r="YS26" s="7"/>
+      <c r="YT26" s="7"/>
+      <c r="YU26" s="7"/>
+      <c r="YV26" s="7"/>
+      <c r="YW26" s="7"/>
+      <c r="YX26" s="7"/>
+      <c r="YY26" s="7"/>
+      <c r="YZ26" s="7"/>
+      <c r="ZA26" s="7"/>
+      <c r="ZB26" s="7"/>
+      <c r="ZC26" s="7"/>
+      <c r="ZD26" s="7"/>
+      <c r="ZE26" s="7"/>
+      <c r="ZF26" s="7"/>
+      <c r="ZG26" s="7"/>
+      <c r="ZH26" s="7"/>
+      <c r="ZI26" s="7"/>
+      <c r="ZJ26" s="7"/>
+      <c r="ZK26" s="7"/>
+      <c r="ZL26" s="7"/>
+      <c r="ZM26" s="7"/>
+      <c r="ZN26" s="7"/>
+      <c r="ZO26" s="7"/>
+      <c r="ZP26" s="7"/>
+      <c r="ZQ26" s="7"/>
+      <c r="ZR26" s="7"/>
+      <c r="ZS26" s="7"/>
+      <c r="ZT26" s="7"/>
+      <c r="ZU26" s="7"/>
+      <c r="ZV26" s="7"/>
+      <c r="ZW26" s="7"/>
+      <c r="ZX26" s="7"/>
+      <c r="ZY26" s="7"/>
+      <c r="ZZ26" s="7"/>
+      <c r="AAA26" s="7"/>
+      <c r="AAB26" s="7"/>
+      <c r="AAC26" s="7"/>
+      <c r="AAD26" s="7"/>
+      <c r="AAE26" s="7"/>
+      <c r="AAF26" s="7"/>
+      <c r="AAG26" s="7"/>
+      <c r="AAH26" s="7"/>
+      <c r="AAI26" s="7"/>
+      <c r="AAJ26" s="7"/>
+      <c r="AAK26" s="7"/>
+      <c r="AAL26" s="7"/>
+      <c r="AAM26" s="7"/>
+      <c r="AAN26" s="7"/>
+      <c r="AAO26" s="7"/>
+      <c r="AAP26" s="7"/>
+      <c r="AAQ26" s="7"/>
+      <c r="AAR26" s="7"/>
+      <c r="AAS26" s="7"/>
+      <c r="AAT26" s="7"/>
+      <c r="AAU26" s="7"/>
+      <c r="AAV26" s="7"/>
+      <c r="AAW26" s="7"/>
+      <c r="AAX26" s="7"/>
+      <c r="AAY26" s="7"/>
+      <c r="AAZ26" s="7"/>
+      <c r="ABA26" s="7"/>
+      <c r="ABB26" s="7"/>
+      <c r="ABC26" s="7"/>
+      <c r="ABD26" s="7"/>
+      <c r="ABE26" s="7"/>
+      <c r="ABF26" s="7"/>
+      <c r="ABG26" s="7"/>
+      <c r="ABH26" s="7"/>
+      <c r="ABI26" s="7"/>
+      <c r="ABJ26" s="7"/>
+      <c r="ABK26" s="7"/>
+      <c r="ABL26" s="7"/>
+      <c r="ABM26" s="7"/>
+      <c r="ABN26" s="7"/>
+      <c r="ABO26" s="7"/>
+      <c r="ABP26" s="7"/>
+      <c r="ABQ26" s="7"/>
+      <c r="ABR26" s="7"/>
+      <c r="ABS26" s="7"/>
+      <c r="ABT26" s="7"/>
+      <c r="ABU26" s="7"/>
+      <c r="ABV26" s="7"/>
+      <c r="ABW26" s="7"/>
+      <c r="ABX26" s="7"/>
+      <c r="ABY26" s="7"/>
+      <c r="ABZ26" s="7"/>
+      <c r="ACA26" s="7"/>
+      <c r="ACB26" s="7"/>
+      <c r="ACC26" s="7"/>
+      <c r="ACD26" s="7"/>
+      <c r="ACE26" s="7"/>
+      <c r="ACF26" s="7"/>
+      <c r="ACG26" s="7"/>
+      <c r="ACH26" s="7"/>
+      <c r="ACI26" s="7"/>
+      <c r="ACJ26" s="7"/>
+      <c r="ACK26" s="7"/>
+      <c r="ACL26" s="7"/>
+      <c r="ACM26" s="7"/>
+      <c r="ACN26" s="7"/>
+      <c r="ACO26" s="7"/>
+      <c r="ACP26" s="7"/>
+      <c r="ACQ26" s="7"/>
+      <c r="ACR26" s="7"/>
+      <c r="ACS26" s="7"/>
+      <c r="ACT26" s="7"/>
+      <c r="ACU26" s="7"/>
+      <c r="ACV26" s="7"/>
+      <c r="ACW26" s="7"/>
+      <c r="ACX26" s="7"/>
+      <c r="ACY26" s="7"/>
+      <c r="ACZ26" s="7"/>
+      <c r="ADA26" s="7"/>
+      <c r="ADB26" s="7"/>
+      <c r="ADC26" s="7"/>
+      <c r="ADD26" s="7"/>
+      <c r="ADE26" s="7"/>
+      <c r="ADF26" s="7"/>
+      <c r="ADG26" s="7"/>
+      <c r="ADH26" s="7"/>
+      <c r="ADI26" s="7"/>
+      <c r="ADJ26" s="7"/>
+      <c r="ADK26" s="7"/>
+      <c r="ADL26" s="7"/>
+      <c r="ADM26" s="7"/>
+      <c r="ADN26" s="7"/>
+      <c r="ADO26" s="7"/>
+      <c r="ADP26" s="7"/>
+      <c r="ADQ26" s="7"/>
+      <c r="ADR26" s="7"/>
+      <c r="ADS26" s="7"/>
+      <c r="ADT26" s="7"/>
+      <c r="ADU26" s="7"/>
+      <c r="ADV26" s="7"/>
+      <c r="ADW26" s="7"/>
+      <c r="ADX26" s="7"/>
+      <c r="ADY26" s="7"/>
+      <c r="ADZ26" s="7"/>
+      <c r="AEA26" s="7"/>
+      <c r="AEB26" s="7"/>
+      <c r="AEC26" s="7"/>
+      <c r="AED26" s="7"/>
+      <c r="AEE26" s="7"/>
+      <c r="AEF26" s="7"/>
+      <c r="AEG26" s="7"/>
+      <c r="AEH26" s="7"/>
+      <c r="AEI26" s="7"/>
+      <c r="AEJ26" s="7"/>
+      <c r="AEK26" s="7"/>
+      <c r="AEL26" s="7"/>
+      <c r="AEM26" s="7"/>
+      <c r="AEN26" s="7"/>
+      <c r="AEO26" s="7"/>
+      <c r="AEP26" s="7"/>
+      <c r="AEQ26" s="7"/>
+      <c r="AER26" s="7"/>
+      <c r="AES26" s="7"/>
+      <c r="AET26" s="7"/>
+      <c r="AEU26" s="7"/>
+      <c r="AEV26" s="7"/>
+      <c r="AEW26" s="7"/>
+      <c r="AEX26" s="7"/>
+      <c r="AEY26" s="7"/>
+      <c r="AEZ26" s="7"/>
+      <c r="AFA26" s="7"/>
+      <c r="AFB26" s="7"/>
+      <c r="AFC26" s="7"/>
+      <c r="AFD26" s="7"/>
+      <c r="AFE26" s="7"/>
+      <c r="AFF26" s="7"/>
+      <c r="AFG26" s="7"/>
+      <c r="AFH26" s="7"/>
+      <c r="AFI26" s="7"/>
+      <c r="AFJ26" s="7"/>
+      <c r="AFK26" s="7"/>
+      <c r="AFL26" s="7"/>
+      <c r="AFM26" s="7"/>
+      <c r="AFN26" s="7"/>
+      <c r="AFO26" s="7"/>
+      <c r="AFP26" s="7"/>
+      <c r="AFQ26" s="7"/>
+      <c r="AFR26" s="7"/>
+      <c r="AFS26" s="7"/>
+      <c r="AFT26" s="7"/>
+      <c r="AFU26" s="7"/>
+      <c r="AFV26" s="7"/>
+      <c r="AFW26" s="7"/>
+      <c r="AFX26" s="7"/>
+      <c r="AFY26" s="7"/>
+      <c r="AFZ26" s="7"/>
+      <c r="AGA26" s="7"/>
+      <c r="AGB26" s="7"/>
+      <c r="AGC26" s="7"/>
+      <c r="AGD26" s="7"/>
+      <c r="AGE26" s="7"/>
+      <c r="AGF26" s="7"/>
+      <c r="AGG26" s="7"/>
+      <c r="AGH26" s="7"/>
+      <c r="AGI26" s="7"/>
+      <c r="AGJ26" s="7"/>
+      <c r="AGK26" s="7"/>
+      <c r="AGL26" s="7"/>
+      <c r="AGM26" s="7"/>
+      <c r="AGN26" s="7"/>
+      <c r="AGO26" s="7"/>
+      <c r="AGP26" s="7"/>
+      <c r="AGQ26" s="7"/>
+      <c r="AGR26" s="7"/>
+      <c r="AGS26" s="7"/>
+      <c r="AGT26" s="7"/>
+      <c r="AGU26" s="7"/>
+      <c r="AGV26" s="7"/>
+      <c r="AGW26" s="7"/>
+      <c r="AGX26" s="7"/>
+      <c r="AGY26" s="7"/>
+      <c r="AGZ26" s="7"/>
+      <c r="AHA26" s="7"/>
+      <c r="AHB26" s="7"/>
+      <c r="AHC26" s="7"/>
+      <c r="AHD26" s="7"/>
+      <c r="AHE26" s="7"/>
+      <c r="AHF26" s="7"/>
+      <c r="AHG26" s="7"/>
+      <c r="AHH26" s="7"/>
+      <c r="AHI26" s="7"/>
+      <c r="AHJ26" s="7"/>
+      <c r="AHK26" s="7"/>
+      <c r="AHL26" s="7"/>
+      <c r="AHM26" s="7"/>
+      <c r="AHN26" s="7"/>
+      <c r="AHO26" s="7"/>
+      <c r="AHP26" s="7"/>
+      <c r="AHQ26" s="7"/>
+      <c r="AHR26" s="7"/>
+      <c r="AHS26" s="7"/>
+      <c r="AHT26" s="7"/>
+      <c r="AHU26" s="7"/>
+      <c r="AHV26" s="7"/>
+      <c r="AHW26" s="7"/>
+      <c r="AHX26" s="7"/>
+      <c r="AHY26" s="7"/>
+      <c r="AHZ26" s="7"/>
+      <c r="AIA26" s="7"/>
+      <c r="AIB26" s="7"/>
+      <c r="AIC26" s="7"/>
+      <c r="AID26" s="7"/>
+      <c r="AIE26" s="7"/>
+      <c r="AIF26" s="7"/>
+      <c r="AIG26" s="7"/>
+      <c r="AIH26" s="7"/>
+      <c r="AII26" s="7"/>
+      <c r="AIJ26" s="7"/>
+      <c r="AIK26" s="7"/>
+      <c r="AIL26" s="7"/>
+      <c r="AIM26" s="7"/>
+      <c r="AIN26" s="7"/>
+      <c r="AIO26" s="7"/>
+      <c r="AIP26" s="7"/>
+      <c r="AIQ26" s="7"/>
+      <c r="AIR26" s="7"/>
+      <c r="AIS26" s="7"/>
+      <c r="AIT26" s="7"/>
+      <c r="AIU26" s="7"/>
+      <c r="AIV26" s="7"/>
+      <c r="AIW26" s="7"/>
+      <c r="AIX26" s="7"/>
+      <c r="AIY26" s="7"/>
+      <c r="AIZ26" s="7"/>
+      <c r="AJA26" s="7"/>
+      <c r="AJB26" s="7"/>
+      <c r="AJC26" s="7"/>
+      <c r="AJD26" s="7"/>
+      <c r="AJE26" s="7"/>
+      <c r="AJF26" s="7"/>
+      <c r="AJG26" s="7"/>
+      <c r="AJH26" s="7"/>
+      <c r="AJI26" s="7"/>
+      <c r="AJJ26" s="7"/>
+      <c r="AJK26" s="7"/>
+      <c r="AJL26" s="7"/>
+      <c r="AJM26" s="7"/>
+      <c r="AJN26" s="7"/>
+      <c r="AJO26" s="7"/>
+      <c r="AJP26" s="7"/>
+      <c r="AJQ26" s="7"/>
+      <c r="AJR26" s="7"/>
+      <c r="AJS26" s="7"/>
+      <c r="AJT26" s="7"/>
+      <c r="AJU26" s="7"/>
+      <c r="AJV26" s="7"/>
+      <c r="AJW26" s="7"/>
+      <c r="AJX26" s="7"/>
+      <c r="AJY26" s="7"/>
+      <c r="AJZ26" s="7"/>
+      <c r="AKA26" s="7"/>
+      <c r="AKB26" s="7"/>
+      <c r="AKC26" s="7"/>
+      <c r="AKD26" s="7"/>
+      <c r="AKE26" s="7"/>
+      <c r="AKF26" s="7"/>
+      <c r="AKG26" s="7"/>
+      <c r="AKH26" s="7"/>
+      <c r="AKI26" s="7"/>
+      <c r="AKJ26" s="7"/>
+      <c r="AKK26" s="7"/>
+      <c r="AKL26" s="7"/>
+      <c r="AKM26" s="7"/>
+      <c r="AKN26" s="7"/>
+      <c r="AKO26" s="7"/>
+      <c r="AKP26" s="7"/>
+      <c r="AKQ26" s="7"/>
+      <c r="AKR26" s="7"/>
+      <c r="AKS26" s="7"/>
+      <c r="AKT26" s="7"/>
+      <c r="AKU26" s="7"/>
+      <c r="AKV26" s="7"/>
+      <c r="AKW26" s="7"/>
+      <c r="AKX26" s="7"/>
+      <c r="AKY26" s="7"/>
+      <c r="AKZ26" s="7"/>
+      <c r="ALA26" s="7"/>
+      <c r="ALB26" s="7"/>
+      <c r="ALC26" s="7"/>
+      <c r="ALD26" s="7"/>
+      <c r="ALE26" s="7"/>
+      <c r="ALF26" s="7"/>
+      <c r="ALG26" s="7"/>
+      <c r="ALH26" s="7"/>
+      <c r="ALI26" s="7"/>
+      <c r="ALJ26" s="7"/>
+      <c r="ALK26" s="7"/>
+      <c r="ALL26" s="7"/>
+      <c r="ALM26" s="7"/>
+      <c r="ALN26" s="7"/>
+      <c r="ALO26" s="7"/>
+      <c r="ALP26" s="7"/>
+      <c r="ALQ26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="s">
         <v>1088</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="B27" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>1089</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>1089</v>
-      </c>
-      <c r="G26" s="19"/>
+      <c r="D27" s="15" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G27" s="22"/>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B27" s="14" t="s">
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>1023</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D27" s="14" t="s">
+      <c r="C28" s="16" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>1033</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B28" s="14" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>1023</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E28" s="27" t="s">
+      <c r="C29" s="16" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E29" s="39" t="s">
         <v>1011</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F29" s="40" t="s">
         <v>1011</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G29" s="40" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="28" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B29" s="15" t="s">
+    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="41" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>1011</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E29" s="29" t="s">
+      <c r="C30" s="16" t="s">
         <v>1097</v>
       </c>
-      <c r="F29" s="29" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>1097</v>
+      <c r="D30" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>1099</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B30" s="15" t="s">
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="41" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>1011</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="C31" s="16" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>1025</v>
       </c>
-      <c r="E30" s="29" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>1100</v>
+      <c r="E31" s="44" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
@@ -8910,597 +10056,597 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="19.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="17.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="70.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="30" width="79.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="30" width="69.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="30" width="75.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="30" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="19.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="17.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="45" width="70.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="45" width="79.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="45" width="69.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="45" width="75.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="45" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="34"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="52" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>1011</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E2" s="34" t="s">
+      <c r="C2" s="54" t="s">
         <v>1104</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
+      <c r="D2" s="54" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
     </row>
-    <row r="3" s="6" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B3" s="30" t="s">
+    <row r="3" s="57" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="56" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>1023</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E3" s="30" t="s">
+      <c r="C3" s="32" t="s">
         <v>1108</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="D3" s="32" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="59" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B4" s="51" t="s">
         <v>1011</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E4" s="42" t="s">
+      <c r="C4" s="55" t="s">
         <v>1112</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
+      <c r="D4" s="50" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="59" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B5" s="61" t="s">
         <v>1011</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="62" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D5" s="63" t="s">
         <v>1015</v>
       </c>
-      <c r="E5" s="45" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
+      <c r="E5" s="63" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="59" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C6" s="62" t="s">
         <v>1116</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="64" t="s">
         <v>1015</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
+      <c r="E6" s="64" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="59" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B7" s="61" t="s">
         <v>1023</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="62" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D7" s="64" t="s">
         <v>1015</v>
       </c>
-      <c r="E7" s="46" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
+      <c r="E7" s="64" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="59" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B8" s="61" t="s">
         <v>1023</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D8" s="46" t="s">
+      <c r="C8" s="62" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D8" s="64" t="s">
         <v>1015</v>
       </c>
-      <c r="E8" s="46" t="s">
-        <v>1121</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
+      <c r="E8" s="64" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="59" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B9" s="51" t="s">
         <v>1023</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E9" s="42" t="s">
+      <c r="C9" s="55" t="s">
         <v>1125</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
+      <c r="D9" s="50" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="41" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="59" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B10" s="61" t="s">
         <v>1011</v>
       </c>
-      <c r="C10" s="44" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
+      <c r="C10" s="62" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="59" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B11" s="61" t="s">
         <v>1011</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
+      <c r="C11" s="62" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
     </row>
     <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="41" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="59" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B12" s="51" t="s">
         <v>1023</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E12" s="42" t="s">
+      <c r="C12" s="50" t="s">
         <v>1133</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
+      <c r="D12" s="50" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="59" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B13" s="51" t="s">
         <v>1011</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E13" s="47" t="s">
+      <c r="C13" s="50" t="s">
         <v>1137</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
+      <c r="D13" s="50" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="41" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="59" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B14" s="61" t="s">
         <v>1023</v>
       </c>
-      <c r="C14" s="44" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
+      <c r="C14" s="62" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="59" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B15" s="51" t="s">
         <v>1023</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E15" s="21" t="s">
+      <c r="C15" s="50" t="s">
         <v>1143</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
+      <c r="D15" s="50" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B16" s="36" t="s">
+      <c r="A16" s="59" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B16" s="51" t="s">
         <v>1011</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E16" s="50" t="s">
+      <c r="C16" s="50" t="s">
         <v>1147</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
+      <c r="D16" s="69" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="41" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B17" s="36" t="s">
+      <c r="A17" s="59" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B17" s="51" t="s">
         <v>1011</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
+      <c r="C17" s="50" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="41" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B18" s="43" t="s">
+      <c r="A18" s="59" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B18" s="61" t="s">
         <v>1011</v>
       </c>
-      <c r="C18" s="44" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
+      <c r="C18" s="62" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="41" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B19" s="43" t="s">
+      <c r="A19" s="59" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B19" s="61" t="s">
         <v>1023</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="45" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
+      <c r="C19" s="62" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D19" s="66"/>
+      <c r="E19" s="63" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F19" s="49"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
     </row>
     <row r="20" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B20" s="36" t="s">
+      <c r="A20" s="59" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B20" s="51" t="s">
         <v>1023</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E20" s="42" t="s">
+      <c r="C20" s="50" t="s">
         <v>1158</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
+      <c r="D20" s="60" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B21" s="30" t="s">
+      <c r="A21" s="56" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B21" s="45" t="s">
         <v>1011</v>
       </c>
-      <c r="C21" s="52" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>1161</v>
+      <c r="C21" s="71" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
